--- a/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
@@ -1674,11 +1674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="38912000"/>
-        <c:axId val="38913536"/>
+        <c:axId val="38780288"/>
+        <c:axId val="38782080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38912000"/>
+        <c:axId val="38780288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,12 +1698,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38913536"/>
+        <c:crossAx val="38782080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38913536"/>
+        <c:axId val="38782080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38912000"/>
+        <c:crossAx val="38780288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4871,11 +4871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137719808"/>
-        <c:axId val="137721344"/>
+        <c:axId val="38788480"/>
+        <c:axId val="84903040"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="137719808"/>
+        <c:axId val="38788480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,14 +4895,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137721344"/>
+        <c:crossAx val="84903040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="137721344"/>
+        <c:axId val="84903040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +4913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137719808"/>
+        <c:crossAx val="38788480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I9" s="29">
         <f ca="1">_xll.ohTrigger(Contribution!M1)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -6015,9 +6015,9 @@
         <f t="shared" ref="E2:E36" si="0">UPPER(Currency)&amp;B2&amp;C2&amp;D2&amp;"_Quote"</f>
         <v>EURSND_Quote</v>
       </c>
-      <c r="F2" s="77" t="e">
-        <f ca="1">_xll.qlFraRateHelper("W"&amp;Currency&amp;B2&amp;C2&amp;D2,E2,"2d",OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F2" s="77" t="str">
+        <f>_xll.qlFraRateHelper(EvaluationDate,"W"&amp;Currency&amp;B2&amp;C2&amp;D2,,,E2,"2d",OvernightIndex)</f>
+        <v>WEURSND#0000</v>
       </c>
       <c r="G2" s="78" t="b">
         <v>0</v>
@@ -7324,35 +7324,35 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="G38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="H38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="I38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -33182,7 +33182,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="23">
         <f ca="1">_xll.ohTrigger(M3:M4)</f>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="N1" s="144"/>
     </row>
@@ -33256,7 +33256,7 @@
       </c>
       <c r="K3" s="40" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J3,,TRUE)</f>
-        <v>EURJump1_SYNTHON_Quote#0009</v>
+        <v>EURJump1_SYNTHON_Quote#0001</v>
       </c>
       <c r="L3" s="40" t="e">
         <f t="array" aca="1" ref="L3:L15" ca="1">QuoteLive</f>
@@ -33308,7 +33308,7 @@
       </c>
       <c r="K4" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J4,,TRUE)</f>
-        <v>EURJump2_SYNTHON_Quote#0004</v>
+        <v>EURJump2_SYNTHON_Quote#0001</v>
       </c>
       <c r="L4" s="141" t="e">
         <f ca="1"/>
@@ -33360,7 +33360,7 @@
       </c>
       <c r="K5" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J5,,TRUE)</f>
-        <v>EURJump3_SYNTHON_Quote#0002</v>
+        <v>EURJump3_SYNTHON_Quote#0001</v>
       </c>
       <c r="L5" s="141" t="e">
         <f ca="1"/>
@@ -33412,7 +33412,7 @@
       </c>
       <c r="K6" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J6,,TRUE)</f>
-        <v>EURJump4_SYNTHON_Quote#0002</v>
+        <v>EURJump4_SYNTHON_Quote#0001</v>
       </c>
       <c r="L6" s="141" t="e">
         <f ca="1"/>
@@ -33464,7 +33464,7 @@
       </c>
       <c r="K7" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J7,,TRUE)</f>
-        <v>EURJump5_SYNTHON_Quote#0002</v>
+        <v>EURJump5_SYNTHON_Quote#0001</v>
       </c>
       <c r="L7" s="141" t="e">
         <f ca="1"/>
@@ -33516,7 +33516,7 @@
       </c>
       <c r="K8" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J8,,TRUE)</f>
-        <v>EURJump6_SYNTHON_Quote#0002</v>
+        <v>EURJump6_SYNTHON_Quote#0001</v>
       </c>
       <c r="L8" s="141" t="e">
         <f ca="1"/>
@@ -33568,7 +33568,7 @@
       </c>
       <c r="K9" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J9,,TRUE)</f>
-        <v>EURJump7_SYNTHON_Quote#0002</v>
+        <v>EURJump7_SYNTHON_Quote#0001</v>
       </c>
       <c r="L9" s="141" t="e">
         <f ca="1"/>
@@ -33620,7 +33620,7 @@
       </c>
       <c r="K10" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J10,,TRUE)</f>
-        <v>EURJump8_SYNTHON_Quote#0002</v>
+        <v>EURJump8_SYNTHON_Quote#0001</v>
       </c>
       <c r="L10" s="141" t="e">
         <f ca="1"/>
@@ -33672,7 +33672,7 @@
       </c>
       <c r="K11" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J11,,TRUE)</f>
-        <v>EURJump9_SYNTHON_Quote#0002</v>
+        <v>EURJump9_SYNTHON_Quote#0001</v>
       </c>
       <c r="L11" s="141" t="e">
         <f ca="1"/>
@@ -33724,7 +33724,7 @@
       </c>
       <c r="K12" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J12,,TRUE)</f>
-        <v>EURJump10_SYNTHON_Quote#0002</v>
+        <v>EURJump10_SYNTHON_Quote#0001</v>
       </c>
       <c r="L12" s="141" t="e">
         <f ca="1"/>
@@ -33776,7 +33776,7 @@
       </c>
       <c r="K13" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J13,,TRUE)</f>
-        <v>EURJump11_SYNTHON_Quote#0002</v>
+        <v>EURJump11_SYNTHON_Quote#0001</v>
       </c>
       <c r="L13" s="141" t="e">
         <f ca="1"/>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="K14" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J14,,TRUE)</f>
-        <v>EURJump12_SYNTHON_Quote#0002</v>
+        <v>EURJump12_SYNTHON_Quote#0001</v>
       </c>
       <c r="L14" s="141" t="e">
         <f ca="1"/>
@@ -33880,7 +33880,7 @@
       </c>
       <c r="K15" s="142" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J15,,TRUE)</f>
-        <v>EURJump13_SYNTHON_Quote#0002</v>
+        <v>EURJump13_SYNTHON_Quote#0001</v>
       </c>
       <c r="L15" s="142" t="e">
         <f ca="1"/>

--- a/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
@@ -1674,11 +1674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="38780288"/>
-        <c:axId val="38782080"/>
+        <c:axId val="133480448"/>
+        <c:axId val="133481984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38780288"/>
+        <c:axId val="133480448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,12 +1698,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38782080"/>
+        <c:crossAx val="133481984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38782080"/>
+        <c:axId val="133481984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38780288"/>
+        <c:crossAx val="133480448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4871,11 +4871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="38788480"/>
-        <c:axId val="84903040"/>
+        <c:axId val="211976192"/>
+        <c:axId val="211977728"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="38788480"/>
+        <c:axId val="211976192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,14 +4895,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84903040"/>
+        <c:crossAx val="211977728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="84903040"/>
+        <c:axId val="211977728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +4913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38788480"/>
+        <c:crossAx val="211976192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5045,7 +5045,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>1</v>
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="I8" s="60">
         <f>[1]!TriggerCounter</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="58"/>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I9" s="29">
         <f ca="1">_xll.ohTrigger(Contribution!M1)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -5959,15 +5959,13 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="93" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="3" width="4" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7" style="98" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="17.28515625" style="93" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="3" width="4" style="98" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7" style="98" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="21.42578125" style="93" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="98" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="98" customWidth="1"/>
@@ -6038,9 +6036,9 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="125" t="e">
-        <f ca="1">_xll.qlECBNextDate(SettlementDate)</f>
-        <v>#NAME?</v>
+      <c r="A3" s="125">
+        <f>_xll.qlECBnextDate(Trigger,SettlementDate)</f>
+        <v>42256</v>
       </c>
       <c r="B3" s="161" t="s">
         <v>40</v>
@@ -6048,13 +6046,13 @@
       <c r="C3" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="80" t="e">
-        <f ca="1">_xll.qlECBcode(A3)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E3" s="81" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D3" s="80" t="str">
+        <f>_xll.qlECBcode(Trigger,A3)</f>
+        <v>SEP15</v>
+      </c>
+      <c r="E3" s="81" t="str">
+        <f t="shared" si="0"/>
+        <v>EURECBOISSEP15_Quote</v>
       </c>
       <c r="F3" s="81" t="e">
         <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B3&amp;C3&amp;D3,A3,A4,E3,OvernightIndex)</f>
@@ -6081,9 +6079,9 @@
       <c r="L3" s="94"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="125" t="e">
-        <f ca="1">_xll.qlECBNextDate(A3)</f>
-        <v>#NAME?</v>
+      <c r="A4" s="125">
+        <f>_xll.qlECBnextDate(Trigger,A3)</f>
+        <v>42305</v>
       </c>
       <c r="B4" s="162" t="s">
         <v>40</v>
@@ -6091,13 +6089,13 @@
       <c r="C4" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="160" t="e">
-        <f ca="1">_xll.qlECBcode(A4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E4" s="85" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D4" s="160" t="str">
+        <f>_xll.qlECBcode(Trigger,A4)</f>
+        <v>OCT15</v>
+      </c>
+      <c r="E4" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>EURECBOISOCT15_Quote</v>
       </c>
       <c r="F4" s="85" t="e">
         <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B4&amp;C4&amp;D4,A4,A5,E4,OvernightIndex)</f>
@@ -6124,9 +6122,9 @@
       <c r="L4" s="95"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="e">
-        <f ca="1">_xll.qlECBNextDate(A4)</f>
-        <v>#NAME?</v>
+      <c r="A5" s="125">
+        <f>_xll.qlECBnextDate(Trigger,A4)</f>
+        <v>42347</v>
       </c>
       <c r="B5" s="162" t="s">
         <v>40</v>
@@ -6134,13 +6132,13 @@
       <c r="C5" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="160" t="e">
-        <f ca="1">_xll.qlECBcode(A5)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E5" s="85" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D5" s="160" t="str">
+        <f>_xll.qlECBcode(Trigger,A5)</f>
+        <v>DEC15</v>
+      </c>
+      <c r="E5" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>EURECBOISDEC15_Quote</v>
       </c>
       <c r="F5" s="85" t="e">
         <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B5&amp;C5&amp;D5,A5,A6,E5,OvernightIndex)</f>
@@ -6166,9 +6164,9 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="125" t="e">
-        <f ca="1">_xll.qlECBNextDate(A5)</f>
-        <v>#NAME?</v>
+      <c r="A6" s="125">
+        <f>_xll.qlECBnextDate(Trigger,A5)</f>
+        <v>42395</v>
       </c>
       <c r="B6" s="162" t="s">
         <v>40</v>
@@ -6176,13 +6174,13 @@
       <c r="C6" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="160" t="e">
-        <f ca="1">_xll.qlECBcode(A6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E6" s="85" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D6" s="160" t="str">
+        <f>_xll.qlECBcode(Trigger,A6)</f>
+        <v>JAN16</v>
+      </c>
+      <c r="E6" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>EURECBOISJAN16_Quote</v>
       </c>
       <c r="F6" s="85" t="e">
         <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B6&amp;C6&amp;D6,A6,A7,E6,OvernightIndex)</f>
@@ -6208,9 +6206,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="125" t="e">
-        <f ca="1">_xll.qlECBNextDate(A6)</f>
-        <v>#NAME?</v>
+      <c r="A7" s="125">
+        <f>_xll.qlECBnextDate(Trigger,A6)</f>
+        <v>42445</v>
       </c>
       <c r="B7" s="162" t="s">
         <v>40</v>
@@ -6218,13 +6216,13 @@
       <c r="C7" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="160" t="e">
-        <f ca="1">_xll.qlECBcode(A7)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E7" s="85" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D7" s="160" t="str">
+        <f>_xll.qlECBcode(Trigger,A7)</f>
+        <v>MAR16</v>
+      </c>
+      <c r="E7" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>EURECBOISMAR16_Quote</v>
       </c>
       <c r="F7" s="85" t="e">
         <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B7&amp;C7&amp;D7,A7,A8,E7,OvernightIndex)</f>
@@ -6250,9 +6248,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="125" t="e">
-        <f ca="1">_xll.qlECBNextDate(A7)</f>
-        <v>#NAME?</v>
+      <c r="A8" s="125">
+        <f>_xll.qlECBnextDate(Trigger,A7)</f>
+        <v>42487</v>
       </c>
       <c r="B8" s="162" t="s">
         <v>40</v>
@@ -6260,13 +6258,13 @@
       <c r="C8" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="160" t="e">
-        <f ca="1">_xll.qlECBcode(A8)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E8" s="85" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D8" s="160" t="str">
+        <f>_xll.qlECBcode(Trigger,A8)</f>
+        <v>APR16</v>
+      </c>
+      <c r="E8" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>EURECBOISAPR16_Quote</v>
       </c>
       <c r="F8" s="85" t="e">
         <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B8&amp;C8&amp;D8,A8,A9,E8,OvernightIndex)</f>
@@ -6292,9 +6290,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="125" t="e">
-        <f ca="1">_xll.qlECBNextDate(A8)</f>
-        <v>#NAME?</v>
+      <c r="A9" s="125">
+        <f>_xll.qlECBnextDate(Trigger,A8)</f>
+        <v>42529</v>
       </c>
       <c r="B9" s="162" t="s">
         <v>40</v>
@@ -6302,13 +6300,13 @@
       <c r="C9" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D9" s="160" t="e">
-        <f ca="1">_xll.qlECBcode(A9)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E9" s="85" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+      <c r="D9" s="160" t="str">
+        <f>_xll.qlECBcode(Trigger,A9)</f>
+        <v>JUN16</v>
+      </c>
+      <c r="E9" s="85" t="str">
+        <f t="shared" si="0"/>
+        <v>EURECBOISJUN16_Quote</v>
       </c>
       <c r="F9" s="85" t="e">
         <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B9&amp;C9&amp;D9,A9,A10,E9,OvernightIndex)</f>
@@ -6335,8 +6333,8 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="125" t="e">
-        <f ca="1">_xll.qlECBNextDate(A9)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlECBnextDate(Trigger,A9)</f>
+        <v>#NUM!</v>
       </c>
       <c r="B10" s="162" t="s">
         <v>40</v>
@@ -6345,12 +6343,12 @@
         <v>41</v>
       </c>
       <c r="D10" s="160" t="e">
-        <f ca="1">_xll.qlECBcode(A10)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlECBcode(Trigger,A10)</f>
+        <v>#NUM!</v>
       </c>
       <c r="E10" s="85" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
       <c r="F10" s="85" t="e">
         <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B10&amp;C10&amp;D10,A10,A11,E10,OvernightIndex)</f>
@@ -6377,8 +6375,8 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="125" t="e">
-        <f ca="1">_xll.qlECBNextDate(A10)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlECBnextDate(Trigger,A10)</f>
+        <v>#NUM!</v>
       </c>
       <c r="B11" s="162" t="s">
         <v>40</v>
@@ -6387,12 +6385,12 @@
         <v>41</v>
       </c>
       <c r="D11" s="160" t="e">
-        <f ca="1">_xll.qlECBcode(A11)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlECBcode(Trigger,A11)</f>
+        <v>#NUM!</v>
       </c>
       <c r="E11" s="85" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
       <c r="F11" s="85" t="e">
         <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B11&amp;C11&amp;D11,A11,A12,E11,OvernightIndex)</f>
@@ -6419,8 +6417,8 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="125" t="e">
-        <f ca="1">_xll.qlECBNextDate(A11)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlECBnextDate(Trigger,A11)</f>
+        <v>#NUM!</v>
       </c>
       <c r="B12" s="162" t="s">
         <v>40</v>
@@ -6429,12 +6427,12 @@
         <v>41</v>
       </c>
       <c r="D12" s="160" t="e">
-        <f ca="1">_xll.qlECBcode(A12)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlECBcode(Trigger,A12)</f>
+        <v>#NUM!</v>
       </c>
       <c r="E12" s="85" t="e">
-        <f t="shared" ca="1" si="0"/>
-        <v>#NAME?</v>
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
       </c>
       <c r="F12" s="85" t="e">
         <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B12&amp;C12&amp;D12,A12,#REF!,E12,OvernightIndex)</f>
@@ -6467,13 +6465,13 @@
       <c r="C13" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="80" t="e">
-        <f t="array" ref="D13:D17">_xll.qlIMMNextCodes(_xll.qlSettingsEvaluationDate(Trigger)-1,$A13:$A17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E13" s="81" t="e">
+      <c r="D13" s="80" t="str">
+        <f t="array" ref="D13:D17">_xll.qlIMMNextCodes(Trigger,_xll.qlSettingsEvaluationDate(Trigger)-1,$A13:$A17)</f>
+        <v>U5</v>
+      </c>
+      <c r="E13" s="81" t="str">
         <f>Currency&amp;B13&amp;C13&amp;D13&amp;"_Quote"</f>
-        <v>#NUM!</v>
+        <v>EUROISU5_Quote</v>
       </c>
       <c r="F13" s="81" t="e">
         <f ca="1">_xll.qlFuturesRateHelper("W"&amp;Currency&amp;C13&amp;D13,E13,D13,PROPER(Currency)&amp;"ibor3M",0,,Trigger)</f>
@@ -6505,12 +6503,12 @@
       <c r="C14" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="160" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E14" s="85" t="e">
+      <c r="D14" s="160" t="str">
+        <v>Z5</v>
+      </c>
+      <c r="E14" s="85" t="str">
         <f>Currency&amp;B14&amp;C14&amp;D14&amp;"_Quote"</f>
-        <v>#NUM!</v>
+        <v>EUROISZ5_Quote</v>
       </c>
       <c r="F14" s="85" t="e">
         <f ca="1">_xll.qlFuturesRateHelper("W"&amp;Currency&amp;C14&amp;D14,E14,D14,PROPER(Currency)&amp;"ibor3M",0,,Trigger)</f>
@@ -6542,12 +6540,12 @@
       <c r="C15" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="160" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" s="85" t="e">
+      <c r="D15" s="160" t="str">
+        <v>H6</v>
+      </c>
+      <c r="E15" s="85" t="str">
         <f>Currency&amp;B15&amp;C15&amp;D15&amp;"_Quote"</f>
-        <v>#NUM!</v>
+        <v>EUROISH6_Quote</v>
       </c>
       <c r="F15" s="85" t="e">
         <f ca="1">_xll.qlFuturesRateHelper("W"&amp;Currency&amp;C15&amp;D15,E15,D15,PROPER(Currency)&amp;"ibor3M",0,,Trigger)</f>
@@ -6579,12 +6577,12 @@
       <c r="C16" s="162" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="160" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E16" s="85" t="e">
+      <c r="D16" s="160" t="str">
+        <v>M6</v>
+      </c>
+      <c r="E16" s="85" t="str">
         <f>Currency&amp;B16&amp;C16&amp;D16&amp;"_Quote"</f>
-        <v>#NUM!</v>
+        <v>EUROISM6_Quote</v>
       </c>
       <c r="F16" s="85" t="e">
         <f ca="1">_xll.qlFuturesRateHelper("W"&amp;Currency&amp;C16&amp;D16,E16,D16,PROPER(Currency)&amp;"ibor3M",0,,Trigger)</f>
@@ -6616,12 +6614,12 @@
       <c r="C17" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="160" t="e">
-        <v>#NUM!</v>
-      </c>
-      <c r="E17" s="85" t="e">
+      <c r="D17" s="160" t="str">
+        <v>U6</v>
+      </c>
+      <c r="E17" s="85" t="str">
         <f>Currency&amp;B17&amp;C17&amp;D17&amp;"_Quote"</f>
-        <v>#NUM!</v>
+        <v>EUROISU6_Quote</v>
       </c>
       <c r="F17" s="85" t="e">
         <f ca="1">_xll.qlFuturesRateHelper("W"&amp;Currency&amp;C17&amp;D17,E17,D17,PROPER(Currency)&amp;"ibor3M",0,,Trigger)</f>
@@ -7324,35 +7322,35 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="F38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="H38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K38" s="93">
         <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -33182,7 +33180,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="23">
         <f ca="1">_xll.ohTrigger(M3:M4)</f>
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N1" s="144"/>
     </row>

--- a/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
@@ -1674,11 +1674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="133480448"/>
-        <c:axId val="133481984"/>
+        <c:axId val="214941696"/>
+        <c:axId val="214943232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="133480448"/>
+        <c:axId val="214941696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,12 +1698,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="133481984"/>
+        <c:crossAx val="214943232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="133481984"/>
+        <c:axId val="214943232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133480448"/>
+        <c:crossAx val="214941696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4871,11 +4871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="211976192"/>
-        <c:axId val="211977728"/>
+        <c:axId val="221282304"/>
+        <c:axId val="221283840"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="211976192"/>
+        <c:axId val="221282304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,14 +4895,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="211977728"/>
+        <c:crossAx val="221283840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="211977728"/>
+        <c:axId val="221283840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +4913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211976192"/>
+        <c:crossAx val="221282304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5045,7 +5045,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>0</v>
+            <v>4</v>
           </cell>
         </row>
       </sheetData>
@@ -5053,7 +5053,7 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EUR6M#0001</v>
+            <v>EUR6M#0004</v>
           </cell>
         </row>
       </sheetData>
@@ -5088,7 +5088,7 @@
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0001</v>
+            <v>EURTND_Quote#0004</v>
           </cell>
         </row>
       </sheetData>
@@ -5669,7 +5669,7 @@
       </c>
       <c r="I8" s="60">
         <f>[1]!TriggerCounter</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J8" s="58"/>
     </row>
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I9" s="29">
         <f ca="1">_xll.ohTrigger(Contribution!M1)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -5959,13 +5959,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="93" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="3" width="4" style="98" customWidth="1" outlineLevel="1"/>
-    <col min="4" max="4" width="7" style="98" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="93" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="3" width="4" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="4" max="4" width="7" style="98" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="6" width="21.42578125" style="93" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="98" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.85546875" style="98" customWidth="1"/>
@@ -6015,7 +6017,7 @@
       </c>
       <c r="F2" s="77" t="str">
         <f>_xll.qlFraRateHelper(EvaluationDate,"W"&amp;Currency&amp;B2&amp;C2&amp;D2,,,E2,"2d",OvernightIndex)</f>
-        <v>WEURSND#0000</v>
+        <v>WEURSND#0008</v>
       </c>
       <c r="G2" s="78" t="b">
         <v>0</v>
@@ -6054,13 +6056,13 @@
         <f t="shared" si="0"/>
         <v>EURECBOISSEP15_Quote</v>
       </c>
-      <c r="F3" s="81" t="e">
-        <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B3&amp;C3&amp;D3,A3,A4,E3,OvernightIndex)</f>
-        <v>#NAME?</v>
+      <c r="F3" s="81" t="str">
+        <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B3&amp;C3&amp;D3,,,A3,A4,E3,OvernightIndex)</f>
+        <v>WEURECBOISSEP15#0003</v>
       </c>
       <c r="G3" s="82" t="b">
-        <f ca="1">IF(ISERROR(F3),FALSE,TRUE)</f>
-        <v>0</v>
+        <f>IF(ISERROR(F3),FALSE,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="H3" s="83">
         <v>70</v>
@@ -6097,13 +6099,13 @@
         <f t="shared" si="0"/>
         <v>EURECBOISOCT15_Quote</v>
       </c>
-      <c r="F4" s="85" t="e">
-        <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B4&amp;C4&amp;D4,A4,A5,E4,OvernightIndex)</f>
-        <v>#NAME?</v>
+      <c r="F4" s="85" t="str">
+        <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B4&amp;C4&amp;D4,,,A4,A5,E4,OvernightIndex)</f>
+        <v>WEURECBOISOCT15#0003</v>
       </c>
       <c r="G4" s="82" t="b">
-        <f t="shared" ref="G4:G12" ca="1" si="1">IF(ISERROR(F4),FALSE,TRUE)</f>
-        <v>0</v>
+        <f t="shared" ref="G4:G12" si="1">IF(ISERROR(F4),FALSE,TRUE)</f>
+        <v>1</v>
       </c>
       <c r="H4" s="82">
         <v>70</v>
@@ -6140,13 +6142,13 @@
         <f t="shared" si="0"/>
         <v>EURECBOISDEC15_Quote</v>
       </c>
-      <c r="F5" s="85" t="e">
-        <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B5&amp;C5&amp;D5,A5,A6,E5,OvernightIndex)</f>
-        <v>#NAME?</v>
+      <c r="F5" s="85" t="str">
+        <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B5&amp;C5&amp;D5,,,A5,A6,E5,OvernightIndex)</f>
+        <v>WEURECBOISDEC15#0003</v>
       </c>
       <c r="G5" s="82" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H5" s="82">
         <v>70</v>
@@ -6182,13 +6184,13 @@
         <f t="shared" si="0"/>
         <v>EURECBOISJAN16_Quote</v>
       </c>
-      <c r="F6" s="85" t="e">
-        <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B6&amp;C6&amp;D6,A6,A7,E6,OvernightIndex)</f>
-        <v>#NAME?</v>
+      <c r="F6" s="85" t="str">
+        <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B6&amp;C6&amp;D6,,,A6,A7,E6,OvernightIndex)</f>
+        <v>WEURECBOISJAN16#0003</v>
       </c>
       <c r="G6" s="82" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H6" s="82">
         <v>70</v>
@@ -6224,13 +6226,13 @@
         <f t="shared" si="0"/>
         <v>EURECBOISMAR16_Quote</v>
       </c>
-      <c r="F7" s="85" t="e">
-        <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B7&amp;C7&amp;D7,A7,A8,E7,OvernightIndex)</f>
-        <v>#NAME?</v>
+      <c r="F7" s="85" t="str">
+        <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B7&amp;C7&amp;D7,,,A7,A8,E7,OvernightIndex)</f>
+        <v>WEURECBOISMAR16#0003</v>
       </c>
       <c r="G7" s="82" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H7" s="82">
         <v>70</v>
@@ -6266,13 +6268,13 @@
         <f t="shared" si="0"/>
         <v>EURECBOISAPR16_Quote</v>
       </c>
-      <c r="F8" s="85" t="e">
-        <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B8&amp;C8&amp;D8,A8,A9,E8,OvernightIndex)</f>
-        <v>#NAME?</v>
+      <c r="F8" s="85" t="str">
+        <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B8&amp;C8&amp;D8,,,A8,A9,E8,OvernightIndex)</f>
+        <v>WEURECBOISAPR16#0003</v>
       </c>
       <c r="G8" s="82" t="b">
-        <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H8" s="82">
         <v>70</v>
@@ -6309,11 +6311,11 @@
         <v>EURECBOISJUN16_Quote</v>
       </c>
       <c r="F9" s="85" t="e">
-        <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B9&amp;C9&amp;D9,A9,A10,E9,OvernightIndex)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B9&amp;C9&amp;D9,,,A9,A10,E9,OvernightIndex)</f>
+        <v>#NUM!</v>
       </c>
       <c r="G9" s="82" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="82">
@@ -6351,11 +6353,11 @@
         <v>#NUM!</v>
       </c>
       <c r="F10" s="85" t="e">
-        <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B10&amp;C10&amp;D10,A10,A11,E10,OvernightIndex)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B10&amp;C10&amp;D10,,,A10,A11,E10,OvernightIndex)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G10" s="82" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="82">
@@ -6393,11 +6395,11 @@
         <v>#NUM!</v>
       </c>
       <c r="F11" s="85" t="e">
-        <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B11&amp;C11&amp;D11,A11,A12,E11,OvernightIndex)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B11&amp;C11&amp;D11,,,A11,A12,E11,OvernightIndex)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G11" s="82" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11" s="82">
@@ -6435,11 +6437,11 @@
         <v>#NUM!</v>
       </c>
       <c r="F12" s="85" t="e">
-        <f ca="1">_xll.qlDatedOISRateHelper("W"&amp;Currency&amp;B12&amp;C12&amp;D12,A12,#REF!,E12,OvernightIndex)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B12&amp;C12&amp;D12,,,A12,A13,E12,OvernightIndex)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G12" s="82" t="b">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="82">
@@ -6474,8 +6476,8 @@
         <v>EUROISU5_Quote</v>
       </c>
       <c r="F13" s="81" t="e">
-        <f ca="1">_xll.qlFuturesRateHelper("W"&amp;Currency&amp;C13&amp;D13,E13,D13,PROPER(Currency)&amp;"ibor3M",0,,Trigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlFuturesRateHelper(Trigger,"W"&amp;Currency&amp;C13&amp;D13,,,E13,"IMM",D13,PROPER(Currency)&amp;"ibor3M",0)</f>
+        <v>#NUM!</v>
       </c>
       <c r="G13" s="83" t="b">
         <v>0</v>
@@ -6511,8 +6513,8 @@
         <v>EUROISZ5_Quote</v>
       </c>
       <c r="F14" s="85" t="e">
-        <f ca="1">_xll.qlFuturesRateHelper("W"&amp;Currency&amp;C14&amp;D14,E14,D14,PROPER(Currency)&amp;"ibor3M",0,,Trigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlFuturesRateHelper(Trigger,"W"&amp;Currency&amp;C14&amp;D14,,,E14,"IMM",D14,PROPER(Currency)&amp;"ibor3M",0)</f>
+        <v>#NUM!</v>
       </c>
       <c r="G14" s="82" t="b">
         <v>0</v>
@@ -6548,8 +6550,8 @@
         <v>EUROISH6_Quote</v>
       </c>
       <c r="F15" s="85" t="e">
-        <f ca="1">_xll.qlFuturesRateHelper("W"&amp;Currency&amp;C15&amp;D15,E15,D15,PROPER(Currency)&amp;"ibor3M",0,,Trigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlFuturesRateHelper(Trigger,"W"&amp;Currency&amp;C15&amp;D15,,,E15,"IMM",D15,PROPER(Currency)&amp;"ibor3M",0)</f>
+        <v>#NUM!</v>
       </c>
       <c r="G15" s="82" t="b">
         <v>0</v>
@@ -6585,8 +6587,8 @@
         <v>EUROISM6_Quote</v>
       </c>
       <c r="F16" s="85" t="e">
-        <f ca="1">_xll.qlFuturesRateHelper("W"&amp;Currency&amp;C16&amp;D16,E16,D16,PROPER(Currency)&amp;"ibor3M",0,,Trigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlFuturesRateHelper(Trigger,"W"&amp;Currency&amp;C16&amp;D16,,,E16,"IMM",D16,PROPER(Currency)&amp;"ibor3M",0)</f>
+        <v>#NUM!</v>
       </c>
       <c r="G16" s="82" t="b">
         <v>0</v>
@@ -6622,8 +6624,8 @@
         <v>EUROISU6_Quote</v>
       </c>
       <c r="F17" s="85" t="e">
-        <f ca="1">_xll.qlFuturesRateHelper("W"&amp;Currency&amp;C17&amp;D17,E17,D17,PROPER(Currency)&amp;"ibor3M",0,,Trigger)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlFuturesRateHelper(Trigger,"W"&amp;Currency&amp;C17&amp;D17,,,E17,"IMM",D17,PROPER(Currency)&amp;"ibor3M",0)</f>
+        <v>#NUM!</v>
       </c>
       <c r="G17" s="82" t="b">
         <v>0</v>
@@ -6657,9 +6659,9 @@
         <f t="shared" si="0"/>
         <v>EUREONSW_Quote</v>
       </c>
-      <c r="F18" s="81" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B18&amp;C18&amp;D18,2,"1w",E18,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F18" s="81" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B18&amp;C18&amp;D18,,,2,"1w",E18,OvernightIndex)</f>
+        <v>WEUREONSW#0001</v>
       </c>
       <c r="G18" s="83" t="b">
         <v>1</v>
@@ -6692,9 +6694,9 @@
         <f t="shared" si="0"/>
         <v>EUREON2W_Quote</v>
       </c>
-      <c r="F19" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B19&amp;C19&amp;D19,2,D19,E19,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F19" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B19&amp;C19&amp;D19,,,2,"1w",E19,OvernightIndex)</f>
+        <v>WEUREON2W#0001</v>
       </c>
       <c r="G19" s="82" t="b">
         <v>1</v>
@@ -6727,9 +6729,9 @@
         <f t="shared" si="0"/>
         <v>EUREON3W_Quote</v>
       </c>
-      <c r="F20" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B20&amp;C20&amp;D20,2,D20,E20,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F20" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B20&amp;C20&amp;D20,,,2,"1w",E20,OvernightIndex)</f>
+        <v>WEUREON3W#0001</v>
       </c>
       <c r="G20" s="82" t="b">
         <v>1</v>
@@ -6762,9 +6764,9 @@
         <f t="shared" si="0"/>
         <v>EUREON1M_Quote</v>
       </c>
-      <c r="F21" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B21&amp;C21&amp;D21,2,D21,E21,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F21" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B21&amp;C21&amp;D21,,,2,"1w",E21,OvernightIndex)</f>
+        <v>WEUREON1M#0001</v>
       </c>
       <c r="G21" s="82" t="b">
         <v>1</v>
@@ -6797,9 +6799,9 @@
         <f t="shared" si="0"/>
         <v>EUREON2M_Quote</v>
       </c>
-      <c r="F22" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B22&amp;C22&amp;D22,2,D22,E22,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F22" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B22&amp;C22&amp;D22,,,2,"1w",E22,OvernightIndex)</f>
+        <v>WEUREON2M#0001</v>
       </c>
       <c r="G22" s="82" t="b">
         <v>1</v>
@@ -6832,9 +6834,9 @@
         <f t="shared" si="0"/>
         <v>EUREON3M_Quote</v>
       </c>
-      <c r="F23" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B23&amp;C23&amp;D23,2,D23,E23,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F23" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B23&amp;C23&amp;D23,,,2,"1w",E23,OvernightIndex)</f>
+        <v>WEUREON3M#0001</v>
       </c>
       <c r="G23" s="82" t="b">
         <v>1</v>
@@ -6867,9 +6869,9 @@
         <f t="shared" si="0"/>
         <v>EUREON4M_Quote</v>
       </c>
-      <c r="F24" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B24&amp;C24&amp;D24,2,D24,E24,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F24" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B24&amp;C24&amp;D24,,,2,"1w",E24,OvernightIndex)</f>
+        <v>WEUREON4M#0001</v>
       </c>
       <c r="G24" s="82" t="b">
         <v>1</v>
@@ -6902,9 +6904,9 @@
         <f t="shared" si="0"/>
         <v>EUREON5M_Quote</v>
       </c>
-      <c r="F25" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B25&amp;C25&amp;D25,2,D25,E25,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F25" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B25&amp;C25&amp;D25,,,2,"1w",E25,OvernightIndex)</f>
+        <v>WEUREON5M#0001</v>
       </c>
       <c r="G25" s="82" t="b">
         <v>1</v>
@@ -6937,9 +6939,9 @@
         <f t="shared" si="0"/>
         <v>EUREON6M_Quote</v>
       </c>
-      <c r="F26" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B26&amp;C26&amp;D26,2,D26,E26,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F26" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B26&amp;C26&amp;D26,,,2,"1w",E26,OvernightIndex)</f>
+        <v>WEUREON6M#0001</v>
       </c>
       <c r="G26" s="82" t="b">
         <v>1</v>
@@ -6972,9 +6974,9 @@
         <f t="shared" si="0"/>
         <v>EUREON7M_Quote</v>
       </c>
-      <c r="F27" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B27&amp;C27&amp;D27,2,D27,E27,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F27" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B27&amp;C27&amp;D27,,,2,"1w",E27,OvernightIndex)</f>
+        <v>WEUREON7M#0001</v>
       </c>
       <c r="G27" s="82" t="b">
         <v>1</v>
@@ -7007,9 +7009,9 @@
         <f t="shared" si="0"/>
         <v>EUREON8M_Quote</v>
       </c>
-      <c r="F28" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B28&amp;C28&amp;D28,2,D28,E28,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F28" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B28&amp;C28&amp;D28,,,2,"1w",E28,OvernightIndex)</f>
+        <v>WEUREON8M#0001</v>
       </c>
       <c r="G28" s="82" t="b">
         <v>1</v>
@@ -7042,9 +7044,9 @@
         <f t="shared" si="0"/>
         <v>EUREON9M_Quote</v>
       </c>
-      <c r="F29" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B29&amp;C29&amp;D29,2,D29,E29,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F29" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B29&amp;C29&amp;D29,,,2,"1w",E29,OvernightIndex)</f>
+        <v>WEUREON9M#0001</v>
       </c>
       <c r="G29" s="82" t="b">
         <v>1</v>
@@ -7077,9 +7079,9 @@
         <f t="shared" si="0"/>
         <v>EUREON10M_Quote</v>
       </c>
-      <c r="F30" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B30&amp;C30&amp;D30,2,D30,E30,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F30" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B30&amp;C30&amp;D30,,,2,"1w",E30,OvernightIndex)</f>
+        <v>WEUREON10M#0001</v>
       </c>
       <c r="G30" s="82" t="b">
         <v>1</v>
@@ -7112,9 +7114,9 @@
         <f t="shared" si="0"/>
         <v>EUREON11M_Quote</v>
       </c>
-      <c r="F31" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B31&amp;C31&amp;D31,2,D31,E31,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F31" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B31&amp;C31&amp;D31,,,2,"1w",E31,OvernightIndex)</f>
+        <v>WEUREON11M#0001</v>
       </c>
       <c r="G31" s="82" t="b">
         <v>1</v>
@@ -7147,9 +7149,9 @@
         <f t="shared" si="0"/>
         <v>EUREON1Y_Quote</v>
       </c>
-      <c r="F32" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B32&amp;C32&amp;D32,2,D32,E32,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F32" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B32&amp;C32&amp;D32,,,2,"1w",E32,OvernightIndex)</f>
+        <v>WEUREON1Y#0001</v>
       </c>
       <c r="G32" s="82" t="b">
         <v>1</v>
@@ -7182,9 +7184,9 @@
         <f t="shared" si="0"/>
         <v>EUREON15M_Quote</v>
       </c>
-      <c r="F33" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B33&amp;C33&amp;D33,2,D33,E33,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F33" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B33&amp;C33&amp;D33,,,2,"1w",E33,OvernightIndex)</f>
+        <v>WEUREON15M#0001</v>
       </c>
       <c r="G33" s="82" t="b">
         <v>1</v>
@@ -7217,9 +7219,9 @@
         <f t="shared" si="0"/>
         <v>EUREON18M_Quote</v>
       </c>
-      <c r="F34" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B34&amp;C34&amp;D34,2,D34,E34,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F34" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B34&amp;C34&amp;D34,,,2,"1w",E34,OvernightIndex)</f>
+        <v>WEUREON18M#0001</v>
       </c>
       <c r="G34" s="82" t="b">
         <v>1</v>
@@ -7252,9 +7254,9 @@
         <f t="shared" si="0"/>
         <v>EUREON21M_Quote</v>
       </c>
-      <c r="F35" s="85" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B35&amp;C35&amp;D35,2,D35,E35,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F35" s="85" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B35&amp;C35&amp;D35,,,2,"1w",E35,OvernightIndex)</f>
+        <v>WEUREON21M#0001</v>
       </c>
       <c r="G35" s="82" t="b">
         <v>1</v>
@@ -7287,9 +7289,9 @@
         <f t="shared" si="0"/>
         <v>EUREON2Y_Quote</v>
       </c>
-      <c r="F36" s="90" t="e">
-        <f ca="1">_xll.qlOISRateHelper("W"&amp;Currency&amp;B36&amp;C36&amp;D36,2,D36,E36,OvernightIndex,,EvaluationDate)</f>
-        <v>#NAME?</v>
+      <c r="F36" s="90" t="str">
+        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B36&amp;C36&amp;D36,,,2,"1w",E36,OvernightIndex)</f>
+        <v>WEUREON2Y#0001</v>
       </c>
       <c r="G36" s="91" t="b">
         <v>1</v>
@@ -7321,36 +7323,36 @@
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D38" s="93">
-        <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>12</v>
+        <f>_xll.ohTrigger(RateHelpers)</f>
+        <v>13</v>
       </c>
       <c r="E38" s="93">
-        <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>12</v>
+        <f>_xll.ohTrigger(RateHelpers)</f>
+        <v>13</v>
       </c>
       <c r="F38" s="93">
-        <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>12</v>
+        <f>_xll.ohTrigger(RateHelpers)</f>
+        <v>13</v>
       </c>
       <c r="G38" s="93">
-        <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>12</v>
+        <f>_xll.ohTrigger(RateHelpers)</f>
+        <v>13</v>
       </c>
       <c r="H38" s="93">
-        <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>12</v>
+        <f>_xll.ohTrigger(RateHelpers)</f>
+        <v>13</v>
       </c>
       <c r="I38" s="93">
-        <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>12</v>
+        <f>_xll.ohTrigger(RateHelpers)</f>
+        <v>13</v>
       </c>
       <c r="J38" s="93">
-        <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>12</v>
+        <f>_xll.ohTrigger(RateHelpers)</f>
+        <v>13</v>
       </c>
       <c r="K38" s="93">
-        <f ca="1">_xll.ohTrigger(RateHelpers)</f>
-        <v>12</v>
+        <f>_xll.ohTrigger(RateHelpers)</f>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -33180,7 +33182,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="23">
         <f ca="1">_xll.ohTrigger(M3:M4)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N1" s="144"/>
     </row>
@@ -33254,7 +33256,7 @@
       </c>
       <c r="K3" s="40" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J3,,TRUE)</f>
-        <v>EURJump1_SYNTHON_Quote#0001</v>
+        <v>EURJump1_SYNTHON_Quote#0004</v>
       </c>
       <c r="L3" s="40" t="e">
         <f t="array" aca="1" ref="L3:L15" ca="1">QuoteLive</f>
@@ -33306,7 +33308,7 @@
       </c>
       <c r="K4" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J4,,TRUE)</f>
-        <v>EURJump2_SYNTHON_Quote#0001</v>
+        <v>EURJump2_SYNTHON_Quote#0004</v>
       </c>
       <c r="L4" s="141" t="e">
         <f ca="1"/>
@@ -33358,7 +33360,7 @@
       </c>
       <c r="K5" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J5,,TRUE)</f>
-        <v>EURJump3_SYNTHON_Quote#0001</v>
+        <v>EURJump3_SYNTHON_Quote#0004</v>
       </c>
       <c r="L5" s="141" t="e">
         <f ca="1"/>
@@ -33410,7 +33412,7 @@
       </c>
       <c r="K6" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J6,,TRUE)</f>
-        <v>EURJump4_SYNTHON_Quote#0001</v>
+        <v>EURJump4_SYNTHON_Quote#0004</v>
       </c>
       <c r="L6" s="141" t="e">
         <f ca="1"/>
@@ -33462,7 +33464,7 @@
       </c>
       <c r="K7" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J7,,TRUE)</f>
-        <v>EURJump5_SYNTHON_Quote#0001</v>
+        <v>EURJump5_SYNTHON_Quote#0004</v>
       </c>
       <c r="L7" s="141" t="e">
         <f ca="1"/>
@@ -33514,7 +33516,7 @@
       </c>
       <c r="K8" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J8,,TRUE)</f>
-        <v>EURJump6_SYNTHON_Quote#0001</v>
+        <v>EURJump6_SYNTHON_Quote#0004</v>
       </c>
       <c r="L8" s="141" t="e">
         <f ca="1"/>
@@ -33566,7 +33568,7 @@
       </c>
       <c r="K9" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J9,,TRUE)</f>
-        <v>EURJump7_SYNTHON_Quote#0001</v>
+        <v>EURJump7_SYNTHON_Quote#0004</v>
       </c>
       <c r="L9" s="141" t="e">
         <f ca="1"/>
@@ -33618,7 +33620,7 @@
       </c>
       <c r="K10" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J10,,TRUE)</f>
-        <v>EURJump8_SYNTHON_Quote#0001</v>
+        <v>EURJump8_SYNTHON_Quote#0004</v>
       </c>
       <c r="L10" s="141" t="e">
         <f ca="1"/>
@@ -33670,7 +33672,7 @@
       </c>
       <c r="K11" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J11,,TRUE)</f>
-        <v>EURJump9_SYNTHON_Quote#0001</v>
+        <v>EURJump9_SYNTHON_Quote#0004</v>
       </c>
       <c r="L11" s="141" t="e">
         <f ca="1"/>
@@ -33722,7 +33724,7 @@
       </c>
       <c r="K12" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J12,,TRUE)</f>
-        <v>EURJump10_SYNTHON_Quote#0001</v>
+        <v>EURJump10_SYNTHON_Quote#0004</v>
       </c>
       <c r="L12" s="141" t="e">
         <f ca="1"/>
@@ -33774,7 +33776,7 @@
       </c>
       <c r="K13" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J13,,TRUE)</f>
-        <v>EURJump11_SYNTHON_Quote#0001</v>
+        <v>EURJump11_SYNTHON_Quote#0004</v>
       </c>
       <c r="L13" s="141" t="e">
         <f ca="1"/>
@@ -33826,7 +33828,7 @@
       </c>
       <c r="K14" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J14,,TRUE)</f>
-        <v>EURJump12_SYNTHON_Quote#0001</v>
+        <v>EURJump12_SYNTHON_Quote#0004</v>
       </c>
       <c r="L14" s="141" t="e">
         <f ca="1"/>
@@ -33878,7 +33880,7 @@
       </c>
       <c r="K15" s="142" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J15,,TRUE)</f>
-        <v>EURJump13_SYNTHON_Quote#0001</v>
+        <v>EURJump13_SYNTHON_Quote#0004</v>
       </c>
       <c r="L15" s="142" t="e">
         <f ca="1"/>

--- a/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="9570" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="9570" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -1674,11 +1674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="214941696"/>
-        <c:axId val="214943232"/>
+        <c:axId val="33280384"/>
+        <c:axId val="33281920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="214941696"/>
+        <c:axId val="33280384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,12 +1698,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214943232"/>
+        <c:crossAx val="33281920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214943232"/>
+        <c:axId val="33281920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214941696"/>
+        <c:crossAx val="33280384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4871,11 +4871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="221282304"/>
-        <c:axId val="221283840"/>
+        <c:axId val="63541632"/>
+        <c:axId val="63543168"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="221282304"/>
+        <c:axId val="63541632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,14 +4895,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221283840"/>
+        <c:crossAx val="63543168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="221283840"/>
+        <c:axId val="63543168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +4913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221282304"/>
+        <c:crossAx val="63541632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5045,7 +5045,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>4</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -5053,7 +5053,7 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EUR6M#0004</v>
+            <v>EUR6M#0002</v>
           </cell>
         </row>
       </sheetData>
@@ -5088,7 +5088,7 @@
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0004</v>
+            <v>EURTND_Quote#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -5542,9 +5542,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5669,7 +5667,7 @@
       </c>
       <c r="I8" s="60">
         <f>[1]!TriggerCounter</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J8" s="58"/>
     </row>
@@ -5689,7 +5687,7 @@
       </c>
       <c r="I9" s="29">
         <f ca="1">_xll.ohTrigger(Contribution!M1)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -5842,7 +5840,7 @@
       <c r="B19" s="1"/>
       <c r="C19" s="20" t="e">
         <f ca="1">MAX(_xll.ohPack(Calculation!D5:D129))</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D19" s="73" t="e">
         <f ca="1">_xll.qlYieldTSDiscount(YieldCurve,C19,,Trigger)</f>
@@ -5852,7 +5850,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="20" t="e">
         <f ca="1">MAX(_xll.ohPack(Calculation!D27:D151))</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="I19" s="73" t="e">
         <f ca="1">_xll.qlYieldTSDiscount($I$14,H19,,Trigger)</f>
@@ -5959,8 +5957,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -6017,7 +6015,7 @@
       </c>
       <c r="F2" s="77" t="str">
         <f>_xll.qlFraRateHelper(EvaluationDate,"W"&amp;Currency&amp;B2&amp;C2&amp;D2,,,E2,"2d",OvernightIndex)</f>
-        <v>WEURSND#0008</v>
+        <v>WEURSND#0000</v>
       </c>
       <c r="G2" s="78" t="b">
         <v>0</v>
@@ -6028,13 +6026,13 @@
       <c r="I2" s="78">
         <v>1</v>
       </c>
-      <c r="J2" s="79" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K2" s="79" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F2)</f>
-        <v>#NAME?</v>
+      <c r="J2" s="79">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F2)</f>
+        <v>42242</v>
+      </c>
+      <c r="K2" s="79">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F2)</f>
+        <v>42243</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6058,7 +6056,7 @@
       </c>
       <c r="F3" s="81" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B3&amp;C3&amp;D3,,,A3,A4,E3,OvernightIndex)</f>
-        <v>WEURECBOISSEP15#0003</v>
+        <v>WEURECBOISSEP15#0001</v>
       </c>
       <c r="G3" s="82" t="b">
         <f>IF(ISERROR(F3),FALSE,TRUE)</f>
@@ -6070,13 +6068,13 @@
       <c r="I3" s="83">
         <v>5</v>
       </c>
-      <c r="J3" s="84" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F3)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K3" s="84" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F3)</f>
-        <v>#NAME?</v>
+      <c r="J3" s="84">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F3)</f>
+        <v>42256</v>
+      </c>
+      <c r="K3" s="84">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F3)</f>
+        <v>42305</v>
       </c>
       <c r="L3" s="94"/>
     </row>
@@ -6101,7 +6099,7 @@
       </c>
       <c r="F4" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B4&amp;C4&amp;D4,,,A4,A5,E4,OvernightIndex)</f>
-        <v>WEURECBOISOCT15#0003</v>
+        <v>WEURECBOISOCT15#0001</v>
       </c>
       <c r="G4" s="82" t="b">
         <f t="shared" ref="G4:G12" si="1">IF(ISERROR(F4),FALSE,TRUE)</f>
@@ -6113,13 +6111,13 @@
       <c r="I4" s="82">
         <v>5</v>
       </c>
-      <c r="J4" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F4)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K4" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F4)</f>
-        <v>#NAME?</v>
+      <c r="J4" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F4)</f>
+        <v>42305</v>
+      </c>
+      <c r="K4" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F4)</f>
+        <v>42347</v>
       </c>
       <c r="L4" s="95"/>
     </row>
@@ -6144,7 +6142,7 @@
       </c>
       <c r="F5" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B5&amp;C5&amp;D5,,,A5,A6,E5,OvernightIndex)</f>
-        <v>WEURECBOISDEC15#0003</v>
+        <v>WEURECBOISDEC15#0001</v>
       </c>
       <c r="G5" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6156,13 +6154,13 @@
       <c r="I5" s="82">
         <v>5</v>
       </c>
-      <c r="J5" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F5)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K5" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F5)</f>
-        <v>#NAME?</v>
+      <c r="J5" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F5)</f>
+        <v>42347</v>
+      </c>
+      <c r="K5" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F5)</f>
+        <v>42395</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6186,7 +6184,7 @@
       </c>
       <c r="F6" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B6&amp;C6&amp;D6,,,A6,A7,E6,OvernightIndex)</f>
-        <v>WEURECBOISJAN16#0003</v>
+        <v>WEURECBOISJAN16#0001</v>
       </c>
       <c r="G6" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6198,13 +6196,13 @@
       <c r="I6" s="82">
         <v>5</v>
       </c>
-      <c r="J6" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F6)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K6" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F6)</f>
-        <v>#NAME?</v>
+      <c r="J6" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F6)</f>
+        <v>42395</v>
+      </c>
+      <c r="K6" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F6)</f>
+        <v>42445</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -6228,7 +6226,7 @@
       </c>
       <c r="F7" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B7&amp;C7&amp;D7,,,A7,A8,E7,OvernightIndex)</f>
-        <v>WEURECBOISMAR16#0003</v>
+        <v>WEURECBOISMAR16#0001</v>
       </c>
       <c r="G7" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6240,13 +6238,13 @@
       <c r="I7" s="82">
         <v>5</v>
       </c>
-      <c r="J7" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F7)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K7" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F7)</f>
-        <v>#NAME?</v>
+      <c r="J7" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F7)</f>
+        <v>42445</v>
+      </c>
+      <c r="K7" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F7)</f>
+        <v>42487</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -6270,7 +6268,7 @@
       </c>
       <c r="F8" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B8&amp;C8&amp;D8,,,A8,A9,E8,OvernightIndex)</f>
-        <v>WEURECBOISAPR16#0003</v>
+        <v>WEURECBOISAPR16#0001</v>
       </c>
       <c r="G8" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6282,13 +6280,13 @@
       <c r="I8" s="82">
         <v>5</v>
       </c>
-      <c r="J8" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F8)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K8" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F8)</f>
-        <v>#NAME?</v>
+      <c r="J8" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F8)</f>
+        <v>42487</v>
+      </c>
+      <c r="K8" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F8)</f>
+        <v>42529</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -6325,12 +6323,12 @@
         <v>5</v>
       </c>
       <c r="J9" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F9)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F9)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K9" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F9)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F9)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -6367,12 +6365,12 @@
         <v>5</v>
       </c>
       <c r="J10" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F10)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F10)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K10" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F10)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F10)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -6409,12 +6407,12 @@
         <v>5</v>
       </c>
       <c r="J11" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F11)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F11)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K11" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F11)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F11)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -6451,12 +6449,12 @@
         <v>5</v>
       </c>
       <c r="J12" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F12)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F12)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K12" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F12)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F12)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6489,12 +6487,12 @@
         <v>7</v>
       </c>
       <c r="J13" s="84" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F13)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F13)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K13" s="84" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F13)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F13)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6526,12 +6524,12 @@
         <v>7</v>
       </c>
       <c r="J14" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F14)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F14)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K14" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F14)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F14)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6563,12 +6561,12 @@
         <v>7</v>
       </c>
       <c r="J15" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F15)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F15)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K15" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F15)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F15)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6600,12 +6598,12 @@
         <v>7</v>
       </c>
       <c r="J16" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F16)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F16)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K16" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F16)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F16)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6637,12 +6635,12 @@
         <v>7</v>
       </c>
       <c r="J17" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F17)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F17)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="K17" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F17)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F17)</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6672,13 +6670,13 @@
       <c r="I18" s="83">
         <v>1</v>
       </c>
-      <c r="J18" s="84" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F18)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K18" s="84" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F18)</f>
-        <v>#NAME?</v>
+      <c r="J18" s="84">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F18)</f>
+        <v>42242</v>
+      </c>
+      <c r="K18" s="84">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F18)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -6707,13 +6705,13 @@
       <c r="I19" s="82">
         <v>1</v>
       </c>
-      <c r="J19" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F19)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K19" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F19)</f>
-        <v>#NAME?</v>
+      <c r="J19" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F19)</f>
+        <v>42242</v>
+      </c>
+      <c r="K19" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F19)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -6742,13 +6740,13 @@
       <c r="I20" s="82">
         <v>1</v>
       </c>
-      <c r="J20" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F20)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K20" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F20)</f>
-        <v>#NAME?</v>
+      <c r="J20" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F20)</f>
+        <v>42242</v>
+      </c>
+      <c r="K20" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F20)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -6777,13 +6775,13 @@
       <c r="I21" s="82">
         <v>1</v>
       </c>
-      <c r="J21" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F21)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K21" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F21)</f>
-        <v>#NAME?</v>
+      <c r="J21" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F21)</f>
+        <v>42242</v>
+      </c>
+      <c r="K21" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F21)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -6812,13 +6810,13 @@
       <c r="I22" s="82">
         <v>1</v>
       </c>
-      <c r="J22" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F22)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K22" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F22)</f>
-        <v>#NAME?</v>
+      <c r="J22" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F22)</f>
+        <v>42242</v>
+      </c>
+      <c r="K22" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F22)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -6847,13 +6845,13 @@
       <c r="I23" s="82">
         <v>1</v>
       </c>
-      <c r="J23" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F23)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K23" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F23)</f>
-        <v>#NAME?</v>
+      <c r="J23" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F23)</f>
+        <v>42242</v>
+      </c>
+      <c r="K23" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F23)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -6882,13 +6880,13 @@
       <c r="I24" s="82">
         <v>1</v>
       </c>
-      <c r="J24" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F24)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K24" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F24)</f>
-        <v>#NAME?</v>
+      <c r="J24" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F24)</f>
+        <v>42242</v>
+      </c>
+      <c r="K24" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F24)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -6917,13 +6915,13 @@
       <c r="I25" s="82">
         <v>1</v>
       </c>
-      <c r="J25" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F25)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K25" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F25)</f>
-        <v>#NAME?</v>
+      <c r="J25" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F25)</f>
+        <v>42242</v>
+      </c>
+      <c r="K25" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F25)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -6952,13 +6950,13 @@
       <c r="I26" s="82">
         <v>1</v>
       </c>
-      <c r="J26" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F26)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K26" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F26)</f>
-        <v>#NAME?</v>
+      <c r="J26" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F26)</f>
+        <v>42242</v>
+      </c>
+      <c r="K26" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F26)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -6987,13 +6985,13 @@
       <c r="I27" s="82">
         <v>1</v>
       </c>
-      <c r="J27" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F27)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K27" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F27)</f>
-        <v>#NAME?</v>
+      <c r="J27" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F27)</f>
+        <v>42242</v>
+      </c>
+      <c r="K27" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F27)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -7022,13 +7020,13 @@
       <c r="I28" s="82">
         <v>1</v>
       </c>
-      <c r="J28" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F28)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K28" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F28)</f>
-        <v>#NAME?</v>
+      <c r="J28" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F28)</f>
+        <v>42242</v>
+      </c>
+      <c r="K28" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F28)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -7057,13 +7055,13 @@
       <c r="I29" s="82">
         <v>1</v>
       </c>
-      <c r="J29" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F29)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K29" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F29)</f>
-        <v>#NAME?</v>
+      <c r="J29" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F29)</f>
+        <v>42242</v>
+      </c>
+      <c r="K29" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F29)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -7092,13 +7090,13 @@
       <c r="I30" s="82">
         <v>1</v>
       </c>
-      <c r="J30" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F30)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K30" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F30)</f>
-        <v>#NAME?</v>
+      <c r="J30" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F30)</f>
+        <v>42242</v>
+      </c>
+      <c r="K30" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F30)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -7127,13 +7125,13 @@
       <c r="I31" s="82">
         <v>1</v>
       </c>
-      <c r="J31" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F31)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K31" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F31)</f>
-        <v>#NAME?</v>
+      <c r="J31" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F31)</f>
+        <v>42242</v>
+      </c>
+      <c r="K31" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F31)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -7162,13 +7160,13 @@
       <c r="I32" s="82">
         <v>1</v>
       </c>
-      <c r="J32" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F32)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K32" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F32)</f>
-        <v>#NAME?</v>
+      <c r="J32" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F32)</f>
+        <v>42242</v>
+      </c>
+      <c r="K32" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F32)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -7197,13 +7195,13 @@
       <c r="I33" s="82">
         <v>1</v>
       </c>
-      <c r="J33" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F33)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K33" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F33)</f>
-        <v>#NAME?</v>
+      <c r="J33" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F33)</f>
+        <v>42242</v>
+      </c>
+      <c r="K33" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F33)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
@@ -7232,13 +7230,13 @@
       <c r="I34" s="82">
         <v>1</v>
       </c>
-      <c r="J34" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F34)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K34" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F34)</f>
-        <v>#NAME?</v>
+      <c r="J34" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F34)</f>
+        <v>42242</v>
+      </c>
+      <c r="K34" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F34)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -7267,13 +7265,13 @@
       <c r="I35" s="82">
         <v>1</v>
       </c>
-      <c r="J35" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F35)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K35" s="86" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F35)</f>
-        <v>#NAME?</v>
+      <c r="J35" s="86">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F35)</f>
+        <v>42242</v>
+      </c>
+      <c r="K35" s="86">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F35)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -7302,13 +7300,13 @@
       <c r="I36" s="91">
         <v>1</v>
       </c>
-      <c r="J36" s="92" t="e">
-        <f ca="1">_xll.qlRateHelperEarliestDate($F36)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="K36" s="92" t="e">
-        <f ca="1">_xll.qlRateHelperLatestDate($F36)</f>
-        <v>#NAME?</v>
+      <c r="J36" s="92">
+        <f>_xll.qlRateHelperEarliestDate(Trigger,$F36)</f>
+        <v>42242</v>
+      </c>
+      <c r="K36" s="92">
+        <f>_xll.qlRateHelperLatestDate(Trigger,$F36)</f>
+        <v>42249</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -7324,35 +7322,35 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="G38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="I38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="K38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7372,20 +7370,20 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BK130"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N16" sqref="N16"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="2" max="2" width="10" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="3" max="4" width="17.28515625" style="98" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="2.7109375" style="93" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="10" style="93" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="7" style="93" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="8" width="2.7109375" style="93" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.140625" style="98" customWidth="1" outlineLevel="1"/>
+    <col min="2" max="2" width="10" style="98" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="4" width="17.28515625" style="98" customWidth="1" outlineLevel="1"/>
+    <col min="5" max="5" width="2.7109375" style="93" customWidth="1" outlineLevel="1"/>
+    <col min="6" max="6" width="10" style="93" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="7" style="93" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="8" width="2.7109375" style="93" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" style="93" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" style="93" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" style="93" bestFit="1" customWidth="1"/>
@@ -8006,11 +8004,11 @@
       </c>
       <c r="C5" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A5)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D5" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A5)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F5" s="103" t="e">
         <f t="shared" ref="F5:F30" ca="1" si="0">IF(ISERROR(D5),NA(),(D5-D4)/2+D4)</f>
@@ -8031,7 +8029,7 @@
       </c>
       <c r="K5" s="113" t="e">
         <f ca="1">D5</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L5" s="94"/>
       <c r="M5" s="85" t="b">
@@ -8208,11 +8206,11 @@
       </c>
       <c r="C6" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A6)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D6" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A6)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F6" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8233,7 +8231,7 @@
       </c>
       <c r="K6" s="113" t="e">
         <f t="shared" ref="K6:K69" ca="1" si="3">D6</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L6" s="94"/>
       <c r="M6" s="85" t="b">
@@ -8410,11 +8408,11 @@
       </c>
       <c r="C7" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A7)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D7" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A7)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F7" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8434,7 +8432,7 @@
       </c>
       <c r="K7" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L7" s="94"/>
       <c r="M7" s="85" t="b">
@@ -8611,11 +8609,11 @@
       </c>
       <c r="C8" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A8)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D8" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A8)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F8" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8635,7 +8633,7 @@
       </c>
       <c r="K8" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L8" s="94"/>
       <c r="M8" s="85" t="b">
@@ -8812,11 +8810,11 @@
       </c>
       <c r="C9" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A9)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D9" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A9)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F9" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -8836,7 +8834,7 @@
       </c>
       <c r="K9" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L9" s="94"/>
       <c r="M9" s="85" t="b">
@@ -9013,11 +9011,11 @@
       </c>
       <c r="C10" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A10)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D10" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A10)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F10" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -9037,7 +9035,7 @@
       </c>
       <c r="K10" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L10" s="94"/>
       <c r="M10" s="85" t="b">
@@ -9214,11 +9212,11 @@
       </c>
       <c r="C11" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A11)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D11" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A11)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F11" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -9238,7 +9236,7 @@
       </c>
       <c r="K11" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L11" s="94"/>
       <c r="M11" s="85" t="b">
@@ -9415,11 +9413,11 @@
       </c>
       <c r="C12" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A12)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D12" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A12)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F12" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -9439,7 +9437,7 @@
       </c>
       <c r="K12" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L12" s="94"/>
       <c r="M12" s="85" t="b">
@@ -9616,11 +9614,11 @@
       </c>
       <c r="C13" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A13)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D13" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A13)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F13" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -9640,7 +9638,7 @@
       </c>
       <c r="K13" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L13" s="94"/>
       <c r="M13" s="85" t="b">
@@ -9817,11 +9815,11 @@
       </c>
       <c r="C14" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A14)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D14" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A14)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F14" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -9841,7 +9839,7 @@
       </c>
       <c r="K14" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L14" s="94"/>
       <c r="M14" s="85" t="b">
@@ -10018,11 +10016,11 @@
       </c>
       <c r="C15" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A15)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D15" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A15)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F15" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -10042,7 +10040,7 @@
       </c>
       <c r="K15" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L15" s="94"/>
       <c r="M15" s="85" t="b">
@@ -10219,11 +10217,11 @@
       </c>
       <c r="C16" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A16)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D16" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A16)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F16" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -10243,7 +10241,7 @@
       </c>
       <c r="K16" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L16" s="94"/>
       <c r="M16" s="85" t="b">
@@ -10420,11 +10418,11 @@
       </c>
       <c r="C17" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A17)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D17" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A17)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F17" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -10444,7 +10442,7 @@
       </c>
       <c r="K17" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L17" s="94"/>
       <c r="M17" s="85" t="b">
@@ -10621,11 +10619,11 @@
       </c>
       <c r="C18" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A18)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D18" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A18)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F18" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -10645,7 +10643,7 @@
       </c>
       <c r="K18" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L18" s="94"/>
       <c r="M18" s="85" t="b">
@@ -10822,11 +10820,11 @@
       </c>
       <c r="C19" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A19)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D19" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A19)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F19" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -10846,7 +10844,7 @@
       </c>
       <c r="K19" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L19" s="94"/>
       <c r="M19" s="85" t="b">
@@ -11023,11 +11021,11 @@
       </c>
       <c r="C20" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A20)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D20" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A20)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F20" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -11047,7 +11045,7 @@
       </c>
       <c r="K20" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L20" s="94"/>
       <c r="M20" s="85" t="b">
@@ -11224,11 +11222,11 @@
       </c>
       <c r="C21" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A21)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D21" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A21)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F21" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -11248,7 +11246,7 @@
       </c>
       <c r="K21" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L21" s="94"/>
       <c r="M21" s="85" t="b">
@@ -11425,11 +11423,11 @@
       </c>
       <c r="C22" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A22)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D22" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A22)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F22" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -11449,7 +11447,7 @@
       </c>
       <c r="K22" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L22" s="94"/>
       <c r="M22" s="85" t="b">
@@ -11626,11 +11624,11 @@
       </c>
       <c r="C23" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A23)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D23" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A23)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F23" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -11650,7 +11648,7 @@
       </c>
       <c r="K23" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L23" s="94"/>
       <c r="M23" s="85" t="b">
@@ -11827,11 +11825,11 @@
       </c>
       <c r="C24" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A24)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D24" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A24)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F24" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -11851,7 +11849,7 @@
       </c>
       <c r="K24" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L24" s="94"/>
       <c r="M24" s="85" t="b">
@@ -12028,11 +12026,11 @@
       </c>
       <c r="C25" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A25)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D25" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A25)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F25" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -12052,7 +12050,7 @@
       </c>
       <c r="K25" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L25" s="94"/>
       <c r="M25" s="85" t="b">
@@ -12229,11 +12227,11 @@
       </c>
       <c r="C26" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A26)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D26" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A26)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F26" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -12253,7 +12251,7 @@
       </c>
       <c r="K26" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="85" t="b">
@@ -12430,11 +12428,11 @@
       </c>
       <c r="C27" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A27)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D27" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A27)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F27" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -12454,7 +12452,7 @@
       </c>
       <c r="K27" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L27" s="94"/>
       <c r="M27" s="85" t="b">
@@ -12631,11 +12629,11 @@
       </c>
       <c r="C28" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A28)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D28" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A28)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F28" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -12655,7 +12653,7 @@
       </c>
       <c r="K28" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L28" s="94"/>
       <c r="M28" s="85" t="b">
@@ -12832,11 +12830,11 @@
       </c>
       <c r="C29" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A29)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D29" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A29)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F29" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -12856,7 +12854,7 @@
       </c>
       <c r="K29" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L29" s="94"/>
       <c r="M29" s="85" t="b">
@@ -13033,11 +13031,11 @@
       </c>
       <c r="C30" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A30)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D30" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A30)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F30" s="103" t="e">
         <f t="shared" ca="1" si="0"/>
@@ -13057,7 +13055,7 @@
       </c>
       <c r="K30" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L30" s="94"/>
       <c r="M30" s="85" t="b">
@@ -13234,11 +13232,11 @@
       </c>
       <c r="C31" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A31)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D31" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A31)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F31" s="103" t="e">
         <f t="shared" ref="F31:F94" ca="1" si="4">IF(ISERROR(D31),NA(),(D31-D30)/2+D30)</f>
@@ -13258,7 +13256,7 @@
       </c>
       <c r="K31" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L31" s="125"/>
       <c r="M31" s="85" t="b">
@@ -13435,11 +13433,11 @@
       </c>
       <c r="C32" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A32)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D32" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A32)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F32" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -13459,7 +13457,7 @@
       </c>
       <c r="K32" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L32" s="125"/>
       <c r="M32" s="85" t="b">
@@ -13636,11 +13634,11 @@
       </c>
       <c r="C33" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A33)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D33" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A33)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F33" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -13660,7 +13658,7 @@
       </c>
       <c r="K33" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L33" s="125"/>
       <c r="M33" s="85" t="b">
@@ -13837,11 +13835,11 @@
       </c>
       <c r="C34" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A34)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D34" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A34)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F34" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -13861,7 +13859,7 @@
       </c>
       <c r="K34" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L34" s="125"/>
       <c r="M34" s="85" t="b">
@@ -14038,11 +14036,11 @@
       </c>
       <c r="C35" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A35)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D35" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A35)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F35" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -14062,7 +14060,7 @@
       </c>
       <c r="K35" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L35" s="125"/>
       <c r="M35" s="85" t="b">
@@ -14239,11 +14237,11 @@
       </c>
       <c r="C36" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A36)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D36" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A36)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F36" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -14263,7 +14261,7 @@
       </c>
       <c r="K36" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L36" s="125"/>
       <c r="M36" s="85" t="b">
@@ -14440,11 +14438,11 @@
       </c>
       <c r="C37" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A37)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D37" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A37)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F37" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -14464,7 +14462,7 @@
       </c>
       <c r="K37" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L37" s="125"/>
       <c r="M37" s="85" t="b">
@@ -14641,11 +14639,11 @@
       </c>
       <c r="C38" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A38)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D38" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A38)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F38" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -14665,7 +14663,7 @@
       </c>
       <c r="K38" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L38" s="125"/>
       <c r="M38" s="85" t="b">
@@ -14842,11 +14840,11 @@
       </c>
       <c r="C39" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A39)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D39" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A39)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F39" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -14866,7 +14864,7 @@
       </c>
       <c r="K39" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L39" s="125"/>
       <c r="M39" s="85" t="b">
@@ -15043,11 +15041,11 @@
       </c>
       <c r="C40" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A40)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D40" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A40)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F40" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -15067,7 +15065,7 @@
       </c>
       <c r="K40" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L40" s="125"/>
       <c r="M40" s="85" t="b">
@@ -15244,11 +15242,11 @@
       </c>
       <c r="C41" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A41)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D41" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A41)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F41" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -15268,7 +15266,7 @@
       </c>
       <c r="K41" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L41" s="125"/>
       <c r="M41" s="85" t="b">
@@ -15445,11 +15443,11 @@
       </c>
       <c r="C42" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A42)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D42" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A42)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F42" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -15469,7 +15467,7 @@
       </c>
       <c r="K42" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L42" s="125"/>
       <c r="M42" s="85" t="b">
@@ -15646,11 +15644,11 @@
       </c>
       <c r="C43" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A43)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D43" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A43)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F43" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -15670,7 +15668,7 @@
       </c>
       <c r="K43" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L43" s="125"/>
       <c r="M43" s="85" t="b">
@@ -15847,11 +15845,11 @@
       </c>
       <c r="C44" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A44)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D44" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A44)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F44" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -15871,7 +15869,7 @@
       </c>
       <c r="K44" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L44" s="125"/>
       <c r="M44" s="85" t="b">
@@ -16048,11 +16046,11 @@
       </c>
       <c r="C45" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A45)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D45" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A45)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F45" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -16072,7 +16070,7 @@
       </c>
       <c r="K45" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L45" s="125"/>
       <c r="M45" s="85" t="b">
@@ -16249,11 +16247,11 @@
       </c>
       <c r="C46" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A46)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D46" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A46)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F46" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -16273,7 +16271,7 @@
       </c>
       <c r="K46" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L46" s="125"/>
       <c r="M46" s="85" t="b">
@@ -16450,11 +16448,11 @@
       </c>
       <c r="C47" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A47)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D47" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A47)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F47" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -16474,7 +16472,7 @@
       </c>
       <c r="K47" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L47" s="125"/>
       <c r="M47" s="85" t="b">
@@ -16651,11 +16649,11 @@
       </c>
       <c r="C48" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A48)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D48" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A48)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F48" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -16675,7 +16673,7 @@
       </c>
       <c r="K48" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L48" s="125"/>
       <c r="M48" s="85" t="b">
@@ -16852,11 +16850,11 @@
       </c>
       <c r="C49" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A49)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D49" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A49)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F49" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -16876,7 +16874,7 @@
       </c>
       <c r="K49" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L49" s="125"/>
       <c r="M49" s="85" t="b">
@@ -17053,11 +17051,11 @@
       </c>
       <c r="C50" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A50)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D50" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A50)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F50" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -17077,7 +17075,7 @@
       </c>
       <c r="K50" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L50" s="125"/>
       <c r="M50" s="85" t="b">
@@ -17254,11 +17252,11 @@
       </c>
       <c r="C51" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A51)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D51" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A51)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F51" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -17278,7 +17276,7 @@
       </c>
       <c r="K51" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L51" s="125"/>
       <c r="M51" s="85" t="b">
@@ -17455,11 +17453,11 @@
       </c>
       <c r="C52" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A52)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D52" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A52)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F52" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -17479,7 +17477,7 @@
       </c>
       <c r="K52" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L52" s="125"/>
       <c r="M52" s="85" t="b">
@@ -17656,11 +17654,11 @@
       </c>
       <c r="C53" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A53)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D53" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A53)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F53" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -17680,7 +17678,7 @@
       </c>
       <c r="K53" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L53" s="125"/>
       <c r="M53" s="85" t="b">
@@ -17857,11 +17855,11 @@
       </c>
       <c r="C54" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A54)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D54" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A54)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F54" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -17881,7 +17879,7 @@
       </c>
       <c r="K54" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L54" s="125"/>
       <c r="M54" s="85" t="b">
@@ -18058,11 +18056,11 @@
       </c>
       <c r="C55" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A55)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D55" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A55)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F55" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -18082,7 +18080,7 @@
       </c>
       <c r="K55" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L55" s="125"/>
       <c r="M55" s="85" t="b">
@@ -18259,11 +18257,11 @@
       </c>
       <c r="C56" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A56)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D56" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A56)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F56" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -18283,7 +18281,7 @@
       </c>
       <c r="K56" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L56" s="125"/>
       <c r="M56" s="85" t="b">
@@ -18460,11 +18458,11 @@
       </c>
       <c r="C57" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A57)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D57" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A57)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F57" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -18484,7 +18482,7 @@
       </c>
       <c r="K57" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L57" s="125"/>
       <c r="M57" s="85" t="b">
@@ -18661,11 +18659,11 @@
       </c>
       <c r="C58" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A58)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D58" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A58)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F58" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -18685,7 +18683,7 @@
       </c>
       <c r="K58" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L58" s="125"/>
       <c r="M58" s="85" t="b">
@@ -18862,11 +18860,11 @@
       </c>
       <c r="C59" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A59)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D59" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A59)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F59" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -18886,7 +18884,7 @@
       </c>
       <c r="K59" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L59" s="125"/>
       <c r="M59" s="85" t="b">
@@ -19063,11 +19061,11 @@
       </c>
       <c r="C60" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A60)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D60" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A60)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F60" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -19087,7 +19085,7 @@
       </c>
       <c r="K60" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L60" s="125"/>
       <c r="M60" s="85" t="b">
@@ -19264,11 +19262,11 @@
       </c>
       <c r="C61" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A61)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D61" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A61)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F61" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -19288,7 +19286,7 @@
       </c>
       <c r="K61" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L61" s="125"/>
       <c r="M61" s="85" t="b">
@@ -19465,11 +19463,11 @@
       </c>
       <c r="C62" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A62)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D62" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A62)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F62" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -19489,7 +19487,7 @@
       </c>
       <c r="K62" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L62" s="125"/>
       <c r="M62" s="85" t="b">
@@ -19666,11 +19664,11 @@
       </c>
       <c r="C63" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A63)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D63" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A63)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F63" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -19690,7 +19688,7 @@
       </c>
       <c r="K63" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L63" s="125"/>
       <c r="M63" s="85" t="b">
@@ -19867,11 +19865,11 @@
       </c>
       <c r="C64" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A64)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D64" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A64)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F64" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -19891,7 +19889,7 @@
       </c>
       <c r="K64" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L64" s="125"/>
       <c r="M64" s="85" t="b">
@@ -20068,11 +20066,11 @@
       </c>
       <c r="C65" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A65)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D65" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A65)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F65" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -20092,7 +20090,7 @@
       </c>
       <c r="K65" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L65" s="125"/>
       <c r="M65" s="85" t="b">
@@ -20269,11 +20267,11 @@
       </c>
       <c r="C66" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A66)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D66" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A66)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F66" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -20293,7 +20291,7 @@
       </c>
       <c r="K66" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L66" s="125"/>
       <c r="M66" s="85" t="b">
@@ -20470,11 +20468,11 @@
       </c>
       <c r="C67" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A67)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D67" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A67)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F67" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -20494,7 +20492,7 @@
       </c>
       <c r="K67" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L67" s="125"/>
       <c r="M67" s="85" t="b">
@@ -20671,11 +20669,11 @@
       </c>
       <c r="C68" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A68)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D68" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A68)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F68" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -20695,7 +20693,7 @@
       </c>
       <c r="K68" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L68" s="125"/>
       <c r="M68" s="85" t="b">
@@ -20872,11 +20870,11 @@
       </c>
       <c r="C69" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A69)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D69" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A69)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F69" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -20896,7 +20894,7 @@
       </c>
       <c r="K69" s="113" t="e">
         <f t="shared" ca="1" si="3"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L69" s="125"/>
       <c r="M69" s="85" t="b">
@@ -21073,11 +21071,11 @@
       </c>
       <c r="C70" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A70)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D70" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A70)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F70" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -21097,7 +21095,7 @@
       </c>
       <c r="K70" s="113" t="e">
         <f t="shared" ref="K70:K129" ca="1" si="8">D70</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L70" s="125"/>
       <c r="M70" s="85" t="b">
@@ -21274,11 +21272,11 @@
       </c>
       <c r="C71" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A71)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D71" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A71)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F71" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -21298,7 +21296,7 @@
       </c>
       <c r="K71" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L71" s="125"/>
       <c r="M71" s="85" t="b">
@@ -21475,11 +21473,11 @@
       </c>
       <c r="C72" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A72)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D72" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A72)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F72" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -21499,7 +21497,7 @@
       </c>
       <c r="K72" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L72" s="125"/>
       <c r="M72" s="85" t="b">
@@ -21676,11 +21674,11 @@
       </c>
       <c r="C73" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A73)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D73" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A73)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F73" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -21700,7 +21698,7 @@
       </c>
       <c r="K73" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L73" s="125"/>
       <c r="M73" s="85" t="b">
@@ -21877,11 +21875,11 @@
       </c>
       <c r="C74" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A74)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D74" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A74)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F74" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -21901,7 +21899,7 @@
       </c>
       <c r="K74" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L74" s="125"/>
       <c r="M74" s="85" t="b">
@@ -22078,11 +22076,11 @@
       </c>
       <c r="C75" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A75)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D75" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A75)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F75" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -22102,7 +22100,7 @@
       </c>
       <c r="K75" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L75" s="125"/>
       <c r="M75" s="85" t="b">
@@ -22279,11 +22277,11 @@
       </c>
       <c r="C76" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A76)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D76" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A76)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F76" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -22303,7 +22301,7 @@
       </c>
       <c r="K76" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L76" s="125"/>
       <c r="M76" s="85" t="b">
@@ -22480,11 +22478,11 @@
       </c>
       <c r="C77" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A77)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D77" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A77)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F77" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -22504,7 +22502,7 @@
       </c>
       <c r="K77" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L77" s="125"/>
       <c r="M77" s="85" t="b">
@@ -22681,11 +22679,11 @@
       </c>
       <c r="C78" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A78)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D78" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A78)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F78" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -22705,7 +22703,7 @@
       </c>
       <c r="K78" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L78" s="125"/>
       <c r="M78" s="85" t="b">
@@ -22882,11 +22880,11 @@
       </c>
       <c r="C79" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A79)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D79" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A79)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F79" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -22906,7 +22904,7 @@
       </c>
       <c r="K79" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L79" s="125"/>
       <c r="M79" s="85" t="b">
@@ -23083,11 +23081,11 @@
       </c>
       <c r="C80" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A80)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D80" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A80)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F80" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -23107,7 +23105,7 @@
       </c>
       <c r="K80" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L80" s="125"/>
       <c r="M80" s="85" t="b">
@@ -23284,11 +23282,11 @@
       </c>
       <c r="C81" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A81)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D81" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A81)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F81" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -23308,7 +23306,7 @@
       </c>
       <c r="K81" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L81" s="125"/>
       <c r="M81" s="85" t="b">
@@ -23485,11 +23483,11 @@
       </c>
       <c r="C82" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A82)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D82" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A82)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F82" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -23509,7 +23507,7 @@
       </c>
       <c r="K82" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L82" s="125"/>
       <c r="M82" s="85" t="b">
@@ -23686,11 +23684,11 @@
       </c>
       <c r="C83" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A83)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D83" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A83)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F83" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -23710,7 +23708,7 @@
       </c>
       <c r="K83" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L83" s="125"/>
       <c r="M83" s="85" t="b">
@@ -23887,11 +23885,11 @@
       </c>
       <c r="C84" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A84)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D84" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A84)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F84" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -23911,7 +23909,7 @@
       </c>
       <c r="K84" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L84" s="125"/>
       <c r="M84" s="85" t="b">
@@ -24088,11 +24086,11 @@
       </c>
       <c r="C85" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A85)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D85" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A85)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F85" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -24112,7 +24110,7 @@
       </c>
       <c r="K85" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L85" s="125"/>
       <c r="M85" s="85" t="b">
@@ -24289,11 +24287,11 @@
       </c>
       <c r="C86" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A86)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D86" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A86)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F86" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -24313,7 +24311,7 @@
       </c>
       <c r="K86" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L86" s="125"/>
       <c r="M86" s="85" t="b">
@@ -24490,11 +24488,11 @@
       </c>
       <c r="C87" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A87)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D87" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A87)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F87" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -24514,7 +24512,7 @@
       </c>
       <c r="K87" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L87" s="125"/>
       <c r="M87" s="85" t="b">
@@ -24691,11 +24689,11 @@
       </c>
       <c r="C88" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A88)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D88" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A88)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F88" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -24715,7 +24713,7 @@
       </c>
       <c r="K88" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L88" s="125"/>
       <c r="M88" s="85" t="b">
@@ -24892,11 +24890,11 @@
       </c>
       <c r="C89" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A89)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D89" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A89)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F89" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -24916,7 +24914,7 @@
       </c>
       <c r="K89" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L89" s="125"/>
       <c r="M89" s="85" t="b">
@@ -25093,11 +25091,11 @@
       </c>
       <c r="C90" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A90)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D90" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A90)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F90" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -25117,7 +25115,7 @@
       </c>
       <c r="K90" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L90" s="125"/>
       <c r="M90" s="85" t="b">
@@ -25294,11 +25292,11 @@
       </c>
       <c r="C91" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A91)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D91" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A91)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F91" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -25318,7 +25316,7 @@
       </c>
       <c r="K91" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L91" s="125"/>
       <c r="M91" s="85" t="b">
@@ -25495,11 +25493,11 @@
       </c>
       <c r="C92" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A92)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D92" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A92)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F92" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -25519,7 +25517,7 @@
       </c>
       <c r="K92" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L92" s="125"/>
       <c r="M92" s="85" t="b">
@@ -25696,11 +25694,11 @@
       </c>
       <c r="C93" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A93)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D93" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A93)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F93" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -25720,7 +25718,7 @@
       </c>
       <c r="K93" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L93" s="125"/>
       <c r="M93" s="85" t="b">
@@ -25897,11 +25895,11 @@
       </c>
       <c r="C94" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A94)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D94" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A94)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F94" s="103" t="e">
         <f t="shared" ca="1" si="4"/>
@@ -25921,7 +25919,7 @@
       </c>
       <c r="K94" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L94" s="125"/>
       <c r="M94" s="85" t="b">
@@ -26098,11 +26096,11 @@
       </c>
       <c r="C95" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A95)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D95" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A95)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F95" s="103" t="e">
         <f t="shared" ref="F95:F129" ca="1" si="9">IF(ISERROR(D95),NA(),(D95-D94)/2+D94)</f>
@@ -26122,7 +26120,7 @@
       </c>
       <c r="K95" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L95" s="125"/>
       <c r="M95" s="85" t="b">
@@ -26299,11 +26297,11 @@
       </c>
       <c r="C96" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A96)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D96" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A96)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F96" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -26323,7 +26321,7 @@
       </c>
       <c r="K96" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L96" s="125"/>
       <c r="M96" s="85" t="b">
@@ -26500,11 +26498,11 @@
       </c>
       <c r="C97" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A97)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D97" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A97)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F97" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -26524,7 +26522,7 @@
       </c>
       <c r="K97" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L97" s="125"/>
       <c r="M97" s="85" t="b">
@@ -26701,11 +26699,11 @@
       </c>
       <c r="C98" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A98)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D98" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A98)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F98" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -26725,7 +26723,7 @@
       </c>
       <c r="K98" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L98" s="125"/>
       <c r="M98" s="85" t="b">
@@ -26902,11 +26900,11 @@
       </c>
       <c r="C99" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A99)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D99" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A99)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F99" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -26926,7 +26924,7 @@
       </c>
       <c r="K99" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L99" s="125"/>
       <c r="M99" s="85" t="b">
@@ -27103,11 +27101,11 @@
       </c>
       <c r="C100" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A100)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D100" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A100)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F100" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -27127,7 +27125,7 @@
       </c>
       <c r="K100" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L100" s="125"/>
       <c r="M100" s="85" t="b">
@@ -27304,11 +27302,11 @@
       </c>
       <c r="C101" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A101)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D101" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A101)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F101" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -27328,7 +27326,7 @@
       </c>
       <c r="K101" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L101" s="125"/>
       <c r="M101" s="85" t="b">
@@ -27505,11 +27503,11 @@
       </c>
       <c r="C102" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A102)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D102" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A102)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F102" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -27529,7 +27527,7 @@
       </c>
       <c r="K102" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L102" s="125"/>
       <c r="M102" s="85" t="b">
@@ -27706,11 +27704,11 @@
       </c>
       <c r="C103" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A103)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D103" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A103)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F103" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -27730,7 +27728,7 @@
       </c>
       <c r="K103" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L103" s="125"/>
       <c r="M103" s="85" t="b">
@@ -27907,11 +27905,11 @@
       </c>
       <c r="C104" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A104)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D104" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A104)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F104" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -27931,7 +27929,7 @@
       </c>
       <c r="K104" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L104" s="125"/>
       <c r="M104" s="85" t="b">
@@ -28108,11 +28106,11 @@
       </c>
       <c r="C105" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A105)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D105" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A105)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F105" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -28132,7 +28130,7 @@
       </c>
       <c r="K105" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L105" s="125"/>
       <c r="M105" s="85" t="b">
@@ -28309,11 +28307,11 @@
       </c>
       <c r="C106" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A106)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D106" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A106)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F106" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -28333,7 +28331,7 @@
       </c>
       <c r="K106" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L106" s="125"/>
       <c r="M106" s="85" t="b">
@@ -28510,11 +28508,11 @@
       </c>
       <c r="C107" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A107)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D107" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A107)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F107" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -28534,7 +28532,7 @@
       </c>
       <c r="K107" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L107" s="125"/>
       <c r="M107" s="85" t="b">
@@ -28711,11 +28709,11 @@
       </c>
       <c r="C108" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A108)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D108" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A108)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F108" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -28735,7 +28733,7 @@
       </c>
       <c r="K108" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L108" s="125"/>
       <c r="M108" s="85" t="b">
@@ -28912,11 +28910,11 @@
       </c>
       <c r="C109" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A109)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D109" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A109)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F109" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -28936,7 +28934,7 @@
       </c>
       <c r="K109" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L109" s="125"/>
       <c r="M109" s="85" t="b">
@@ -29113,11 +29111,11 @@
       </c>
       <c r="C110" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A110)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D110" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A110)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F110" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -29137,7 +29135,7 @@
       </c>
       <c r="K110" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L110" s="125"/>
       <c r="M110" s="85" t="b">
@@ -29314,11 +29312,11 @@
       </c>
       <c r="C111" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A111)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D111" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A111)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F111" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -29338,7 +29336,7 @@
       </c>
       <c r="K111" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L111" s="125"/>
       <c r="M111" s="85" t="b">
@@ -29515,11 +29513,11 @@
       </c>
       <c r="C112" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A112)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D112" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A112)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F112" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -29539,7 +29537,7 @@
       </c>
       <c r="K112" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L112" s="125"/>
       <c r="M112" s="85" t="b">
@@ -29716,11 +29714,11 @@
       </c>
       <c r="C113" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A113)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D113" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A113)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F113" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -29740,7 +29738,7 @@
       </c>
       <c r="K113" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L113" s="125"/>
       <c r="M113" s="85" t="b">
@@ -29917,11 +29915,11 @@
       </c>
       <c r="C114" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A114)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D114" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A114)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F114" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -29941,7 +29939,7 @@
       </c>
       <c r="K114" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L114" s="125"/>
       <c r="M114" s="85" t="b">
@@ -30118,11 +30116,11 @@
       </c>
       <c r="C115" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A115)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D115" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A115)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F115" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -30142,7 +30140,7 @@
       </c>
       <c r="K115" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L115" s="125"/>
       <c r="M115" s="85" t="b">
@@ -30319,11 +30317,11 @@
       </c>
       <c r="C116" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A116)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D116" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A116)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F116" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -30343,7 +30341,7 @@
       </c>
       <c r="K116" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L116" s="125"/>
       <c r="M116" s="85" t="b">
@@ -30520,11 +30518,11 @@
       </c>
       <c r="C117" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A117)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D117" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A117)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F117" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -30544,7 +30542,7 @@
       </c>
       <c r="K117" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L117" s="125"/>
       <c r="M117" s="85" t="b">
@@ -30721,11 +30719,11 @@
       </c>
       <c r="C118" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A118)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D118" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A118)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F118" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -30745,7 +30743,7 @@
       </c>
       <c r="K118" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L118" s="125"/>
       <c r="M118" s="85" t="b">
@@ -30922,11 +30920,11 @@
       </c>
       <c r="C119" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A119)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D119" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A119)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F119" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -30946,7 +30944,7 @@
       </c>
       <c r="K119" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L119" s="125"/>
       <c r="M119" s="85" t="b">
@@ -31123,11 +31121,11 @@
       </c>
       <c r="C120" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A120)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D120" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A120)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F120" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -31147,7 +31145,7 @@
       </c>
       <c r="K120" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L120" s="125"/>
       <c r="M120" s="85" t="b">
@@ -31324,11 +31322,11 @@
       </c>
       <c r="C121" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A121)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D121" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A121)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F121" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -31348,7 +31346,7 @@
       </c>
       <c r="K121" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L121" s="125"/>
       <c r="M121" s="85" t="b">
@@ -31525,11 +31523,11 @@
       </c>
       <c r="C122" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A122)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D122" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A122)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F122" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -31549,7 +31547,7 @@
       </c>
       <c r="K122" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L122" s="125"/>
       <c r="M122" s="85" t="b">
@@ -31726,11 +31724,11 @@
       </c>
       <c r="C123" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A123)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D123" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A123)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F123" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -31750,7 +31748,7 @@
       </c>
       <c r="K123" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L123" s="125"/>
       <c r="M123" s="85" t="b">
@@ -31927,11 +31925,11 @@
       </c>
       <c r="C124" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A124)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D124" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A124)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F124" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -31951,7 +31949,7 @@
       </c>
       <c r="K124" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L124" s="125"/>
       <c r="M124" s="85" t="b">
@@ -32128,11 +32126,11 @@
       </c>
       <c r="C125" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A125)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D125" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A125)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F125" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -32152,7 +32150,7 @@
       </c>
       <c r="K125" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L125" s="125"/>
       <c r="M125" s="85" t="b">
@@ -32329,11 +32327,11 @@
       </c>
       <c r="C126" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A126)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D126" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A126)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F126" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -32353,7 +32351,7 @@
       </c>
       <c r="K126" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L126" s="125"/>
       <c r="M126" s="85" t="b">
@@ -32530,11 +32528,11 @@
       </c>
       <c r="C127" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A127)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D127" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A127)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F127" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -32554,7 +32552,7 @@
       </c>
       <c r="K127" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L127" s="125"/>
       <c r="M127" s="85" t="b">
@@ -32731,11 +32729,11 @@
       </c>
       <c r="C128" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A128)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D128" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A128)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F128" s="103" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -32755,7 +32753,7 @@
       </c>
       <c r="K128" s="113" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L128" s="125"/>
       <c r="M128" s="85" t="b">
@@ -32932,11 +32930,11 @@
       </c>
       <c r="C129" s="18" t="e">
         <f ca="1">_xll.qlRateHelperEarliestDate($A129)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="D129" s="19" t="e">
         <f ca="1">_xll.qlRateHelperLatestDate($A129)</f>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="F129" s="105" t="e">
         <f t="shared" ca="1" si="9"/>
@@ -32956,7 +32954,7 @@
       </c>
       <c r="K129" s="116" t="e">
         <f t="shared" ca="1" si="8"/>
-        <v>#NAME?</v>
+        <v>#NUM!</v>
       </c>
       <c r="L129" s="125"/>
       <c r="M129" s="90" t="b">
@@ -33142,7 +33140,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:R515"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -33182,7 +33182,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="23">
         <f ca="1">_xll.ohTrigger(M3:M4)</f>
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="N1" s="144"/>
     </row>
@@ -33256,7 +33256,7 @@
       </c>
       <c r="K3" s="40" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J3,,TRUE)</f>
-        <v>EURJump1_SYNTHON_Quote#0004</v>
+        <v>EURJump1_SYNTHON_Quote#0002</v>
       </c>
       <c r="L3" s="40" t="e">
         <f t="array" aca="1" ref="L3:L15" ca="1">QuoteLive</f>
@@ -33308,7 +33308,7 @@
       </c>
       <c r="K4" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J4,,TRUE)</f>
-        <v>EURJump2_SYNTHON_Quote#0004</v>
+        <v>EURJump2_SYNTHON_Quote#0002</v>
       </c>
       <c r="L4" s="141" t="e">
         <f ca="1"/>
@@ -33360,7 +33360,7 @@
       </c>
       <c r="K5" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J5,,TRUE)</f>
-        <v>EURJump3_SYNTHON_Quote#0004</v>
+        <v>EURJump3_SYNTHON_Quote#0003</v>
       </c>
       <c r="L5" s="141" t="e">
         <f ca="1"/>
@@ -33412,7 +33412,7 @@
       </c>
       <c r="K6" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J6,,TRUE)</f>
-        <v>EURJump4_SYNTHON_Quote#0004</v>
+        <v>EURJump4_SYNTHON_Quote#0002</v>
       </c>
       <c r="L6" s="141" t="e">
         <f ca="1"/>
@@ -33464,7 +33464,7 @@
       </c>
       <c r="K7" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J7,,TRUE)</f>
-        <v>EURJump5_SYNTHON_Quote#0004</v>
+        <v>EURJump5_SYNTHON_Quote#0002</v>
       </c>
       <c r="L7" s="141" t="e">
         <f ca="1"/>
@@ -33516,7 +33516,7 @@
       </c>
       <c r="K8" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J8,,TRUE)</f>
-        <v>EURJump6_SYNTHON_Quote#0004</v>
+        <v>EURJump6_SYNTHON_Quote#0002</v>
       </c>
       <c r="L8" s="141" t="e">
         <f ca="1"/>
@@ -33568,7 +33568,7 @@
       </c>
       <c r="K9" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J9,,TRUE)</f>
-        <v>EURJump7_SYNTHON_Quote#0004</v>
+        <v>EURJump7_SYNTHON_Quote#0002</v>
       </c>
       <c r="L9" s="141" t="e">
         <f ca="1"/>
@@ -33620,7 +33620,7 @@
       </c>
       <c r="K10" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J10,,TRUE)</f>
-        <v>EURJump8_SYNTHON_Quote#0004</v>
+        <v>EURJump8_SYNTHON_Quote#0002</v>
       </c>
       <c r="L10" s="141" t="e">
         <f ca="1"/>
@@ -33672,7 +33672,7 @@
       </c>
       <c r="K11" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J11,,TRUE)</f>
-        <v>EURJump9_SYNTHON_Quote#0004</v>
+        <v>EURJump9_SYNTHON_Quote#0002</v>
       </c>
       <c r="L11" s="141" t="e">
         <f ca="1"/>
@@ -33724,7 +33724,7 @@
       </c>
       <c r="K12" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J12,,TRUE)</f>
-        <v>EURJump10_SYNTHON_Quote#0004</v>
+        <v>EURJump10_SYNTHON_Quote#0002</v>
       </c>
       <c r="L12" s="141" t="e">
         <f ca="1"/>
@@ -33776,7 +33776,7 @@
       </c>
       <c r="K13" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J13,,TRUE)</f>
-        <v>EURJump11_SYNTHON_Quote#0004</v>
+        <v>EURJump11_SYNTHON_Quote#0002</v>
       </c>
       <c r="L13" s="141" t="e">
         <f ca="1"/>
@@ -33828,7 +33828,7 @@
       </c>
       <c r="K14" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J14,,TRUE)</f>
-        <v>EURJump12_SYNTHON_Quote#0004</v>
+        <v>EURJump12_SYNTHON_Quote#0002</v>
       </c>
       <c r="L14" s="141" t="e">
         <f ca="1"/>
@@ -33880,7 +33880,7 @@
       </c>
       <c r="K15" s="142" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J15,,TRUE)</f>
-        <v>EURJump13_SYNTHON_Quote#0004</v>
+        <v>EURJump13_SYNTHON_Quote#0002</v>
       </c>
       <c r="L15" s="142" t="e">
         <f ca="1"/>

--- a/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="9570" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="15300" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -1339,7 +1339,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42249</c:v>
+                  <c:v>42250</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>42305</c:v>
@@ -1515,7 +1515,7 @@
                 <c:formatCode>ddd\,\ dd\-mmm\-yyyy</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>42249</c:v>
+                  <c:v>42250</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42305</c:v>
@@ -1674,11 +1674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="38330752"/>
-        <c:axId val="38332288"/>
+        <c:axId val="178008832"/>
+        <c:axId val="178010368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="38330752"/>
+        <c:axId val="178008832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1698,12 +1698,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="38332288"/>
+        <c:crossAx val="178010368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="38332288"/>
+        <c:axId val="178010368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1714,7 +1714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="38330752"/>
+        <c:crossAx val="178008832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1770,1543 +1770,1543 @@
                 <c:formatCode>ddd\,\ dd\-mmm\-yyyy</c:formatCode>
                 <c:ptCount val="513"/>
                 <c:pt idx="0">
-                  <c:v>42242</c:v>
+                  <c:v>42243</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42243</c:v>
+                  <c:v>42244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42244</c:v>
+                  <c:v>42247</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42247</c:v>
+                  <c:v>42248</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42248</c:v>
+                  <c:v>42249</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42249</c:v>
+                  <c:v>42250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42250</c:v>
+                  <c:v>42251</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42251</c:v>
+                  <c:v>42254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42254</c:v>
+                  <c:v>42255</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42255</c:v>
+                  <c:v>42256</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42256</c:v>
+                  <c:v>42257</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42257</c:v>
+                  <c:v>42258</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42258</c:v>
+                  <c:v>42261</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42261</c:v>
+                  <c:v>42262</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42262</c:v>
+                  <c:v>42263</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42263</c:v>
+                  <c:v>42264</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42264</c:v>
+                  <c:v>42265</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42265</c:v>
+                  <c:v>42268</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42268</c:v>
+                  <c:v>42269</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42269</c:v>
+                  <c:v>42270</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42270</c:v>
+                  <c:v>42271</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42271</c:v>
+                  <c:v>42272</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42272</c:v>
+                  <c:v>42275</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42275</c:v>
+                  <c:v>42276</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42276</c:v>
+                  <c:v>42277</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42277</c:v>
+                  <c:v>42278</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42278</c:v>
+                  <c:v>42279</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>42279</c:v>
+                  <c:v>42282</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>42282</c:v>
+                  <c:v>42283</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>42283</c:v>
+                  <c:v>42284</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>42284</c:v>
+                  <c:v>42285</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42285</c:v>
+                  <c:v>42286</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>42286</c:v>
+                  <c:v>42289</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42289</c:v>
+                  <c:v>42290</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42290</c:v>
+                  <c:v>42291</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>42291</c:v>
+                  <c:v>42292</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>42292</c:v>
+                  <c:v>42293</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>42293</c:v>
+                  <c:v>42296</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>42296</c:v>
+                  <c:v>42297</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42297</c:v>
+                  <c:v>42298</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42298</c:v>
+                  <c:v>42299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>42299</c:v>
+                  <c:v>42300</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42300</c:v>
+                  <c:v>42303</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>42303</c:v>
+                  <c:v>42304</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>42304</c:v>
+                  <c:v>42305</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>42305</c:v>
+                  <c:v>42306</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42306</c:v>
+                  <c:v>42307</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>42307</c:v>
+                  <c:v>42310</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>42310</c:v>
+                  <c:v>42311</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>42311</c:v>
+                  <c:v>42312</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42312</c:v>
+                  <c:v>42313</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>42313</c:v>
+                  <c:v>42314</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>42314</c:v>
+                  <c:v>42317</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>42317</c:v>
+                  <c:v>42318</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>42318</c:v>
+                  <c:v>42319</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>42319</c:v>
+                  <c:v>42320</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>42320</c:v>
+                  <c:v>42321</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>42321</c:v>
+                  <c:v>42324</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>42324</c:v>
+                  <c:v>42325</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>42325</c:v>
+                  <c:v>42326</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>42326</c:v>
+                  <c:v>42327</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42327</c:v>
+                  <c:v>42328</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>42328</c:v>
+                  <c:v>42331</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>42331</c:v>
+                  <c:v>42332</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>42332</c:v>
+                  <c:v>42333</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>42333</c:v>
+                  <c:v>42334</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>42334</c:v>
+                  <c:v>42335</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>42335</c:v>
+                  <c:v>42338</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>42338</c:v>
+                  <c:v>42339</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>42339</c:v>
+                  <c:v>42340</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>42340</c:v>
+                  <c:v>42341</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>42341</c:v>
+                  <c:v>42342</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42342</c:v>
+                  <c:v>42345</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42345</c:v>
+                  <c:v>42346</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>42346</c:v>
+                  <c:v>42347</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>42347</c:v>
+                  <c:v>42348</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>42348</c:v>
+                  <c:v>42349</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>42349</c:v>
+                  <c:v>42352</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>42352</c:v>
+                  <c:v>42353</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>42353</c:v>
+                  <c:v>42354</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>42354</c:v>
+                  <c:v>42355</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>42355</c:v>
+                  <c:v>42356</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>42356</c:v>
+                  <c:v>42359</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>42359</c:v>
+                  <c:v>42360</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>42360</c:v>
+                  <c:v>42361</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>42361</c:v>
+                  <c:v>42362</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>42362</c:v>
+                  <c:v>42366</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>42366</c:v>
+                  <c:v>42367</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>42367</c:v>
+                  <c:v>42368</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>42368</c:v>
+                  <c:v>42369</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>42369</c:v>
+                  <c:v>42373</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>42373</c:v>
+                  <c:v>42374</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>42374</c:v>
+                  <c:v>42375</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>42375</c:v>
+                  <c:v>42376</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>42376</c:v>
+                  <c:v>42377</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42377</c:v>
+                  <c:v>42380</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>42380</c:v>
+                  <c:v>42381</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>42381</c:v>
+                  <c:v>42382</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>42382</c:v>
+                  <c:v>42383</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>42383</c:v>
+                  <c:v>42384</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>42384</c:v>
+                  <c:v>42387</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>42387</c:v>
+                  <c:v>42388</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>42388</c:v>
+                  <c:v>42389</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>42389</c:v>
+                  <c:v>42390</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>42390</c:v>
+                  <c:v>42391</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>42391</c:v>
+                  <c:v>42394</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>42394</c:v>
+                  <c:v>42395</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>42395</c:v>
+                  <c:v>42396</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>42396</c:v>
+                  <c:v>42397</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>42397</c:v>
+                  <c:v>42398</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>42398</c:v>
+                  <c:v>42401</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>42401</c:v>
+                  <c:v>42402</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>42402</c:v>
+                  <c:v>42403</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>42403</c:v>
+                  <c:v>42404</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>42404</c:v>
+                  <c:v>42405</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>42405</c:v>
+                  <c:v>42408</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>42408</c:v>
+                  <c:v>42409</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>42409</c:v>
+                  <c:v>42410</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>42410</c:v>
+                  <c:v>42411</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>42411</c:v>
+                  <c:v>42412</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>42412</c:v>
+                  <c:v>42415</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>42415</c:v>
+                  <c:v>42416</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>42416</c:v>
+                  <c:v>42417</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>42417</c:v>
+                  <c:v>42418</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>42418</c:v>
+                  <c:v>42419</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>42419</c:v>
+                  <c:v>42422</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>42422</c:v>
+                  <c:v>42423</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>42423</c:v>
+                  <c:v>42424</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>42424</c:v>
+                  <c:v>42425</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>42425</c:v>
+                  <c:v>42426</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>42426</c:v>
+                  <c:v>42429</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>42429</c:v>
+                  <c:v>42430</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>42430</c:v>
+                  <c:v>42431</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>42431</c:v>
+                  <c:v>42432</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>42432</c:v>
+                  <c:v>42433</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>42433</c:v>
+                  <c:v>42436</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>42436</c:v>
+                  <c:v>42437</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>42437</c:v>
+                  <c:v>42438</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>42438</c:v>
+                  <c:v>42439</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>42439</c:v>
+                  <c:v>42440</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>42440</c:v>
+                  <c:v>42443</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>42443</c:v>
+                  <c:v>42444</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>42444</c:v>
+                  <c:v>42445</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>42445</c:v>
+                  <c:v>42446</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>42446</c:v>
+                  <c:v>42447</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>42447</c:v>
+                  <c:v>42450</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>42450</c:v>
+                  <c:v>42451</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>42451</c:v>
+                  <c:v>42452</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>42452</c:v>
+                  <c:v>42453</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>42453</c:v>
+                  <c:v>42458</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>42458</c:v>
+                  <c:v>42459</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>42459</c:v>
+                  <c:v>42460</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>42460</c:v>
+                  <c:v>42461</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>42461</c:v>
+                  <c:v>42464</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>42464</c:v>
+                  <c:v>42465</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>42465</c:v>
+                  <c:v>42466</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>42466</c:v>
+                  <c:v>42467</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>42467</c:v>
+                  <c:v>42468</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>42468</c:v>
+                  <c:v>42471</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>42471</c:v>
+                  <c:v>42472</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>42472</c:v>
+                  <c:v>42473</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>42473</c:v>
+                  <c:v>42474</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>42474</c:v>
+                  <c:v>42475</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>42475</c:v>
+                  <c:v>42478</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>42478</c:v>
+                  <c:v>42479</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>42479</c:v>
+                  <c:v>42480</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>42480</c:v>
+                  <c:v>42481</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>42481</c:v>
+                  <c:v>42482</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>42482</c:v>
+                  <c:v>42485</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>42485</c:v>
+                  <c:v>42486</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>42486</c:v>
+                  <c:v>42487</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>42487</c:v>
+                  <c:v>42488</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>42488</c:v>
+                  <c:v>42489</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>42489</c:v>
+                  <c:v>42492</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>42492</c:v>
+                  <c:v>42493</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>42493</c:v>
+                  <c:v>42494</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>42494</c:v>
+                  <c:v>42495</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>42495</c:v>
+                  <c:v>42496</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>42496</c:v>
+                  <c:v>42499</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>42499</c:v>
+                  <c:v>42500</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>42500</c:v>
+                  <c:v>42501</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>42501</c:v>
+                  <c:v>42502</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>42502</c:v>
+                  <c:v>42503</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>42503</c:v>
+                  <c:v>42506</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>42506</c:v>
+                  <c:v>42507</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>42507</c:v>
+                  <c:v>42508</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>42508</c:v>
+                  <c:v>42509</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>42509</c:v>
+                  <c:v>42510</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>42510</c:v>
+                  <c:v>42513</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>42513</c:v>
+                  <c:v>42514</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>42514</c:v>
+                  <c:v>42515</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>42515</c:v>
+                  <c:v>42516</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>42516</c:v>
+                  <c:v>42517</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>42517</c:v>
+                  <c:v>42520</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>42520</c:v>
+                  <c:v>42521</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>42521</c:v>
+                  <c:v>42522</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>42522</c:v>
+                  <c:v>42523</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>42523</c:v>
+                  <c:v>42524</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>42524</c:v>
+                  <c:v>42527</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>42527</c:v>
+                  <c:v>42528</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>42528</c:v>
+                  <c:v>42529</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>42529</c:v>
+                  <c:v>42530</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>42530</c:v>
+                  <c:v>42531</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>42531</c:v>
+                  <c:v>42534</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>42534</c:v>
+                  <c:v>42535</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>42535</c:v>
+                  <c:v>42536</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>42536</c:v>
+                  <c:v>42537</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>42537</c:v>
+                  <c:v>42538</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>42538</c:v>
+                  <c:v>42541</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>42541</c:v>
+                  <c:v>42542</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>42542</c:v>
+                  <c:v>42543</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>42543</c:v>
+                  <c:v>42544</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>42544</c:v>
+                  <c:v>42545</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>42545</c:v>
+                  <c:v>42548</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>42548</c:v>
+                  <c:v>42549</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>42549</c:v>
+                  <c:v>42550</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>42550</c:v>
+                  <c:v>42551</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>42551</c:v>
+                  <c:v>42552</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>42552</c:v>
+                  <c:v>42555</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>42555</c:v>
+                  <c:v>42556</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>42556</c:v>
+                  <c:v>42557</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>42557</c:v>
+                  <c:v>42558</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>42558</c:v>
+                  <c:v>42559</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>42559</c:v>
+                  <c:v>42562</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>42562</c:v>
+                  <c:v>42563</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>42563</c:v>
+                  <c:v>42564</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>42564</c:v>
+                  <c:v>42565</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>42565</c:v>
+                  <c:v>42566</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>42566</c:v>
+                  <c:v>42569</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>42569</c:v>
+                  <c:v>42570</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>42570</c:v>
+                  <c:v>42571</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>42571</c:v>
+                  <c:v>42572</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>42572</c:v>
+                  <c:v>42573</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>42573</c:v>
+                  <c:v>42576</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>42576</c:v>
+                  <c:v>42577</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>42577</c:v>
+                  <c:v>42578</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>42578</c:v>
+                  <c:v>42579</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>42579</c:v>
+                  <c:v>42580</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>42580</c:v>
+                  <c:v>42583</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>42583</c:v>
+                  <c:v>42584</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>42584</c:v>
+                  <c:v>42585</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>42585</c:v>
+                  <c:v>42586</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>42586</c:v>
+                  <c:v>42587</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>42587</c:v>
+                  <c:v>42590</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>42590</c:v>
+                  <c:v>42591</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>42591</c:v>
+                  <c:v>42592</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>42592</c:v>
+                  <c:v>42593</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>42593</c:v>
+                  <c:v>42594</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>42594</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>42597</c:v>
+                  <c:v>42598</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>42598</c:v>
+                  <c:v>42599</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>42599</c:v>
+                  <c:v>42600</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>42600</c:v>
+                  <c:v>42601</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>42601</c:v>
+                  <c:v>42604</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>42604</c:v>
+                  <c:v>42605</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>42605</c:v>
+                  <c:v>42606</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>42606</c:v>
+                  <c:v>42607</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>42607</c:v>
+                  <c:v>42608</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>42608</c:v>
+                  <c:v>42611</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>42611</c:v>
+                  <c:v>42612</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>42612</c:v>
+                  <c:v>42613</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>42613</c:v>
+                  <c:v>42614</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>42614</c:v>
+                  <c:v>42615</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>42615</c:v>
+                  <c:v>42618</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>42618</c:v>
+                  <c:v>42619</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>42619</c:v>
+                  <c:v>42620</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>42620</c:v>
+                  <c:v>42621</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>42621</c:v>
+                  <c:v>42622</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>42622</c:v>
+                  <c:v>42625</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>42625</c:v>
+                  <c:v>42626</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>42626</c:v>
+                  <c:v>42627</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>42627</c:v>
+                  <c:v>42628</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>42628</c:v>
+                  <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>42629</c:v>
+                  <c:v>42632</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>42632</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>42633</c:v>
+                  <c:v>42634</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>42634</c:v>
+                  <c:v>42635</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>42635</c:v>
+                  <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>42636</c:v>
+                  <c:v>42639</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>42639</c:v>
+                  <c:v>42640</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>42640</c:v>
+                  <c:v>42641</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>42641</c:v>
+                  <c:v>42642</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>42642</c:v>
+                  <c:v>42643</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>42643</c:v>
+                  <c:v>42646</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>42646</c:v>
+                  <c:v>42647</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>42647</c:v>
+                  <c:v>42648</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>42648</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>42649</c:v>
+                  <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>42650</c:v>
+                  <c:v>42653</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>42653</c:v>
+                  <c:v>42654</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>42654</c:v>
+                  <c:v>42655</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>42655</c:v>
+                  <c:v>42656</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>42656</c:v>
+                  <c:v>42657</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>42657</c:v>
+                  <c:v>42660</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>42660</c:v>
+                  <c:v>42661</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>42661</c:v>
+                  <c:v>42662</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>42662</c:v>
+                  <c:v>42663</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>42663</c:v>
+                  <c:v>42664</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>42664</c:v>
+                  <c:v>42667</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>42667</c:v>
+                  <c:v>42668</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>42668</c:v>
+                  <c:v>42669</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>42669</c:v>
+                  <c:v>42670</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>42670</c:v>
+                  <c:v>42671</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>42671</c:v>
+                  <c:v>42674</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>42674</c:v>
+                  <c:v>42675</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>42675</c:v>
+                  <c:v>42676</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>42676</c:v>
+                  <c:v>42677</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>42677</c:v>
+                  <c:v>42678</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>42678</c:v>
+                  <c:v>42681</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>42681</c:v>
+                  <c:v>42682</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>42682</c:v>
+                  <c:v>42683</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>42683</c:v>
+                  <c:v>42684</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>42684</c:v>
+                  <c:v>42685</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>42685</c:v>
+                  <c:v>42688</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>42688</c:v>
+                  <c:v>42689</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>42689</c:v>
+                  <c:v>42690</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>42690</c:v>
+                  <c:v>42691</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>42691</c:v>
+                  <c:v>42692</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>42692</c:v>
+                  <c:v>42695</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>42695</c:v>
+                  <c:v>42696</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>42696</c:v>
+                  <c:v>42697</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>42697</c:v>
+                  <c:v>42698</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>42698</c:v>
+                  <c:v>42699</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>42699</c:v>
+                  <c:v>42702</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>42702</c:v>
+                  <c:v>42703</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>42703</c:v>
+                  <c:v>42704</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>42704</c:v>
+                  <c:v>42705</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>42705</c:v>
+                  <c:v>42706</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>42706</c:v>
+                  <c:v>42709</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>42709</c:v>
+                  <c:v>42710</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>42710</c:v>
+                  <c:v>42711</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>42711</c:v>
+                  <c:v>42712</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>42712</c:v>
+                  <c:v>42713</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>42713</c:v>
+                  <c:v>42716</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>42716</c:v>
+                  <c:v>42717</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>42717</c:v>
+                  <c:v>42718</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>42718</c:v>
+                  <c:v>42719</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>42719</c:v>
+                  <c:v>42720</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>42720</c:v>
+                  <c:v>42723</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>42723</c:v>
+                  <c:v>42724</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>42724</c:v>
+                  <c:v>42725</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>42725</c:v>
+                  <c:v>42726</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>42726</c:v>
+                  <c:v>42727</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>42727</c:v>
+                  <c:v>42731</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>42731</c:v>
+                  <c:v>42732</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>42732</c:v>
+                  <c:v>42733</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>42733</c:v>
+                  <c:v>42734</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>42734</c:v>
+                  <c:v>42737</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>42737</c:v>
+                  <c:v>42738</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>42738</c:v>
+                  <c:v>42739</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>42739</c:v>
+                  <c:v>42740</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>42740</c:v>
+                  <c:v>42741</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>42741</c:v>
+                  <c:v>42744</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>42744</c:v>
+                  <c:v>42745</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>42745</c:v>
+                  <c:v>42746</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>42746</c:v>
+                  <c:v>42747</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>42747</c:v>
+                  <c:v>42748</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>42748</c:v>
+                  <c:v>42751</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>42751</c:v>
+                  <c:v>42752</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>42752</c:v>
+                  <c:v>42753</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>42753</c:v>
+                  <c:v>42754</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>42754</c:v>
+                  <c:v>42755</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>42755</c:v>
+                  <c:v>42758</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>42758</c:v>
+                  <c:v>42759</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>42759</c:v>
+                  <c:v>42760</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>42760</c:v>
+                  <c:v>42761</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>42761</c:v>
+                  <c:v>42762</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>42762</c:v>
+                  <c:v>42765</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>42765</c:v>
+                  <c:v>42766</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>42766</c:v>
+                  <c:v>42767</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>42767</c:v>
+                  <c:v>42768</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>42768</c:v>
+                  <c:v>42769</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>42769</c:v>
+                  <c:v>42772</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>42772</c:v>
+                  <c:v>42773</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>42773</c:v>
+                  <c:v>42774</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>42774</c:v>
+                  <c:v>42775</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>42775</c:v>
+                  <c:v>42776</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>42776</c:v>
+                  <c:v>42779</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>42779</c:v>
+                  <c:v>42780</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>42780</c:v>
+                  <c:v>42781</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>42781</c:v>
+                  <c:v>42782</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>42782</c:v>
+                  <c:v>42783</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>42783</c:v>
+                  <c:v>42786</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>42786</c:v>
+                  <c:v>42787</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>42787</c:v>
+                  <c:v>42788</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>42788</c:v>
+                  <c:v>42789</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>42789</c:v>
+                  <c:v>42790</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>42790</c:v>
+                  <c:v>42793</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>42793</c:v>
+                  <c:v>42794</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>42794</c:v>
+                  <c:v>42795</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>42795</c:v>
+                  <c:v>42796</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>42796</c:v>
+                  <c:v>42797</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>42797</c:v>
+                  <c:v>42800</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>42800</c:v>
+                  <c:v>42801</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>42801</c:v>
+                  <c:v>42802</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>42802</c:v>
+                  <c:v>42803</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>42803</c:v>
+                  <c:v>42804</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>42804</c:v>
+                  <c:v>42807</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>42807</c:v>
+                  <c:v>42808</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>42808</c:v>
+                  <c:v>42809</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>42809</c:v>
+                  <c:v>42810</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>42810</c:v>
+                  <c:v>42811</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>42811</c:v>
+                  <c:v>42814</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>42814</c:v>
+                  <c:v>42815</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>42815</c:v>
+                  <c:v>42816</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>42816</c:v>
+                  <c:v>42817</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>42817</c:v>
+                  <c:v>42818</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>42818</c:v>
+                  <c:v>42821</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>42821</c:v>
+                  <c:v>42822</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>42822</c:v>
+                  <c:v>42823</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>42823</c:v>
+                  <c:v>42824</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>42824</c:v>
+                  <c:v>42825</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>42825</c:v>
+                  <c:v>42828</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>42828</c:v>
+                  <c:v>42829</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>42829</c:v>
+                  <c:v>42830</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>42830</c:v>
+                  <c:v>42831</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>42831</c:v>
+                  <c:v>42832</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>42832</c:v>
+                  <c:v>42835</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>42835</c:v>
+                  <c:v>42836</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>42836</c:v>
+                  <c:v>42837</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>42837</c:v>
+                  <c:v>42838</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>42838</c:v>
+                  <c:v>42843</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>42843</c:v>
+                  <c:v>42844</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>42844</c:v>
+                  <c:v>42845</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>42845</c:v>
+                  <c:v>42846</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>42846</c:v>
+                  <c:v>42849</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>42849</c:v>
+                  <c:v>42850</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>42850</c:v>
+                  <c:v>42851</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>42851</c:v>
+                  <c:v>42852</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>42852</c:v>
+                  <c:v>42853</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>42853</c:v>
+                  <c:v>42857</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>42857</c:v>
+                  <c:v>42858</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>42858</c:v>
+                  <c:v>42859</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>42859</c:v>
+                  <c:v>42860</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>42860</c:v>
+                  <c:v>42863</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>42863</c:v>
+                  <c:v>42864</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>42864</c:v>
+                  <c:v>42865</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>42865</c:v>
+                  <c:v>42866</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>42866</c:v>
+                  <c:v>42867</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>42867</c:v>
+                  <c:v>42870</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>42870</c:v>
+                  <c:v>42871</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>42871</c:v>
+                  <c:v>42872</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>42872</c:v>
+                  <c:v>42873</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>42873</c:v>
+                  <c:v>42874</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>42874</c:v>
+                  <c:v>42877</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>42877</c:v>
+                  <c:v>42878</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>42878</c:v>
+                  <c:v>42879</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>42879</c:v>
+                  <c:v>42880</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>42880</c:v>
+                  <c:v>42881</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>42881</c:v>
+                  <c:v>42884</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>42884</c:v>
+                  <c:v>42885</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>42885</c:v>
+                  <c:v>42886</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>42886</c:v>
+                  <c:v>42887</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>42887</c:v>
+                  <c:v>42888</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>42888</c:v>
+                  <c:v>42891</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>42891</c:v>
+                  <c:v>42892</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>42892</c:v>
+                  <c:v>42893</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>42893</c:v>
+                  <c:v>42894</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>42894</c:v>
+                  <c:v>42895</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>42895</c:v>
+                  <c:v>42898</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>42898</c:v>
+                  <c:v>42899</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>42899</c:v>
+                  <c:v>42900</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>42900</c:v>
+                  <c:v>42901</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>42901</c:v>
+                  <c:v>42902</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>42902</c:v>
+                  <c:v>42905</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>42905</c:v>
+                  <c:v>42906</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>42906</c:v>
+                  <c:v>42907</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>42907</c:v>
+                  <c:v>42908</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>42908</c:v>
+                  <c:v>42909</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>42909</c:v>
+                  <c:v>42912</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>42912</c:v>
+                  <c:v>42913</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>42913</c:v>
+                  <c:v>42914</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>42914</c:v>
+                  <c:v>42915</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>42915</c:v>
+                  <c:v>42916</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>42916</c:v>
+                  <c:v>42919</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>42919</c:v>
+                  <c:v>42920</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>42920</c:v>
+                  <c:v>42921</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>42921</c:v>
+                  <c:v>42922</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>42922</c:v>
+                  <c:v>42923</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>42923</c:v>
+                  <c:v>42926</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>42926</c:v>
+                  <c:v>42927</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>42927</c:v>
+                  <c:v>42928</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>42928</c:v>
+                  <c:v>42929</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>42929</c:v>
+                  <c:v>42930</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>42930</c:v>
+                  <c:v>42933</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>42933</c:v>
+                  <c:v>42934</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>42934</c:v>
+                  <c:v>42935</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>42935</c:v>
+                  <c:v>42936</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>42936</c:v>
+                  <c:v>42937</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>42937</c:v>
+                  <c:v>42940</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>42940</c:v>
+                  <c:v>42941</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>42941</c:v>
+                  <c:v>42942</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>42942</c:v>
+                  <c:v>42943</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>42943</c:v>
+                  <c:v>42944</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>42944</c:v>
+                  <c:v>42947</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>42947</c:v>
+                  <c:v>42948</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>42948</c:v>
+                  <c:v>42949</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>42949</c:v>
+                  <c:v>42950</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>42950</c:v>
+                  <c:v>42951</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>42951</c:v>
+                  <c:v>42954</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>42954</c:v>
+                  <c:v>42955</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>42955</c:v>
+                  <c:v>42956</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>42956</c:v>
+                  <c:v>42957</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>42957</c:v>
+                  <c:v>42958</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>42958</c:v>
+                  <c:v>42961</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>42961</c:v>
+                  <c:v>42962</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>42962</c:v>
+                  <c:v>42963</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>42963</c:v>
+                  <c:v>42964</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>42964</c:v>
+                  <c:v>42965</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>42965</c:v>
+                  <c:v>42968</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>42968</c:v>
+                  <c:v>42969</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>42969</c:v>
+                  <c:v>42970</c:v>
                 </c:pt>
                 <c:pt idx="512">
-                  <c:v>42970</c:v>
+                  <c:v>42971</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4871,11 +4871,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214118784"/>
-        <c:axId val="214120320"/>
+        <c:axId val="177842432"/>
+        <c:axId val="163024896"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="214118784"/>
+        <c:axId val="177842432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,14 +4895,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214120320"/>
+        <c:crossAx val="163024896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="214120320"/>
+        <c:axId val="163024896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4913,7 +4913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214118784"/>
+        <c:crossAx val="177842432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5045,7 +5045,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -5053,7 +5053,7 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EUR6M#0003</v>
+            <v>EUR6M#0002</v>
           </cell>
         </row>
       </sheetData>
@@ -5088,7 +5088,7 @@
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0003</v>
+            <v>EURTND_Quote#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -5542,9 +5542,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5603,7 +5601,7 @@
       </c>
       <c r="I4" s="59">
         <f>_xll.qlSettingsEvaluationDate(Trigger)</f>
-        <v>42240</v>
+        <v>42241</v>
       </c>
       <c r="J4" s="58"/>
     </row>
@@ -5622,7 +5620,7 @@
       </c>
       <c r="I5" s="31">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,EvaluationDate,"2d","f")</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="J5" s="58"/>
     </row>
@@ -5669,7 +5667,7 @@
       </c>
       <c r="I8" s="60">
         <f>[1]!TriggerCounter</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="58"/>
     </row>
@@ -5678,9 +5676,9 @@
       <c r="C9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="54" t="e">
-        <f ca="1">_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>#NAME?</v>
+      <c r="D9" s="54" t="str">
+        <f>_xll.qlPiecewiseYieldCurve(,,,,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
+        <v>obj_004ff#0002</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="1"/>
@@ -5689,7 +5687,7 @@
       </c>
       <c r="I9" s="29">
         <f ca="1">_xll.ohTrigger(Contribution!M1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -5699,7 +5697,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="55" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(YieldCurve)</f>
+        <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
       <c r="E10" s="4"/>
@@ -5753,18 +5751,15 @@
       <c r="C14" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="13" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
+      <c r="D14" s="13"/>
       <c r="E14" s="4"/>
       <c r="G14" s="1"/>
       <c r="H14" s="51" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="54" t="e">
-        <f ca="1">_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,JumpQuotes,JumpDates,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlPiecewiseYieldCurve(,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,JumpQuotes,JumpDates,Accuracy,TraitsID,InterpolatorID)</f>
+        <v>#VALUE!</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -5782,7 +5777,7 @@
         <v>15</v>
       </c>
       <c r="I15" s="55" t="str">
-        <f ca="1">_xll.ohRangeRetrieveError(YieldCurve)</f>
+        <f>_xll.ohRangeRetrieveError(YieldCurve)</f>
         <v/>
       </c>
       <c r="J15" s="4"/>
@@ -6017,7 +6012,7 @@
       </c>
       <c r="F2" s="77" t="str">
         <f>_xll.qlFraRateHelper(EvaluationDate,"W"&amp;Currency&amp;B2&amp;C2&amp;D2,,,E2,"2d",OvernightIndex)</f>
-        <v>WEURSND#0002</v>
+        <v>WEURSND#0000</v>
       </c>
       <c r="G2" s="78" t="b">
         <v>0</v>
@@ -6030,11 +6025,11 @@
       </c>
       <c r="J2" s="79">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F2)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K2" s="79">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F2)</f>
-        <v>42243</v>
+        <v>42244</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6058,7 +6053,7 @@
       </c>
       <c r="F3" s="81" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B3&amp;C3&amp;D3,,,A3,A4,E3,OvernightIndex)</f>
-        <v>WEURECBOISSEP15#0002</v>
+        <v>WEURECBOISSEP15#0001</v>
       </c>
       <c r="G3" s="82" t="b">
         <f>IF(ISERROR(F3),FALSE,TRUE)</f>
@@ -6101,7 +6096,7 @@
       </c>
       <c r="F4" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B4&amp;C4&amp;D4,,,A4,A5,E4,OvernightIndex)</f>
-        <v>WEURECBOISOCT15#0002</v>
+        <v>WEURECBOISOCT15#0001</v>
       </c>
       <c r="G4" s="82" t="b">
         <f t="shared" ref="G4:G12" si="1">IF(ISERROR(F4),FALSE,TRUE)</f>
@@ -6144,7 +6139,7 @@
       </c>
       <c r="F5" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B5&amp;C5&amp;D5,,,A5,A6,E5,OvernightIndex)</f>
-        <v>WEURECBOISDEC15#0002</v>
+        <v>WEURECBOISDEC15#0001</v>
       </c>
       <c r="G5" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6186,7 +6181,7 @@
       </c>
       <c r="F6" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B6&amp;C6&amp;D6,,,A6,A7,E6,OvernightIndex)</f>
-        <v>WEURECBOISJAN16#0002</v>
+        <v>WEURECBOISJAN16#0001</v>
       </c>
       <c r="G6" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6228,7 +6223,7 @@
       </c>
       <c r="F7" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B7&amp;C7&amp;D7,,,A7,A8,E7,OvernightIndex)</f>
-        <v>WEURECBOISMAR16#0002</v>
+        <v>WEURECBOISMAR16#0001</v>
       </c>
       <c r="G7" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6270,7 +6265,7 @@
       </c>
       <c r="F8" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B8&amp;C8&amp;D8,,,A8,A9,E8,OvernightIndex)</f>
-        <v>WEURECBOISAPR16#0002</v>
+        <v>WEURECBOISAPR16#0001</v>
       </c>
       <c r="G8" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6661,7 +6656,7 @@
       </c>
       <c r="F18" s="81" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B18&amp;C18&amp;D18,,,2,"1w",E18,OvernightIndex)</f>
-        <v>WEUREONSW#0002</v>
+        <v>WEUREONSW#0001</v>
       </c>
       <c r="G18" s="83" t="b">
         <v>1</v>
@@ -6674,11 +6669,11 @@
       </c>
       <c r="J18" s="84">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F18)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K18" s="84">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F18)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
@@ -6696,7 +6691,7 @@
       </c>
       <c r="F19" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B19&amp;C19&amp;D19,,,2,"1w",E19,OvernightIndex)</f>
-        <v>WEUREON2W#0002</v>
+        <v>WEUREON2W#0001</v>
       </c>
       <c r="G19" s="82" t="b">
         <v>1</v>
@@ -6709,11 +6704,11 @@
       </c>
       <c r="J19" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F19)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K19" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F19)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -6731,7 +6726,7 @@
       </c>
       <c r="F20" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B20&amp;C20&amp;D20,,,2,"1w",E20,OvernightIndex)</f>
-        <v>WEUREON3W#0002</v>
+        <v>WEUREON3W#0001</v>
       </c>
       <c r="G20" s="82" t="b">
         <v>1</v>
@@ -6744,11 +6739,11 @@
       </c>
       <c r="J20" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F20)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K20" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F20)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -6766,7 +6761,7 @@
       </c>
       <c r="F21" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B21&amp;C21&amp;D21,,,2,"1w",E21,OvernightIndex)</f>
-        <v>WEUREON1M#0002</v>
+        <v>WEUREON1M#0001</v>
       </c>
       <c r="G21" s="82" t="b">
         <v>1</v>
@@ -6779,11 +6774,11 @@
       </c>
       <c r="J21" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F21)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K21" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F21)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -6801,7 +6796,7 @@
       </c>
       <c r="F22" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B22&amp;C22&amp;D22,,,2,"1w",E22,OvernightIndex)</f>
-        <v>WEUREON2M#0002</v>
+        <v>WEUREON2M#0001</v>
       </c>
       <c r="G22" s="82" t="b">
         <v>1</v>
@@ -6814,11 +6809,11 @@
       </c>
       <c r="J22" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F22)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K22" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F22)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -6836,7 +6831,7 @@
       </c>
       <c r="F23" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B23&amp;C23&amp;D23,,,2,"1w",E23,OvernightIndex)</f>
-        <v>WEUREON3M#0002</v>
+        <v>WEUREON3M#0001</v>
       </c>
       <c r="G23" s="82" t="b">
         <v>1</v>
@@ -6849,11 +6844,11 @@
       </c>
       <c r="J23" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F23)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K23" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F23)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -6871,7 +6866,7 @@
       </c>
       <c r="F24" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B24&amp;C24&amp;D24,,,2,"1w",E24,OvernightIndex)</f>
-        <v>WEUREON4M#0002</v>
+        <v>WEUREON4M#0001</v>
       </c>
       <c r="G24" s="82" t="b">
         <v>1</v>
@@ -6884,11 +6879,11 @@
       </c>
       <c r="J24" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F24)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K24" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F24)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -6906,7 +6901,7 @@
       </c>
       <c r="F25" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B25&amp;C25&amp;D25,,,2,"1w",E25,OvernightIndex)</f>
-        <v>WEUREON5M#0002</v>
+        <v>WEUREON5M#0001</v>
       </c>
       <c r="G25" s="82" t="b">
         <v>1</v>
@@ -6919,11 +6914,11 @@
       </c>
       <c r="J25" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F25)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K25" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F25)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -6941,7 +6936,7 @@
       </c>
       <c r="F26" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B26&amp;C26&amp;D26,,,2,"1w",E26,OvernightIndex)</f>
-        <v>WEUREON6M#0002</v>
+        <v>WEUREON6M#0001</v>
       </c>
       <c r="G26" s="82" t="b">
         <v>1</v>
@@ -6954,11 +6949,11 @@
       </c>
       <c r="J26" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F26)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K26" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F26)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -6976,7 +6971,7 @@
       </c>
       <c r="F27" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B27&amp;C27&amp;D27,,,2,"1w",E27,OvernightIndex)</f>
-        <v>WEUREON7M#0002</v>
+        <v>WEUREON7M#0001</v>
       </c>
       <c r="G27" s="82" t="b">
         <v>1</v>
@@ -6989,11 +6984,11 @@
       </c>
       <c r="J27" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F27)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K27" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F27)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -7011,7 +7006,7 @@
       </c>
       <c r="F28" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B28&amp;C28&amp;D28,,,2,"1w",E28,OvernightIndex)</f>
-        <v>WEUREON8M#0002</v>
+        <v>WEUREON8M#0001</v>
       </c>
       <c r="G28" s="82" t="b">
         <v>1</v>
@@ -7024,11 +7019,11 @@
       </c>
       <c r="J28" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F28)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K28" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F28)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -7046,7 +7041,7 @@
       </c>
       <c r="F29" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B29&amp;C29&amp;D29,,,2,"1w",E29,OvernightIndex)</f>
-        <v>WEUREON9M#0002</v>
+        <v>WEUREON9M#0001</v>
       </c>
       <c r="G29" s="82" t="b">
         <v>1</v>
@@ -7059,11 +7054,11 @@
       </c>
       <c r="J29" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F29)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K29" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F29)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -7081,7 +7076,7 @@
       </c>
       <c r="F30" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B30&amp;C30&amp;D30,,,2,"1w",E30,OvernightIndex)</f>
-        <v>WEUREON10M#0002</v>
+        <v>WEUREON10M#0001</v>
       </c>
       <c r="G30" s="82" t="b">
         <v>1</v>
@@ -7094,11 +7089,11 @@
       </c>
       <c r="J30" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F30)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K30" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F30)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -7116,7 +7111,7 @@
       </c>
       <c r="F31" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B31&amp;C31&amp;D31,,,2,"1w",E31,OvernightIndex)</f>
-        <v>WEUREON11M#0002</v>
+        <v>WEUREON11M#0001</v>
       </c>
       <c r="G31" s="82" t="b">
         <v>1</v>
@@ -7129,11 +7124,11 @@
       </c>
       <c r="J31" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F31)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K31" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F31)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -7151,7 +7146,7 @@
       </c>
       <c r="F32" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B32&amp;C32&amp;D32,,,2,"1w",E32,OvernightIndex)</f>
-        <v>WEUREON1Y#0002</v>
+        <v>WEUREON1Y#0001</v>
       </c>
       <c r="G32" s="82" t="b">
         <v>1</v>
@@ -7164,11 +7159,11 @@
       </c>
       <c r="J32" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F32)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K32" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F32)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -7186,7 +7181,7 @@
       </c>
       <c r="F33" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B33&amp;C33&amp;D33,,,2,"1w",E33,OvernightIndex)</f>
-        <v>WEUREON15M#0002</v>
+        <v>WEUREON15M#0001</v>
       </c>
       <c r="G33" s="82" t="b">
         <v>1</v>
@@ -7199,11 +7194,11 @@
       </c>
       <c r="J33" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F33)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K33" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F33)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
@@ -7221,7 +7216,7 @@
       </c>
       <c r="F34" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B34&amp;C34&amp;D34,,,2,"1w",E34,OvernightIndex)</f>
-        <v>WEUREON18M#0002</v>
+        <v>WEUREON18M#0001</v>
       </c>
       <c r="G34" s="82" t="b">
         <v>1</v>
@@ -7234,11 +7229,11 @@
       </c>
       <c r="J34" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F34)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K34" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F34)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -7256,7 +7251,7 @@
       </c>
       <c r="F35" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B35&amp;C35&amp;D35,,,2,"1w",E35,OvernightIndex)</f>
-        <v>WEUREON21M#0002</v>
+        <v>WEUREON21M#0001</v>
       </c>
       <c r="G35" s="82" t="b">
         <v>1</v>
@@ -7269,11 +7264,11 @@
       </c>
       <c r="J35" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F35)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K35" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F35)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -7291,7 +7286,7 @@
       </c>
       <c r="F36" s="90" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B36&amp;C36&amp;D36,,,2,"1w",E36,OvernightIndex)</f>
-        <v>WEUREON2Y#0002</v>
+        <v>WEUREON2Y#0001</v>
       </c>
       <c r="G36" s="91" t="b">
         <v>1</v>
@@ -7304,11 +7299,11 @@
       </c>
       <c r="J36" s="92">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F36)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="K36" s="92">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F36)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -7324,35 +7319,35 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7372,9 +7367,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BK130"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -8006,11 +8001,11 @@
       </c>
       <c r="C5" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A5)</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="D5" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A5)</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="F5" s="103" t="e">
         <f t="shared" ref="F5:F30" ca="1" si="0">IF(ISERROR(D5),NA(),(D5-D4)/2+D4)</f>
@@ -8031,7 +8026,7 @@
       </c>
       <c r="K5" s="113">
         <f>D5</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="L5" s="94"/>
       <c r="M5" s="85" t="e">
@@ -8215,7 +8210,7 @@
       </c>
       <c r="F6" s="103">
         <f t="shared" si="0"/>
-        <v>42277</v>
+        <v>42277.5</v>
       </c>
       <c r="G6" s="104" t="e">
         <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D5,D6)</f>
@@ -33058,7 +33053,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="23">
         <f ca="1">_xll.ohTrigger(M3:M4)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N1" s="144"/>
     </row>
@@ -33132,7 +33127,7 @@
       </c>
       <c r="K3" s="40" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J3,,TRUE)</f>
-        <v>EURJump1_SYNTHON_Quote#0003</v>
+        <v>EURJump1_SYNTHON_Quote#0002</v>
       </c>
       <c r="L3" s="40" t="e">
         <f t="array" aca="1" ref="L3:L15" ca="1">QuoteLive</f>
@@ -33148,7 +33143,7 @@
       </c>
       <c r="Q3" s="167">
         <f>SettlementDate</f>
-        <v>42242</v>
+        <v>42243</v>
       </c>
       <c r="R3" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q3)</f>
@@ -33184,7 +33179,7 @@
       </c>
       <c r="K4" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J4,,TRUE)</f>
-        <v>EURJump2_SYNTHON_Quote#0003</v>
+        <v>EURJump2_SYNTHON_Quote#0002</v>
       </c>
       <c r="L4" s="141" t="e">
         <f ca="1"/>
@@ -33200,7 +33195,7 @@
       </c>
       <c r="Q4" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q3,P4,"f")</f>
-        <v>42243</v>
+        <v>42244</v>
       </c>
       <c r="R4" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q4)</f>
@@ -33236,7 +33231,7 @@
       </c>
       <c r="K5" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J5,,TRUE)</f>
-        <v>EURJump3_SYNTHON_Quote#0003</v>
+        <v>EURJump3_SYNTHON_Quote#0002</v>
       </c>
       <c r="L5" s="141" t="e">
         <f ca="1"/>
@@ -33252,7 +33247,7 @@
       </c>
       <c r="Q5" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q4,P5,"f")</f>
-        <v>42244</v>
+        <v>42247</v>
       </c>
       <c r="R5" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q5)</f>
@@ -33288,7 +33283,7 @@
       </c>
       <c r="K6" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J6,,TRUE)</f>
-        <v>EURJump4_SYNTHON_Quote#0003</v>
+        <v>EURJump4_SYNTHON_Quote#0002</v>
       </c>
       <c r="L6" s="141" t="e">
         <f ca="1"/>
@@ -33304,7 +33299,7 @@
       </c>
       <c r="Q6" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q5,P6,"f")</f>
-        <v>42247</v>
+        <v>42248</v>
       </c>
       <c r="R6" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q6)</f>
@@ -33340,7 +33335,7 @@
       </c>
       <c r="K7" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J7,,TRUE)</f>
-        <v>EURJump5_SYNTHON_Quote#0003</v>
+        <v>EURJump5_SYNTHON_Quote#0002</v>
       </c>
       <c r="L7" s="141" t="e">
         <f ca="1"/>
@@ -33356,7 +33351,7 @@
       </c>
       <c r="Q7" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q6,P7,"f")</f>
-        <v>42248</v>
+        <v>42249</v>
       </c>
       <c r="R7" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q7)</f>
@@ -33392,7 +33387,7 @@
       </c>
       <c r="K8" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J8,,TRUE)</f>
-        <v>EURJump6_SYNTHON_Quote#0003</v>
+        <v>EURJump6_SYNTHON_Quote#0002</v>
       </c>
       <c r="L8" s="141" t="e">
         <f ca="1"/>
@@ -33408,7 +33403,7 @@
       </c>
       <c r="Q8" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q7,P8,"f")</f>
-        <v>42249</v>
+        <v>42250</v>
       </c>
       <c r="R8" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q8)</f>
@@ -33444,7 +33439,7 @@
       </c>
       <c r="K9" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J9,,TRUE)</f>
-        <v>EURJump7_SYNTHON_Quote#0003</v>
+        <v>EURJump7_SYNTHON_Quote#0002</v>
       </c>
       <c r="L9" s="141" t="e">
         <f ca="1"/>
@@ -33460,7 +33455,7 @@
       </c>
       <c r="Q9" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q8,P9,"f")</f>
-        <v>42250</v>
+        <v>42251</v>
       </c>
       <c r="R9" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q9)</f>
@@ -33496,7 +33491,7 @@
       </c>
       <c r="K10" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J10,,TRUE)</f>
-        <v>EURJump8_SYNTHON_Quote#0003</v>
+        <v>EURJump8_SYNTHON_Quote#0002</v>
       </c>
       <c r="L10" s="141" t="e">
         <f ca="1"/>
@@ -33512,7 +33507,7 @@
       </c>
       <c r="Q10" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q9,P10,"f")</f>
-        <v>42251</v>
+        <v>42254</v>
       </c>
       <c r="R10" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q10)</f>
@@ -33548,7 +33543,7 @@
       </c>
       <c r="K11" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J11,,TRUE)</f>
-        <v>EURJump9_SYNTHON_Quote#0003</v>
+        <v>EURJump9_SYNTHON_Quote#0002</v>
       </c>
       <c r="L11" s="141" t="e">
         <f ca="1"/>
@@ -33564,7 +33559,7 @@
       </c>
       <c r="Q11" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q10,P11,"f")</f>
-        <v>42254</v>
+        <v>42255</v>
       </c>
       <c r="R11" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q11)</f>
@@ -33600,7 +33595,7 @@
       </c>
       <c r="K12" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J12,,TRUE)</f>
-        <v>EURJump10_SYNTHON_Quote#0003</v>
+        <v>EURJump10_SYNTHON_Quote#0002</v>
       </c>
       <c r="L12" s="141" t="e">
         <f ca="1"/>
@@ -33616,7 +33611,7 @@
       </c>
       <c r="Q12" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q11,P12,"f")</f>
-        <v>42255</v>
+        <v>42256</v>
       </c>
       <c r="R12" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q12)</f>
@@ -33652,7 +33647,7 @@
       </c>
       <c r="K13" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J13,,TRUE)</f>
-        <v>EURJump11_SYNTHON_Quote#0003</v>
+        <v>EURJump11_SYNTHON_Quote#0002</v>
       </c>
       <c r="L13" s="141" t="e">
         <f ca="1"/>
@@ -33668,7 +33663,7 @@
       </c>
       <c r="Q13" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q12,P13,"f")</f>
-        <v>42256</v>
+        <v>42257</v>
       </c>
       <c r="R13" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q13)</f>
@@ -33704,7 +33699,7 @@
       </c>
       <c r="K14" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J14,,TRUE)</f>
-        <v>EURJump12_SYNTHON_Quote#0003</v>
+        <v>EURJump12_SYNTHON_Quote#0002</v>
       </c>
       <c r="L14" s="141" t="e">
         <f ca="1"/>
@@ -33720,7 +33715,7 @@
       </c>
       <c r="Q14" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q13,P14,"f")</f>
-        <v>42257</v>
+        <v>42258</v>
       </c>
       <c r="R14" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q14)</f>
@@ -33756,7 +33751,7 @@
       </c>
       <c r="K15" s="142" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J15,,TRUE)</f>
-        <v>EURJump13_SYNTHON_Quote#0003</v>
+        <v>EURJump13_SYNTHON_Quote#0002</v>
       </c>
       <c r="L15" s="142" t="e">
         <f ca="1"/>
@@ -33772,7 +33767,7 @@
       </c>
       <c r="Q15" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q14,P15,"f")</f>
-        <v>42258</v>
+        <v>42261</v>
       </c>
       <c r="R15" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q15)</f>
@@ -33799,7 +33794,7 @@
       </c>
       <c r="Q16" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q15,P16,"f")</f>
-        <v>42261</v>
+        <v>42262</v>
       </c>
       <c r="R16" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q16)</f>
@@ -33814,7 +33809,7 @@
       </c>
       <c r="Q17" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q16,P17,"f")</f>
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="R17" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q17)</f>
@@ -33829,7 +33824,7 @@
       </c>
       <c r="Q18" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q17,P18,"f")</f>
-        <v>42263</v>
+        <v>42264</v>
       </c>
       <c r="R18" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q18)</f>
@@ -33842,7 +33837,7 @@
       </c>
       <c r="Q19" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q18,P19,"f")</f>
-        <v>42264</v>
+        <v>42265</v>
       </c>
       <c r="R19" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q19)</f>
@@ -33855,7 +33850,7 @@
       </c>
       <c r="Q20" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q19,P20,"f")</f>
-        <v>42265</v>
+        <v>42268</v>
       </c>
       <c r="R20" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q20)</f>
@@ -33868,7 +33863,7 @@
       </c>
       <c r="Q21" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q20,P21,"f")</f>
-        <v>42268</v>
+        <v>42269</v>
       </c>
       <c r="R21" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q21)</f>
@@ -33881,7 +33876,7 @@
       </c>
       <c r="Q22" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q21,P22,"f")</f>
-        <v>42269</v>
+        <v>42270</v>
       </c>
       <c r="R22" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q22)</f>
@@ -33894,7 +33889,7 @@
       </c>
       <c r="Q23" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q22,P23,"f")</f>
-        <v>42270</v>
+        <v>42271</v>
       </c>
       <c r="R23" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q23)</f>
@@ -33907,7 +33902,7 @@
       </c>
       <c r="Q24" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q23,P24,"f")</f>
-        <v>42271</v>
+        <v>42272</v>
       </c>
       <c r="R24" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q24)</f>
@@ -33920,7 +33915,7 @@
       </c>
       <c r="Q25" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q24,P25,"f")</f>
-        <v>42272</v>
+        <v>42275</v>
       </c>
       <c r="R25" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q25)</f>
@@ -33933,7 +33928,7 @@
       </c>
       <c r="Q26" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q25,P26,"f")</f>
-        <v>42275</v>
+        <v>42276</v>
       </c>
       <c r="R26" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q26)</f>
@@ -33946,7 +33941,7 @@
       </c>
       <c r="Q27" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q26,P27,"f")</f>
-        <v>42276</v>
+        <v>42277</v>
       </c>
       <c r="R27" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q27)</f>
@@ -33959,7 +33954,7 @@
       </c>
       <c r="Q28" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q27,P28,"f")</f>
-        <v>42277</v>
+        <v>42278</v>
       </c>
       <c r="R28" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q28)</f>
@@ -33972,7 +33967,7 @@
       </c>
       <c r="Q29" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q28,P29,"f")</f>
-        <v>42278</v>
+        <v>42279</v>
       </c>
       <c r="R29" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q29)</f>
@@ -33985,7 +33980,7 @@
       </c>
       <c r="Q30" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q29,P30,"f")</f>
-        <v>42279</v>
+        <v>42282</v>
       </c>
       <c r="R30" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q30)</f>
@@ -33998,7 +33993,7 @@
       </c>
       <c r="Q31" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q30,P31,"f")</f>
-        <v>42282</v>
+        <v>42283</v>
       </c>
       <c r="R31" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q31)</f>
@@ -34011,7 +34006,7 @@
       </c>
       <c r="Q32" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q31,P32,"f")</f>
-        <v>42283</v>
+        <v>42284</v>
       </c>
       <c r="R32" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q32)</f>
@@ -34024,7 +34019,7 @@
       </c>
       <c r="Q33" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q32,P33,"f")</f>
-        <v>42284</v>
+        <v>42285</v>
       </c>
       <c r="R33" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q33)</f>
@@ -34037,7 +34032,7 @@
       </c>
       <c r="Q34" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q33,P34,"f")</f>
-        <v>42285</v>
+        <v>42286</v>
       </c>
       <c r="R34" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q34)</f>
@@ -34050,7 +34045,7 @@
       </c>
       <c r="Q35" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q34,P35,"f")</f>
-        <v>42286</v>
+        <v>42289</v>
       </c>
       <c r="R35" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q35)</f>
@@ -34063,7 +34058,7 @@
       </c>
       <c r="Q36" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q35,P36,"f")</f>
-        <v>42289</v>
+        <v>42290</v>
       </c>
       <c r="R36" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q36)</f>
@@ -34076,7 +34071,7 @@
       </c>
       <c r="Q37" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q36,P37,"f")</f>
-        <v>42290</v>
+        <v>42291</v>
       </c>
       <c r="R37" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q37)</f>
@@ -34089,7 +34084,7 @@
       </c>
       <c r="Q38" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q37,P38,"f")</f>
-        <v>42291</v>
+        <v>42292</v>
       </c>
       <c r="R38" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q38)</f>
@@ -34102,7 +34097,7 @@
       </c>
       <c r="Q39" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q38,P39,"f")</f>
-        <v>42292</v>
+        <v>42293</v>
       </c>
       <c r="R39" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q39)</f>
@@ -34115,7 +34110,7 @@
       </c>
       <c r="Q40" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q39,P40,"f")</f>
-        <v>42293</v>
+        <v>42296</v>
       </c>
       <c r="R40" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q40)</f>
@@ -34128,7 +34123,7 @@
       </c>
       <c r="Q41" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q40,P41,"f")</f>
-        <v>42296</v>
+        <v>42297</v>
       </c>
       <c r="R41" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q41)</f>
@@ -34141,7 +34136,7 @@
       </c>
       <c r="Q42" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q41,P42,"f")</f>
-        <v>42297</v>
+        <v>42298</v>
       </c>
       <c r="R42" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q42)</f>
@@ -34154,7 +34149,7 @@
       </c>
       <c r="Q43" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q42,P43,"f")</f>
-        <v>42298</v>
+        <v>42299</v>
       </c>
       <c r="R43" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q43)</f>
@@ -34167,7 +34162,7 @@
       </c>
       <c r="Q44" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q43,P44,"f")</f>
-        <v>42299</v>
+        <v>42300</v>
       </c>
       <c r="R44" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q44)</f>
@@ -34180,7 +34175,7 @@
       </c>
       <c r="Q45" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q44,P45,"f")</f>
-        <v>42300</v>
+        <v>42303</v>
       </c>
       <c r="R45" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q45)</f>
@@ -34193,7 +34188,7 @@
       </c>
       <c r="Q46" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q45,P46,"f")</f>
-        <v>42303</v>
+        <v>42304</v>
       </c>
       <c r="R46" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q46)</f>
@@ -34206,7 +34201,7 @@
       </c>
       <c r="Q47" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q46,P47,"f")</f>
-        <v>42304</v>
+        <v>42305</v>
       </c>
       <c r="R47" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q47)</f>
@@ -34219,7 +34214,7 @@
       </c>
       <c r="Q48" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q47,P48,"f")</f>
-        <v>42305</v>
+        <v>42306</v>
       </c>
       <c r="R48" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q48)</f>
@@ -34232,7 +34227,7 @@
       </c>
       <c r="Q49" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q48,P49,"f")</f>
-        <v>42306</v>
+        <v>42307</v>
       </c>
       <c r="R49" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q49)</f>
@@ -34245,7 +34240,7 @@
       </c>
       <c r="Q50" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q49,P50,"f")</f>
-        <v>42307</v>
+        <v>42310</v>
       </c>
       <c r="R50" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q50)</f>
@@ -34258,7 +34253,7 @@
       </c>
       <c r="Q51" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q50,P51,"f")</f>
-        <v>42310</v>
+        <v>42311</v>
       </c>
       <c r="R51" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q51)</f>
@@ -34271,7 +34266,7 @@
       </c>
       <c r="Q52" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q51,P52,"f")</f>
-        <v>42311</v>
+        <v>42312</v>
       </c>
       <c r="R52" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q52)</f>
@@ -34284,7 +34279,7 @@
       </c>
       <c r="Q53" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q52,P53,"f")</f>
-        <v>42312</v>
+        <v>42313</v>
       </c>
       <c r="R53" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q53)</f>
@@ -34297,7 +34292,7 @@
       </c>
       <c r="Q54" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q53,P54,"f")</f>
-        <v>42313</v>
+        <v>42314</v>
       </c>
       <c r="R54" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q54)</f>
@@ -34310,7 +34305,7 @@
       </c>
       <c r="Q55" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q54,P55,"f")</f>
-        <v>42314</v>
+        <v>42317</v>
       </c>
       <c r="R55" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q55)</f>
@@ -34323,7 +34318,7 @@
       </c>
       <c r="Q56" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q55,P56,"f")</f>
-        <v>42317</v>
+        <v>42318</v>
       </c>
       <c r="R56" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q56)</f>
@@ -34336,7 +34331,7 @@
       </c>
       <c r="Q57" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q56,P57,"f")</f>
-        <v>42318</v>
+        <v>42319</v>
       </c>
       <c r="R57" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q57)</f>
@@ -34349,7 +34344,7 @@
       </c>
       <c r="Q58" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q57,P58,"f")</f>
-        <v>42319</v>
+        <v>42320</v>
       </c>
       <c r="R58" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q58)</f>
@@ -34362,7 +34357,7 @@
       </c>
       <c r="Q59" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q58,P59,"f")</f>
-        <v>42320</v>
+        <v>42321</v>
       </c>
       <c r="R59" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q59)</f>
@@ -34375,7 +34370,7 @@
       </c>
       <c r="Q60" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q59,P60,"f")</f>
-        <v>42321</v>
+        <v>42324</v>
       </c>
       <c r="R60" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q60)</f>
@@ -34388,7 +34383,7 @@
       </c>
       <c r="Q61" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q60,P61,"f")</f>
-        <v>42324</v>
+        <v>42325</v>
       </c>
       <c r="R61" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q61)</f>
@@ -34401,7 +34396,7 @@
       </c>
       <c r="Q62" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q61,P62,"f")</f>
-        <v>42325</v>
+        <v>42326</v>
       </c>
       <c r="R62" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q62)</f>
@@ -34414,7 +34409,7 @@
       </c>
       <c r="Q63" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q62,P63,"f")</f>
-        <v>42326</v>
+        <v>42327</v>
       </c>
       <c r="R63" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q63)</f>
@@ -34427,7 +34422,7 @@
       </c>
       <c r="Q64" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q63,P64,"f")</f>
-        <v>42327</v>
+        <v>42328</v>
       </c>
       <c r="R64" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q64)</f>
@@ -34440,7 +34435,7 @@
       </c>
       <c r="Q65" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q64,P65,"f")</f>
-        <v>42328</v>
+        <v>42331</v>
       </c>
       <c r="R65" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q65)</f>
@@ -34453,7 +34448,7 @@
       </c>
       <c r="Q66" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q65,P66,"f")</f>
-        <v>42331</v>
+        <v>42332</v>
       </c>
       <c r="R66" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q66)</f>
@@ -34466,7 +34461,7 @@
       </c>
       <c r="Q67" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q66,P67,"f")</f>
-        <v>42332</v>
+        <v>42333</v>
       </c>
       <c r="R67" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q67)</f>
@@ -34479,7 +34474,7 @@
       </c>
       <c r="Q68" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q67,P68,"f")</f>
-        <v>42333</v>
+        <v>42334</v>
       </c>
       <c r="R68" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q68)</f>
@@ -34492,7 +34487,7 @@
       </c>
       <c r="Q69" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q68,P69,"f")</f>
-        <v>42334</v>
+        <v>42335</v>
       </c>
       <c r="R69" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q69)</f>
@@ -34505,7 +34500,7 @@
       </c>
       <c r="Q70" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q69,P70,"f")</f>
-        <v>42335</v>
+        <v>42338</v>
       </c>
       <c r="R70" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q70)</f>
@@ -34518,7 +34513,7 @@
       </c>
       <c r="Q71" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q70,P71,"f")</f>
-        <v>42338</v>
+        <v>42339</v>
       </c>
       <c r="R71" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q71)</f>
@@ -34531,7 +34526,7 @@
       </c>
       <c r="Q72" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q71,P72,"f")</f>
-        <v>42339</v>
+        <v>42340</v>
       </c>
       <c r="R72" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q72)</f>
@@ -34544,7 +34539,7 @@
       </c>
       <c r="Q73" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q72,P73,"f")</f>
-        <v>42340</v>
+        <v>42341</v>
       </c>
       <c r="R73" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q73)</f>
@@ -34557,7 +34552,7 @@
       </c>
       <c r="Q74" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q73,P74,"f")</f>
-        <v>42341</v>
+        <v>42342</v>
       </c>
       <c r="R74" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q74)</f>
@@ -34570,7 +34565,7 @@
       </c>
       <c r="Q75" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q74,P75,"f")</f>
-        <v>42342</v>
+        <v>42345</v>
       </c>
       <c r="R75" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q75)</f>
@@ -34583,7 +34578,7 @@
       </c>
       <c r="Q76" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q75,P76,"f")</f>
-        <v>42345</v>
+        <v>42346</v>
       </c>
       <c r="R76" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q76)</f>
@@ -34596,7 +34591,7 @@
       </c>
       <c r="Q77" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q76,P77,"f")</f>
-        <v>42346</v>
+        <v>42347</v>
       </c>
       <c r="R77" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q77)</f>
@@ -34609,7 +34604,7 @@
       </c>
       <c r="Q78" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q77,P78,"f")</f>
-        <v>42347</v>
+        <v>42348</v>
       </c>
       <c r="R78" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q78)</f>
@@ -34622,7 +34617,7 @@
       </c>
       <c r="Q79" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q78,P79,"f")</f>
-        <v>42348</v>
+        <v>42349</v>
       </c>
       <c r="R79" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q79)</f>
@@ -34635,7 +34630,7 @@
       </c>
       <c r="Q80" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q79,P80,"f")</f>
-        <v>42349</v>
+        <v>42352</v>
       </c>
       <c r="R80" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q80)</f>
@@ -34648,7 +34643,7 @@
       </c>
       <c r="Q81" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q80,P81,"f")</f>
-        <v>42352</v>
+        <v>42353</v>
       </c>
       <c r="R81" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q81)</f>
@@ -34661,7 +34656,7 @@
       </c>
       <c r="Q82" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q81,P82,"f")</f>
-        <v>42353</v>
+        <v>42354</v>
       </c>
       <c r="R82" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q82)</f>
@@ -34674,7 +34669,7 @@
       </c>
       <c r="Q83" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q82,P83,"f")</f>
-        <v>42354</v>
+        <v>42355</v>
       </c>
       <c r="R83" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q83)</f>
@@ -34687,7 +34682,7 @@
       </c>
       <c r="Q84" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q83,P84,"f")</f>
-        <v>42355</v>
+        <v>42356</v>
       </c>
       <c r="R84" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q84)</f>
@@ -34700,7 +34695,7 @@
       </c>
       <c r="Q85" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q84,P85,"f")</f>
-        <v>42356</v>
+        <v>42359</v>
       </c>
       <c r="R85" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q85)</f>
@@ -34713,7 +34708,7 @@
       </c>
       <c r="Q86" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q85,P86,"f")</f>
-        <v>42359</v>
+        <v>42360</v>
       </c>
       <c r="R86" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q86)</f>
@@ -34726,7 +34721,7 @@
       </c>
       <c r="Q87" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q86,P87,"f")</f>
-        <v>42360</v>
+        <v>42361</v>
       </c>
       <c r="R87" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q87)</f>
@@ -34739,7 +34734,7 @@
       </c>
       <c r="Q88" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q87,P88,"f")</f>
-        <v>42361</v>
+        <v>42362</v>
       </c>
       <c r="R88" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q88)</f>
@@ -34752,7 +34747,7 @@
       </c>
       <c r="Q89" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q88,P89,"f")</f>
-        <v>42362</v>
+        <v>42366</v>
       </c>
       <c r="R89" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q89)</f>
@@ -34765,7 +34760,7 @@
       </c>
       <c r="Q90" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q89,P90,"f")</f>
-        <v>42366</v>
+        <v>42367</v>
       </c>
       <c r="R90" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q90)</f>
@@ -34778,7 +34773,7 @@
       </c>
       <c r="Q91" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q90,P91,"f")</f>
-        <v>42367</v>
+        <v>42368</v>
       </c>
       <c r="R91" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q91)</f>
@@ -34791,7 +34786,7 @@
       </c>
       <c r="Q92" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q91,P92,"f")</f>
-        <v>42368</v>
+        <v>42369</v>
       </c>
       <c r="R92" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q92)</f>
@@ -34804,7 +34799,7 @@
       </c>
       <c r="Q93" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q92,P93,"f")</f>
-        <v>42369</v>
+        <v>42373</v>
       </c>
       <c r="R93" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q93)</f>
@@ -34817,7 +34812,7 @@
       </c>
       <c r="Q94" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q93,P94,"f")</f>
-        <v>42373</v>
+        <v>42374</v>
       </c>
       <c r="R94" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q94)</f>
@@ -34830,7 +34825,7 @@
       </c>
       <c r="Q95" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q94,P95,"f")</f>
-        <v>42374</v>
+        <v>42375</v>
       </c>
       <c r="R95" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q95)</f>
@@ -34843,7 +34838,7 @@
       </c>
       <c r="Q96" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q95,P96,"f")</f>
-        <v>42375</v>
+        <v>42376</v>
       </c>
       <c r="R96" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q96)</f>
@@ -34856,7 +34851,7 @@
       </c>
       <c r="Q97" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q96,P97,"f")</f>
-        <v>42376</v>
+        <v>42377</v>
       </c>
       <c r="R97" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q97)</f>
@@ -34869,7 +34864,7 @@
       </c>
       <c r="Q98" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q97,P98,"f")</f>
-        <v>42377</v>
+        <v>42380</v>
       </c>
       <c r="R98" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q98)</f>
@@ -34882,7 +34877,7 @@
       </c>
       <c r="Q99" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q98,P99,"f")</f>
-        <v>42380</v>
+        <v>42381</v>
       </c>
       <c r="R99" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q99)</f>
@@ -34895,7 +34890,7 @@
       </c>
       <c r="Q100" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q99,P100,"f")</f>
-        <v>42381</v>
+        <v>42382</v>
       </c>
       <c r="R100" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q100)</f>
@@ -34908,7 +34903,7 @@
       </c>
       <c r="Q101" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q100,P101,"f")</f>
-        <v>42382</v>
+        <v>42383</v>
       </c>
       <c r="R101" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q101)</f>
@@ -34921,7 +34916,7 @@
       </c>
       <c r="Q102" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q101,P102,"f")</f>
-        <v>42383</v>
+        <v>42384</v>
       </c>
       <c r="R102" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q102)</f>
@@ -34934,7 +34929,7 @@
       </c>
       <c r="Q103" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q102,P103,"f")</f>
-        <v>42384</v>
+        <v>42387</v>
       </c>
       <c r="R103" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q103)</f>
@@ -34947,7 +34942,7 @@
       </c>
       <c r="Q104" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q103,P104,"f")</f>
-        <v>42387</v>
+        <v>42388</v>
       </c>
       <c r="R104" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q104)</f>
@@ -34960,7 +34955,7 @@
       </c>
       <c r="Q105" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q104,P105,"f")</f>
-        <v>42388</v>
+        <v>42389</v>
       </c>
       <c r="R105" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q105)</f>
@@ -34973,7 +34968,7 @@
       </c>
       <c r="Q106" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q105,P106,"f")</f>
-        <v>42389</v>
+        <v>42390</v>
       </c>
       <c r="R106" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q106)</f>
@@ -34986,7 +34981,7 @@
       </c>
       <c r="Q107" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q106,P107,"f")</f>
-        <v>42390</v>
+        <v>42391</v>
       </c>
       <c r="R107" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q107)</f>
@@ -34999,7 +34994,7 @@
       </c>
       <c r="Q108" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q107,P108,"f")</f>
-        <v>42391</v>
+        <v>42394</v>
       </c>
       <c r="R108" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q108)</f>
@@ -35012,7 +35007,7 @@
       </c>
       <c r="Q109" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q108,P109,"f")</f>
-        <v>42394</v>
+        <v>42395</v>
       </c>
       <c r="R109" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q109)</f>
@@ -35025,7 +35020,7 @@
       </c>
       <c r="Q110" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q109,P110,"f")</f>
-        <v>42395</v>
+        <v>42396</v>
       </c>
       <c r="R110" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q110)</f>
@@ -35038,7 +35033,7 @@
       </c>
       <c r="Q111" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q110,P111,"f")</f>
-        <v>42396</v>
+        <v>42397</v>
       </c>
       <c r="R111" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q111)</f>
@@ -35051,7 +35046,7 @@
       </c>
       <c r="Q112" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q111,P112,"f")</f>
-        <v>42397</v>
+        <v>42398</v>
       </c>
       <c r="R112" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q112)</f>
@@ -35064,7 +35059,7 @@
       </c>
       <c r="Q113" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q112,P113,"f")</f>
-        <v>42398</v>
+        <v>42401</v>
       </c>
       <c r="R113" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q113)</f>
@@ -35077,7 +35072,7 @@
       </c>
       <c r="Q114" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q113,P114,"f")</f>
-        <v>42401</v>
+        <v>42402</v>
       </c>
       <c r="R114" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q114)</f>
@@ -35090,7 +35085,7 @@
       </c>
       <c r="Q115" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q114,P115,"f")</f>
-        <v>42402</v>
+        <v>42403</v>
       </c>
       <c r="R115" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q115)</f>
@@ -35103,7 +35098,7 @@
       </c>
       <c r="Q116" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q115,P116,"f")</f>
-        <v>42403</v>
+        <v>42404</v>
       </c>
       <c r="R116" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q116)</f>
@@ -35116,7 +35111,7 @@
       </c>
       <c r="Q117" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q116,P117,"f")</f>
-        <v>42404</v>
+        <v>42405</v>
       </c>
       <c r="R117" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q117)</f>
@@ -35129,7 +35124,7 @@
       </c>
       <c r="Q118" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q117,P118,"f")</f>
-        <v>42405</v>
+        <v>42408</v>
       </c>
       <c r="R118" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q118)</f>
@@ -35142,7 +35137,7 @@
       </c>
       <c r="Q119" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q118,P119,"f")</f>
-        <v>42408</v>
+        <v>42409</v>
       </c>
       <c r="R119" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q119)</f>
@@ -35155,7 +35150,7 @@
       </c>
       <c r="Q120" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q119,P120,"f")</f>
-        <v>42409</v>
+        <v>42410</v>
       </c>
       <c r="R120" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q120)</f>
@@ -35168,7 +35163,7 @@
       </c>
       <c r="Q121" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q120,P121,"f")</f>
-        <v>42410</v>
+        <v>42411</v>
       </c>
       <c r="R121" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q121)</f>
@@ -35181,7 +35176,7 @@
       </c>
       <c r="Q122" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q121,P122,"f")</f>
-        <v>42411</v>
+        <v>42412</v>
       </c>
       <c r="R122" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q122)</f>
@@ -35194,7 +35189,7 @@
       </c>
       <c r="Q123" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q122,P123,"f")</f>
-        <v>42412</v>
+        <v>42415</v>
       </c>
       <c r="R123" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q123)</f>
@@ -35207,7 +35202,7 @@
       </c>
       <c r="Q124" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q123,P124,"f")</f>
-        <v>42415</v>
+        <v>42416</v>
       </c>
       <c r="R124" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q124)</f>
@@ -35220,7 +35215,7 @@
       </c>
       <c r="Q125" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q124,P125,"f")</f>
-        <v>42416</v>
+        <v>42417</v>
       </c>
       <c r="R125" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q125)</f>
@@ -35233,7 +35228,7 @@
       </c>
       <c r="Q126" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q125,P126,"f")</f>
-        <v>42417</v>
+        <v>42418</v>
       </c>
       <c r="R126" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q126)</f>
@@ -35246,7 +35241,7 @@
       </c>
       <c r="Q127" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q126,P127,"f")</f>
-        <v>42418</v>
+        <v>42419</v>
       </c>
       <c r="R127" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q127)</f>
@@ -35259,7 +35254,7 @@
       </c>
       <c r="Q128" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q127,P128,"f")</f>
-        <v>42419</v>
+        <v>42422</v>
       </c>
       <c r="R128" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q128)</f>
@@ -35272,7 +35267,7 @@
       </c>
       <c r="Q129" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q128,P129,"f")</f>
-        <v>42422</v>
+        <v>42423</v>
       </c>
       <c r="R129" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q129)</f>
@@ -35285,7 +35280,7 @@
       </c>
       <c r="Q130" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q129,P130,"f")</f>
-        <v>42423</v>
+        <v>42424</v>
       </c>
       <c r="R130" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q130)</f>
@@ -35298,7 +35293,7 @@
       </c>
       <c r="Q131" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q130,P131,"f")</f>
-        <v>42424</v>
+        <v>42425</v>
       </c>
       <c r="R131" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q131)</f>
@@ -35311,7 +35306,7 @@
       </c>
       <c r="Q132" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q131,P132,"f")</f>
-        <v>42425</v>
+        <v>42426</v>
       </c>
       <c r="R132" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q132)</f>
@@ -35324,7 +35319,7 @@
       </c>
       <c r="Q133" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q132,P133,"f")</f>
-        <v>42426</v>
+        <v>42429</v>
       </c>
       <c r="R133" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q133)</f>
@@ -35337,7 +35332,7 @@
       </c>
       <c r="Q134" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q133,P134,"f")</f>
-        <v>42429</v>
+        <v>42430</v>
       </c>
       <c r="R134" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q134)</f>
@@ -35350,7 +35345,7 @@
       </c>
       <c r="Q135" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q134,P135,"f")</f>
-        <v>42430</v>
+        <v>42431</v>
       </c>
       <c r="R135" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q135)</f>
@@ -35363,7 +35358,7 @@
       </c>
       <c r="Q136" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q135,P136,"f")</f>
-        <v>42431</v>
+        <v>42432</v>
       </c>
       <c r="R136" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q136)</f>
@@ -35376,7 +35371,7 @@
       </c>
       <c r="Q137" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q136,P137,"f")</f>
-        <v>42432</v>
+        <v>42433</v>
       </c>
       <c r="R137" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q137)</f>
@@ -35389,7 +35384,7 @@
       </c>
       <c r="Q138" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q137,P138,"f")</f>
-        <v>42433</v>
+        <v>42436</v>
       </c>
       <c r="R138" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q138)</f>
@@ -35402,7 +35397,7 @@
       </c>
       <c r="Q139" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q138,P139,"f")</f>
-        <v>42436</v>
+        <v>42437</v>
       </c>
       <c r="R139" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q139)</f>
@@ -35415,7 +35410,7 @@
       </c>
       <c r="Q140" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q139,P140,"f")</f>
-        <v>42437</v>
+        <v>42438</v>
       </c>
       <c r="R140" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q140)</f>
@@ -35428,7 +35423,7 @@
       </c>
       <c r="Q141" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q140,P141,"f")</f>
-        <v>42438</v>
+        <v>42439</v>
       </c>
       <c r="R141" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q141)</f>
@@ -35441,7 +35436,7 @@
       </c>
       <c r="Q142" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q141,P142,"f")</f>
-        <v>42439</v>
+        <v>42440</v>
       </c>
       <c r="R142" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q142)</f>
@@ -35454,7 +35449,7 @@
       </c>
       <c r="Q143" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q142,P143,"f")</f>
-        <v>42440</v>
+        <v>42443</v>
       </c>
       <c r="R143" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q143)</f>
@@ -35467,7 +35462,7 @@
       </c>
       <c r="Q144" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q143,P144,"f")</f>
-        <v>42443</v>
+        <v>42444</v>
       </c>
       <c r="R144" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q144)</f>
@@ -35480,7 +35475,7 @@
       </c>
       <c r="Q145" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q144,P145,"f")</f>
-        <v>42444</v>
+        <v>42445</v>
       </c>
       <c r="R145" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q145)</f>
@@ -35493,7 +35488,7 @@
       </c>
       <c r="Q146" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q145,P146,"f")</f>
-        <v>42445</v>
+        <v>42446</v>
       </c>
       <c r="R146" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q146)</f>
@@ -35506,7 +35501,7 @@
       </c>
       <c r="Q147" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q146,P147,"f")</f>
-        <v>42446</v>
+        <v>42447</v>
       </c>
       <c r="R147" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q147)</f>
@@ -35519,7 +35514,7 @@
       </c>
       <c r="Q148" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q147,P148,"f")</f>
-        <v>42447</v>
+        <v>42450</v>
       </c>
       <c r="R148" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q148)</f>
@@ -35532,7 +35527,7 @@
       </c>
       <c r="Q149" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q148,P149,"f")</f>
-        <v>42450</v>
+        <v>42451</v>
       </c>
       <c r="R149" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q149)</f>
@@ -35545,7 +35540,7 @@
       </c>
       <c r="Q150" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q149,P150,"f")</f>
-        <v>42451</v>
+        <v>42452</v>
       </c>
       <c r="R150" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q150)</f>
@@ -35558,7 +35553,7 @@
       </c>
       <c r="Q151" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q150,P151,"f")</f>
-        <v>42452</v>
+        <v>42453</v>
       </c>
       <c r="R151" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q151)</f>
@@ -35571,7 +35566,7 @@
       </c>
       <c r="Q152" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q151,P152,"f")</f>
-        <v>42453</v>
+        <v>42458</v>
       </c>
       <c r="R152" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q152)</f>
@@ -35584,7 +35579,7 @@
       </c>
       <c r="Q153" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q152,P153,"f")</f>
-        <v>42458</v>
+        <v>42459</v>
       </c>
       <c r="R153" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q153)</f>
@@ -35597,7 +35592,7 @@
       </c>
       <c r="Q154" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q153,P154,"f")</f>
-        <v>42459</v>
+        <v>42460</v>
       </c>
       <c r="R154" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q154)</f>
@@ -35610,7 +35605,7 @@
       </c>
       <c r="Q155" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q154,P155,"f")</f>
-        <v>42460</v>
+        <v>42461</v>
       </c>
       <c r="R155" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q155)</f>
@@ -35623,7 +35618,7 @@
       </c>
       <c r="Q156" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q155,P156,"f")</f>
-        <v>42461</v>
+        <v>42464</v>
       </c>
       <c r="R156" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q156)</f>
@@ -35636,7 +35631,7 @@
       </c>
       <c r="Q157" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q156,P157,"f")</f>
-        <v>42464</v>
+        <v>42465</v>
       </c>
       <c r="R157" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q157)</f>
@@ -35649,7 +35644,7 @@
       </c>
       <c r="Q158" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q157,P158,"f")</f>
-        <v>42465</v>
+        <v>42466</v>
       </c>
       <c r="R158" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q158)</f>
@@ -35662,7 +35657,7 @@
       </c>
       <c r="Q159" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q158,P159,"f")</f>
-        <v>42466</v>
+        <v>42467</v>
       </c>
       <c r="R159" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q159)</f>
@@ -35675,7 +35670,7 @@
       </c>
       <c r="Q160" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q159,P160,"f")</f>
-        <v>42467</v>
+        <v>42468</v>
       </c>
       <c r="R160" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q160)</f>
@@ -35688,7 +35683,7 @@
       </c>
       <c r="Q161" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q160,P161,"f")</f>
-        <v>42468</v>
+        <v>42471</v>
       </c>
       <c r="R161" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q161)</f>
@@ -35701,7 +35696,7 @@
       </c>
       <c r="Q162" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q161,P162,"f")</f>
-        <v>42471</v>
+        <v>42472</v>
       </c>
       <c r="R162" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q162)</f>
@@ -35714,7 +35709,7 @@
       </c>
       <c r="Q163" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q162,P163,"f")</f>
-        <v>42472</v>
+        <v>42473</v>
       </c>
       <c r="R163" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q163)</f>
@@ -35727,7 +35722,7 @@
       </c>
       <c r="Q164" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q163,P164,"f")</f>
-        <v>42473</v>
+        <v>42474</v>
       </c>
       <c r="R164" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q164)</f>
@@ -35740,7 +35735,7 @@
       </c>
       <c r="Q165" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q164,P165,"f")</f>
-        <v>42474</v>
+        <v>42475</v>
       </c>
       <c r="R165" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q165)</f>
@@ -35753,7 +35748,7 @@
       </c>
       <c r="Q166" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q165,P166,"f")</f>
-        <v>42475</v>
+        <v>42478</v>
       </c>
       <c r="R166" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q166)</f>
@@ -35766,7 +35761,7 @@
       </c>
       <c r="Q167" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q166,P167,"f")</f>
-        <v>42478</v>
+        <v>42479</v>
       </c>
       <c r="R167" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q167)</f>
@@ -35779,7 +35774,7 @@
       </c>
       <c r="Q168" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q167,P168,"f")</f>
-        <v>42479</v>
+        <v>42480</v>
       </c>
       <c r="R168" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q168)</f>
@@ -35792,7 +35787,7 @@
       </c>
       <c r="Q169" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q168,P169,"f")</f>
-        <v>42480</v>
+        <v>42481</v>
       </c>
       <c r="R169" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q169)</f>
@@ -35805,7 +35800,7 @@
       </c>
       <c r="Q170" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q169,P170,"f")</f>
-        <v>42481</v>
+        <v>42482</v>
       </c>
       <c r="R170" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q170)</f>
@@ -35818,7 +35813,7 @@
       </c>
       <c r="Q171" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q170,P171,"f")</f>
-        <v>42482</v>
+        <v>42485</v>
       </c>
       <c r="R171" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q171)</f>
@@ -35831,7 +35826,7 @@
       </c>
       <c r="Q172" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q171,P172,"f")</f>
-        <v>42485</v>
+        <v>42486</v>
       </c>
       <c r="R172" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q172)</f>
@@ -35844,7 +35839,7 @@
       </c>
       <c r="Q173" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q172,P173,"f")</f>
-        <v>42486</v>
+        <v>42487</v>
       </c>
       <c r="R173" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q173)</f>
@@ -35857,7 +35852,7 @@
       </c>
       <c r="Q174" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q173,P174,"f")</f>
-        <v>42487</v>
+        <v>42488</v>
       </c>
       <c r="R174" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q174)</f>
@@ -35870,7 +35865,7 @@
       </c>
       <c r="Q175" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q174,P175,"f")</f>
-        <v>42488</v>
+        <v>42489</v>
       </c>
       <c r="R175" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q175)</f>
@@ -35883,7 +35878,7 @@
       </c>
       <c r="Q176" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q175,P176,"f")</f>
-        <v>42489</v>
+        <v>42492</v>
       </c>
       <c r="R176" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q176)</f>
@@ -35896,7 +35891,7 @@
       </c>
       <c r="Q177" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q176,P177,"f")</f>
-        <v>42492</v>
+        <v>42493</v>
       </c>
       <c r="R177" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q177)</f>
@@ -35909,7 +35904,7 @@
       </c>
       <c r="Q178" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q177,P178,"f")</f>
-        <v>42493</v>
+        <v>42494</v>
       </c>
       <c r="R178" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q178)</f>
@@ -35922,7 +35917,7 @@
       </c>
       <c r="Q179" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q178,P179,"f")</f>
-        <v>42494</v>
+        <v>42495</v>
       </c>
       <c r="R179" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q179)</f>
@@ -35935,7 +35930,7 @@
       </c>
       <c r="Q180" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q179,P180,"f")</f>
-        <v>42495</v>
+        <v>42496</v>
       </c>
       <c r="R180" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q180)</f>
@@ -35948,7 +35943,7 @@
       </c>
       <c r="Q181" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q180,P181,"f")</f>
-        <v>42496</v>
+        <v>42499</v>
       </c>
       <c r="R181" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q181)</f>
@@ -35961,7 +35956,7 @@
       </c>
       <c r="Q182" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q181,P182,"f")</f>
-        <v>42499</v>
+        <v>42500</v>
       </c>
       <c r="R182" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q182)</f>
@@ -35974,7 +35969,7 @@
       </c>
       <c r="Q183" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q182,P183,"f")</f>
-        <v>42500</v>
+        <v>42501</v>
       </c>
       <c r="R183" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q183)</f>
@@ -35987,7 +35982,7 @@
       </c>
       <c r="Q184" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q183,P184,"f")</f>
-        <v>42501</v>
+        <v>42502</v>
       </c>
       <c r="R184" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q184)</f>
@@ -36000,7 +35995,7 @@
       </c>
       <c r="Q185" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q184,P185,"f")</f>
-        <v>42502</v>
+        <v>42503</v>
       </c>
       <c r="R185" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q185)</f>
@@ -36013,7 +36008,7 @@
       </c>
       <c r="Q186" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q185,P186,"f")</f>
-        <v>42503</v>
+        <v>42506</v>
       </c>
       <c r="R186" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q186)</f>
@@ -36026,7 +36021,7 @@
       </c>
       <c r="Q187" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q186,P187,"f")</f>
-        <v>42506</v>
+        <v>42507</v>
       </c>
       <c r="R187" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q187)</f>
@@ -36039,7 +36034,7 @@
       </c>
       <c r="Q188" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q187,P188,"f")</f>
-        <v>42507</v>
+        <v>42508</v>
       </c>
       <c r="R188" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q188)</f>
@@ -36052,7 +36047,7 @@
       </c>
       <c r="Q189" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q188,P189,"f")</f>
-        <v>42508</v>
+        <v>42509</v>
       </c>
       <c r="R189" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q189)</f>
@@ -36065,7 +36060,7 @@
       </c>
       <c r="Q190" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q189,P190,"f")</f>
-        <v>42509</v>
+        <v>42510</v>
       </c>
       <c r="R190" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q190)</f>
@@ -36078,7 +36073,7 @@
       </c>
       <c r="Q191" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q190,P191,"f")</f>
-        <v>42510</v>
+        <v>42513</v>
       </c>
       <c r="R191" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q191)</f>
@@ -36091,7 +36086,7 @@
       </c>
       <c r="Q192" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q191,P192,"f")</f>
-        <v>42513</v>
+        <v>42514</v>
       </c>
       <c r="R192" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q192)</f>
@@ -36104,7 +36099,7 @@
       </c>
       <c r="Q193" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q192,P193,"f")</f>
-        <v>42514</v>
+        <v>42515</v>
       </c>
       <c r="R193" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q193)</f>
@@ -36117,7 +36112,7 @@
       </c>
       <c r="Q194" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q193,P194,"f")</f>
-        <v>42515</v>
+        <v>42516</v>
       </c>
       <c r="R194" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q194)</f>
@@ -36130,7 +36125,7 @@
       </c>
       <c r="Q195" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q194,P195,"f")</f>
-        <v>42516</v>
+        <v>42517</v>
       </c>
       <c r="R195" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q195)</f>
@@ -36143,7 +36138,7 @@
       </c>
       <c r="Q196" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q195,P196,"f")</f>
-        <v>42517</v>
+        <v>42520</v>
       </c>
       <c r="R196" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q196)</f>
@@ -36156,7 +36151,7 @@
       </c>
       <c r="Q197" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q196,P197,"f")</f>
-        <v>42520</v>
+        <v>42521</v>
       </c>
       <c r="R197" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q197)</f>
@@ -36169,7 +36164,7 @@
       </c>
       <c r="Q198" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q197,P198,"f")</f>
-        <v>42521</v>
+        <v>42522</v>
       </c>
       <c r="R198" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q198)</f>
@@ -36182,7 +36177,7 @@
       </c>
       <c r="Q199" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q198,P199,"f")</f>
-        <v>42522</v>
+        <v>42523</v>
       </c>
       <c r="R199" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q199)</f>
@@ -36195,7 +36190,7 @@
       </c>
       <c r="Q200" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q199,P200,"f")</f>
-        <v>42523</v>
+        <v>42524</v>
       </c>
       <c r="R200" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q200)</f>
@@ -36208,7 +36203,7 @@
       </c>
       <c r="Q201" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q200,P201,"f")</f>
-        <v>42524</v>
+        <v>42527</v>
       </c>
       <c r="R201" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q201)</f>
@@ -36221,7 +36216,7 @@
       </c>
       <c r="Q202" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q201,P202,"f")</f>
-        <v>42527</v>
+        <v>42528</v>
       </c>
       <c r="R202" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q202)</f>
@@ -36234,7 +36229,7 @@
       </c>
       <c r="Q203" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q202,P203,"f")</f>
-        <v>42528</v>
+        <v>42529</v>
       </c>
       <c r="R203" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q203)</f>
@@ -36247,7 +36242,7 @@
       </c>
       <c r="Q204" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q203,P204,"f")</f>
-        <v>42529</v>
+        <v>42530</v>
       </c>
       <c r="R204" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q204)</f>
@@ -36260,7 +36255,7 @@
       </c>
       <c r="Q205" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q204,P205,"f")</f>
-        <v>42530</v>
+        <v>42531</v>
       </c>
       <c r="R205" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q205)</f>
@@ -36273,7 +36268,7 @@
       </c>
       <c r="Q206" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q205,P206,"f")</f>
-        <v>42531</v>
+        <v>42534</v>
       </c>
       <c r="R206" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q206)</f>
@@ -36286,7 +36281,7 @@
       </c>
       <c r="Q207" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q206,P207,"f")</f>
-        <v>42534</v>
+        <v>42535</v>
       </c>
       <c r="R207" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q207)</f>
@@ -36299,7 +36294,7 @@
       </c>
       <c r="Q208" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q207,P208,"f")</f>
-        <v>42535</v>
+        <v>42536</v>
       </c>
       <c r="R208" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q208)</f>
@@ -36312,7 +36307,7 @@
       </c>
       <c r="Q209" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q208,P209,"f")</f>
-        <v>42536</v>
+        <v>42537</v>
       </c>
       <c r="R209" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q209)</f>
@@ -36325,7 +36320,7 @@
       </c>
       <c r="Q210" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q209,P210,"f")</f>
-        <v>42537</v>
+        <v>42538</v>
       </c>
       <c r="R210" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q210)</f>
@@ -36338,7 +36333,7 @@
       </c>
       <c r="Q211" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q210,P211,"f")</f>
-        <v>42538</v>
+        <v>42541</v>
       </c>
       <c r="R211" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q211)</f>
@@ -36351,7 +36346,7 @@
       </c>
       <c r="Q212" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q211,P212,"f")</f>
-        <v>42541</v>
+        <v>42542</v>
       </c>
       <c r="R212" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q212)</f>
@@ -36364,7 +36359,7 @@
       </c>
       <c r="Q213" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q212,P213,"f")</f>
-        <v>42542</v>
+        <v>42543</v>
       </c>
       <c r="R213" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q213)</f>
@@ -36377,7 +36372,7 @@
       </c>
       <c r="Q214" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q213,P214,"f")</f>
-        <v>42543</v>
+        <v>42544</v>
       </c>
       <c r="R214" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q214)</f>
@@ -36390,7 +36385,7 @@
       </c>
       <c r="Q215" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q214,P215,"f")</f>
-        <v>42544</v>
+        <v>42545</v>
       </c>
       <c r="R215" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q215)</f>
@@ -36403,7 +36398,7 @@
       </c>
       <c r="Q216" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q215,P216,"f")</f>
-        <v>42545</v>
+        <v>42548</v>
       </c>
       <c r="R216" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q216)</f>
@@ -36416,7 +36411,7 @@
       </c>
       <c r="Q217" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q216,P217,"f")</f>
-        <v>42548</v>
+        <v>42549</v>
       </c>
       <c r="R217" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q217)</f>
@@ -36429,7 +36424,7 @@
       </c>
       <c r="Q218" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q217,P218,"f")</f>
-        <v>42549</v>
+        <v>42550</v>
       </c>
       <c r="R218" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q218)</f>
@@ -36442,7 +36437,7 @@
       </c>
       <c r="Q219" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q218,P219,"f")</f>
-        <v>42550</v>
+        <v>42551</v>
       </c>
       <c r="R219" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q219)</f>
@@ -36455,7 +36450,7 @@
       </c>
       <c r="Q220" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q219,P220,"f")</f>
-        <v>42551</v>
+        <v>42552</v>
       </c>
       <c r="R220" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q220)</f>
@@ -36468,7 +36463,7 @@
       </c>
       <c r="Q221" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q220,P221,"f")</f>
-        <v>42552</v>
+        <v>42555</v>
       </c>
       <c r="R221" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q221)</f>
@@ -36481,7 +36476,7 @@
       </c>
       <c r="Q222" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q221,P222,"f")</f>
-        <v>42555</v>
+        <v>42556</v>
       </c>
       <c r="R222" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q222)</f>
@@ -36494,7 +36489,7 @@
       </c>
       <c r="Q223" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q222,P223,"f")</f>
-        <v>42556</v>
+        <v>42557</v>
       </c>
       <c r="R223" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q223)</f>
@@ -36507,7 +36502,7 @@
       </c>
       <c r="Q224" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q223,P224,"f")</f>
-        <v>42557</v>
+        <v>42558</v>
       </c>
       <c r="R224" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q224)</f>
@@ -36520,7 +36515,7 @@
       </c>
       <c r="Q225" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q224,P225,"f")</f>
-        <v>42558</v>
+        <v>42559</v>
       </c>
       <c r="R225" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q225)</f>
@@ -36533,7 +36528,7 @@
       </c>
       <c r="Q226" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q225,P226,"f")</f>
-        <v>42559</v>
+        <v>42562</v>
       </c>
       <c r="R226" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q226)</f>
@@ -36546,7 +36541,7 @@
       </c>
       <c r="Q227" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q226,P227,"f")</f>
-        <v>42562</v>
+        <v>42563</v>
       </c>
       <c r="R227" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q227)</f>
@@ -36559,7 +36554,7 @@
       </c>
       <c r="Q228" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q227,P228,"f")</f>
-        <v>42563</v>
+        <v>42564</v>
       </c>
       <c r="R228" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q228)</f>
@@ -36572,7 +36567,7 @@
       </c>
       <c r="Q229" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q228,P229,"f")</f>
-        <v>42564</v>
+        <v>42565</v>
       </c>
       <c r="R229" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q229)</f>
@@ -36585,7 +36580,7 @@
       </c>
       <c r="Q230" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q229,P230,"f")</f>
-        <v>42565</v>
+        <v>42566</v>
       </c>
       <c r="R230" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q230)</f>
@@ -36598,7 +36593,7 @@
       </c>
       <c r="Q231" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q230,P231,"f")</f>
-        <v>42566</v>
+        <v>42569</v>
       </c>
       <c r="R231" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q231)</f>
@@ -36611,7 +36606,7 @@
       </c>
       <c r="Q232" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q231,P232,"f")</f>
-        <v>42569</v>
+        <v>42570</v>
       </c>
       <c r="R232" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q232)</f>
@@ -36624,7 +36619,7 @@
       </c>
       <c r="Q233" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q232,P233,"f")</f>
-        <v>42570</v>
+        <v>42571</v>
       </c>
       <c r="R233" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q233)</f>
@@ -36637,7 +36632,7 @@
       </c>
       <c r="Q234" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q233,P234,"f")</f>
-        <v>42571</v>
+        <v>42572</v>
       </c>
       <c r="R234" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q234)</f>
@@ -36650,7 +36645,7 @@
       </c>
       <c r="Q235" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q234,P235,"f")</f>
-        <v>42572</v>
+        <v>42573</v>
       </c>
       <c r="R235" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q235)</f>
@@ -36663,7 +36658,7 @@
       </c>
       <c r="Q236" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q235,P236,"f")</f>
-        <v>42573</v>
+        <v>42576</v>
       </c>
       <c r="R236" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q236)</f>
@@ -36676,7 +36671,7 @@
       </c>
       <c r="Q237" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q236,P237,"f")</f>
-        <v>42576</v>
+        <v>42577</v>
       </c>
       <c r="R237" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q237)</f>
@@ -36689,7 +36684,7 @@
       </c>
       <c r="Q238" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q237,P238,"f")</f>
-        <v>42577</v>
+        <v>42578</v>
       </c>
       <c r="R238" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q238)</f>
@@ -36702,7 +36697,7 @@
       </c>
       <c r="Q239" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q238,P239,"f")</f>
-        <v>42578</v>
+        <v>42579</v>
       </c>
       <c r="R239" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q239)</f>
@@ -36715,7 +36710,7 @@
       </c>
       <c r="Q240" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q239,P240,"f")</f>
-        <v>42579</v>
+        <v>42580</v>
       </c>
       <c r="R240" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q240)</f>
@@ -36728,7 +36723,7 @@
       </c>
       <c r="Q241" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q240,P241,"f")</f>
-        <v>42580</v>
+        <v>42583</v>
       </c>
       <c r="R241" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q241)</f>
@@ -36741,7 +36736,7 @@
       </c>
       <c r="Q242" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q241,P242,"f")</f>
-        <v>42583</v>
+        <v>42584</v>
       </c>
       <c r="R242" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q242)</f>
@@ -36754,7 +36749,7 @@
       </c>
       <c r="Q243" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q242,P243,"f")</f>
-        <v>42584</v>
+        <v>42585</v>
       </c>
       <c r="R243" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q243)</f>
@@ -36767,7 +36762,7 @@
       </c>
       <c r="Q244" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q243,P244,"f")</f>
-        <v>42585</v>
+        <v>42586</v>
       </c>
       <c r="R244" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q244)</f>
@@ -36780,7 +36775,7 @@
       </c>
       <c r="Q245" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q244,P245,"f")</f>
-        <v>42586</v>
+        <v>42587</v>
       </c>
       <c r="R245" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q245)</f>
@@ -36793,7 +36788,7 @@
       </c>
       <c r="Q246" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q245,P246,"f")</f>
-        <v>42587</v>
+        <v>42590</v>
       </c>
       <c r="R246" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q246)</f>
@@ -36806,7 +36801,7 @@
       </c>
       <c r="Q247" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q246,P247,"f")</f>
-        <v>42590</v>
+        <v>42591</v>
       </c>
       <c r="R247" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q247)</f>
@@ -36819,7 +36814,7 @@
       </c>
       <c r="Q248" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q247,P248,"f")</f>
-        <v>42591</v>
+        <v>42592</v>
       </c>
       <c r="R248" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q248)</f>
@@ -36832,7 +36827,7 @@
       </c>
       <c r="Q249" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q248,P249,"f")</f>
-        <v>42592</v>
+        <v>42593</v>
       </c>
       <c r="R249" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q249)</f>
@@ -36845,7 +36840,7 @@
       </c>
       <c r="Q250" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q249,P250,"f")</f>
-        <v>42593</v>
+        <v>42594</v>
       </c>
       <c r="R250" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q250)</f>
@@ -36858,7 +36853,7 @@
       </c>
       <c r="Q251" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q250,P251,"f")</f>
-        <v>42594</v>
+        <v>42597</v>
       </c>
       <c r="R251" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q251)</f>
@@ -36871,7 +36866,7 @@
       </c>
       <c r="Q252" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q251,P252,"f")</f>
-        <v>42597</v>
+        <v>42598</v>
       </c>
       <c r="R252" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q252)</f>
@@ -36884,7 +36879,7 @@
       </c>
       <c r="Q253" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q252,P253,"f")</f>
-        <v>42598</v>
+        <v>42599</v>
       </c>
       <c r="R253" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q253)</f>
@@ -36897,7 +36892,7 @@
       </c>
       <c r="Q254" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q253,P254,"f")</f>
-        <v>42599</v>
+        <v>42600</v>
       </c>
       <c r="R254" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q254)</f>
@@ -36910,7 +36905,7 @@
       </c>
       <c r="Q255" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q254,P255,"f")</f>
-        <v>42600</v>
+        <v>42601</v>
       </c>
       <c r="R255" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q255)</f>
@@ -36923,7 +36918,7 @@
       </c>
       <c r="Q256" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q255,P256,"f")</f>
-        <v>42601</v>
+        <v>42604</v>
       </c>
       <c r="R256" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q256)</f>
@@ -36936,7 +36931,7 @@
       </c>
       <c r="Q257" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q256,P257,"f")</f>
-        <v>42604</v>
+        <v>42605</v>
       </c>
       <c r="R257" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q257)</f>
@@ -36949,7 +36944,7 @@
       </c>
       <c r="Q258" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q257,P258,"f")</f>
-        <v>42605</v>
+        <v>42606</v>
       </c>
       <c r="R258" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q258)</f>
@@ -36962,7 +36957,7 @@
       </c>
       <c r="Q259" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q258,P259,"f")</f>
-        <v>42606</v>
+        <v>42607</v>
       </c>
       <c r="R259" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q259)</f>
@@ -36975,7 +36970,7 @@
       </c>
       <c r="Q260" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q259,P260,"f")</f>
-        <v>42607</v>
+        <v>42608</v>
       </c>
       <c r="R260" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q260)</f>
@@ -36988,7 +36983,7 @@
       </c>
       <c r="Q261" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q260,P261,"f")</f>
-        <v>42608</v>
+        <v>42611</v>
       </c>
       <c r="R261" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q261)</f>
@@ -37001,7 +36996,7 @@
       </c>
       <c r="Q262" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q261,P262,"f")</f>
-        <v>42611</v>
+        <v>42612</v>
       </c>
       <c r="R262" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q262)</f>
@@ -37014,7 +37009,7 @@
       </c>
       <c r="Q263" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q262,P263,"f")</f>
-        <v>42612</v>
+        <v>42613</v>
       </c>
       <c r="R263" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q263)</f>
@@ -37027,7 +37022,7 @@
       </c>
       <c r="Q264" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q263,P264,"f")</f>
-        <v>42613</v>
+        <v>42614</v>
       </c>
       <c r="R264" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q264)</f>
@@ -37040,7 +37035,7 @@
       </c>
       <c r="Q265" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q264,P265,"f")</f>
-        <v>42614</v>
+        <v>42615</v>
       </c>
       <c r="R265" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q265)</f>
@@ -37053,7 +37048,7 @@
       </c>
       <c r="Q266" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q265,P266,"f")</f>
-        <v>42615</v>
+        <v>42618</v>
       </c>
       <c r="R266" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q266)</f>
@@ -37066,7 +37061,7 @@
       </c>
       <c r="Q267" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q266,P267,"f")</f>
-        <v>42618</v>
+        <v>42619</v>
       </c>
       <c r="R267" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q267)</f>
@@ -37079,7 +37074,7 @@
       </c>
       <c r="Q268" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q267,P268,"f")</f>
-        <v>42619</v>
+        <v>42620</v>
       </c>
       <c r="R268" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q268)</f>
@@ -37092,7 +37087,7 @@
       </c>
       <c r="Q269" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q268,P269,"f")</f>
-        <v>42620</v>
+        <v>42621</v>
       </c>
       <c r="R269" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q269)</f>
@@ -37105,7 +37100,7 @@
       </c>
       <c r="Q270" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q269,P270,"f")</f>
-        <v>42621</v>
+        <v>42622</v>
       </c>
       <c r="R270" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q270)</f>
@@ -37118,7 +37113,7 @@
       </c>
       <c r="Q271" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q270,P271,"f")</f>
-        <v>42622</v>
+        <v>42625</v>
       </c>
       <c r="R271" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q271)</f>
@@ -37131,7 +37126,7 @@
       </c>
       <c r="Q272" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q271,P272,"f")</f>
-        <v>42625</v>
+        <v>42626</v>
       </c>
       <c r="R272" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q272)</f>
@@ -37144,7 +37139,7 @@
       </c>
       <c r="Q273" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q272,P273,"f")</f>
-        <v>42626</v>
+        <v>42627</v>
       </c>
       <c r="R273" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q273)</f>
@@ -37157,7 +37152,7 @@
       </c>
       <c r="Q274" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q273,P274,"f")</f>
-        <v>42627</v>
+        <v>42628</v>
       </c>
       <c r="R274" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q274)</f>
@@ -37170,7 +37165,7 @@
       </c>
       <c r="Q275" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q274,P275,"f")</f>
-        <v>42628</v>
+        <v>42629</v>
       </c>
       <c r="R275" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q275)</f>
@@ -37183,7 +37178,7 @@
       </c>
       <c r="Q276" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q275,P276,"f")</f>
-        <v>42629</v>
+        <v>42632</v>
       </c>
       <c r="R276" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q276)</f>
@@ -37196,7 +37191,7 @@
       </c>
       <c r="Q277" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q276,P277,"f")</f>
-        <v>42632</v>
+        <v>42633</v>
       </c>
       <c r="R277" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q277)</f>
@@ -37209,7 +37204,7 @@
       </c>
       <c r="Q278" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q277,P278,"f")</f>
-        <v>42633</v>
+        <v>42634</v>
       </c>
       <c r="R278" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q278)</f>
@@ -37222,7 +37217,7 @@
       </c>
       <c r="Q279" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q278,P279,"f")</f>
-        <v>42634</v>
+        <v>42635</v>
       </c>
       <c r="R279" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q279)</f>
@@ -37235,7 +37230,7 @@
       </c>
       <c r="Q280" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q279,P280,"f")</f>
-        <v>42635</v>
+        <v>42636</v>
       </c>
       <c r="R280" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q280)</f>
@@ -37248,7 +37243,7 @@
       </c>
       <c r="Q281" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q280,P281,"f")</f>
-        <v>42636</v>
+        <v>42639</v>
       </c>
       <c r="R281" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q281)</f>
@@ -37261,7 +37256,7 @@
       </c>
       <c r="Q282" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q281,P282,"f")</f>
-        <v>42639</v>
+        <v>42640</v>
       </c>
       <c r="R282" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q282)</f>
@@ -37274,7 +37269,7 @@
       </c>
       <c r="Q283" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q282,P283,"f")</f>
-        <v>42640</v>
+        <v>42641</v>
       </c>
       <c r="R283" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q283)</f>
@@ -37287,7 +37282,7 @@
       </c>
       <c r="Q284" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q283,P284,"f")</f>
-        <v>42641</v>
+        <v>42642</v>
       </c>
       <c r="R284" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q284)</f>
@@ -37300,7 +37295,7 @@
       </c>
       <c r="Q285" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q284,P285,"f")</f>
-        <v>42642</v>
+        <v>42643</v>
       </c>
       <c r="R285" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q285)</f>
@@ -37313,7 +37308,7 @@
       </c>
       <c r="Q286" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q285,P286,"f")</f>
-        <v>42643</v>
+        <v>42646</v>
       </c>
       <c r="R286" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q286)</f>
@@ -37326,7 +37321,7 @@
       </c>
       <c r="Q287" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q286,P287,"f")</f>
-        <v>42646</v>
+        <v>42647</v>
       </c>
       <c r="R287" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q287)</f>
@@ -37339,7 +37334,7 @@
       </c>
       <c r="Q288" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q287,P288,"f")</f>
-        <v>42647</v>
+        <v>42648</v>
       </c>
       <c r="R288" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q288)</f>
@@ -37352,7 +37347,7 @@
       </c>
       <c r="Q289" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q288,P289,"f")</f>
-        <v>42648</v>
+        <v>42649</v>
       </c>
       <c r="R289" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q289)</f>
@@ -37365,7 +37360,7 @@
       </c>
       <c r="Q290" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q289,P290,"f")</f>
-        <v>42649</v>
+        <v>42650</v>
       </c>
       <c r="R290" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q290)</f>
@@ -37378,7 +37373,7 @@
       </c>
       <c r="Q291" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q290,P291,"f")</f>
-        <v>42650</v>
+        <v>42653</v>
       </c>
       <c r="R291" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q291)</f>
@@ -37391,7 +37386,7 @@
       </c>
       <c r="Q292" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q291,P292,"f")</f>
-        <v>42653</v>
+        <v>42654</v>
       </c>
       <c r="R292" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q292)</f>
@@ -37404,7 +37399,7 @@
       </c>
       <c r="Q293" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q292,P293,"f")</f>
-        <v>42654</v>
+        <v>42655</v>
       </c>
       <c r="R293" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q293)</f>
@@ -37417,7 +37412,7 @@
       </c>
       <c r="Q294" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q293,P294,"f")</f>
-        <v>42655</v>
+        <v>42656</v>
       </c>
       <c r="R294" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q294)</f>
@@ -37430,7 +37425,7 @@
       </c>
       <c r="Q295" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q294,P295,"f")</f>
-        <v>42656</v>
+        <v>42657</v>
       </c>
       <c r="R295" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q295)</f>
@@ -37443,7 +37438,7 @@
       </c>
       <c r="Q296" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q295,P296,"f")</f>
-        <v>42657</v>
+        <v>42660</v>
       </c>
       <c r="R296" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q296)</f>
@@ -37456,7 +37451,7 @@
       </c>
       <c r="Q297" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q296,P297,"f")</f>
-        <v>42660</v>
+        <v>42661</v>
       </c>
       <c r="R297" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q297)</f>
@@ -37469,7 +37464,7 @@
       </c>
       <c r="Q298" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q297,P298,"f")</f>
-        <v>42661</v>
+        <v>42662</v>
       </c>
       <c r="R298" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q298)</f>
@@ -37482,7 +37477,7 @@
       </c>
       <c r="Q299" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q298,P299,"f")</f>
-        <v>42662</v>
+        <v>42663</v>
       </c>
       <c r="R299" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q299)</f>
@@ -37495,7 +37490,7 @@
       </c>
       <c r="Q300" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q299,P300,"f")</f>
-        <v>42663</v>
+        <v>42664</v>
       </c>
       <c r="R300" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q300)</f>
@@ -37508,7 +37503,7 @@
       </c>
       <c r="Q301" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q300,P301,"f")</f>
-        <v>42664</v>
+        <v>42667</v>
       </c>
       <c r="R301" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q301)</f>
@@ -37521,7 +37516,7 @@
       </c>
       <c r="Q302" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q301,P302,"f")</f>
-        <v>42667</v>
+        <v>42668</v>
       </c>
       <c r="R302" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q302)</f>
@@ -37534,7 +37529,7 @@
       </c>
       <c r="Q303" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q302,P303,"f")</f>
-        <v>42668</v>
+        <v>42669</v>
       </c>
       <c r="R303" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q303)</f>
@@ -37547,7 +37542,7 @@
       </c>
       <c r="Q304" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q303,P304,"f")</f>
-        <v>42669</v>
+        <v>42670</v>
       </c>
       <c r="R304" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q304)</f>
@@ -37560,7 +37555,7 @@
       </c>
       <c r="Q305" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q304,P305,"f")</f>
-        <v>42670</v>
+        <v>42671</v>
       </c>
       <c r="R305" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q305)</f>
@@ -37573,7 +37568,7 @@
       </c>
       <c r="Q306" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q305,P306,"f")</f>
-        <v>42671</v>
+        <v>42674</v>
       </c>
       <c r="R306" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q306)</f>
@@ -37586,7 +37581,7 @@
       </c>
       <c r="Q307" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q306,P307,"f")</f>
-        <v>42674</v>
+        <v>42675</v>
       </c>
       <c r="R307" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q307)</f>
@@ -37599,7 +37594,7 @@
       </c>
       <c r="Q308" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q307,P308,"f")</f>
-        <v>42675</v>
+        <v>42676</v>
       </c>
       <c r="R308" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q308)</f>
@@ -37612,7 +37607,7 @@
       </c>
       <c r="Q309" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q308,P309,"f")</f>
-        <v>42676</v>
+        <v>42677</v>
       </c>
       <c r="R309" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q309)</f>
@@ -37625,7 +37620,7 @@
       </c>
       <c r="Q310" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q309,P310,"f")</f>
-        <v>42677</v>
+        <v>42678</v>
       </c>
       <c r="R310" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q310)</f>
@@ -37638,7 +37633,7 @@
       </c>
       <c r="Q311" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q310,P311,"f")</f>
-        <v>42678</v>
+        <v>42681</v>
       </c>
       <c r="R311" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q311)</f>
@@ -37651,7 +37646,7 @@
       </c>
       <c r="Q312" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q311,P312,"f")</f>
-        <v>42681</v>
+        <v>42682</v>
       </c>
       <c r="R312" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q312)</f>
@@ -37664,7 +37659,7 @@
       </c>
       <c r="Q313" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q312,P313,"f")</f>
-        <v>42682</v>
+        <v>42683</v>
       </c>
       <c r="R313" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q313)</f>
@@ -37677,7 +37672,7 @@
       </c>
       <c r="Q314" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q313,P314,"f")</f>
-        <v>42683</v>
+        <v>42684</v>
       </c>
       <c r="R314" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q314)</f>
@@ -37690,7 +37685,7 @@
       </c>
       <c r="Q315" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q314,P315,"f")</f>
-        <v>42684</v>
+        <v>42685</v>
       </c>
       <c r="R315" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q315)</f>
@@ -37703,7 +37698,7 @@
       </c>
       <c r="Q316" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q315,P316,"f")</f>
-        <v>42685</v>
+        <v>42688</v>
       </c>
       <c r="R316" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q316)</f>
@@ -37716,7 +37711,7 @@
       </c>
       <c r="Q317" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q316,P317,"f")</f>
-        <v>42688</v>
+        <v>42689</v>
       </c>
       <c r="R317" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q317)</f>
@@ -37729,7 +37724,7 @@
       </c>
       <c r="Q318" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q317,P318,"f")</f>
-        <v>42689</v>
+        <v>42690</v>
       </c>
       <c r="R318" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q318)</f>
@@ -37742,7 +37737,7 @@
       </c>
       <c r="Q319" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q318,P319,"f")</f>
-        <v>42690</v>
+        <v>42691</v>
       </c>
       <c r="R319" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q319)</f>
@@ -37755,7 +37750,7 @@
       </c>
       <c r="Q320" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q319,P320,"f")</f>
-        <v>42691</v>
+        <v>42692</v>
       </c>
       <c r="R320" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q320)</f>
@@ -37768,7 +37763,7 @@
       </c>
       <c r="Q321" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q320,P321,"f")</f>
-        <v>42692</v>
+        <v>42695</v>
       </c>
       <c r="R321" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q321)</f>
@@ -37781,7 +37776,7 @@
       </c>
       <c r="Q322" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q321,P322,"f")</f>
-        <v>42695</v>
+        <v>42696</v>
       </c>
       <c r="R322" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q322)</f>
@@ -37794,7 +37789,7 @@
       </c>
       <c r="Q323" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q322,P323,"f")</f>
-        <v>42696</v>
+        <v>42697</v>
       </c>
       <c r="R323" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q323)</f>
@@ -37807,7 +37802,7 @@
       </c>
       <c r="Q324" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q323,P324,"f")</f>
-        <v>42697</v>
+        <v>42698</v>
       </c>
       <c r="R324" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q324)</f>
@@ -37820,7 +37815,7 @@
       </c>
       <c r="Q325" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q324,P325,"f")</f>
-        <v>42698</v>
+        <v>42699</v>
       </c>
       <c r="R325" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q325)</f>
@@ -37833,7 +37828,7 @@
       </c>
       <c r="Q326" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q325,P326,"f")</f>
-        <v>42699</v>
+        <v>42702</v>
       </c>
       <c r="R326" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q326)</f>
@@ -37846,7 +37841,7 @@
       </c>
       <c r="Q327" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q326,P327,"f")</f>
-        <v>42702</v>
+        <v>42703</v>
       </c>
       <c r="R327" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q327)</f>
@@ -37859,7 +37854,7 @@
       </c>
       <c r="Q328" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q327,P328,"f")</f>
-        <v>42703</v>
+        <v>42704</v>
       </c>
       <c r="R328" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q328)</f>
@@ -37872,7 +37867,7 @@
       </c>
       <c r="Q329" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q328,P329,"f")</f>
-        <v>42704</v>
+        <v>42705</v>
       </c>
       <c r="R329" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q329)</f>
@@ -37885,7 +37880,7 @@
       </c>
       <c r="Q330" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q329,P330,"f")</f>
-        <v>42705</v>
+        <v>42706</v>
       </c>
       <c r="R330" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q330)</f>
@@ -37898,7 +37893,7 @@
       </c>
       <c r="Q331" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q330,P331,"f")</f>
-        <v>42706</v>
+        <v>42709</v>
       </c>
       <c r="R331" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q331)</f>
@@ -37911,7 +37906,7 @@
       </c>
       <c r="Q332" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q331,P332,"f")</f>
-        <v>42709</v>
+        <v>42710</v>
       </c>
       <c r="R332" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q332)</f>
@@ -37924,7 +37919,7 @@
       </c>
       <c r="Q333" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q332,P333,"f")</f>
-        <v>42710</v>
+        <v>42711</v>
       </c>
       <c r="R333" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q333)</f>
@@ -37937,7 +37932,7 @@
       </c>
       <c r="Q334" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q333,P334,"f")</f>
-        <v>42711</v>
+        <v>42712</v>
       </c>
       <c r="R334" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q334)</f>
@@ -37950,7 +37945,7 @@
       </c>
       <c r="Q335" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q334,P335,"f")</f>
-        <v>42712</v>
+        <v>42713</v>
       </c>
       <c r="R335" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q335)</f>
@@ -37963,7 +37958,7 @@
       </c>
       <c r="Q336" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q335,P336,"f")</f>
-        <v>42713</v>
+        <v>42716</v>
       </c>
       <c r="R336" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q336)</f>
@@ -37976,7 +37971,7 @@
       </c>
       <c r="Q337" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q336,P337,"f")</f>
-        <v>42716</v>
+        <v>42717</v>
       </c>
       <c r="R337" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q337)</f>
@@ -37989,7 +37984,7 @@
       </c>
       <c r="Q338" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q337,P338,"f")</f>
-        <v>42717</v>
+        <v>42718</v>
       </c>
       <c r="R338" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q338)</f>
@@ -38002,7 +37997,7 @@
       </c>
       <c r="Q339" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q338,P339,"f")</f>
-        <v>42718</v>
+        <v>42719</v>
       </c>
       <c r="R339" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q339)</f>
@@ -38015,7 +38010,7 @@
       </c>
       <c r="Q340" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q339,P340,"f")</f>
-        <v>42719</v>
+        <v>42720</v>
       </c>
       <c r="R340" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q340)</f>
@@ -38028,7 +38023,7 @@
       </c>
       <c r="Q341" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q340,P341,"f")</f>
-        <v>42720</v>
+        <v>42723</v>
       </c>
       <c r="R341" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q341)</f>
@@ -38041,7 +38036,7 @@
       </c>
       <c r="Q342" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q341,P342,"f")</f>
-        <v>42723</v>
+        <v>42724</v>
       </c>
       <c r="R342" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q342)</f>
@@ -38054,7 +38049,7 @@
       </c>
       <c r="Q343" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q342,P343,"f")</f>
-        <v>42724</v>
+        <v>42725</v>
       </c>
       <c r="R343" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q343)</f>
@@ -38067,7 +38062,7 @@
       </c>
       <c r="Q344" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q343,P344,"f")</f>
-        <v>42725</v>
+        <v>42726</v>
       </c>
       <c r="R344" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q344)</f>
@@ -38080,7 +38075,7 @@
       </c>
       <c r="Q345" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q344,P345,"f")</f>
-        <v>42726</v>
+        <v>42727</v>
       </c>
       <c r="R345" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q345)</f>
@@ -38093,7 +38088,7 @@
       </c>
       <c r="Q346" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q345,P346,"f")</f>
-        <v>42727</v>
+        <v>42731</v>
       </c>
       <c r="R346" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q346)</f>
@@ -38106,7 +38101,7 @@
       </c>
       <c r="Q347" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q346,P347,"f")</f>
-        <v>42731</v>
+        <v>42732</v>
       </c>
       <c r="R347" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q347)</f>
@@ -38119,7 +38114,7 @@
       </c>
       <c r="Q348" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q347,P348,"f")</f>
-        <v>42732</v>
+        <v>42733</v>
       </c>
       <c r="R348" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q348)</f>
@@ -38132,7 +38127,7 @@
       </c>
       <c r="Q349" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q348,P349,"f")</f>
-        <v>42733</v>
+        <v>42734</v>
       </c>
       <c r="R349" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q349)</f>
@@ -38145,7 +38140,7 @@
       </c>
       <c r="Q350" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q349,P350,"f")</f>
-        <v>42734</v>
+        <v>42737</v>
       </c>
       <c r="R350" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q350)</f>
@@ -38158,7 +38153,7 @@
       </c>
       <c r="Q351" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q350,P351,"f")</f>
-        <v>42737</v>
+        <v>42738</v>
       </c>
       <c r="R351" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q351)</f>
@@ -38171,7 +38166,7 @@
       </c>
       <c r="Q352" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q351,P352,"f")</f>
-        <v>42738</v>
+        <v>42739</v>
       </c>
       <c r="R352" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q352)</f>
@@ -38184,7 +38179,7 @@
       </c>
       <c r="Q353" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q352,P353,"f")</f>
-        <v>42739</v>
+        <v>42740</v>
       </c>
       <c r="R353" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q353)</f>
@@ -38197,7 +38192,7 @@
       </c>
       <c r="Q354" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q353,P354,"f")</f>
-        <v>42740</v>
+        <v>42741</v>
       </c>
       <c r="R354" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q354)</f>
@@ -38210,7 +38205,7 @@
       </c>
       <c r="Q355" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q354,P355,"f")</f>
-        <v>42741</v>
+        <v>42744</v>
       </c>
       <c r="R355" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q355)</f>
@@ -38223,7 +38218,7 @@
       </c>
       <c r="Q356" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q355,P356,"f")</f>
-        <v>42744</v>
+        <v>42745</v>
       </c>
       <c r="R356" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q356)</f>
@@ -38236,7 +38231,7 @@
       </c>
       <c r="Q357" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q356,P357,"f")</f>
-        <v>42745</v>
+        <v>42746</v>
       </c>
       <c r="R357" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q357)</f>
@@ -38249,7 +38244,7 @@
       </c>
       <c r="Q358" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q357,P358,"f")</f>
-        <v>42746</v>
+        <v>42747</v>
       </c>
       <c r="R358" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q358)</f>
@@ -38262,7 +38257,7 @@
       </c>
       <c r="Q359" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q358,P359,"f")</f>
-        <v>42747</v>
+        <v>42748</v>
       </c>
       <c r="R359" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q359)</f>
@@ -38275,7 +38270,7 @@
       </c>
       <c r="Q360" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q359,P360,"f")</f>
-        <v>42748</v>
+        <v>42751</v>
       </c>
       <c r="R360" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q360)</f>
@@ -38288,7 +38283,7 @@
       </c>
       <c r="Q361" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q360,P361,"f")</f>
-        <v>42751</v>
+        <v>42752</v>
       </c>
       <c r="R361" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q361)</f>
@@ -38301,7 +38296,7 @@
       </c>
       <c r="Q362" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q361,P362,"f")</f>
-        <v>42752</v>
+        <v>42753</v>
       </c>
       <c r="R362" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q362)</f>
@@ -38314,7 +38309,7 @@
       </c>
       <c r="Q363" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q362,P363,"f")</f>
-        <v>42753</v>
+        <v>42754</v>
       </c>
       <c r="R363" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q363)</f>
@@ -38327,7 +38322,7 @@
       </c>
       <c r="Q364" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q363,P364,"f")</f>
-        <v>42754</v>
+        <v>42755</v>
       </c>
       <c r="R364" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q364)</f>
@@ -38340,7 +38335,7 @@
       </c>
       <c r="Q365" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q364,P365,"f")</f>
-        <v>42755</v>
+        <v>42758</v>
       </c>
       <c r="R365" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q365)</f>
@@ -38353,7 +38348,7 @@
       </c>
       <c r="Q366" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q365,P366,"f")</f>
-        <v>42758</v>
+        <v>42759</v>
       </c>
       <c r="R366" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q366)</f>
@@ -38366,7 +38361,7 @@
       </c>
       <c r="Q367" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q366,P367,"f")</f>
-        <v>42759</v>
+        <v>42760</v>
       </c>
       <c r="R367" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q367)</f>
@@ -38379,7 +38374,7 @@
       </c>
       <c r="Q368" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q367,P368,"f")</f>
-        <v>42760</v>
+        <v>42761</v>
       </c>
       <c r="R368" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q368)</f>
@@ -38392,7 +38387,7 @@
       </c>
       <c r="Q369" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q368,P369,"f")</f>
-        <v>42761</v>
+        <v>42762</v>
       </c>
       <c r="R369" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q369)</f>
@@ -38405,7 +38400,7 @@
       </c>
       <c r="Q370" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q369,P370,"f")</f>
-        <v>42762</v>
+        <v>42765</v>
       </c>
       <c r="R370" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q370)</f>
@@ -38418,7 +38413,7 @@
       </c>
       <c r="Q371" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q370,P371,"f")</f>
-        <v>42765</v>
+        <v>42766</v>
       </c>
       <c r="R371" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q371)</f>
@@ -38431,7 +38426,7 @@
       </c>
       <c r="Q372" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q371,P372,"f")</f>
-        <v>42766</v>
+        <v>42767</v>
       </c>
       <c r="R372" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q372)</f>
@@ -38444,7 +38439,7 @@
       </c>
       <c r="Q373" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q372,P373,"f")</f>
-        <v>42767</v>
+        <v>42768</v>
       </c>
       <c r="R373" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q373)</f>
@@ -38457,7 +38452,7 @@
       </c>
       <c r="Q374" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q373,P374,"f")</f>
-        <v>42768</v>
+        <v>42769</v>
       </c>
       <c r="R374" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q374)</f>
@@ -38470,7 +38465,7 @@
       </c>
       <c r="Q375" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q374,P375,"f")</f>
-        <v>42769</v>
+        <v>42772</v>
       </c>
       <c r="R375" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q375)</f>
@@ -38483,7 +38478,7 @@
       </c>
       <c r="Q376" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q375,P376,"f")</f>
-        <v>42772</v>
+        <v>42773</v>
       </c>
       <c r="R376" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q376)</f>
@@ -38496,7 +38491,7 @@
       </c>
       <c r="Q377" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q376,P377,"f")</f>
-        <v>42773</v>
+        <v>42774</v>
       </c>
       <c r="R377" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q377)</f>
@@ -38509,7 +38504,7 @@
       </c>
       <c r="Q378" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q377,P378,"f")</f>
-        <v>42774</v>
+        <v>42775</v>
       </c>
       <c r="R378" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q378)</f>
@@ -38522,7 +38517,7 @@
       </c>
       <c r="Q379" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q378,P379,"f")</f>
-        <v>42775</v>
+        <v>42776</v>
       </c>
       <c r="R379" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q379)</f>
@@ -38535,7 +38530,7 @@
       </c>
       <c r="Q380" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q379,P380,"f")</f>
-        <v>42776</v>
+        <v>42779</v>
       </c>
       <c r="R380" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q380)</f>
@@ -38548,7 +38543,7 @@
       </c>
       <c r="Q381" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q380,P381,"f")</f>
-        <v>42779</v>
+        <v>42780</v>
       </c>
       <c r="R381" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q381)</f>
@@ -38561,7 +38556,7 @@
       </c>
       <c r="Q382" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q381,P382,"f")</f>
-        <v>42780</v>
+        <v>42781</v>
       </c>
       <c r="R382" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q382)</f>
@@ -38574,7 +38569,7 @@
       </c>
       <c r="Q383" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q382,P383,"f")</f>
-        <v>42781</v>
+        <v>42782</v>
       </c>
       <c r="R383" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q383)</f>
@@ -38587,7 +38582,7 @@
       </c>
       <c r="Q384" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q383,P384,"f")</f>
-        <v>42782</v>
+        <v>42783</v>
       </c>
       <c r="R384" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q384)</f>
@@ -38600,7 +38595,7 @@
       </c>
       <c r="Q385" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q384,P385,"f")</f>
-        <v>42783</v>
+        <v>42786</v>
       </c>
       <c r="R385" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q385)</f>
@@ -38613,7 +38608,7 @@
       </c>
       <c r="Q386" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q385,P386,"f")</f>
-        <v>42786</v>
+        <v>42787</v>
       </c>
       <c r="R386" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q386)</f>
@@ -38626,7 +38621,7 @@
       </c>
       <c r="Q387" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q386,P387,"f")</f>
-        <v>42787</v>
+        <v>42788</v>
       </c>
       <c r="R387" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q387)</f>
@@ -38639,7 +38634,7 @@
       </c>
       <c r="Q388" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q387,P388,"f")</f>
-        <v>42788</v>
+        <v>42789</v>
       </c>
       <c r="R388" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q388)</f>
@@ -38652,7 +38647,7 @@
       </c>
       <c r="Q389" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q388,P389,"f")</f>
-        <v>42789</v>
+        <v>42790</v>
       </c>
       <c r="R389" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q389)</f>
@@ -38665,7 +38660,7 @@
       </c>
       <c r="Q390" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q389,P390,"f")</f>
-        <v>42790</v>
+        <v>42793</v>
       </c>
       <c r="R390" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q390)</f>
@@ -38678,7 +38673,7 @@
       </c>
       <c r="Q391" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q390,P391,"f")</f>
-        <v>42793</v>
+        <v>42794</v>
       </c>
       <c r="R391" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q391)</f>
@@ -38691,7 +38686,7 @@
       </c>
       <c r="Q392" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q391,P392,"f")</f>
-        <v>42794</v>
+        <v>42795</v>
       </c>
       <c r="R392" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q392)</f>
@@ -38704,7 +38699,7 @@
       </c>
       <c r="Q393" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q392,P393,"f")</f>
-        <v>42795</v>
+        <v>42796</v>
       </c>
       <c r="R393" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q393)</f>
@@ -38717,7 +38712,7 @@
       </c>
       <c r="Q394" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q393,P394,"f")</f>
-        <v>42796</v>
+        <v>42797</v>
       </c>
       <c r="R394" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q394)</f>
@@ -38730,7 +38725,7 @@
       </c>
       <c r="Q395" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q394,P395,"f")</f>
-        <v>42797</v>
+        <v>42800</v>
       </c>
       <c r="R395" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q395)</f>
@@ -38743,7 +38738,7 @@
       </c>
       <c r="Q396" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q395,P396,"f")</f>
-        <v>42800</v>
+        <v>42801</v>
       </c>
       <c r="R396" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q396)</f>
@@ -38756,7 +38751,7 @@
       </c>
       <c r="Q397" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q396,P397,"f")</f>
-        <v>42801</v>
+        <v>42802</v>
       </c>
       <c r="R397" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q397)</f>
@@ -38769,7 +38764,7 @@
       </c>
       <c r="Q398" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q397,P398,"f")</f>
-        <v>42802</v>
+        <v>42803</v>
       </c>
       <c r="R398" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q398)</f>
@@ -38782,7 +38777,7 @@
       </c>
       <c r="Q399" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q398,P399,"f")</f>
-        <v>42803</v>
+        <v>42804</v>
       </c>
       <c r="R399" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q399)</f>
@@ -38795,7 +38790,7 @@
       </c>
       <c r="Q400" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q399,P400,"f")</f>
-        <v>42804</v>
+        <v>42807</v>
       </c>
       <c r="R400" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q400)</f>
@@ -38808,7 +38803,7 @@
       </c>
       <c r="Q401" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q400,P401,"f")</f>
-        <v>42807</v>
+        <v>42808</v>
       </c>
       <c r="R401" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q401)</f>
@@ -38821,7 +38816,7 @@
       </c>
       <c r="Q402" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q401,P402,"f")</f>
-        <v>42808</v>
+        <v>42809</v>
       </c>
       <c r="R402" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q402)</f>
@@ -38834,7 +38829,7 @@
       </c>
       <c r="Q403" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q402,P403,"f")</f>
-        <v>42809</v>
+        <v>42810</v>
       </c>
       <c r="R403" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q403)</f>
@@ -38847,7 +38842,7 @@
       </c>
       <c r="Q404" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q403,P404,"f")</f>
-        <v>42810</v>
+        <v>42811</v>
       </c>
       <c r="R404" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q404)</f>
@@ -38860,7 +38855,7 @@
       </c>
       <c r="Q405" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q404,P405,"f")</f>
-        <v>42811</v>
+        <v>42814</v>
       </c>
       <c r="R405" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q405)</f>
@@ -38873,7 +38868,7 @@
       </c>
       <c r="Q406" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q405,P406,"f")</f>
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="R406" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q406)</f>
@@ -38886,7 +38881,7 @@
       </c>
       <c r="Q407" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q406,P407,"f")</f>
-        <v>42815</v>
+        <v>42816</v>
       </c>
       <c r="R407" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q407)</f>
@@ -38899,7 +38894,7 @@
       </c>
       <c r="Q408" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q407,P408,"f")</f>
-        <v>42816</v>
+        <v>42817</v>
       </c>
       <c r="R408" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q408)</f>
@@ -38912,7 +38907,7 @@
       </c>
       <c r="Q409" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q408,P409,"f")</f>
-        <v>42817</v>
+        <v>42818</v>
       </c>
       <c r="R409" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q409)</f>
@@ -38925,7 +38920,7 @@
       </c>
       <c r="Q410" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q409,P410,"f")</f>
-        <v>42818</v>
+        <v>42821</v>
       </c>
       <c r="R410" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q410)</f>
@@ -38938,7 +38933,7 @@
       </c>
       <c r="Q411" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q410,P411,"f")</f>
-        <v>42821</v>
+        <v>42822</v>
       </c>
       <c r="R411" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q411)</f>
@@ -38951,7 +38946,7 @@
       </c>
       <c r="Q412" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q411,P412,"f")</f>
-        <v>42822</v>
+        <v>42823</v>
       </c>
       <c r="R412" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q412)</f>
@@ -38964,7 +38959,7 @@
       </c>
       <c r="Q413" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q412,P413,"f")</f>
-        <v>42823</v>
+        <v>42824</v>
       </c>
       <c r="R413" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q413)</f>
@@ -38977,7 +38972,7 @@
       </c>
       <c r="Q414" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q413,P414,"f")</f>
-        <v>42824</v>
+        <v>42825</v>
       </c>
       <c r="R414" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q414)</f>
@@ -38990,7 +38985,7 @@
       </c>
       <c r="Q415" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q414,P415,"f")</f>
-        <v>42825</v>
+        <v>42828</v>
       </c>
       <c r="R415" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q415)</f>
@@ -39003,7 +38998,7 @@
       </c>
       <c r="Q416" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q415,P416,"f")</f>
-        <v>42828</v>
+        <v>42829</v>
       </c>
       <c r="R416" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q416)</f>
@@ -39016,7 +39011,7 @@
       </c>
       <c r="Q417" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q416,P417,"f")</f>
-        <v>42829</v>
+        <v>42830</v>
       </c>
       <c r="R417" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q417)</f>
@@ -39029,7 +39024,7 @@
       </c>
       <c r="Q418" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q417,P418,"f")</f>
-        <v>42830</v>
+        <v>42831</v>
       </c>
       <c r="R418" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q418)</f>
@@ -39042,7 +39037,7 @@
       </c>
       <c r="Q419" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q418,P419,"f")</f>
-        <v>42831</v>
+        <v>42832</v>
       </c>
       <c r="R419" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q419)</f>
@@ -39055,7 +39050,7 @@
       </c>
       <c r="Q420" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q419,P420,"f")</f>
-        <v>42832</v>
+        <v>42835</v>
       </c>
       <c r="R420" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q420)</f>
@@ -39068,7 +39063,7 @@
       </c>
       <c r="Q421" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q420,P421,"f")</f>
-        <v>42835</v>
+        <v>42836</v>
       </c>
       <c r="R421" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q421)</f>
@@ -39081,7 +39076,7 @@
       </c>
       <c r="Q422" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q421,P422,"f")</f>
-        <v>42836</v>
+        <v>42837</v>
       </c>
       <c r="R422" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q422)</f>
@@ -39094,7 +39089,7 @@
       </c>
       <c r="Q423" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q422,P423,"f")</f>
-        <v>42837</v>
+        <v>42838</v>
       </c>
       <c r="R423" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q423)</f>
@@ -39107,7 +39102,7 @@
       </c>
       <c r="Q424" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q423,P424,"f")</f>
-        <v>42838</v>
+        <v>42843</v>
       </c>
       <c r="R424" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q424)</f>
@@ -39120,7 +39115,7 @@
       </c>
       <c r="Q425" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q424,P425,"f")</f>
-        <v>42843</v>
+        <v>42844</v>
       </c>
       <c r="R425" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q425)</f>
@@ -39133,7 +39128,7 @@
       </c>
       <c r="Q426" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q425,P426,"f")</f>
-        <v>42844</v>
+        <v>42845</v>
       </c>
       <c r="R426" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q426)</f>
@@ -39146,7 +39141,7 @@
       </c>
       <c r="Q427" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q426,P427,"f")</f>
-        <v>42845</v>
+        <v>42846</v>
       </c>
       <c r="R427" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q427)</f>
@@ -39159,7 +39154,7 @@
       </c>
       <c r="Q428" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q427,P428,"f")</f>
-        <v>42846</v>
+        <v>42849</v>
       </c>
       <c r="R428" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q428)</f>
@@ -39172,7 +39167,7 @@
       </c>
       <c r="Q429" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q428,P429,"f")</f>
-        <v>42849</v>
+        <v>42850</v>
       </c>
       <c r="R429" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q429)</f>
@@ -39185,7 +39180,7 @@
       </c>
       <c r="Q430" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q429,P430,"f")</f>
-        <v>42850</v>
+        <v>42851</v>
       </c>
       <c r="R430" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q430)</f>
@@ -39198,7 +39193,7 @@
       </c>
       <c r="Q431" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q430,P431,"f")</f>
-        <v>42851</v>
+        <v>42852</v>
       </c>
       <c r="R431" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q431)</f>
@@ -39211,7 +39206,7 @@
       </c>
       <c r="Q432" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q431,P432,"f")</f>
-        <v>42852</v>
+        <v>42853</v>
       </c>
       <c r="R432" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q432)</f>
@@ -39224,7 +39219,7 @@
       </c>
       <c r="Q433" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q432,P433,"f")</f>
-        <v>42853</v>
+        <v>42857</v>
       </c>
       <c r="R433" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q433)</f>
@@ -39237,7 +39232,7 @@
       </c>
       <c r="Q434" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q433,P434,"f")</f>
-        <v>42857</v>
+        <v>42858</v>
       </c>
       <c r="R434" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q434)</f>
@@ -39250,7 +39245,7 @@
       </c>
       <c r="Q435" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q434,P435,"f")</f>
-        <v>42858</v>
+        <v>42859</v>
       </c>
       <c r="R435" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q435)</f>
@@ -39263,7 +39258,7 @@
       </c>
       <c r="Q436" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q435,P436,"f")</f>
-        <v>42859</v>
+        <v>42860</v>
       </c>
       <c r="R436" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q436)</f>
@@ -39276,7 +39271,7 @@
       </c>
       <c r="Q437" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q436,P437,"f")</f>
-        <v>42860</v>
+        <v>42863</v>
       </c>
       <c r="R437" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q437)</f>
@@ -39289,7 +39284,7 @@
       </c>
       <c r="Q438" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q437,P438,"f")</f>
-        <v>42863</v>
+        <v>42864</v>
       </c>
       <c r="R438" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q438)</f>
@@ -39302,7 +39297,7 @@
       </c>
       <c r="Q439" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q438,P439,"f")</f>
-        <v>42864</v>
+        <v>42865</v>
       </c>
       <c r="R439" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q439)</f>
@@ -39315,7 +39310,7 @@
       </c>
       <c r="Q440" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q439,P440,"f")</f>
-        <v>42865</v>
+        <v>42866</v>
       </c>
       <c r="R440" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q440)</f>
@@ -39328,7 +39323,7 @@
       </c>
       <c r="Q441" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q440,P441,"f")</f>
-        <v>42866</v>
+        <v>42867</v>
       </c>
       <c r="R441" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q441)</f>
@@ -39341,7 +39336,7 @@
       </c>
       <c r="Q442" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q441,P442,"f")</f>
-        <v>42867</v>
+        <v>42870</v>
       </c>
       <c r="R442" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q442)</f>
@@ -39354,7 +39349,7 @@
       </c>
       <c r="Q443" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q442,P443,"f")</f>
-        <v>42870</v>
+        <v>42871</v>
       </c>
       <c r="R443" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q443)</f>
@@ -39367,7 +39362,7 @@
       </c>
       <c r="Q444" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q443,P444,"f")</f>
-        <v>42871</v>
+        <v>42872</v>
       </c>
       <c r="R444" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q444)</f>
@@ -39380,7 +39375,7 @@
       </c>
       <c r="Q445" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q444,P445,"f")</f>
-        <v>42872</v>
+        <v>42873</v>
       </c>
       <c r="R445" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q445)</f>
@@ -39393,7 +39388,7 @@
       </c>
       <c r="Q446" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q445,P446,"f")</f>
-        <v>42873</v>
+        <v>42874</v>
       </c>
       <c r="R446" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q446)</f>
@@ -39406,7 +39401,7 @@
       </c>
       <c r="Q447" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q446,P447,"f")</f>
-        <v>42874</v>
+        <v>42877</v>
       </c>
       <c r="R447" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q447)</f>
@@ -39419,7 +39414,7 @@
       </c>
       <c r="Q448" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q447,P448,"f")</f>
-        <v>42877</v>
+        <v>42878</v>
       </c>
       <c r="R448" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q448)</f>
@@ -39432,7 +39427,7 @@
       </c>
       <c r="Q449" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q448,P449,"f")</f>
-        <v>42878</v>
+        <v>42879</v>
       </c>
       <c r="R449" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q449)</f>
@@ -39445,7 +39440,7 @@
       </c>
       <c r="Q450" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q449,P450,"f")</f>
-        <v>42879</v>
+        <v>42880</v>
       </c>
       <c r="R450" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q450)</f>
@@ -39458,7 +39453,7 @@
       </c>
       <c r="Q451" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q450,P451,"f")</f>
-        <v>42880</v>
+        <v>42881</v>
       </c>
       <c r="R451" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q451)</f>
@@ -39471,7 +39466,7 @@
       </c>
       <c r="Q452" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q451,P452,"f")</f>
-        <v>42881</v>
+        <v>42884</v>
       </c>
       <c r="R452" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q452)</f>
@@ -39484,7 +39479,7 @@
       </c>
       <c r="Q453" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q452,P453,"f")</f>
-        <v>42884</v>
+        <v>42885</v>
       </c>
       <c r="R453" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q453)</f>
@@ -39497,7 +39492,7 @@
       </c>
       <c r="Q454" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q453,P454,"f")</f>
-        <v>42885</v>
+        <v>42886</v>
       </c>
       <c r="R454" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q454)</f>
@@ -39510,7 +39505,7 @@
       </c>
       <c r="Q455" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q454,P455,"f")</f>
-        <v>42886</v>
+        <v>42887</v>
       </c>
       <c r="R455" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q455)</f>
@@ -39523,7 +39518,7 @@
       </c>
       <c r="Q456" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q455,P456,"f")</f>
-        <v>42887</v>
+        <v>42888</v>
       </c>
       <c r="R456" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q456)</f>
@@ -39536,7 +39531,7 @@
       </c>
       <c r="Q457" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q456,P457,"f")</f>
-        <v>42888</v>
+        <v>42891</v>
       </c>
       <c r="R457" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q457)</f>
@@ -39549,7 +39544,7 @@
       </c>
       <c r="Q458" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q457,P458,"f")</f>
-        <v>42891</v>
+        <v>42892</v>
       </c>
       <c r="R458" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q458)</f>
@@ -39562,7 +39557,7 @@
       </c>
       <c r="Q459" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q458,P459,"f")</f>
-        <v>42892</v>
+        <v>42893</v>
       </c>
       <c r="R459" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q459)</f>
@@ -39575,7 +39570,7 @@
       </c>
       <c r="Q460" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q459,P460,"f")</f>
-        <v>42893</v>
+        <v>42894</v>
       </c>
       <c r="R460" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q460)</f>
@@ -39588,7 +39583,7 @@
       </c>
       <c r="Q461" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q460,P461,"f")</f>
-        <v>42894</v>
+        <v>42895</v>
       </c>
       <c r="R461" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q461)</f>
@@ -39601,7 +39596,7 @@
       </c>
       <c r="Q462" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q461,P462,"f")</f>
-        <v>42895</v>
+        <v>42898</v>
       </c>
       <c r="R462" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q462)</f>
@@ -39614,7 +39609,7 @@
       </c>
       <c r="Q463" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q462,P463,"f")</f>
-        <v>42898</v>
+        <v>42899</v>
       </c>
       <c r="R463" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q463)</f>
@@ -39627,7 +39622,7 @@
       </c>
       <c r="Q464" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q463,P464,"f")</f>
-        <v>42899</v>
+        <v>42900</v>
       </c>
       <c r="R464" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q464)</f>
@@ -39640,7 +39635,7 @@
       </c>
       <c r="Q465" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q464,P465,"f")</f>
-        <v>42900</v>
+        <v>42901</v>
       </c>
       <c r="R465" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q465)</f>
@@ -39653,7 +39648,7 @@
       </c>
       <c r="Q466" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q465,P466,"f")</f>
-        <v>42901</v>
+        <v>42902</v>
       </c>
       <c r="R466" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q466)</f>
@@ -39666,7 +39661,7 @@
       </c>
       <c r="Q467" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q466,P467,"f")</f>
-        <v>42902</v>
+        <v>42905</v>
       </c>
       <c r="R467" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q467)</f>
@@ -39679,7 +39674,7 @@
       </c>
       <c r="Q468" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q467,P468,"f")</f>
-        <v>42905</v>
+        <v>42906</v>
       </c>
       <c r="R468" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q468)</f>
@@ -39692,7 +39687,7 @@
       </c>
       <c r="Q469" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q468,P469,"f")</f>
-        <v>42906</v>
+        <v>42907</v>
       </c>
       <c r="R469" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q469)</f>
@@ -39705,7 +39700,7 @@
       </c>
       <c r="Q470" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q469,P470,"f")</f>
-        <v>42907</v>
+        <v>42908</v>
       </c>
       <c r="R470" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q470)</f>
@@ -39718,7 +39713,7 @@
       </c>
       <c r="Q471" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q470,P471,"f")</f>
-        <v>42908</v>
+        <v>42909</v>
       </c>
       <c r="R471" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q471)</f>
@@ -39731,7 +39726,7 @@
       </c>
       <c r="Q472" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q471,P472,"f")</f>
-        <v>42909</v>
+        <v>42912</v>
       </c>
       <c r="R472" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q472)</f>
@@ -39744,7 +39739,7 @@
       </c>
       <c r="Q473" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q472,P473,"f")</f>
-        <v>42912</v>
+        <v>42913</v>
       </c>
       <c r="R473" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q473)</f>
@@ -39757,7 +39752,7 @@
       </c>
       <c r="Q474" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q473,P474,"f")</f>
-        <v>42913</v>
+        <v>42914</v>
       </c>
       <c r="R474" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q474)</f>
@@ -39770,7 +39765,7 @@
       </c>
       <c r="Q475" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q474,P475,"f")</f>
-        <v>42914</v>
+        <v>42915</v>
       </c>
       <c r="R475" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q475)</f>
@@ -39783,7 +39778,7 @@
       </c>
       <c r="Q476" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q475,P476,"f")</f>
-        <v>42915</v>
+        <v>42916</v>
       </c>
       <c r="R476" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q476)</f>
@@ -39796,7 +39791,7 @@
       </c>
       <c r="Q477" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q476,P477,"f")</f>
-        <v>42916</v>
+        <v>42919</v>
       </c>
       <c r="R477" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q477)</f>
@@ -39809,7 +39804,7 @@
       </c>
       <c r="Q478" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q477,P478,"f")</f>
-        <v>42919</v>
+        <v>42920</v>
       </c>
       <c r="R478" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q478)</f>
@@ -39822,7 +39817,7 @@
       </c>
       <c r="Q479" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q478,P479,"f")</f>
-        <v>42920</v>
+        <v>42921</v>
       </c>
       <c r="R479" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q479)</f>
@@ -39835,7 +39830,7 @@
       </c>
       <c r="Q480" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q479,P480,"f")</f>
-        <v>42921</v>
+        <v>42922</v>
       </c>
       <c r="R480" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q480)</f>
@@ -39848,7 +39843,7 @@
       </c>
       <c r="Q481" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q480,P481,"f")</f>
-        <v>42922</v>
+        <v>42923</v>
       </c>
       <c r="R481" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q481)</f>
@@ -39861,7 +39856,7 @@
       </c>
       <c r="Q482" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q481,P482,"f")</f>
-        <v>42923</v>
+        <v>42926</v>
       </c>
       <c r="R482" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q482)</f>
@@ -39874,7 +39869,7 @@
       </c>
       <c r="Q483" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q482,P483,"f")</f>
-        <v>42926</v>
+        <v>42927</v>
       </c>
       <c r="R483" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q483)</f>
@@ -39887,7 +39882,7 @@
       </c>
       <c r="Q484" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q483,P484,"f")</f>
-        <v>42927</v>
+        <v>42928</v>
       </c>
       <c r="R484" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q484)</f>
@@ -39900,7 +39895,7 @@
       </c>
       <c r="Q485" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q484,P485,"f")</f>
-        <v>42928</v>
+        <v>42929</v>
       </c>
       <c r="R485" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q485)</f>
@@ -39913,7 +39908,7 @@
       </c>
       <c r="Q486" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q485,P486,"f")</f>
-        <v>42929</v>
+        <v>42930</v>
       </c>
       <c r="R486" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q486)</f>
@@ -39926,7 +39921,7 @@
       </c>
       <c r="Q487" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q486,P487,"f")</f>
-        <v>42930</v>
+        <v>42933</v>
       </c>
       <c r="R487" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q487)</f>
@@ -39939,7 +39934,7 @@
       </c>
       <c r="Q488" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q487,P488,"f")</f>
-        <v>42933</v>
+        <v>42934</v>
       </c>
       <c r="R488" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q488)</f>
@@ -39952,7 +39947,7 @@
       </c>
       <c r="Q489" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q488,P489,"f")</f>
-        <v>42934</v>
+        <v>42935</v>
       </c>
       <c r="R489" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q489)</f>
@@ -39965,7 +39960,7 @@
       </c>
       <c r="Q490" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q489,P490,"f")</f>
-        <v>42935</v>
+        <v>42936</v>
       </c>
       <c r="R490" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q490)</f>
@@ -39978,7 +39973,7 @@
       </c>
       <c r="Q491" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q490,P491,"f")</f>
-        <v>42936</v>
+        <v>42937</v>
       </c>
       <c r="R491" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q491)</f>
@@ -39991,7 +39986,7 @@
       </c>
       <c r="Q492" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q491,P492,"f")</f>
-        <v>42937</v>
+        <v>42940</v>
       </c>
       <c r="R492" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q492)</f>
@@ -40004,7 +39999,7 @@
       </c>
       <c r="Q493" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q492,P493,"f")</f>
-        <v>42940</v>
+        <v>42941</v>
       </c>
       <c r="R493" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q493)</f>
@@ -40017,7 +40012,7 @@
       </c>
       <c r="Q494" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q493,P494,"f")</f>
-        <v>42941</v>
+        <v>42942</v>
       </c>
       <c r="R494" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q494)</f>
@@ -40030,7 +40025,7 @@
       </c>
       <c r="Q495" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q494,P495,"f")</f>
-        <v>42942</v>
+        <v>42943</v>
       </c>
       <c r="R495" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q495)</f>
@@ -40043,7 +40038,7 @@
       </c>
       <c r="Q496" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q495,P496,"f")</f>
-        <v>42943</v>
+        <v>42944</v>
       </c>
       <c r="R496" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q496)</f>
@@ -40056,7 +40051,7 @@
       </c>
       <c r="Q497" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q496,P497,"f")</f>
-        <v>42944</v>
+        <v>42947</v>
       </c>
       <c r="R497" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q497)</f>
@@ -40069,7 +40064,7 @@
       </c>
       <c r="Q498" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q497,P498,"f")</f>
-        <v>42947</v>
+        <v>42948</v>
       </c>
       <c r="R498" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q498)</f>
@@ -40082,7 +40077,7 @@
       </c>
       <c r="Q499" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q498,P499,"f")</f>
-        <v>42948</v>
+        <v>42949</v>
       </c>
       <c r="R499" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q499)</f>
@@ -40095,7 +40090,7 @@
       </c>
       <c r="Q500" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q499,P500,"f")</f>
-        <v>42949</v>
+        <v>42950</v>
       </c>
       <c r="R500" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q500)</f>
@@ -40108,7 +40103,7 @@
       </c>
       <c r="Q501" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q500,P501,"f")</f>
-        <v>42950</v>
+        <v>42951</v>
       </c>
       <c r="R501" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q501)</f>
@@ -40121,7 +40116,7 @@
       </c>
       <c r="Q502" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q501,P502,"f")</f>
-        <v>42951</v>
+        <v>42954</v>
       </c>
       <c r="R502" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q502)</f>
@@ -40134,7 +40129,7 @@
       </c>
       <c r="Q503" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q502,P503,"f")</f>
-        <v>42954</v>
+        <v>42955</v>
       </c>
       <c r="R503" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q503)</f>
@@ -40147,7 +40142,7 @@
       </c>
       <c r="Q504" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q503,P504,"f")</f>
-        <v>42955</v>
+        <v>42956</v>
       </c>
       <c r="R504" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q504)</f>
@@ -40160,7 +40155,7 @@
       </c>
       <c r="Q505" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q504,P505,"f")</f>
-        <v>42956</v>
+        <v>42957</v>
       </c>
       <c r="R505" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q505)</f>
@@ -40173,7 +40168,7 @@
       </c>
       <c r="Q506" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q505,P506,"f")</f>
-        <v>42957</v>
+        <v>42958</v>
       </c>
       <c r="R506" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q506)</f>
@@ -40186,7 +40181,7 @@
       </c>
       <c r="Q507" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q506,P507,"f")</f>
-        <v>42958</v>
+        <v>42961</v>
       </c>
       <c r="R507" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q507)</f>
@@ -40199,7 +40194,7 @@
       </c>
       <c r="Q508" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q507,P508,"f")</f>
-        <v>42961</v>
+        <v>42962</v>
       </c>
       <c r="R508" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q508)</f>
@@ -40212,7 +40207,7 @@
       </c>
       <c r="Q509" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q508,P509,"f")</f>
-        <v>42962</v>
+        <v>42963</v>
       </c>
       <c r="R509" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q509)</f>
@@ -40225,7 +40220,7 @@
       </c>
       <c r="Q510" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q509,P510,"f")</f>
-        <v>42963</v>
+        <v>42964</v>
       </c>
       <c r="R510" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q510)</f>
@@ -40238,7 +40233,7 @@
       </c>
       <c r="Q511" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q510,P511,"f")</f>
-        <v>42964</v>
+        <v>42965</v>
       </c>
       <c r="R511" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q511)</f>
@@ -40251,7 +40246,7 @@
       </c>
       <c r="Q512" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q511,P512,"f")</f>
-        <v>42965</v>
+        <v>42968</v>
       </c>
       <c r="R512" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q512)</f>
@@ -40264,7 +40259,7 @@
       </c>
       <c r="Q513" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q512,P513,"f")</f>
-        <v>42968</v>
+        <v>42969</v>
       </c>
       <c r="R513" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q513)</f>
@@ -40277,7 +40272,7 @@
       </c>
       <c r="Q514" s="167">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q513,P514,"f")</f>
-        <v>42969</v>
+        <v>42970</v>
       </c>
       <c r="R514" s="168" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q514)</f>
@@ -40290,7 +40285,7 @@
       </c>
       <c r="Q515" s="170">
         <f>_xll.qlCalendarAdvance(Trigger,Calendar,Q514,P515,"f")</f>
-        <v>42970</v>
+        <v>42971</v>
       </c>
       <c r="R515" s="171" t="e">
         <f>_xll.qlIndexFixing(InterestRatesTrigger,Index,Q515)</f>

--- a/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="45" windowWidth="15300" windowHeight="9510"/>
+    <workbookView xWindow="-15" yWindow="45" windowWidth="15300" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="General Settings" sheetId="3" r:id="rId1"/>
@@ -1253,6 +1253,7 @@
     <xf numFmtId="172" fontId="8" fillId="3" borderId="8" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="15" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1262,7 +1263,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="8" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="15">
     <cellStyle name="Euro" xfId="1"/>
@@ -1343,28 +1343,28 @@
                   <c:v>42145</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>42207</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42256</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>42305</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>42347</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>42395</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>42445</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>42487</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>42529</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1442,10 +1442,10 @@
                   <c:v>5.0000000000129566E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.0000000000129566E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>5.0000000000129566E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -1519,28 +1519,28 @@
                   <c:v>42145</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42207</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42256</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>42305</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>42347</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>42395</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>42445</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
                   <c:v>42487</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>42529</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1675,11 +1675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248439552"/>
-        <c:axId val="248441088"/>
+        <c:axId val="254210816"/>
+        <c:axId val="254212352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248439552"/>
+        <c:axId val="254210816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,12 +1699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248441088"/>
+        <c:crossAx val="254212352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="248441088"/>
+        <c:axId val="254212352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,7 +1715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248439552"/>
+        <c:crossAx val="254210816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4872,11 +4872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="248570624"/>
-        <c:axId val="248572160"/>
+        <c:axId val="254337792"/>
+        <c:axId val="254339328"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="248570624"/>
+        <c:axId val="254337792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4896,14 +4896,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248572160"/>
+        <c:crossAx val="254339328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="248572160"/>
+        <c:axId val="254339328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4914,7 +4914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="248570624"/>
+        <c:crossAx val="254337792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5046,7 +5046,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -5054,7 +5054,7 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EUR6M#0002</v>
+            <v>EUR6M#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -5089,7 +5089,7 @@
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0002</v>
+            <v>EURTND_Quote#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -5543,7 +5543,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5670,7 +5670,7 @@
       </c>
       <c r="I8" s="60">
         <f>[1]!TriggerCounter</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="58"/>
     </row>
@@ -5681,7 +5681,7 @@
       </c>
       <c r="D9" s="54" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,,,,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_00500#0002</v>
+        <v>obj_00504#0000</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="1"/>
@@ -5690,7 +5690,7 @@
       </c>
       <c r="I9" s="29">
         <f ca="1">_xll.ohTrigger(Contribution!M1)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -5984,11 +5984,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B1" s="177" t="s">
+      <c r="B1" s="178" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="178"/>
-      <c r="D1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="180"/>
       <c r="E1" s="75" t="s">
         <v>55</v>
       </c>
@@ -6023,7 +6023,7 @@
       </c>
       <c r="F2" s="77" t="str">
         <f>_xll.qlFraRateHelper(EvaluationDate,"W"&amp;Currency&amp;B2&amp;C2&amp;D2,,,E2,"2d",OvernightIndex)</f>
-        <v>WEURSND#0001</v>
+        <v>WEURSND#0000</v>
       </c>
       <c r="G2" s="78" t="b">
         <v>0</v>
@@ -6062,13 +6062,13 @@
         <f t="shared" si="0"/>
         <v>EURECBOISJUN15_Quote</v>
       </c>
-      <c r="F3" s="81" t="e">
+      <c r="F3" s="81" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B3&amp;C3&amp;D3,,,A3,A4,E3,OvernightIndex)</f>
-        <v>#NUM!</v>
+        <v>WEURECBOISJUN15#0000</v>
       </c>
       <c r="G3" s="82" t="b">
         <f>IF(ISERROR(F3),FALSE,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="83">
         <v>70</v>
@@ -6076,13 +6076,13 @@
       <c r="I3" s="83">
         <v>5</v>
       </c>
-      <c r="J3" s="84" t="e">
+      <c r="J3" s="84">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F3)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K3" s="84" t="e">
+        <v>42165</v>
+      </c>
+      <c r="K3" s="84">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F3)</f>
-        <v>#VALUE!</v>
+        <v>42207</v>
       </c>
       <c r="L3" s="94"/>
     </row>
@@ -6105,13 +6105,13 @@
         <f t="shared" si="0"/>
         <v>EURECBOISJUL15_Quote</v>
       </c>
-      <c r="F4" s="85" t="e">
+      <c r="F4" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B4&amp;C4&amp;D4,,,A4,A5,E4,OvernightIndex)</f>
-        <v>#NUM!</v>
+        <v>WEURECBOISJUL15#0000</v>
       </c>
       <c r="G4" s="82" t="b">
         <f t="shared" ref="G4:G12" si="1">IF(ISERROR(F4),FALSE,TRUE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="82">
         <v>70</v>
@@ -6119,13 +6119,13 @@
       <c r="I4" s="82">
         <v>5</v>
       </c>
-      <c r="J4" s="86" t="e">
+      <c r="J4" s="86">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$F4)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K4" s="86" t="e">
+        <v>42207</v>
+      </c>
+      <c r="K4" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F4)</f>
-        <v>#VALUE!</v>
+        <v>42256</v>
       </c>
       <c r="L4" s="95"/>
     </row>
@@ -6150,7 +6150,7 @@
       </c>
       <c r="F5" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B5&amp;C5&amp;D5,,,A5,A6,E5,OvernightIndex)</f>
-        <v>WEURECBOISSEP15#0001</v>
+        <v>WEURECBOISSEP15#0000</v>
       </c>
       <c r="G5" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="F6" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B6&amp;C6&amp;D6,,,A6,A7,E6,OvernightIndex)</f>
-        <v>WEURECBOISOCT15#0001</v>
+        <v>WEURECBOISOCT15#0000</v>
       </c>
       <c r="G6" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6234,7 +6234,7 @@
       </c>
       <c r="F7" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B7&amp;C7&amp;D7,,,A7,A8,E7,OvernightIndex)</f>
-        <v>WEURECBOISDEC15#0001</v>
+        <v>WEURECBOISDEC15#0000</v>
       </c>
       <c r="G7" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6276,7 +6276,7 @@
       </c>
       <c r="F8" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B8&amp;C8&amp;D8,,,A8,A9,E8,OvernightIndex)</f>
-        <v>WEURECBOISJAN16#0001</v>
+        <v>WEURECBOISJAN16#0000</v>
       </c>
       <c r="G8" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6667,7 +6667,7 @@
       </c>
       <c r="F18" s="81" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B18&amp;C18&amp;D18,,,2,"1w",E18,OvernightIndex)</f>
-        <v>WEUREONSW#0001</v>
+        <v>WEUREONSW#0000</v>
       </c>
       <c r="G18" s="83" t="b">
         <v>1</v>
@@ -6702,7 +6702,7 @@
       </c>
       <c r="F19" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B19&amp;C19&amp;D19,,,2,"1w",E19,OvernightIndex)</f>
-        <v>WEUREON2W#0001</v>
+        <v>WEUREON2W#0000</v>
       </c>
       <c r="G19" s="82" t="b">
         <v>1</v>
@@ -6737,7 +6737,7 @@
       </c>
       <c r="F20" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B20&amp;C20&amp;D20,,,2,"1w",E20,OvernightIndex)</f>
-        <v>WEUREON3W#0001</v>
+        <v>WEUREON3W#0000</v>
       </c>
       <c r="G20" s="82" t="b">
         <v>1</v>
@@ -6772,7 +6772,7 @@
       </c>
       <c r="F21" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B21&amp;C21&amp;D21,,,2,"1w",E21,OvernightIndex)</f>
-        <v>WEUREON1M#0001</v>
+        <v>WEUREON1M#0000</v>
       </c>
       <c r="G21" s="82" t="b">
         <v>1</v>
@@ -6807,7 +6807,7 @@
       </c>
       <c r="F22" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B22&amp;C22&amp;D22,,,2,"1w",E22,OvernightIndex)</f>
-        <v>WEUREON2M#0001</v>
+        <v>WEUREON2M#0000</v>
       </c>
       <c r="G22" s="82" t="b">
         <v>1</v>
@@ -6842,7 +6842,7 @@
       </c>
       <c r="F23" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B23&amp;C23&amp;D23,,,2,"1w",E23,OvernightIndex)</f>
-        <v>WEUREON3M#0001</v>
+        <v>WEUREON3M#0000</v>
       </c>
       <c r="G23" s="82" t="b">
         <v>1</v>
@@ -6877,7 +6877,7 @@
       </c>
       <c r="F24" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B24&amp;C24&amp;D24,,,2,"1w",E24,OvernightIndex)</f>
-        <v>WEUREON4M#0001</v>
+        <v>WEUREON4M#0000</v>
       </c>
       <c r="G24" s="82" t="b">
         <v>1</v>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="F25" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B25&amp;C25&amp;D25,,,2,"1w",E25,OvernightIndex)</f>
-        <v>WEUREON5M#0001</v>
+        <v>WEUREON5M#0000</v>
       </c>
       <c r="G25" s="82" t="b">
         <v>1</v>
@@ -6947,7 +6947,7 @@
       </c>
       <c r="F26" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B26&amp;C26&amp;D26,,,2,"1w",E26,OvernightIndex)</f>
-        <v>WEUREON6M#0001</v>
+        <v>WEUREON6M#0000</v>
       </c>
       <c r="G26" s="82" t="b">
         <v>1</v>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="F27" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B27&amp;C27&amp;D27,,,2,"1w",E27,OvernightIndex)</f>
-        <v>WEUREON7M#0001</v>
+        <v>WEUREON7M#0000</v>
       </c>
       <c r="G27" s="82" t="b">
         <v>1</v>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="F28" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B28&amp;C28&amp;D28,,,2,"1w",E28,OvernightIndex)</f>
-        <v>WEUREON8M#0001</v>
+        <v>WEUREON8M#0000</v>
       </c>
       <c r="G28" s="82" t="b">
         <v>1</v>
@@ -7052,7 +7052,7 @@
       </c>
       <c r="F29" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B29&amp;C29&amp;D29,,,2,"1w",E29,OvernightIndex)</f>
-        <v>WEUREON9M#0001</v>
+        <v>WEUREON9M#0000</v>
       </c>
       <c r="G29" s="82" t="b">
         <v>1</v>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="F30" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B30&amp;C30&amp;D30,,,2,"1w",E30,OvernightIndex)</f>
-        <v>WEUREON10M#0001</v>
+        <v>WEUREON10M#0000</v>
       </c>
       <c r="G30" s="82" t="b">
         <v>1</v>
@@ -7122,7 +7122,7 @@
       </c>
       <c r="F31" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B31&amp;C31&amp;D31,,,2,"1w",E31,OvernightIndex)</f>
-        <v>WEUREON11M#0001</v>
+        <v>WEUREON11M#0000</v>
       </c>
       <c r="G31" s="82" t="b">
         <v>1</v>
@@ -7157,7 +7157,7 @@
       </c>
       <c r="F32" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B32&amp;C32&amp;D32,,,2,"1w",E32,OvernightIndex)</f>
-        <v>WEUREON1Y#0001</v>
+        <v>WEUREON1Y#0000</v>
       </c>
       <c r="G32" s="82" t="b">
         <v>1</v>
@@ -7192,7 +7192,7 @@
       </c>
       <c r="F33" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B33&amp;C33&amp;D33,,,2,"1w",E33,OvernightIndex)</f>
-        <v>WEUREON15M#0001</v>
+        <v>WEUREON15M#0000</v>
       </c>
       <c r="G33" s="82" t="b">
         <v>1</v>
@@ -7227,7 +7227,7 @@
       </c>
       <c r="F34" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B34&amp;C34&amp;D34,,,2,"1w",E34,OvernightIndex)</f>
-        <v>WEUREON18M#0001</v>
+        <v>WEUREON18M#0000</v>
       </c>
       <c r="G34" s="82" t="b">
         <v>1</v>
@@ -7262,7 +7262,7 @@
       </c>
       <c r="F35" s="85" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B35&amp;C35&amp;D35,,,2,"1w",E35,OvernightIndex)</f>
-        <v>WEUREON21M#0001</v>
+        <v>WEUREON21M#0000</v>
       </c>
       <c r="G35" s="82" t="b">
         <v>1</v>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="F36" s="90" t="str">
         <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B36&amp;C36&amp;D36,,,2,"1w",E36,OvernightIndex)</f>
-        <v>WEUREON2Y#0001</v>
+        <v>WEUREON2Y#0000</v>
       </c>
       <c r="G36" s="91" t="b">
         <v>1</v>
@@ -7330,35 +7330,35 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7378,7 +7378,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:BK136"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
     </sheetView>
@@ -7558,8 +7558,8 @@
         <v>68</v>
       </c>
       <c r="O2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,M2,_xll.qlCalendarAdvance(Calendar,M2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,M2,_xll.qlCalendarAdvance(Calendar,M2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="P2" s="126"/>
       <c r="Q2" s="107" t="e">
@@ -7570,8 +7570,8 @@
         <v>68</v>
       </c>
       <c r="S2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,Q2,_xll.qlCalendarAdvance(Calendar,Q2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,Q2,_xll.qlCalendarAdvance(Calendar,Q2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="T2" s="127"/>
       <c r="U2" s="107" t="e">
@@ -7582,8 +7582,8 @@
         <v>68</v>
       </c>
       <c r="W2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,U2,_xll.qlCalendarAdvance(Calendar,U2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,U2,_xll.qlCalendarAdvance(Calendar,U2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="X2" s="127"/>
       <c r="Y2" s="107" t="e">
@@ -7594,8 +7594,8 @@
         <v>68</v>
       </c>
       <c r="AA2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,Y2,_xll.qlCalendarAdvance(Calendar,Y2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,Y2,_xll.qlCalendarAdvance(Calendar,Y2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AB2" s="127"/>
       <c r="AC2" s="107" t="e">
@@ -7606,8 +7606,8 @@
         <v>68</v>
       </c>
       <c r="AE2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,AC2,_xll.qlCalendarAdvance(Calendar,AC2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,AC2,_xll.qlCalendarAdvance(Calendar,AC2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AF2" s="127"/>
       <c r="AG2" s="107" t="e">
@@ -7618,8 +7618,8 @@
         <v>68</v>
       </c>
       <c r="AI2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,AG2,_xll.qlCalendarAdvance(Calendar,AG2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,AG2,_xll.qlCalendarAdvance(Calendar,AG2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AJ2" s="127"/>
       <c r="AK2" s="107" t="e">
@@ -7630,8 +7630,8 @@
         <v>68</v>
       </c>
       <c r="AM2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,AK2,_xll.qlCalendarAdvance(Calendar,AK2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,AK2,_xll.qlCalendarAdvance(Calendar,AK2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AO2" s="107" t="e">
         <f>_xll.qlCalendarAdvance(Calendar,AK2,"1m","mf",TRUE)</f>
@@ -7641,8 +7641,8 @@
         <v>68</v>
       </c>
       <c r="AQ2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,AO2,_xll.qlCalendarAdvance(Calendar,AO2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,AO2,_xll.qlCalendarAdvance(Calendar,AO2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AS2" s="107" t="e">
         <f>_xll.qlCalendarAdvance(Calendar,AO2,"1m","mf",TRUE)</f>
@@ -7652,8 +7652,8 @@
         <v>68</v>
       </c>
       <c r="AU2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,AS2,_xll.qlCalendarAdvance(Calendar,AS2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,AS2,_xll.qlCalendarAdvance(Calendar,AS2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="AW2" s="107" t="e">
         <f>_xll.qlCalendarAdvance(Calendar,AS2,"1m","mf",TRUE)</f>
@@ -7663,8 +7663,8 @@
         <v>68</v>
       </c>
       <c r="AY2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,AW2,_xll.qlCalendarAdvance(Calendar,AW2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,AW2,_xll.qlCalendarAdvance(Calendar,AW2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="BA2" s="107" t="e">
         <f>_xll.qlCalendarAdvance(Calendar,AW2,"1m","mf",TRUE)</f>
@@ -7674,8 +7674,8 @@
         <v>68</v>
       </c>
       <c r="BC2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,BA2,_xll.qlCalendarAdvance(Calendar,BA2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,BA2,_xll.qlCalendarAdvance(Calendar,BA2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="BE2" s="107" t="e">
         <f>_xll.qlCalendarAdvance(Calendar,BA2,"1m","mf",TRUE)</f>
@@ -7685,8 +7685,8 @@
         <v>68</v>
       </c>
       <c r="BG2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,BE2,_xll.qlCalendarAdvance(Calendar,BE2,"1D"))</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(DayCounter,BE2,_xll.qlCalendarAdvance(Calendar,BE2,"1D"))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="BI2" s="107" t="e">
         <f ca="1">_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate)+1,12,31),"Preceding",Trigger)</f>
@@ -7697,7 +7697,7 @@
       </c>
       <c r="BK2" s="130" t="e">
         <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,BI2,_xll.qlCalendarAdvance(Calendar,BI2,"1D"))</f>
-        <v>#NAME?</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:63" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -8022,9 +8022,9 @@
         <f t="shared" ref="F5:F30" si="0">IF(ISERROR(D5),NA(),(D5-D4)/2+D4)</f>
         <v>42141.5</v>
       </c>
-      <c r="G5" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D4,D5)</f>
-        <v>#NAME?</v>
+      <c r="G5" s="104">
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D4,D5)</f>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="H5" s="124"/>
       <c r="I5" s="112" t="b">
@@ -8204,7 +8204,7 @@
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="str">
-        <v>WEURECBOISSEP15</v>
+        <v>WEURECBOISJUN15</v>
       </c>
       <c r="B6" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A6)</f>
@@ -8212,19 +8212,19 @@
       </c>
       <c r="C6" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A6)</f>
-        <v>42256</v>
+        <v>42165</v>
       </c>
       <c r="D6" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A6)</f>
-        <v>42305</v>
+        <v>42207</v>
       </c>
       <c r="F6" s="103">
         <f t="shared" si="0"/>
-        <v>42225</v>
-      </c>
-      <c r="G6" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D5,D6)</f>
-        <v>#NAME?</v>
+        <v>42176</v>
+      </c>
+      <c r="G6" s="104">
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D5,D6)</f>
+        <v>0.17222222222222222</v>
       </c>
       <c r="H6" s="124"/>
       <c r="I6" s="112" t="b">
@@ -8236,7 +8236,7 @@
       </c>
       <c r="K6" s="113">
         <f t="shared" ref="K6:K69" si="3">D6</f>
-        <v>42305</v>
+        <v>42207</v>
       </c>
       <c r="L6" s="94"/>
       <c r="M6" s="85" t="b">
@@ -8404,7 +8404,7 @@
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="str">
-        <v>WEURECBOISOCT15</v>
+        <v>WEURECBOISJUL15</v>
       </c>
       <c r="B7" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A7)</f>
@@ -8412,19 +8412,19 @@
       </c>
       <c r="C7" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A7)</f>
-        <v>42305</v>
+        <v>42207</v>
       </c>
       <c r="D7" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A7)</f>
-        <v>42347</v>
+        <v>42256</v>
       </c>
       <c r="F7" s="103">
         <f t="shared" si="0"/>
-        <v>42326</v>
-      </c>
-      <c r="G7" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D6,D7)</f>
-        <v>#NAME?</v>
+        <v>42231.5</v>
+      </c>
+      <c r="G7" s="104">
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D6,D7)</f>
+        <v>0.1361111111111111</v>
       </c>
       <c r="I7" s="112" t="b">
         <f t="shared" si="2"/>
@@ -8435,7 +8435,7 @@
       </c>
       <c r="K7" s="113">
         <f t="shared" si="3"/>
-        <v>42347</v>
+        <v>42256</v>
       </c>
       <c r="L7" s="94"/>
       <c r="M7" s="85" t="b">
@@ -8603,7 +8603,7 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="str">
-        <v>WEURECBOISDEC15</v>
+        <v>WEURECBOISSEP15</v>
       </c>
       <c r="B8" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A8)</f>
@@ -8611,19 +8611,19 @@
       </c>
       <c r="C8" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A8)</f>
-        <v>42347</v>
+        <v>42256</v>
       </c>
       <c r="D8" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A8)</f>
-        <v>42395</v>
+        <v>42305</v>
       </c>
       <c r="F8" s="103">
         <f t="shared" si="0"/>
-        <v>42371</v>
-      </c>
-      <c r="G8" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D7,D8)</f>
-        <v>#NAME?</v>
+        <v>42280.5</v>
+      </c>
+      <c r="G8" s="104">
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D7,D8)</f>
+        <v>0.1361111111111111</v>
       </c>
       <c r="I8" s="112" t="b">
         <f t="shared" si="2"/>
@@ -8634,7 +8634,7 @@
       </c>
       <c r="K8" s="113">
         <f t="shared" si="3"/>
-        <v>42395</v>
+        <v>42305</v>
       </c>
       <c r="L8" s="94"/>
       <c r="M8" s="85" t="b">
@@ -8802,7 +8802,7 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="str">
-        <v>WEURECBOISJAN16</v>
+        <v>WEURECBOISOCT15</v>
       </c>
       <c r="B9" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A9)</f>
@@ -8810,19 +8810,19 @@
       </c>
       <c r="C9" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A9)</f>
-        <v>42395</v>
+        <v>42305</v>
       </c>
       <c r="D9" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A9)</f>
-        <v>42445</v>
+        <v>42347</v>
       </c>
       <c r="F9" s="103">
         <f t="shared" si="0"/>
-        <v>42420</v>
-      </c>
-      <c r="G9" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D8,D9)</f>
-        <v>#NAME?</v>
+        <v>42326</v>
+      </c>
+      <c r="G9" s="104">
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D8,D9)</f>
+        <v>0.11666666666666667</v>
       </c>
       <c r="I9" s="112" t="b">
         <f t="shared" si="2"/>
@@ -8833,7 +8833,7 @@
       </c>
       <c r="K9" s="113">
         <f t="shared" si="3"/>
-        <v>42445</v>
+        <v>42347</v>
       </c>
       <c r="L9" s="94"/>
       <c r="M9" s="85" t="b">
@@ -9001,7 +9001,7 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="str">
-        <v>WEURECBOISMAR16</v>
+        <v>WEURECBOISDEC15</v>
       </c>
       <c r="B10" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A10)</f>
@@ -9009,19 +9009,19 @@
       </c>
       <c r="C10" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A10)</f>
-        <v>42445</v>
+        <v>42347</v>
       </c>
       <c r="D10" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A10)</f>
-        <v>42487</v>
+        <v>42395</v>
       </c>
       <c r="F10" s="103">
         <f t="shared" si="0"/>
-        <v>42466</v>
-      </c>
-      <c r="G10" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D9,D10)</f>
-        <v>#NAME?</v>
+        <v>42371</v>
+      </c>
+      <c r="G10" s="104">
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D9,D10)</f>
+        <v>0.13333333333333333</v>
       </c>
       <c r="I10" s="112" t="b">
         <f t="shared" si="2"/>
@@ -9032,7 +9032,7 @@
       </c>
       <c r="K10" s="113">
         <f t="shared" si="3"/>
-        <v>42487</v>
+        <v>42395</v>
       </c>
       <c r="L10" s="94"/>
       <c r="M10" s="85" t="b">
@@ -9200,7 +9200,7 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="str">
-        <v>WEURECBOISAPR16</v>
+        <v>WEURECBOISJAN16</v>
       </c>
       <c r="B11" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A11)</f>
@@ -9208,19 +9208,19 @@
       </c>
       <c r="C11" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A11)</f>
-        <v>42487</v>
+        <v>42395</v>
       </c>
       <c r="D11" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A11)</f>
-        <v>42529</v>
+        <v>42445</v>
       </c>
       <c r="F11" s="103">
         <f t="shared" si="0"/>
-        <v>42508</v>
-      </c>
-      <c r="G11" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D10,D11)</f>
-        <v>#NAME?</v>
+        <v>42420</v>
+      </c>
+      <c r="G11" s="104">
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D10,D11)</f>
+        <v>0.1388888888888889</v>
       </c>
       <c r="I11" s="112" t="b">
         <f t="shared" si="2"/>
@@ -9231,7 +9231,7 @@
       </c>
       <c r="K11" s="113">
         <f t="shared" si="3"/>
-        <v>42529</v>
+        <v>42445</v>
       </c>
       <c r="L11" s="94"/>
       <c r="M11" s="85" t="b">
@@ -9398,39 +9398,39 @@
       </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B12" s="17" t="e">
+      <c r="A12" s="37" t="str">
+        <v>WEURECBOISMAR16</v>
+      </c>
+      <c r="B12" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="18" t="e">
+        <v>-1.0500000000000002E-3</v>
+      </c>
+      <c r="C12" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="19" t="e">
+        <v>42445</v>
+      </c>
+      <c r="D12" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A12)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F12" s="103" t="e">
+        <v>42487</v>
+      </c>
+      <c r="F12" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D11,D12)</f>
-        <v>#NAME?</v>
+        <v>42466</v>
+      </c>
+      <c r="G12" s="104">
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D11,D12)</f>
+        <v>0.11666666666666667</v>
       </c>
       <c r="I12" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K12" s="113" t="e">
+      <c r="J12" s="41">
+        <v>5.0000000000129566E-2</v>
+      </c>
+      <c r="K12" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42487</v>
       </c>
       <c r="L12" s="94"/>
       <c r="M12" s="85" t="b">
@@ -9585,56 +9585,56 @@
       </c>
       <c r="BI12" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ12" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI12),AND(BI$4:BI11))),($J12*$G12-LN(1+jumpoverwrite13*BK$2))/$G12,_xll.qlInterpolationInterpolate(BI$3,$F12,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="BK12" s="38" t="e">
-        <f ca="1">IF(AND(NOT(BI12),AND(BI$4:BI11)),MIN(EXP((BJ12-$J12)*$G12),1),"")</f>
-        <v>#NAME?</v>
+      <c r="BK12" s="38" t="str">
+        <f>IF(AND(NOT(BI12),AND(BI$4:BI11)),MIN(EXP((BJ12-$J12)*$G12),1),"")</f>
+        <v/>
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B13" s="17" t="e">
+      <c r="A13" s="37" t="str">
+        <v>WEURECBOISAPR16</v>
+      </c>
+      <c r="B13" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="18" t="e">
+        <v>-1.0800000000000002E-3</v>
+      </c>
+      <c r="C13" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="19" t="e">
+        <v>42487</v>
+      </c>
+      <c r="D13" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A13)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F13" s="103" t="e">
+        <v>42529</v>
+      </c>
+      <c r="F13" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G13" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D12,D13)</f>
-        <v>#NAME?</v>
+        <v>42508</v>
+      </c>
+      <c r="G13" s="104">
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D12,D13)</f>
+        <v>0.11666666666666667</v>
       </c>
       <c r="I13" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K13" s="113" t="e">
+        <v>1</v>
+      </c>
+      <c r="J13" s="41">
+        <v>5.0000000000129566E-2</v>
+      </c>
+      <c r="K13" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42529</v>
       </c>
       <c r="L13" s="94"/>
       <c r="M13" s="85" t="b">
         <f>IF(AND(NOT(I13),AND(I$4:I12)),TRUE,I13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M13),AND(M$4:M12))),($J13*$G13-LN(1+Jumpoverwrite1*O$2))/$G13,_xll.qlInterpolationInterpolate(M$3,$F13,TRUE))</f>
@@ -9647,7 +9647,7 @@
       <c r="P13" s="127"/>
       <c r="Q13" s="85" t="b">
         <f>IF(AND(NOT(M13),AND(M$4:M12)),TRUE,M13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q13),AND(Q$4:Q12))),($J13*$G13-LN(1+Jumpoverwrite2*S$2))/$G13,_xll.qlInterpolationInterpolate(Q$3,$F13,TRUE))</f>
@@ -9660,7 +9660,7 @@
       <c r="T13" s="127"/>
       <c r="U13" s="85" t="b">
         <f>IF(AND(NOT(Q13),AND(Q$4:Q12)),TRUE,Q13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U13),AND(U$4:U12))),($J13*$G13-LN(1+Jumpoverwrite3*W$2))/$G13,_xll.qlInterpolationInterpolate(U$3,$F13,TRUE))</f>
@@ -9673,15 +9673,15 @@
       <c r="X13" s="127"/>
       <c r="Y13" s="85" t="b">
         <f>IF(AND(NOT(U13),AND(U$4:U12)),TRUE,U13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z13" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y13),AND(Y$4:Y12))),($J13*$G13-LN(1+Jumpoverwrite4*AA$2))/$G13,_xll.qlInterpolationInterpolate(Y$3,$F13,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AA13" s="38" t="e">
-        <f ca="1">IF(AND(NOT(Y13),AND(Y$4:Y12)),MIN(EXP((Z13-$J13)*$G13),1),"")</f>
-        <v>#NAME?</v>
+      <c r="AA13" s="38" t="str">
+        <f>IF(AND(NOT(Y13),AND(Y$4:Y12)),MIN(EXP((Z13-$J13)*$G13),1),"")</f>
+        <v/>
       </c>
       <c r="AB13" s="127"/>
       <c r="AC13" s="85" t="b">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="BI13" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ13" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI13),AND(BI$4:BI12))),($J13*$G13-LN(1+jumpoverwrite13*BK$2))/$G13,_xll.qlInterpolationInterpolate(BI$3,$F13,TRUE))</f>
@@ -9816,8 +9816,8 @@
         <v>#N/A</v>
       </c>
       <c r="G14" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D13,D14)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D13,D14)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I14" s="112" t="b">
         <f t="shared" si="2"/>
@@ -9878,22 +9878,22 @@
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y14),AND(Y$4:Y13))),($J14*$G14-LN(1+Jumpoverwrite4*AA$2))/$G14,_xll.qlInterpolationInterpolate(Y$3,$F14,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AA14" s="38" t="str">
-        <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),MIN(EXP((Z14-$J14)*$G14),1),"")</f>
-        <v/>
+      <c r="AA14" s="38" t="e">
+        <f ca="1">IF(AND(NOT(Y14),AND(Y$4:Y13)),MIN(EXP((Z14-$J14)*$G14),1),"")</f>
+        <v>#NAME?</v>
       </c>
       <c r="AB14" s="127"/>
       <c r="AC14" s="85" t="b">
         <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),TRUE,Y14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC14),AND(AC$4:AC13))),($J14*$G14-LN(1+Jumpoverwrite5*AE$2))/$G14,_xll.qlInterpolationInterpolate(AC$3,$F14,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AE14" s="38" t="e">
-        <f ca="1">IF(AND(NOT(AC14),AND(AC$4:AC13)),MIN(EXP((AD14-$J14)*$G14),1),"")</f>
-        <v>#NAME?</v>
+      <c r="AE14" s="38" t="str">
+        <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),MIN(EXP((AD14-$J14)*$G14),1),"")</f>
+        <v/>
       </c>
       <c r="AF14" s="127"/>
       <c r="AG14" s="85" t="b">
@@ -9989,9 +9989,9 @@
         <f ca="1">IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI14),AND(BI$4:BI13))),($J14*$G14-LN(1+jumpoverwrite13*BK$2))/$G14,_xll.qlInterpolationInterpolate(BI$3,$F14,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="BK14" s="38" t="str">
-        <f>IF(AND(NOT(BI14),AND(BI$4:BI13)),MIN(EXP((BJ14-$J14)*$G14),1),"")</f>
-        <v/>
+      <c r="BK14" s="38" t="e">
+        <f ca="1">IF(AND(NOT(BI14),AND(BI$4:BI13)),MIN(EXP((BJ14-$J14)*$G14),1),"")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.2">
@@ -10015,8 +10015,8 @@
         <v>#N/A</v>
       </c>
       <c r="G15" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D14,D15)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D14,D15)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I15" s="112" t="b">
         <f t="shared" si="2"/>
@@ -10090,22 +10090,22 @@
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC15),AND(AC$4:AC14))),($J15*$G15-LN(1+Jumpoverwrite5*AE$2))/$G15,_xll.qlInterpolationInterpolate(AC$3,$F15,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AE15" s="38" t="str">
-        <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),MIN(EXP((AD15-$J15)*$G15),1),"")</f>
-        <v/>
+      <c r="AE15" s="38" t="e">
+        <f ca="1">IF(AND(NOT(AC15),AND(AC$4:AC14)),MIN(EXP((AD15-$J15)*$G15),1),"")</f>
+        <v>#NAME?</v>
       </c>
       <c r="AF15" s="127"/>
       <c r="AG15" s="85" t="b">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),TRUE,AC15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG15),AND(AG$4:AG14))),($J15*$G15-LN(1+Jumpoverwrite6*AI$2))/$G15,_xll.qlInterpolationInterpolate(AG$3,$F15,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AI15" s="38" t="e">
-        <f ca="1">IF(AND(NOT(AG15),AND(AG$4:AG14)),MIN(EXP((AH15-$J15)*$G15),1),"")</f>
-        <v>#NAME?</v>
+      <c r="AI15" s="38" t="str">
+        <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),MIN(EXP((AH15-$J15)*$G15),1),"")</f>
+        <v/>
       </c>
       <c r="AJ15" s="127"/>
       <c r="AK15" s="85" t="b">
@@ -10214,8 +10214,8 @@
         <v>#N/A</v>
       </c>
       <c r="G16" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D15,D16)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D15,D16)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I16" s="112" t="b">
         <f t="shared" si="2"/>
@@ -10302,22 +10302,22 @@
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG16),AND(AG$4:AG15))),($J16*$G16-LN(1+Jumpoverwrite6*AI$2))/$G16,_xll.qlInterpolationInterpolate(AG$3,$F16,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AI16" s="38" t="str">
-        <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),MIN(EXP((AH16-$J16)*$G16),1),"")</f>
-        <v/>
+      <c r="AI16" s="38" t="e">
+        <f ca="1">IF(AND(NOT(AG16),AND(AG$4:AG15)),MIN(EXP((AH16-$J16)*$G16),1),"")</f>
+        <v>#NAME?</v>
       </c>
       <c r="AJ16" s="127"/>
       <c r="AK16" s="85" t="b">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),TRUE,AG16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK16),AND(AK$4:AK15))),($J16*$G16-LN(1+Jumpoverwrite7*AM$2))/$G16,_xll.qlInterpolationInterpolate(AK$3,$F16,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AM16" s="38" t="e">
-        <f ca="1">IF(AND(NOT(AK16),AND(AK$4:AK15)),MIN(EXP((AL16-$J16)*$G16),1),"")</f>
-        <v>#NAME?</v>
+      <c r="AM16" s="38" t="str">
+        <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),MIN(EXP((AL16-$J16)*$G16),1),"")</f>
+        <v/>
       </c>
       <c r="AO16" s="85" t="b">
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),TRUE,AK16)</f>
@@ -10413,8 +10413,8 @@
         <v>#N/A</v>
       </c>
       <c r="G17" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D16,D17)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D16,D17)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I17" s="112" t="b">
         <f t="shared" si="2"/>
@@ -10514,21 +10514,21 @@
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK17),AND(AK$4:AK16))),($J17*$G17-LN(1+Jumpoverwrite7*AM$2))/$G17,_xll.qlInterpolationInterpolate(AK$3,$F17,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AM17" s="38" t="str">
-        <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),MIN(EXP((AL17-$J17)*$G17),1),"")</f>
-        <v/>
+      <c r="AM17" s="38" t="e">
+        <f ca="1">IF(AND(NOT(AK17),AND(AK$4:AK16)),MIN(EXP((AL17-$J17)*$G17),1),"")</f>
+        <v>#NAME?</v>
       </c>
       <c r="AO17" s="85" t="b">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),TRUE,AK17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO17),AND(AO$4:AO16))),($J17*$G17-LN(1+Jumpoverwrite8*AQ$2))/$G17,_xll.qlInterpolationInterpolate(AO$3,$F17,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AQ17" s="38" t="e">
-        <f ca="1">IF(AND(NOT(AO17),AND(AO$4:AO16)),MIN(EXP((AP17-$J17)*$G17),1),"")</f>
-        <v>#NAME?</v>
+      <c r="AQ17" s="38" t="str">
+        <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),MIN(EXP((AP17-$J17)*$G17),1),"")</f>
+        <v/>
       </c>
       <c r="AS17" s="85" t="b">
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),TRUE,AO17)</f>
@@ -10612,8 +10612,8 @@
         <v>#N/A</v>
       </c>
       <c r="G18" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D17,D18)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D17,D18)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I18" s="112" t="b">
         <f t="shared" si="2"/>
@@ -10725,21 +10725,21 @@
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO18),AND(AO$4:AO17))),($J18*$G18-LN(1+Jumpoverwrite8*AQ$2))/$G18,_xll.qlInterpolationInterpolate(AO$3,$F18,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AQ18" s="38" t="str">
-        <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),MIN(EXP((AP18-$J18)*$G18),1),"")</f>
-        <v/>
+      <c r="AQ18" s="38" t="e">
+        <f ca="1">IF(AND(NOT(AO18),AND(AO$4:AO17)),MIN(EXP((AP18-$J18)*$G18),1),"")</f>
+        <v>#NAME?</v>
       </c>
       <c r="AS18" s="85" t="b">
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),TRUE,AO18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS18),AND(AS$4:AS17))),($J18*$G18-LN(1+Jumpoverwrite9*AU$2))/$G18,_xll.qlInterpolationInterpolate(AS$3,$F18,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AU18" s="38" t="e">
-        <f ca="1">IF(AND(NOT(AS18),AND(AS$4:AS17)),MIN(EXP((AT18-$J18)*$G18),1),"")</f>
-        <v>#NAME?</v>
+      <c r="AU18" s="38" t="str">
+        <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),MIN(EXP((AT18-$J18)*$G18),1),"")</f>
+        <v/>
       </c>
       <c r="AW18" s="85" t="b">
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),TRUE,AS18)</f>
@@ -10811,8 +10811,8 @@
         <v>#N/A</v>
       </c>
       <c r="G19" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D18,D19)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D18,D19)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I19" s="112" t="b">
         <f t="shared" si="2"/>
@@ -10936,21 +10936,21 @@
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS19),AND(AS$4:AS18))),($J19*$G19-LN(1+Jumpoverwrite9*AU$2))/$G19,_xll.qlInterpolationInterpolate(AS$3,$F19,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AU19" s="38" t="str">
-        <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),MIN(EXP((AT19-$J19)*$G19),1),"")</f>
-        <v/>
+      <c r="AU19" s="38" t="e">
+        <f ca="1">IF(AND(NOT(AS19),AND(AS$4:AS18)),MIN(EXP((AT19-$J19)*$G19),1),"")</f>
+        <v>#NAME?</v>
       </c>
       <c r="AW19" s="85" t="b">
         <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),TRUE,AS19)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX19" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW19),AND(AW$4:AW18))),($J19*$G19-LN(1+Jumpoverwrite10*AY$2))/$G19,_xll.qlInterpolationInterpolate(AW$3,$F19,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AY19" s="38" t="e">
-        <f ca="1">IF(AND(NOT(AW19),AND(AW$4:AW18)),MIN(EXP((AX19-$J19)*$G19),1),"")</f>
-        <v>#NAME?</v>
+      <c r="AY19" s="38" t="str">
+        <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),MIN(EXP((AX19-$J19)*$G19),1),"")</f>
+        <v/>
       </c>
       <c r="BA19" s="85" t="b">
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),TRUE,AW19)</f>
@@ -11010,8 +11010,8 @@
         <v>#N/A</v>
       </c>
       <c r="G20" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D19,D20)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D19,D20)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I20" s="112" t="b">
         <f t="shared" si="2"/>
@@ -11147,21 +11147,21 @@
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW20),AND(AW$4:AW19))),($J20*$G20-LN(1+Jumpoverwrite10*AY$2))/$G20,_xll.qlInterpolationInterpolate(AW$3,$F20,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="AY20" s="38" t="str">
-        <f>IF(AND(NOT(AW20),AND(AW$4:AW19)),MIN(EXP((AX20-$J20)*$G20),1),"")</f>
-        <v/>
+      <c r="AY20" s="38" t="e">
+        <f ca="1">IF(AND(NOT(AW20),AND(AW$4:AW19)),MIN(EXP((AX20-$J20)*$G20),1),"")</f>
+        <v>#NAME?</v>
       </c>
       <c r="BA20" s="85" t="b">
         <f>IF(AND(NOT(AW20),AND(AW$4:AW19)),TRUE,AW20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB20" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA20),AND(BA$4:BA19))),($J20*$G20-LN(1+Jumpoverwrite11*BC$2))/$G20,_xll.qlInterpolationInterpolate(BA$3,$F20,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="BC20" s="38" t="e">
-        <f ca="1">IF(AND(NOT(BA20),AND(BA$4:BA19)),MIN(EXP((BB20-$J20)*$G20),1),"")</f>
-        <v>#NAME?</v>
+      <c r="BC20" s="38" t="str">
+        <f>IF(AND(NOT(BA20),AND(BA$4:BA19)),MIN(EXP((BB20-$J20)*$G20),1),"")</f>
+        <v/>
       </c>
       <c r="BE20" s="85" t="b">
         <f>IF(AND(NOT(BA20),AND(BA$4:BA19)),TRUE,BA20)</f>
@@ -11209,8 +11209,8 @@
         <v>#N/A</v>
       </c>
       <c r="G21" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D20,D21)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D20,D21)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I21" s="112" t="b">
         <f t="shared" si="2"/>
@@ -11358,21 +11358,21 @@
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA21),AND(BA$4:BA20))),($J21*$G21-LN(1+Jumpoverwrite11*BC$2))/$G21,_xll.qlInterpolationInterpolate(BA$3,$F21,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="BC21" s="38" t="str">
-        <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),MIN(EXP((BB21-$J21)*$G21),1),"")</f>
-        <v/>
+      <c r="BC21" s="38" t="e">
+        <f ca="1">IF(AND(NOT(BA21),AND(BA$4:BA20)),MIN(EXP((BB21-$J21)*$G21),1),"")</f>
+        <v>#NAME?</v>
       </c>
       <c r="BE21" s="85" t="b">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),TRUE,BA21)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF21" s="38" t="e">
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE21),AND(BE$4:BE20))),($J21*$G21-LN(1+Jumpoverwrite12*BG$2))/$G21,_xll.qlInterpolationInterpolate(BE$3,$F21,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="BG21" s="38" t="e">
-        <f ca="1">IF(AND(NOT(BE21),AND(BE$4:BE20)),MIN(EXP((BF21-$J21)*$G21),1),"")</f>
-        <v>#NAME?</v>
+      <c r="BG21" s="38" t="str">
+        <f>IF(AND(NOT(BE21),AND(BE$4:BE20)),MIN(EXP((BF21-$J21)*$G21),1),"")</f>
+        <v/>
       </c>
       <c r="BI21" s="85" t="b">
         <f t="shared" si="1"/>
@@ -11408,8 +11408,8 @@
         <v>#N/A</v>
       </c>
       <c r="G22" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D21,D22)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D21,D22)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I22" s="112" t="b">
         <f t="shared" si="2"/>
@@ -11569,9 +11569,9 @@
         <f ca="1">IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE22),AND(BE$4:BE21))),($J22*$G22-LN(1+Jumpoverwrite12*BG$2))/$G22,_xll.qlInterpolationInterpolate(BE$3,$F22,TRUE))</f>
         <v>#NAME?</v>
       </c>
-      <c r="BG22" s="38" t="str">
-        <f>IF(AND(NOT(BE22),AND(BE$4:BE21)),MIN(EXP((BF22-$J22)*$G22),1),"")</f>
-        <v/>
+      <c r="BG22" s="38" t="e">
+        <f ca="1">IF(AND(NOT(BE22),AND(BE$4:BE21)),MIN(EXP((BF22-$J22)*$G22),1),"")</f>
+        <v>#NAME?</v>
       </c>
       <c r="BI22" s="85" t="b">
         <f t="shared" si="1"/>
@@ -11607,8 +11607,8 @@
         <v>#N/A</v>
       </c>
       <c r="G23" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D22,D23)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D22,D23)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I23" s="112" t="b">
         <f t="shared" si="2"/>
@@ -11806,8 +11806,8 @@
         <v>#N/A</v>
       </c>
       <c r="G24" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D23,D24)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D23,D24)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I24" s="112" t="b">
         <f t="shared" si="2"/>
@@ -12005,8 +12005,8 @@
         <v>#N/A</v>
       </c>
       <c r="G25" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D24,D25)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D24,D25)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I25" s="112" t="b">
         <f t="shared" si="2"/>
@@ -12204,8 +12204,8 @@
         <v>#N/A</v>
       </c>
       <c r="G26" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D25,D26)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D25,D26)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I26" s="112" t="b">
         <f t="shared" si="2"/>
@@ -12403,8 +12403,8 @@
         <v>#N/A</v>
       </c>
       <c r="G27" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D26,D27)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D26,D27)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I27" s="112" t="b">
         <f t="shared" si="2"/>
@@ -12602,8 +12602,8 @@
         <v>#N/A</v>
       </c>
       <c r="G28" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D27,D28)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D27,D28)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I28" s="112" t="b">
         <f t="shared" si="2"/>
@@ -12801,8 +12801,8 @@
         <v>#N/A</v>
       </c>
       <c r="G29" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D28,D29)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D28,D29)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I29" s="112" t="b">
         <f t="shared" si="2"/>
@@ -13000,8 +13000,8 @@
         <v>#N/A</v>
       </c>
       <c r="G30" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D29,D30)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D29,D30)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I30" s="112" t="b">
         <f t="shared" si="2"/>
@@ -13199,8 +13199,8 @@
         <v>#N/A</v>
       </c>
       <c r="G31" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D30,D31)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D30,D31)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I31" s="112" t="b">
         <f t="shared" si="2"/>
@@ -13398,8 +13398,8 @@
         <v>#N/A</v>
       </c>
       <c r="G32" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D31,D32)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D31,D32)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I32" s="112" t="b">
         <f t="shared" si="2"/>
@@ -13597,8 +13597,8 @@
         <v>#N/A</v>
       </c>
       <c r="G33" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D32,D33)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D32,D33)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I33" s="112" t="b">
         <f t="shared" si="2"/>
@@ -13796,8 +13796,8 @@
         <v>#N/A</v>
       </c>
       <c r="G34" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D33,D34)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D33,D34)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I34" s="112" t="b">
         <f t="shared" si="2"/>
@@ -13995,8 +13995,8 @@
         <v>#N/A</v>
       </c>
       <c r="G35" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D34,D35)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D34,D35)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I35" s="112" t="b">
         <f t="shared" si="2"/>
@@ -14194,8 +14194,8 @@
         <v>#N/A</v>
       </c>
       <c r="G36" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D35,D36)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D35,D36)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I36" s="112" t="b">
         <f t="shared" si="2"/>
@@ -14393,8 +14393,8 @@
         <v>#N/A</v>
       </c>
       <c r="G37" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D36,D37)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D36,D37)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I37" s="112" t="b">
         <f t="shared" si="2"/>
@@ -14592,8 +14592,8 @@
         <v>#N/A</v>
       </c>
       <c r="G38" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D37,D38)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D37,D38)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I38" s="112" t="b">
         <f t="shared" si="2"/>
@@ -14791,8 +14791,8 @@
         <v>#N/A</v>
       </c>
       <c r="G39" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D38,D39)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D38,D39)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I39" s="112" t="b">
         <f t="shared" si="2"/>
@@ -14990,8 +14990,8 @@
         <v>#N/A</v>
       </c>
       <c r="G40" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D39,D40)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D39,D40)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I40" s="112" t="b">
         <f t="shared" si="2"/>
@@ -15189,8 +15189,8 @@
         <v>#N/A</v>
       </c>
       <c r="G41" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D40,D41)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D40,D41)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I41" s="112" t="b">
         <f t="shared" si="2"/>
@@ -15388,8 +15388,8 @@
         <v>#N/A</v>
       </c>
       <c r="G42" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D41,D42)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D41,D42)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I42" s="112" t="b">
         <f t="shared" si="2"/>
@@ -15587,8 +15587,8 @@
         <v>#N/A</v>
       </c>
       <c r="G43" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D42,D43)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D42,D43)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I43" s="112" t="b">
         <f t="shared" si="2"/>
@@ -15786,8 +15786,8 @@
         <v>#N/A</v>
       </c>
       <c r="G44" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D43,D44)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D43,D44)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I44" s="112" t="b">
         <f t="shared" si="2"/>
@@ -15985,8 +15985,8 @@
         <v>#N/A</v>
       </c>
       <c r="G45" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D44,D45)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D44,D45)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I45" s="112" t="b">
         <f t="shared" si="2"/>
@@ -16184,8 +16184,8 @@
         <v>#N/A</v>
       </c>
       <c r="G46" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D45,D46)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D45,D46)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I46" s="112" t="b">
         <f t="shared" si="2"/>
@@ -16383,8 +16383,8 @@
         <v>#N/A</v>
       </c>
       <c r="G47" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D46,D47)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D46,D47)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I47" s="112" t="b">
         <f t="shared" si="2"/>
@@ -16582,8 +16582,8 @@
         <v>#N/A</v>
       </c>
       <c r="G48" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D47,D48)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D47,D48)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I48" s="112" t="b">
         <f t="shared" si="2"/>
@@ -16781,8 +16781,8 @@
         <v>#N/A</v>
       </c>
       <c r="G49" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D48,D49)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D48,D49)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I49" s="112" t="b">
         <f t="shared" si="2"/>
@@ -16980,8 +16980,8 @@
         <v>#N/A</v>
       </c>
       <c r="G50" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D49,D50)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D49,D50)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I50" s="112" t="b">
         <f t="shared" si="2"/>
@@ -17179,8 +17179,8 @@
         <v>#N/A</v>
       </c>
       <c r="G51" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D50,D51)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D50,D51)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I51" s="112" t="b">
         <f t="shared" si="2"/>
@@ -17378,8 +17378,8 @@
         <v>#N/A</v>
       </c>
       <c r="G52" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D51,D52)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D51,D52)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I52" s="112" t="b">
         <f t="shared" si="2"/>
@@ -17577,8 +17577,8 @@
         <v>#N/A</v>
       </c>
       <c r="G53" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D52,D53)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D52,D53)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I53" s="112" t="b">
         <f t="shared" si="2"/>
@@ -17776,8 +17776,8 @@
         <v>#N/A</v>
       </c>
       <c r="G54" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D53,D54)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D53,D54)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I54" s="112" t="b">
         <f t="shared" si="2"/>
@@ -17975,8 +17975,8 @@
         <v>#N/A</v>
       </c>
       <c r="G55" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D54,D55)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D54,D55)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I55" s="112" t="b">
         <f t="shared" si="2"/>
@@ -18174,8 +18174,8 @@
         <v>#N/A</v>
       </c>
       <c r="G56" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D55,D56)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D55,D56)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I56" s="112" t="b">
         <f t="shared" si="2"/>
@@ -18373,8 +18373,8 @@
         <v>#N/A</v>
       </c>
       <c r="G57" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D56,D57)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D56,D57)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I57" s="112" t="b">
         <f t="shared" si="2"/>
@@ -18572,8 +18572,8 @@
         <v>#N/A</v>
       </c>
       <c r="G58" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D57,D58)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D57,D58)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I58" s="112" t="b">
         <f t="shared" si="2"/>
@@ -18771,8 +18771,8 @@
         <v>#N/A</v>
       </c>
       <c r="G59" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D58,D59)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D58,D59)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I59" s="112" t="b">
         <f t="shared" si="2"/>
@@ -18970,8 +18970,8 @@
         <v>#N/A</v>
       </c>
       <c r="G60" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D59,D60)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D59,D60)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I60" s="112" t="b">
         <f t="shared" si="2"/>
@@ -19169,8 +19169,8 @@
         <v>#N/A</v>
       </c>
       <c r="G61" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D60,D61)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D60,D61)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I61" s="112" t="b">
         <f t="shared" si="2"/>
@@ -19368,8 +19368,8 @@
         <v>#N/A</v>
       </c>
       <c r="G62" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D61,D62)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D61,D62)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I62" s="112" t="b">
         <f t="shared" si="2"/>
@@ -19567,8 +19567,8 @@
         <v>#N/A</v>
       </c>
       <c r="G63" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D62,D63)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D62,D63)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I63" s="112" t="b">
         <f t="shared" si="2"/>
@@ -19766,8 +19766,8 @@
         <v>#N/A</v>
       </c>
       <c r="G64" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D63,D64)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D63,D64)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I64" s="112" t="b">
         <f t="shared" si="2"/>
@@ -19965,8 +19965,8 @@
         <v>#N/A</v>
       </c>
       <c r="G65" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D64,D65)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D64,D65)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I65" s="112" t="b">
         <f t="shared" si="2"/>
@@ -20164,8 +20164,8 @@
         <v>#N/A</v>
       </c>
       <c r="G66" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D65,D66)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D65,D66)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I66" s="112" t="b">
         <f t="shared" si="2"/>
@@ -20363,8 +20363,8 @@
         <v>#N/A</v>
       </c>
       <c r="G67" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D66,D67)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D66,D67)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I67" s="112" t="b">
         <f t="shared" si="2"/>
@@ -20562,8 +20562,8 @@
         <v>#N/A</v>
       </c>
       <c r="G68" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D67,D68)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D67,D68)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I68" s="112" t="b">
         <f t="shared" si="2"/>
@@ -20761,8 +20761,8 @@
         <v>#N/A</v>
       </c>
       <c r="G69" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D68,D69)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D68,D69)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I69" s="112" t="b">
         <f t="shared" si="2"/>
@@ -20960,8 +20960,8 @@
         <v>#N/A</v>
       </c>
       <c r="G70" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D69,D70)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D69,D70)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I70" s="112" t="b">
         <f t="shared" ref="I70:I129" si="7">IF(ISERROR(K70),FALSE,IF(OR(MONTH(K70)-MONTH(K69)=1,YEAR(K70)-YEAR(K69)=1),FALSE,TRUE))</f>
@@ -21159,8 +21159,8 @@
         <v>#N/A</v>
       </c>
       <c r="G71" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D70,D71)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D70,D71)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I71" s="112" t="b">
         <f t="shared" si="7"/>
@@ -21358,8 +21358,8 @@
         <v>#N/A</v>
       </c>
       <c r="G72" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D71,D72)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D71,D72)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I72" s="112" t="b">
         <f t="shared" si="7"/>
@@ -21557,8 +21557,8 @@
         <v>#N/A</v>
       </c>
       <c r="G73" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D72,D73)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D72,D73)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I73" s="112" t="b">
         <f t="shared" si="7"/>
@@ -21756,8 +21756,8 @@
         <v>#N/A</v>
       </c>
       <c r="G74" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D73,D74)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D73,D74)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I74" s="112" t="b">
         <f t="shared" si="7"/>
@@ -21955,8 +21955,8 @@
         <v>#N/A</v>
       </c>
       <c r="G75" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D74,D75)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D74,D75)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I75" s="112" t="b">
         <f t="shared" si="7"/>
@@ -22154,8 +22154,8 @@
         <v>#N/A</v>
       </c>
       <c r="G76" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D75,D76)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D75,D76)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I76" s="112" t="b">
         <f t="shared" si="7"/>
@@ -22353,8 +22353,8 @@
         <v>#N/A</v>
       </c>
       <c r="G77" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D76,D77)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D76,D77)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I77" s="112" t="b">
         <f t="shared" si="7"/>
@@ -22552,8 +22552,8 @@
         <v>#N/A</v>
       </c>
       <c r="G78" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D77,D78)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D77,D78)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I78" s="112" t="b">
         <f t="shared" si="7"/>
@@ -22751,8 +22751,8 @@
         <v>#N/A</v>
       </c>
       <c r="G79" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D78,D79)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D78,D79)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I79" s="112" t="b">
         <f t="shared" si="7"/>
@@ -22950,8 +22950,8 @@
         <v>#N/A</v>
       </c>
       <c r="G80" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D79,D80)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D79,D80)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I80" s="112" t="b">
         <f t="shared" si="7"/>
@@ -23149,8 +23149,8 @@
         <v>#N/A</v>
       </c>
       <c r="G81" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D80,D81)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D80,D81)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I81" s="112" t="b">
         <f t="shared" si="7"/>
@@ -23348,8 +23348,8 @@
         <v>#N/A</v>
       </c>
       <c r="G82" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D81,D82)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D81,D82)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I82" s="112" t="b">
         <f t="shared" si="7"/>
@@ -23547,8 +23547,8 @@
         <v>#N/A</v>
       </c>
       <c r="G83" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D82,D83)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D82,D83)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I83" s="112" t="b">
         <f t="shared" si="7"/>
@@ -23746,8 +23746,8 @@
         <v>#N/A</v>
       </c>
       <c r="G84" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D83,D84)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D83,D84)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I84" s="112" t="b">
         <f t="shared" si="7"/>
@@ -23945,8 +23945,8 @@
         <v>#N/A</v>
       </c>
       <c r="G85" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D84,D85)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D84,D85)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I85" s="112" t="b">
         <f t="shared" si="7"/>
@@ -24144,8 +24144,8 @@
         <v>#N/A</v>
       </c>
       <c r="G86" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D85,D86)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D85,D86)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I86" s="112" t="b">
         <f t="shared" si="7"/>
@@ -24343,8 +24343,8 @@
         <v>#N/A</v>
       </c>
       <c r="G87" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D86,D87)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D86,D87)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I87" s="112" t="b">
         <f t="shared" si="7"/>
@@ -24542,8 +24542,8 @@
         <v>#N/A</v>
       </c>
       <c r="G88" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D87,D88)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D87,D88)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I88" s="112" t="b">
         <f t="shared" si="7"/>
@@ -24741,8 +24741,8 @@
         <v>#N/A</v>
       </c>
       <c r="G89" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D88,D89)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D88,D89)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I89" s="112" t="b">
         <f t="shared" si="7"/>
@@ -24940,8 +24940,8 @@
         <v>#N/A</v>
       </c>
       <c r="G90" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D89,D90)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D89,D90)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I90" s="112" t="b">
         <f t="shared" si="7"/>
@@ -25139,8 +25139,8 @@
         <v>#N/A</v>
       </c>
       <c r="G91" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D90,D91)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D90,D91)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I91" s="112" t="b">
         <f t="shared" si="7"/>
@@ -25338,8 +25338,8 @@
         <v>#N/A</v>
       </c>
       <c r="G92" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D91,D92)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D91,D92)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I92" s="112" t="b">
         <f t="shared" si="7"/>
@@ -25537,8 +25537,8 @@
         <v>#N/A</v>
       </c>
       <c r="G93" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D92,D93)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D92,D93)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I93" s="112" t="b">
         <f t="shared" si="7"/>
@@ -25736,8 +25736,8 @@
         <v>#N/A</v>
       </c>
       <c r="G94" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D93,D94)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D93,D94)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I94" s="112" t="b">
         <f t="shared" si="7"/>
@@ -25935,8 +25935,8 @@
         <v>#N/A</v>
       </c>
       <c r="G95" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D94,D95)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D94,D95)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I95" s="112" t="b">
         <f t="shared" si="7"/>
@@ -26134,8 +26134,8 @@
         <v>#N/A</v>
       </c>
       <c r="G96" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D95,D96)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D95,D96)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I96" s="112" t="b">
         <f t="shared" si="7"/>
@@ -26333,8 +26333,8 @@
         <v>#N/A</v>
       </c>
       <c r="G97" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D96,D97)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D96,D97)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I97" s="112" t="b">
         <f t="shared" si="7"/>
@@ -26532,8 +26532,8 @@
         <v>#N/A</v>
       </c>
       <c r="G98" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D97,D98)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D97,D98)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I98" s="112" t="b">
         <f t="shared" si="7"/>
@@ -26731,8 +26731,8 @@
         <v>#N/A</v>
       </c>
       <c r="G99" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D98,D99)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D98,D99)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I99" s="112" t="b">
         <f t="shared" si="7"/>
@@ -26930,8 +26930,8 @@
         <v>#N/A</v>
       </c>
       <c r="G100" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D99,D100)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D99,D100)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I100" s="112" t="b">
         <f t="shared" si="7"/>
@@ -27129,8 +27129,8 @@
         <v>#N/A</v>
       </c>
       <c r="G101" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D100,D101)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D100,D101)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I101" s="112" t="b">
         <f t="shared" si="7"/>
@@ -27328,8 +27328,8 @@
         <v>#N/A</v>
       </c>
       <c r="G102" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D101,D102)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D101,D102)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I102" s="112" t="b">
         <f t="shared" si="7"/>
@@ -27527,8 +27527,8 @@
         <v>#N/A</v>
       </c>
       <c r="G103" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D102,D103)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D102,D103)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I103" s="112" t="b">
         <f t="shared" si="7"/>
@@ -27726,8 +27726,8 @@
         <v>#N/A</v>
       </c>
       <c r="G104" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D103,D104)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D103,D104)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I104" s="112" t="b">
         <f t="shared" si="7"/>
@@ -27925,8 +27925,8 @@
         <v>#N/A</v>
       </c>
       <c r="G105" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D104,D105)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D104,D105)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I105" s="112" t="b">
         <f t="shared" si="7"/>
@@ -28124,8 +28124,8 @@
         <v>#N/A</v>
       </c>
       <c r="G106" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D105,D106)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D105,D106)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I106" s="112" t="b">
         <f t="shared" si="7"/>
@@ -28323,8 +28323,8 @@
         <v>#N/A</v>
       </c>
       <c r="G107" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D106,D107)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D106,D107)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I107" s="112" t="b">
         <f t="shared" si="7"/>
@@ -28522,8 +28522,8 @@
         <v>#N/A</v>
       </c>
       <c r="G108" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D107,D108)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D107,D108)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I108" s="112" t="b">
         <f t="shared" si="7"/>
@@ -28721,8 +28721,8 @@
         <v>#N/A</v>
       </c>
       <c r="G109" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D108,D109)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D108,D109)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I109" s="112" t="b">
         <f t="shared" si="7"/>
@@ -28920,8 +28920,8 @@
         <v>#N/A</v>
       </c>
       <c r="G110" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D109,D110)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D109,D110)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I110" s="112" t="b">
         <f t="shared" si="7"/>
@@ -29119,8 +29119,8 @@
         <v>#N/A</v>
       </c>
       <c r="G111" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D110,D111)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D110,D111)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I111" s="112" t="b">
         <f t="shared" si="7"/>
@@ -29318,8 +29318,8 @@
         <v>#N/A</v>
       </c>
       <c r="G112" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D111,D112)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D111,D112)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I112" s="112" t="b">
         <f t="shared" si="7"/>
@@ -29517,8 +29517,8 @@
         <v>#N/A</v>
       </c>
       <c r="G113" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D112,D113)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D112,D113)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I113" s="112" t="b">
         <f t="shared" si="7"/>
@@ -29716,8 +29716,8 @@
         <v>#N/A</v>
       </c>
       <c r="G114" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D113,D114)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D113,D114)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I114" s="112" t="b">
         <f t="shared" si="7"/>
@@ -29915,8 +29915,8 @@
         <v>#N/A</v>
       </c>
       <c r="G115" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D114,D115)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D114,D115)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I115" s="112" t="b">
         <f t="shared" si="7"/>
@@ -30114,8 +30114,8 @@
         <v>#N/A</v>
       </c>
       <c r="G116" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D115,D116)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D115,D116)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I116" s="112" t="b">
         <f t="shared" si="7"/>
@@ -30313,8 +30313,8 @@
         <v>#N/A</v>
       </c>
       <c r="G117" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D116,D117)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D116,D117)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I117" s="112" t="b">
         <f t="shared" si="7"/>
@@ -30512,8 +30512,8 @@
         <v>#N/A</v>
       </c>
       <c r="G118" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D117,D118)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D117,D118)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I118" s="112" t="b">
         <f t="shared" si="7"/>
@@ -30711,8 +30711,8 @@
         <v>#N/A</v>
       </c>
       <c r="G119" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D118,D119)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D118,D119)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I119" s="112" t="b">
         <f t="shared" si="7"/>
@@ -30910,8 +30910,8 @@
         <v>#N/A</v>
       </c>
       <c r="G120" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D119,D120)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D119,D120)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I120" s="112" t="b">
         <f t="shared" si="7"/>
@@ -31109,8 +31109,8 @@
         <v>#N/A</v>
       </c>
       <c r="G121" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D120,D121)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D120,D121)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I121" s="112" t="b">
         <f t="shared" si="7"/>
@@ -31308,8 +31308,8 @@
         <v>#N/A</v>
       </c>
       <c r="G122" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D121,D122)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D121,D122)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I122" s="112" t="b">
         <f t="shared" si="7"/>
@@ -31507,8 +31507,8 @@
         <v>#N/A</v>
       </c>
       <c r="G123" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D122,D123)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D122,D123)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I123" s="112" t="b">
         <f t="shared" si="7"/>
@@ -31706,8 +31706,8 @@
         <v>#N/A</v>
       </c>
       <c r="G124" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D123,D124)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D123,D124)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I124" s="112" t="b">
         <f t="shared" si="7"/>
@@ -31905,8 +31905,8 @@
         <v>#N/A</v>
       </c>
       <c r="G125" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D124,D125)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D124,D125)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I125" s="112" t="b">
         <f t="shared" si="7"/>
@@ -32104,8 +32104,8 @@
         <v>#N/A</v>
       </c>
       <c r="G126" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D125,D126)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D125,D126)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I126" s="112" t="b">
         <f t="shared" si="7"/>
@@ -32303,8 +32303,8 @@
         <v>#N/A</v>
       </c>
       <c r="G127" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D126,D127)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D126,D127)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I127" s="112" t="b">
         <f t="shared" si="7"/>
@@ -32502,8 +32502,8 @@
         <v>#N/A</v>
       </c>
       <c r="G128" s="104" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D127,D128)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D127,D128)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I128" s="112" t="b">
         <f t="shared" si="7"/>
@@ -32701,8 +32701,8 @@
         <v>#N/A</v>
       </c>
       <c r="G129" s="106" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(DayCounter,D128,D129)</f>
-        <v>#NAME?</v>
+        <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D128,D129)</f>
+        <v>#NUM!</v>
       </c>
       <c r="I129" s="114" t="b">
         <f t="shared" si="7"/>
@@ -32892,7 +32892,7 @@
       </c>
     </row>
     <row r="136" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="I136" s="180"/>
+      <c r="I136" s="177"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -32948,7 +32948,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="23">
         <f ca="1">_xll.ohTrigger(M3:M4)</f>
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="N1" s="144"/>
     </row>
@@ -33022,7 +33022,7 @@
       </c>
       <c r="K3" s="40" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J3,,TRUE)</f>
-        <v>EURJump1_SYNTHON_Quote#0002</v>
+        <v>EURJump1_SYNTHON_Quote#0001</v>
       </c>
       <c r="L3" s="40" t="e">
         <f t="array" aca="1" ref="L3:L15" ca="1">QuoteLive</f>
@@ -33074,7 +33074,7 @@
       </c>
       <c r="K4" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J4,,TRUE)</f>
-        <v>EURJump2_SYNTHON_Quote#0002</v>
+        <v>EURJump2_SYNTHON_Quote#0001</v>
       </c>
       <c r="L4" s="141" t="e">
         <f ca="1"/>
@@ -33126,7 +33126,7 @@
       </c>
       <c r="K5" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J5,,TRUE)</f>
-        <v>EURJump3_SYNTHON_Quote#0002</v>
+        <v>EURJump3_SYNTHON_Quote#0001</v>
       </c>
       <c r="L5" s="141" t="e">
         <f ca="1"/>
@@ -33178,7 +33178,7 @@
       </c>
       <c r="K6" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J6,,TRUE)</f>
-        <v>EURJump4_SYNTHON_Quote#0002</v>
+        <v>EURJump4_SYNTHON_Quote#0001</v>
       </c>
       <c r="L6" s="141" t="e">
         <f ca="1"/>
@@ -33230,7 +33230,7 @@
       </c>
       <c r="K7" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J7,,TRUE)</f>
-        <v>EURJump5_SYNTHON_Quote#0002</v>
+        <v>EURJump5_SYNTHON_Quote#0001</v>
       </c>
       <c r="L7" s="141" t="e">
         <f ca="1"/>
@@ -33282,7 +33282,7 @@
       </c>
       <c r="K8" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J8,,TRUE)</f>
-        <v>EURJump6_SYNTHON_Quote#0002</v>
+        <v>EURJump6_SYNTHON_Quote#0001</v>
       </c>
       <c r="L8" s="141" t="e">
         <f ca="1"/>
@@ -33334,7 +33334,7 @@
       </c>
       <c r="K9" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J9,,TRUE)</f>
-        <v>EURJump7_SYNTHON_Quote#0002</v>
+        <v>EURJump7_SYNTHON_Quote#0001</v>
       </c>
       <c r="L9" s="141" t="e">
         <f ca="1"/>
@@ -33386,7 +33386,7 @@
       </c>
       <c r="K10" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J10,,TRUE)</f>
-        <v>EURJump8_SYNTHON_Quote#0002</v>
+        <v>EURJump8_SYNTHON_Quote#0001</v>
       </c>
       <c r="L10" s="141" t="e">
         <f ca="1"/>
@@ -33438,7 +33438,7 @@
       </c>
       <c r="K11" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J11,,TRUE)</f>
-        <v>EURJump9_SYNTHON_Quote#0002</v>
+        <v>EURJump9_SYNTHON_Quote#0001</v>
       </c>
       <c r="L11" s="141" t="e">
         <f ca="1"/>
@@ -33490,7 +33490,7 @@
       </c>
       <c r="K12" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J12,,TRUE)</f>
-        <v>EURJump10_SYNTHON_Quote#0002</v>
+        <v>EURJump10_SYNTHON_Quote#0001</v>
       </c>
       <c r="L12" s="141" t="e">
         <f ca="1"/>
@@ -33542,7 +33542,7 @@
       </c>
       <c r="K13" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J13,,TRUE)</f>
-        <v>EURJump11_SYNTHON_Quote#0002</v>
+        <v>EURJump11_SYNTHON_Quote#0001</v>
       </c>
       <c r="L13" s="141" t="e">
         <f ca="1"/>
@@ -33594,7 +33594,7 @@
       </c>
       <c r="K14" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J14,,TRUE)</f>
-        <v>EURJump12_SYNTHON_Quote#0002</v>
+        <v>EURJump12_SYNTHON_Quote#0001</v>
       </c>
       <c r="L14" s="141" t="e">
         <f ca="1"/>
@@ -33646,7 +33646,7 @@
       </c>
       <c r="K15" s="142" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J15,,TRUE)</f>
-        <v>EURJump13_SYNTHON_Quote#0002</v>
+        <v>EURJump13_SYNTHON_Quote#0001</v>
       </c>
       <c r="L15" s="142" t="e">
         <f ca="1"/>

--- a/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
@@ -1343,70 +1343,70 @@
                   <c:v>42145</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>42152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42199</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>42207</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>42230</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>42256</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
+                  <c:v>42261</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42291</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>42305</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="12">
+                  <c:v>42324</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>42347</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
+                  <c:v>42352</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42383</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>42395</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="17">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>42445</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="19">
+                  <c:v>42474</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>42487</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="21">
+                  <c:v>42506</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>42529</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1436,58 +1436,58 @@
                   <c:v>5.0000000000129566E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0000000000129566E-2</c:v>
+                  <c:v>-0.44999999999987045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0000000000129566E-2</c:v>
+                  <c:v>4.9999999998772804E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0000000000129566E-2</c:v>
+                  <c:v>4.9999999997909134E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0000000000129566E-2</c:v>
+                  <c:v>-0.45000000000209084</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.9999999996552302E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.9999999995688695E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.9999999995688695E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>#N/A</c:v>
+                  <c:v>4.9999999995688695E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>#N/A</c:v>
+                  <c:v>-1.3910476811838102E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.49860895231835162</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>#N/A</c:v>
+                  <c:v>-0.27630914178443888</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.22369085821664864</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>#N/A</c:v>
+                  <c:v>-0.27630914178347288</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.49999999999999956</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>#N/A</c:v>
+                  <c:v>-0.27721410037703631</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.22278589962422879</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>#N/A</c:v>
+                  <c:v>-0.27721410037522365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,70 +1519,70 @@
                   <c:v>42145</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>42152</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42199</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>42207</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="6">
+                  <c:v>42230</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>42256</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
+                  <c:v>42261</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42291</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>42305</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="11">
+                  <c:v>42324</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>42347</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
+                  <c:v>42352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42383</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>42395</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="16">
+                  <c:v>42415</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>42445</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="18">
+                  <c:v>42474</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>42487</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="20">
+                  <c:v>42506</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>42529</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>42597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,73 +1594,73 @@
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,11 +1675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159904512"/>
-        <c:axId val="159906048"/>
+        <c:axId val="280832256"/>
+        <c:axId val="280850432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159904512"/>
+        <c:axId val="280832256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,12 +1699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="159906048"/>
+        <c:crossAx val="280850432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159906048"/>
+        <c:axId val="280850432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,7 +1715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159904512"/>
+        <c:crossAx val="280832256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4872,11 +4872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="160031488"/>
-        <c:axId val="160033024"/>
+        <c:axId val="284702976"/>
+        <c:axId val="284717056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="160031488"/>
+        <c:axId val="284702976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4896,14 +4896,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160033024"/>
+        <c:crossAx val="284717056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="160033024"/>
+        <c:axId val="284717056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4914,7 +4914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160031488"/>
+        <c:crossAx val="284702976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5046,7 +5046,7 @@
       <sheetData sheetId="0">
         <row r="6">
           <cell r="D6">
-            <v>3</v>
+            <v>1</v>
           </cell>
         </row>
       </sheetData>
@@ -5054,7 +5054,7 @@
       <sheetData sheetId="2">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EUR6M#0003</v>
+            <v>EUR6M#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -5089,7 +5089,7 @@
       <sheetData sheetId="7">
         <row r="6">
           <cell r="D6" t="str">
-            <v>EURTND_Quote#0003</v>
+            <v>EURTND_Quote#0001</v>
           </cell>
         </row>
       </sheetData>
@@ -5653,7 +5653,7 @@
         <v>65</v>
       </c>
       <c r="I7" s="61">
-        <v>42151.393923611111</v>
+        <v>1</v>
       </c>
       <c r="J7" s="58"/>
     </row>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="I8" s="60">
         <f>[1]!TriggerCounter</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="58"/>
     </row>
@@ -5679,7 +5679,7 @@
       </c>
       <c r="D9" s="54" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,,,,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>obj_00504#0002</v>
+        <v>obj_00529#0006</v>
       </c>
       <c r="E9" s="4"/>
       <c r="G9" s="1"/>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="I9" s="29">
         <f>_xll.ohTrigger(Contribution!M1)</f>
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -5840,17 +5840,17 @@
       <c r="B19" s="1"/>
       <c r="C19" s="20">
         <f>MAX(_xll.ohPack(Calculation!D5:D129))</f>
-        <v>42529</v>
+        <v>42870</v>
       </c>
       <c r="D19" s="73">
         <f>_xll.qlYieldTermStructureDiscount(Trigger,YieldCurve,C19)</f>
-        <v>0.94714265758162886</v>
+        <v>0.95888736848044576</v>
       </c>
       <c r="E19" s="9"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="20" t="e">
+      <c r="H19" s="20">
         <f>MAX(_xll.ohPack(Calculation!D27:D151))</f>
-        <v>#VALUE!</v>
+        <v>42870</v>
       </c>
       <c r="I19" s="73" t="e">
         <f ca="1">_xll.qlYieldTSDiscount($I$14,H19,,Trigger)</f>
@@ -5901,7 +5901,7 @@
         <v>53</v>
       </c>
       <c r="D24" s="74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="9"/>
     </row>
@@ -6021,7 +6021,7 @@
       </c>
       <c r="F2" s="77" t="str">
         <f>_xll.qlFraRateHelper(EvaluationDate,"W"&amp;Currency&amp;B2&amp;C2&amp;D2,,,E2,"2d",OvernightIndex)</f>
-        <v>WEURSND#0002</v>
+        <v>WEURSND#0000</v>
       </c>
       <c r="G2" s="78" t="b">
         <v>0</v>
@@ -6062,7 +6062,7 @@
       </c>
       <c r="F3" s="81" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B3&amp;C3&amp;D3,,,A3,A4,E3,OvernightIndex)</f>
-        <v>WEURECBOISJUN15#0002</v>
+        <v>WEURECBOISJUN15#0000</v>
       </c>
       <c r="G3" s="82" t="b">
         <f>IF(ISERROR(F3),FALSE,TRUE)</f>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="F4" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B4&amp;C4&amp;D4,,,A4,A5,E4,OvernightIndex)</f>
-        <v>WEURECBOISJUL15#0002</v>
+        <v>WEURECBOISJUL15#0000</v>
       </c>
       <c r="G4" s="82" t="b">
         <f t="shared" ref="G4:G12" si="1">IF(ISERROR(F4),FALSE,TRUE)</f>
@@ -6148,7 +6148,7 @@
       </c>
       <c r="F5" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B5&amp;C5&amp;D5,,,A5,A6,E5,OvernightIndex)</f>
-        <v>WEURECBOISSEP15#0002</v>
+        <v>WEURECBOISSEP15#0000</v>
       </c>
       <c r="G5" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6190,7 +6190,7 @@
       </c>
       <c r="F6" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B6&amp;C6&amp;D6,,,A6,A7,E6,OvernightIndex)</f>
-        <v>WEURECBOISOCT15#0002</v>
+        <v>WEURECBOISOCT15#0000</v>
       </c>
       <c r="G6" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="F7" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B7&amp;C7&amp;D7,,,A7,A8,E7,OvernightIndex)</f>
-        <v>WEURECBOISDEC15#0002</v>
+        <v>WEURECBOISDEC15#0000</v>
       </c>
       <c r="G7" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6274,7 +6274,7 @@
       </c>
       <c r="F8" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B8&amp;C8&amp;D8,,,A8,A9,E8,OvernightIndex)</f>
-        <v>WEURECBOISJAN16#0002</v>
+        <v>WEURECBOISJAN16#0000</v>
       </c>
       <c r="G8" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6316,7 +6316,7 @@
       </c>
       <c r="F9" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B9&amp;C9&amp;D9,,,A9,A10,E9,OvernightIndex)</f>
-        <v>WEURECBOISMAR16#0002</v>
+        <v>WEURECBOISMAR16#0000</v>
       </c>
       <c r="G9" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="F10" s="85" t="str">
         <f>_xll.qlDatedOISRateHelper(Trigger,"W"&amp;Currency&amp;B10&amp;C10&amp;D10,,,A10,A11,E10,OvernightIndex)</f>
-        <v>WEURECBOISAPR16#0002</v>
+        <v>WEURECBOISAPR16#0000</v>
       </c>
       <c r="G10" s="82" t="b">
         <f t="shared" si="1"/>
@@ -6664,8 +6664,8 @@
         <v>EUREONSW_Quote</v>
       </c>
       <c r="F18" s="81" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B18&amp;C18&amp;D18,,,2,"1w",E18,OvernightIndex)</f>
-        <v>WEUREONSW#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B18&amp;C18&amp;D18,,,2,"1w",E18,OvernightIndex)</f>
+        <v>WEUREONSW#0001</v>
       </c>
       <c r="G18" s="83" t="b">
         <v>1</v>
@@ -6699,8 +6699,8 @@
         <v>EUREON2W_Quote</v>
       </c>
       <c r="F19" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B19&amp;C19&amp;D19,,,2,"1w",E19,OvernightIndex)</f>
-        <v>WEUREON2W#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B19&amp;C19&amp;D19,,,2,D19,E19,OvernightIndex)</f>
+        <v>WEUREON2W#0001</v>
       </c>
       <c r="G19" s="82" t="b">
         <v>1</v>
@@ -6717,7 +6717,7 @@
       </c>
       <c r="K19" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F19)</f>
-        <v>42145</v>
+        <v>42152</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -6734,8 +6734,8 @@
         <v>EUREON3W_Quote</v>
       </c>
       <c r="F20" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B20&amp;C20&amp;D20,,,2,"1w",E20,OvernightIndex)</f>
-        <v>WEUREON3W#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B20&amp;C20&amp;D20,,,2,D20,E20,OvernightIndex)</f>
+        <v>WEUREON3W#0001</v>
       </c>
       <c r="G20" s="82" t="b">
         <v>1</v>
@@ -6752,7 +6752,7 @@
       </c>
       <c r="K20" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F20)</f>
-        <v>42145</v>
+        <v>42159</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -6769,8 +6769,8 @@
         <v>EUREON1M_Quote</v>
       </c>
       <c r="F21" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B21&amp;C21&amp;D21,,,2,"1w",E21,OvernightIndex)</f>
-        <v>WEUREON1M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B21&amp;C21&amp;D21,,,2,D21,E21,OvernightIndex)</f>
+        <v>WEUREON1M#0001</v>
       </c>
       <c r="G21" s="82" t="b">
         <v>1</v>
@@ -6787,7 +6787,7 @@
       </c>
       <c r="K21" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F21)</f>
-        <v>42145</v>
+        <v>42170</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -6804,8 +6804,8 @@
         <v>EUREON2M_Quote</v>
       </c>
       <c r="F22" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B22&amp;C22&amp;D22,,,2,"1w",E22,OvernightIndex)</f>
-        <v>WEUREON2M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B22&amp;C22&amp;D22,,,2,D22,E22,OvernightIndex)</f>
+        <v>WEUREON2M#0001</v>
       </c>
       <c r="G22" s="82" t="b">
         <v>1</v>
@@ -6822,7 +6822,7 @@
       </c>
       <c r="K22" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F22)</f>
-        <v>42145</v>
+        <v>42199</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -6839,8 +6839,8 @@
         <v>EUREON3M_Quote</v>
       </c>
       <c r="F23" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B23&amp;C23&amp;D23,,,2,"1w",E23,OvernightIndex)</f>
-        <v>WEUREON3M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B23&amp;C23&amp;D23,,,2,D23,E23,OvernightIndex)</f>
+        <v>WEUREON3M#0001</v>
       </c>
       <c r="G23" s="82" t="b">
         <v>1</v>
@@ -6857,7 +6857,7 @@
       </c>
       <c r="K23" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F23)</f>
-        <v>42145</v>
+        <v>42230</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
@@ -6874,8 +6874,8 @@
         <v>EUREON4M_Quote</v>
       </c>
       <c r="F24" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B24&amp;C24&amp;D24,,,2,"1w",E24,OvernightIndex)</f>
-        <v>WEUREON4M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B24&amp;C24&amp;D24,,,2,D24,E24,OvernightIndex)</f>
+        <v>WEUREON4M#0001</v>
       </c>
       <c r="G24" s="82" t="b">
         <v>1</v>
@@ -6892,7 +6892,7 @@
       </c>
       <c r="K24" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F24)</f>
-        <v>42145</v>
+        <v>42261</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
@@ -6909,8 +6909,8 @@
         <v>EUREON5M_Quote</v>
       </c>
       <c r="F25" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B25&amp;C25&amp;D25,,,2,"1w",E25,OvernightIndex)</f>
-        <v>WEUREON5M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B25&amp;C25&amp;D25,,,2,D25,E25,OvernightIndex)</f>
+        <v>WEUREON5M#0001</v>
       </c>
       <c r="G25" s="82" t="b">
         <v>1</v>
@@ -6927,7 +6927,7 @@
       </c>
       <c r="K25" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F25)</f>
-        <v>42145</v>
+        <v>42291</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
@@ -6944,8 +6944,8 @@
         <v>EUREON6M_Quote</v>
       </c>
       <c r="F26" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B26&amp;C26&amp;D26,,,2,"1w",E26,OvernightIndex)</f>
-        <v>WEUREON6M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B26&amp;C26&amp;D26,,,2,D26,E26,OvernightIndex)</f>
+        <v>WEUREON6M#0001</v>
       </c>
       <c r="G26" s="82" t="b">
         <v>1</v>
@@ -6962,7 +6962,7 @@
       </c>
       <c r="K26" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F26)</f>
-        <v>42145</v>
+        <v>42324</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -6979,8 +6979,8 @@
         <v>EUREON7M_Quote</v>
       </c>
       <c r="F27" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B27&amp;C27&amp;D27,,,2,"1w",E27,OvernightIndex)</f>
-        <v>WEUREON7M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B27&amp;C27&amp;D27,,,2,D27,E27,OvernightIndex)</f>
+        <v>WEUREON7M#0001</v>
       </c>
       <c r="G27" s="82" t="b">
         <v>1</v>
@@ -6997,7 +6997,7 @@
       </c>
       <c r="K27" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F27)</f>
-        <v>42145</v>
+        <v>42352</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
@@ -7014,8 +7014,8 @@
         <v>EUREON8M_Quote</v>
       </c>
       <c r="F28" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B28&amp;C28&amp;D28,,,2,"1w",E28,OvernightIndex)</f>
-        <v>WEUREON8M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B28&amp;C28&amp;D28,,,2,D28,E28,OvernightIndex)</f>
+        <v>WEUREON8M#0001</v>
       </c>
       <c r="G28" s="82" t="b">
         <v>1</v>
@@ -7032,7 +7032,7 @@
       </c>
       <c r="K28" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F28)</f>
-        <v>42145</v>
+        <v>42383</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
@@ -7049,8 +7049,8 @@
         <v>EUREON9M_Quote</v>
       </c>
       <c r="F29" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B29&amp;C29&amp;D29,,,2,"1w",E29,OvernightIndex)</f>
-        <v>WEUREON9M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B29&amp;C29&amp;D29,,,2,D29,E29,OvernightIndex)</f>
+        <v>WEUREON9M#0001</v>
       </c>
       <c r="G29" s="82" t="b">
         <v>1</v>
@@ -7067,7 +7067,7 @@
       </c>
       <c r="K29" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F29)</f>
-        <v>42145</v>
+        <v>42415</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
@@ -7084,8 +7084,8 @@
         <v>EUREON10M_Quote</v>
       </c>
       <c r="F30" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B30&amp;C30&amp;D30,,,2,"1w",E30,OvernightIndex)</f>
-        <v>WEUREON10M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B30&amp;C30&amp;D30,,,2,D30,E30,OvernightIndex)</f>
+        <v>WEUREON10M#0001</v>
       </c>
       <c r="G30" s="82" t="b">
         <v>1</v>
@@ -7102,7 +7102,7 @@
       </c>
       <c r="K30" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F30)</f>
-        <v>42145</v>
+        <v>42443</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
@@ -7119,8 +7119,8 @@
         <v>EUREON11M_Quote</v>
       </c>
       <c r="F31" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B31&amp;C31&amp;D31,,,2,"1w",E31,OvernightIndex)</f>
-        <v>WEUREON11M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B31&amp;C31&amp;D31,,,2,D31,E31,OvernightIndex)</f>
+        <v>WEUREON11M#0001</v>
       </c>
       <c r="G31" s="82" t="b">
         <v>1</v>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="K31" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F31)</f>
-        <v>42145</v>
+        <v>42474</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -7154,8 +7154,8 @@
         <v>EUREON1Y_Quote</v>
       </c>
       <c r="F32" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B32&amp;C32&amp;D32,,,2,"1w",E32,OvernightIndex)</f>
-        <v>WEUREON1Y#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B32&amp;C32&amp;D32,,,2,D32,E32,OvernightIndex)</f>
+        <v>WEUREON1Y#0001</v>
       </c>
       <c r="G32" s="82" t="b">
         <v>1</v>
@@ -7172,7 +7172,7 @@
       </c>
       <c r="K32" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F32)</f>
-        <v>42145</v>
+        <v>42506</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.2">
@@ -7189,8 +7189,8 @@
         <v>EUREON15M_Quote</v>
       </c>
       <c r="F33" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B33&amp;C33&amp;D33,,,2,"1w",E33,OvernightIndex)</f>
-        <v>WEUREON15M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B33&amp;C33&amp;D33,,,2,D33,E33,OvernightIndex)</f>
+        <v>WEUREON15M#0001</v>
       </c>
       <c r="G33" s="82" t="b">
         <v>1</v>
@@ -7207,7 +7207,7 @@
       </c>
       <c r="K33" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F33)</f>
-        <v>42145</v>
+        <v>42597</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.2">
@@ -7224,8 +7224,8 @@
         <v>EUREON18M_Quote</v>
       </c>
       <c r="F34" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B34&amp;C34&amp;D34,,,2,"1w",E34,OvernightIndex)</f>
-        <v>WEUREON18M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B34&amp;C34&amp;D34,,,2,D34,E34,OvernightIndex)</f>
+        <v>WEUREON18M#0001</v>
       </c>
       <c r="G34" s="82" t="b">
         <v>1</v>
@@ -7242,7 +7242,7 @@
       </c>
       <c r="K34" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F34)</f>
-        <v>42145</v>
+        <v>42688</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -7259,8 +7259,8 @@
         <v>EUREON21M_Quote</v>
       </c>
       <c r="F35" s="85" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B35&amp;C35&amp;D35,,,2,"1w",E35,OvernightIndex)</f>
-        <v>WEUREON21M#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B35&amp;C35&amp;D35,,,2,D35,E35,OvernightIndex)</f>
+        <v>WEUREON21M#0001</v>
       </c>
       <c r="G35" s="82" t="b">
         <v>1</v>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="K35" s="86">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F35)</f>
-        <v>42145</v>
+        <v>42780</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -7294,8 +7294,8 @@
         <v>EUREON2Y_Quote</v>
       </c>
       <c r="F36" s="90" t="str">
-        <f>_xll.qlOISRateHelper(EvaluationDate,"W"&amp;Currency&amp;B36&amp;C36&amp;D36,,,2,"1w",E36,OvernightIndex)</f>
-        <v>WEUREON2Y#0002</v>
+        <f>_xll.qlOISRateHelper(,"W"&amp;Currency&amp;B36&amp;C36&amp;D36,,,2,D36,E36,OvernightIndex)</f>
+        <v>WEUREON2Y#0001</v>
       </c>
       <c r="G36" s="91" t="b">
         <v>1</v>
@@ -7312,7 +7312,7 @@
       </c>
       <c r="K36" s="92">
         <f>_xll.qlRateHelperLatestDate(Trigger,$F36)</f>
-        <v>42145</v>
+        <v>42870</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.2">
@@ -7328,35 +7328,35 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K38" s="93">
         <f>_xll.ohTrigger(RateHelpers)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7378,7 +7378,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L1" sqref="L1"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7391,7 +7391,7 @@
     <col min="7" max="7" width="7" style="93" customWidth="1" outlineLevel="1"/>
     <col min="8" max="8" width="2.7109375" style="93" customWidth="1"/>
     <col min="9" max="9" width="17.28515625" style="93" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="93" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="93" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" style="93" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.7109375" style="93" customWidth="1"/>
     <col min="13" max="13" width="17.28515625" style="93" bestFit="1" customWidth="1"/>
@@ -7467,84 +7467,84 @@
       </c>
       <c r="S1" s="38">
         <f>MAX(S5:S129)</f>
-        <v>1</v>
+        <v>0.97929385719536355</v>
       </c>
       <c r="V1" s="117" t="s">
         <v>90</v>
       </c>
       <c r="W1" s="38">
         <f>MAX(W5:W129)</f>
-        <v>0.9999999999999849</v>
+        <v>1</v>
       </c>
       <c r="Z1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="38" t="e">
+      <c r="AA1" s="38">
         <f>MAX(AA5:AA129)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AD1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="38" t="e">
+      <c r="AE1" s="38">
         <f>MAX(AE5:AE129)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AH1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AI1" s="38" t="e">
+      <c r="AI1" s="38">
         <f>MAX(AI5:AI129)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AL1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AM1" s="38" t="e">
+      <c r="AM1" s="38">
         <f>MAX(AM5:AM129)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AP1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AQ1" s="38" t="e">
+      <c r="AQ1" s="38">
         <f>MAX(AQ5:AQ129)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AT1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AU1" s="38" t="e">
+      <c r="AU1" s="38">
         <f>MAX(AU5:AU129)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AX1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AY1" s="38" t="e">
+      <c r="AY1" s="38">
         <f>MAX(AY5:AY129)</f>
-        <v>#VALUE!</v>
+        <v>0.98563001002356998</v>
       </c>
       <c r="BB1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="BC1" s="38" t="e">
+      <c r="BC1" s="38">
         <f>MAX(BC5:BC129)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="BF1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="BG1" s="38" t="e">
+      <c r="BG1" s="38">
         <f>MAX(BG5:BG129)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="BJ1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="BK1" s="38" t="e">
+      <c r="BK1" s="38">
         <f>MAX(BK5:BK129)</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
@@ -7735,7 +7735,7 @@
       <c r="L3" s="125"/>
       <c r="M3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,M5:M129),_xll.ohFilter(J5:J129,M5:M129))</f>
-        <v>obj_0052a#0002</v>
+        <v>obj_0052a#0006</v>
       </c>
       <c r="N3" s="118" t="s">
         <v>67</v>
@@ -7746,7 +7746,7 @@
       <c r="P3" s="126"/>
       <c r="Q3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,Q5:Q129),_xll.ohFilter(N5:N129,Q5:Q129))</f>
-        <v>obj_0052b#0000</v>
+        <v>obj_0052b#0006</v>
       </c>
       <c r="R3" s="118" t="s">
         <v>67</v>
@@ -7757,7 +7757,7 @@
       <c r="T3" s="127"/>
       <c r="U3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,U5:U129),_xll.ohFilter(R5:R129,U5:U129))</f>
-        <v>obj_0052c#0001</v>
+        <v>obj_0052c#0006</v>
       </c>
       <c r="V3" s="118" t="s">
         <v>67</v>
@@ -7768,7 +7768,7 @@
       <c r="X3" s="127"/>
       <c r="Y3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,Y5:Y129),_xll.ohFilter(V5:V129,Y5:Y129))</f>
-        <v>obj_0052d#0000</v>
+        <v>obj_0052d#0006</v>
       </c>
       <c r="Z3" s="118" t="s">
         <v>67</v>
@@ -7777,9 +7777,9 @@
         <v>69</v>
       </c>
       <c r="AB3" s="127"/>
-      <c r="AC3" s="107" t="e">
+      <c r="AC3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AC5:AC129),_xll.ohFilter(Z5:Z129,AC5:AC129))</f>
-        <v>#NUM!</v>
+        <v>obj_0052e#0000</v>
       </c>
       <c r="AD3" s="118" t="s">
         <v>67</v>
@@ -7788,9 +7788,9 @@
         <v>69</v>
       </c>
       <c r="AF3" s="127"/>
-      <c r="AG3" s="107" t="e">
+      <c r="AG3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AG5:AG129),_xll.ohFilter(AD5:AD129,AG5:AG129))</f>
-        <v>#NUM!</v>
+        <v>obj_0052f#0000</v>
       </c>
       <c r="AH3" s="118" t="s">
         <v>67</v>
@@ -7799,9 +7799,9 @@
         <v>69</v>
       </c>
       <c r="AJ3" s="127"/>
-      <c r="AK3" s="107" t="e">
+      <c r="AK3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AK5:AK129),_xll.ohFilter(AH5:AH129,AK5:AK129))</f>
-        <v>#NUM!</v>
+        <v>obj_00530#0000</v>
       </c>
       <c r="AL3" s="118" t="s">
         <v>67</v>
@@ -7809,9 +7809,9 @@
       <c r="AM3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="AO3" s="107" t="e">
+      <c r="AO3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AO5:AO129),_xll.ohFilter(AL5:AL129,AO5:AO129))</f>
-        <v>#NUM!</v>
+        <v>obj_00531#0000</v>
       </c>
       <c r="AP3" s="118" t="s">
         <v>67</v>
@@ -7819,9 +7819,9 @@
       <c r="AQ3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="AS3" s="107" t="e">
+      <c r="AS3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AS5:AS129),_xll.ohFilter(AP5:AP129,AS5:AS129))</f>
-        <v>#NUM!</v>
+        <v>obj_00532#0000</v>
       </c>
       <c r="AT3" s="118" t="s">
         <v>67</v>
@@ -7829,9 +7829,9 @@
       <c r="AU3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="AW3" s="107" t="e">
+      <c r="AW3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AW5:AW129),_xll.ohFilter(AT5:AT129,AW5:AW129))</f>
-        <v>#NUM!</v>
+        <v>obj_00533#0000</v>
       </c>
       <c r="AX3" s="118" t="s">
         <v>67</v>
@@ -7839,9 +7839,9 @@
       <c r="AY3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="BA3" s="107" t="e">
+      <c r="BA3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,BA5:BA129),_xll.ohFilter(AX5:AX129,BA5:BA129))</f>
-        <v>#NUM!</v>
+        <v>obj_00534#0000</v>
       </c>
       <c r="BB3" s="118" t="s">
         <v>67</v>
@@ -7849,9 +7849,9 @@
       <c r="BC3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="BE3" s="107" t="e">
+      <c r="BE3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,BE5:BE129),_xll.ohFilter(BB5:BB129,BE5:BE129))</f>
-        <v>#NUM!</v>
+        <v>obj_00535#0000</v>
       </c>
       <c r="BF3" s="118" t="s">
         <v>67</v>
@@ -7859,9 +7859,9 @@
       <c r="BG3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="BI3" s="107" t="e">
+      <c r="BI3" s="107" t="str">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,BI5:BI129),_xll.ohFilter(BF5:BF129,BI5:BI129))</f>
-        <v>#NUM!</v>
+        <v>obj_00536#0000</v>
       </c>
       <c r="BJ3" s="118" t="s">
         <v>67</v>
@@ -7907,7 +7907,7 @@
       <c r="R4" s="119"/>
       <c r="S4" s="120">
         <f>-LN(MAX(S5:S33))/S$2</f>
-        <v>0</v>
+        <v>7.5324675324675461</v>
       </c>
       <c r="T4" s="127"/>
       <c r="U4" s="121" t="b">
@@ -7916,75 +7916,75 @@
       <c r="V4" s="119"/>
       <c r="W4" s="120">
         <f>-LN(MAX(W5:W33))/W$2</f>
-        <v>1.8118839761882692E-12</v>
+        <v>0</v>
       </c>
       <c r="X4" s="127"/>
       <c r="Y4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="Z4" s="119"/>
-      <c r="AA4" s="120" t="e">
+      <c r="AA4" s="120">
         <f>-LN(MAX(AA5:AA33))/AA$2</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="127"/>
       <c r="AC4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AD4" s="119"/>
-      <c r="AE4" s="120" t="e">
+      <c r="AE4" s="120">
         <f>-LN(MAX(AE5:AE33))/AE$2</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="127"/>
       <c r="AG4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AH4" s="119"/>
-      <c r="AI4" s="120" t="e">
+      <c r="AI4" s="120">
         <f>-LN(MAX(AI5:AI33))/AI$2</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="127"/>
       <c r="AK4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AL4" s="119"/>
-      <c r="AM4" s="120" t="e">
+      <c r="AM4" s="120">
         <f>-LN(MAX(AM5:AM33))/AM$2</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AP4" s="119"/>
-      <c r="AQ4" s="120" t="e">
+      <c r="AQ4" s="120">
         <f>-LN(MAX(AQ5:AQ33))/AQ$2</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AT4" s="119"/>
-      <c r="AU4" s="120" t="e">
+      <c r="AU4" s="120">
         <f>-LN(MAX(AU5:AU33))/AU$2</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AX4" s="119"/>
-      <c r="AY4" s="120" t="e">
+      <c r="AY4" s="120">
         <f>-LN(MAX(AY5:AY33))/AY$2</f>
-        <v>#VALUE!</v>
+        <v>5.2107257464994792</v>
       </c>
       <c r="BA4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="BB4" s="119"/>
-      <c r="BC4" s="120" t="e">
+      <c r="BC4" s="120">
         <f>-LN(MAX(BC5:BC33))/BC$2</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="BE4" s="121" t="b">
         <v>1</v>
@@ -7992,7 +7992,7 @@
       <c r="BF4" s="119"/>
       <c r="BG4" s="120" t="e">
         <f>-LN(MAX(BG5:BG33))/BG$2</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="BI4" s="121" t="b">
         <v>1</v>
@@ -8000,17 +8000,17 @@
       <c r="BJ4" s="119"/>
       <c r="BK4" s="120" t="e">
         <f ca="1">-LN(MAX(BK5:BK33))/BK$2</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="str">
         <f t="array" ref="A5:A129">_xll.qlRateHelperSelection(Trigger,_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),$B$1,0,2,"AllDepos",_xll.ohFilter(MinDistance,RateHelpersIncluded))</f>
-        <v>WEUREON10M</v>
+        <v>WEUREONSW</v>
       </c>
       <c r="B5" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A5)</f>
-        <v>-1.17E-3</v>
+        <v>-1.0400000000000001E-3</v>
       </c>
       <c r="C5" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A5)</f>
@@ -8097,9 +8097,9 @@
         <f>IF(AND(NOT(Y5),AND(Y$4:Y4)),TRUE,Y5)</f>
         <v>1</v>
       </c>
-      <c r="AD5" s="38" t="e">
+      <c r="AD5" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC5),AND(AC$4:AC4))),($J5*$G5-LN(1+Jumpoverwrite5*AE$2))/$G5,_xll.qlInterpolationInterpolate(,AC$3,$F5,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE5" s="38" t="str">
         <f>IF(AND(NOT(AC5),AND(AC$4:AC4)),MIN(EXP((AD5-$J5)*$G5),1),"")</f>
@@ -8110,9 +8110,9 @@
         <f>IF(AND(NOT(AC5),AND(AC$4:AC4)),TRUE,AC5)</f>
         <v>1</v>
       </c>
-      <c r="AH5" s="38" t="e">
+      <c r="AH5" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG5),AND(AG$4:AG4))),($J5*$G5-LN(1+Jumpoverwrite6*AI$2))/$G5,_xll.qlInterpolationInterpolate(,AG$3,$F5,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI5" s="38" t="str">
         <f>IF(AND(NOT(AG5),AND(AG$4:AG4)),MIN(EXP((AH5-$J5)*$G5),1),"")</f>
@@ -8123,9 +8123,9 @@
         <f>IF(AND(NOT(AG5),AND(AG$4:AG4)),TRUE,AG5)</f>
         <v>1</v>
       </c>
-      <c r="AL5" s="38" t="e">
+      <c r="AL5" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK5),AND(AK$4:AK4))),($J5*$G5-LN(1+Jumpoverwrite7*AM$2))/$G5,_xll.qlInterpolationInterpolate(,AK$3,$F5,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM5" s="38" t="str">
         <f>IF(AND(NOT(AK5),AND(AK$4:AK4)),MIN(EXP((AL5-$J5)*$G5),1),"")</f>
@@ -8135,9 +8135,9 @@
         <f>IF(AND(NOT(AK5),AND(AK$4:AK4)),TRUE,AK5)</f>
         <v>1</v>
       </c>
-      <c r="AP5" s="38" t="e">
+      <c r="AP5" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO5),AND(AO$4:AO4))),($J5*$G5-LN(1+Jumpoverwrite8*AQ$2))/$G5,_xll.qlInterpolationInterpolate(,AO$3,$F5,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ5" s="38" t="str">
         <f>IF(AND(NOT(AO5),AND(AO$4:AO4)),MIN(EXP((AP5-$J5)*$G5),1),"")</f>
@@ -8147,9 +8147,9 @@
         <f>IF(AND(NOT(AO5),AND(AO$4:AO4)),TRUE,AO5)</f>
         <v>1</v>
       </c>
-      <c r="AT5" s="38" t="e">
+      <c r="AT5" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS5),AND(AS$4:AS4))),($J5*$G5-LN(1+Jumpoverwrite9*AU$2))/$G5,_xll.qlInterpolationInterpolate(,AS$3,$F5,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU5" s="38" t="str">
         <f>IF(AND(NOT(AS5),AND(AS$4:AS4)),MIN(EXP((AT5-$J5)*$G5),1),"")</f>
@@ -8159,9 +8159,9 @@
         <f>IF(AND(NOT(AS5),AND(AS$4:AS4)),TRUE,AS5)</f>
         <v>1</v>
       </c>
-      <c r="AX5" s="38" t="e">
+      <c r="AX5" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW5),AND(AW$4:AW4))),($J5*$G5-LN(1+Jumpoverwrite10*AY$2))/$G5,_xll.qlInterpolationInterpolate(,AW$3,$F5,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY5" s="38" t="str">
         <f>IF(AND(NOT(AW5),AND(AW$4:AW4)),MIN(EXP((AX5-$J5)*$G5),1),"")</f>
@@ -8171,9 +8171,9 @@
         <f>IF(AND(NOT(AW5),AND(AW$4:AW4)),TRUE,AW5)</f>
         <v>1</v>
       </c>
-      <c r="BB5" s="38" t="e">
+      <c r="BB5" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA5),AND(BA$4:BA4))),($J5*$G5-LN(1+Jumpoverwrite11*BC$2))/$G5,_xll.qlInterpolationInterpolate(,BA$3,$F5,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC5" s="38" t="str">
         <f>IF(AND(NOT(BA5),AND(BA$4:BA4)),MIN(EXP((BB5-$J5)*$G5),1),"")</f>
@@ -8183,9 +8183,9 @@
         <f>IF(AND(NOT(BA5),AND(BA$4:BA4)),TRUE,BA5)</f>
         <v>1</v>
       </c>
-      <c r="BF5" s="38" t="e">
+      <c r="BF5" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE5),AND(BE$4:BE4))),($J5*$G5-LN(1+Jumpoverwrite12*BG$2))/$G5,_xll.qlInterpolationInterpolate(,BE$3,$F5,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG5" s="38" t="str">
         <f>IF(AND(NOT(BE5),AND(BE$4:BE4)),MIN(EXP((BF5-$J5)*$G5),1),"")</f>
@@ -8195,9 +8195,9 @@
         <f t="shared" ref="BI5:BI36" si="1">IF(ISERROR(K5),FALSE,IF(YEAR(K5)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="BJ5" s="38" t="e">
+      <c r="BJ5" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI5),AND(BI$4:BI4))),($J5*$G5-LN(1+jumpoverwrite13*BK$2))/$G5,_xll.qlInterpolationInterpolate(,BI$3,$F5,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK5" s="38" t="str">
         <f>IF(AND(NOT(BI5),AND(BI$4:BI4)),MIN(EXP((BJ5-$J5)*$G5),1),"")</f>
@@ -8206,27 +8206,27 @@
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A6" s="37" t="str">
-        <v>WEURECBOISJUN15</v>
+        <v>WEUREON2W</v>
       </c>
       <c r="B6" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A6)</f>
-        <v>-1.15E-3</v>
+        <v>-9.2000000000000003E-4</v>
       </c>
       <c r="C6" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A6)</f>
-        <v>42165</v>
+        <v>42138</v>
       </c>
       <c r="D6" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A6)</f>
-        <v>42207</v>
+        <v>42152</v>
       </c>
       <c r="F6" s="103">
         <f t="shared" si="0"/>
-        <v>42176</v>
+        <v>42148.5</v>
       </c>
       <c r="G6" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D5,D6)</f>
-        <v>0.17222222222222222</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="H6" s="124"/>
       <c r="I6" s="112" t="b">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="K6" s="113">
         <f t="shared" ref="K6:K69" si="3">D6</f>
-        <v>42207</v>
+        <v>42152</v>
       </c>
       <c r="L6" s="94"/>
       <c r="M6" s="85" t="b">
@@ -8296,9 +8296,9 @@
         <f>IF(AND(NOT(Y6),AND(Y$4:Y5)),TRUE,Y6)</f>
         <v>1</v>
       </c>
-      <c r="AD6" s="38" t="e">
+      <c r="AD6" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC6),AND(AC$4:AC5))),($J6*$G6-LN(1+Jumpoverwrite5*AE$2))/$G6,_xll.qlInterpolationInterpolate(,AC$3,$F6,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE6" s="38" t="str">
         <f>IF(AND(NOT(AC6),AND(AC$4:AC5)),MIN(EXP((AD6-$J6)*$G6),1),"")</f>
@@ -8309,9 +8309,9 @@
         <f>IF(AND(NOT(AC6),AND(AC$4:AC5)),TRUE,AC6)</f>
         <v>1</v>
       </c>
-      <c r="AH6" s="38" t="e">
+      <c r="AH6" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG6),AND(AG$4:AG5))),($J6*$G6-LN(1+Jumpoverwrite6*AI$2))/$G6,_xll.qlInterpolationInterpolate(,AG$3,$F6,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI6" s="38" t="str">
         <f>IF(AND(NOT(AG6),AND(AG$4:AG5)),MIN(EXP((AH6-$J6)*$G6),1),"")</f>
@@ -8322,9 +8322,9 @@
         <f>IF(AND(NOT(AG6),AND(AG$4:AG5)),TRUE,AG6)</f>
         <v>1</v>
       </c>
-      <c r="AL6" s="38" t="e">
+      <c r="AL6" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK6),AND(AK$4:AK5))),($J6*$G6-LN(1+Jumpoverwrite7*AM$2))/$G6,_xll.qlInterpolationInterpolate(,AK$3,$F6,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM6" s="38" t="str">
         <f>IF(AND(NOT(AK6),AND(AK$4:AK5)),MIN(EXP((AL6-$J6)*$G6),1),"")</f>
@@ -8334,9 +8334,9 @@
         <f>IF(AND(NOT(AK6),AND(AK$4:AK5)),TRUE,AK6)</f>
         <v>1</v>
       </c>
-      <c r="AP6" s="38" t="e">
+      <c r="AP6" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO6),AND(AO$4:AO5))),($J6*$G6-LN(1+Jumpoverwrite8*AQ$2))/$G6,_xll.qlInterpolationInterpolate(,AO$3,$F6,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ6" s="38" t="str">
         <f>IF(AND(NOT(AO6),AND(AO$4:AO5)),MIN(EXP((AP6-$J6)*$G6),1),"")</f>
@@ -8346,9 +8346,9 @@
         <f>IF(AND(NOT(AO6),AND(AO$4:AO5)),TRUE,AO6)</f>
         <v>1</v>
       </c>
-      <c r="AT6" s="38" t="e">
+      <c r="AT6" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS6),AND(AS$4:AS5))),($J6*$G6-LN(1+Jumpoverwrite9*AU$2))/$G6,_xll.qlInterpolationInterpolate(,AS$3,$F6,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU6" s="38" t="str">
         <f>IF(AND(NOT(AS6),AND(AS$4:AS5)),MIN(EXP((AT6-$J6)*$G6),1),"")</f>
@@ -8358,9 +8358,9 @@
         <f>IF(AND(NOT(AS6),AND(AS$4:AS5)),TRUE,AS6)</f>
         <v>1</v>
       </c>
-      <c r="AX6" s="38" t="e">
+      <c r="AX6" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW6),AND(AW$4:AW5))),($J6*$G6-LN(1+Jumpoverwrite10*AY$2))/$G6,_xll.qlInterpolationInterpolate(,AW$3,$F6,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY6" s="38" t="str">
         <f>IF(AND(NOT(AW6),AND(AW$4:AW5)),MIN(EXP((AX6-$J6)*$G6),1),"")</f>
@@ -8370,9 +8370,9 @@
         <f>IF(AND(NOT(AW6),AND(AW$4:AW5)),TRUE,AW6)</f>
         <v>1</v>
       </c>
-      <c r="BB6" s="38" t="e">
+      <c r="BB6" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA6),AND(BA$4:BA5))),($J6*$G6-LN(1+Jumpoverwrite11*BC$2))/$G6,_xll.qlInterpolationInterpolate(,BA$3,$F6,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC6" s="38" t="str">
         <f>IF(AND(NOT(BA6),AND(BA$4:BA5)),MIN(EXP((BB6-$J6)*$G6),1),"")</f>
@@ -8382,9 +8382,9 @@
         <f>IF(AND(NOT(BA6),AND(BA$4:BA5)),TRUE,BA6)</f>
         <v>1</v>
       </c>
-      <c r="BF6" s="38" t="e">
+      <c r="BF6" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE6),AND(BE$4:BE5))),($J6*$G6-LN(1+Jumpoverwrite12*BG$2))/$G6,_xll.qlInterpolationInterpolate(,BE$3,$F6,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG6" s="38" t="str">
         <f>IF(AND(NOT(BE6),AND(BE$4:BE5)),MIN(EXP((BF6-$J6)*$G6),1),"")</f>
@@ -8394,9 +8394,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ6" s="38" t="e">
+      <c r="BJ6" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI6),AND(BI$4:BI5))),($J6*$G6-LN(1+jumpoverwrite13*BK$2))/$G6,_xll.qlInterpolationInterpolate(,BI$3,$F6,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK6" s="38" t="str">
         <f>IF(AND(NOT(BI6),AND(BI$4:BI5)),MIN(EXP((BJ6-$J6)*$G6),1),"")</f>
@@ -8405,51 +8405,51 @@
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="str">
-        <v>WEURECBOISJUL15</v>
+        <v>WEUREON3W</v>
       </c>
       <c r="B7" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A7)</f>
-        <v>-1.2199999999999999E-3</v>
+        <v>-9.7000000000000005E-4</v>
       </c>
       <c r="C7" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A7)</f>
-        <v>42207</v>
+        <v>42138</v>
       </c>
       <c r="D7" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A7)</f>
-        <v>42256</v>
+        <v>42159</v>
       </c>
       <c r="F7" s="103">
         <f t="shared" si="0"/>
-        <v>42231.5</v>
+        <v>42155.5</v>
       </c>
       <c r="G7" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D6,D7)</f>
-        <v>0.1361111111111111</v>
+        <v>1.9444444444444445E-2</v>
       </c>
       <c r="I7" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="41">
         <v>5.0000000000129566E-2</v>
       </c>
       <c r="K7" s="113">
         <f t="shared" si="3"/>
-        <v>42256</v>
+        <v>42159</v>
       </c>
       <c r="L7" s="94"/>
       <c r="M7" s="85" t="b">
         <f>IF(AND(NOT(I7),AND(I$4:I6)),TRUE,I7)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M7),AND(M$4:M6))),($J7*$G7-LN(1+Jumpoverwrite1*O$2))/$G7,_xll.qlInterpolationInterpolate(,M$3,$F7,TRUE))</f>
         <v>5.0000000000129566E-2</v>
       </c>
-      <c r="O7" s="38" t="str">
+      <c r="O7" s="38">
         <f>IF(AND(NOT(M7),AND(M$4:M6)),MIN(EXP((N7-$J7)*$G7),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P7" s="128"/>
       <c r="Q7" s="85" t="b">
@@ -8494,9 +8494,9 @@
         <f>IF(AND(NOT(Y7),AND(Y$4:Y6)),TRUE,Y7)</f>
         <v>1</v>
       </c>
-      <c r="AD7" s="38" t="e">
+      <c r="AD7" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC7),AND(AC$4:AC6))),($J7*$G7-LN(1+Jumpoverwrite5*AE$2))/$G7,_xll.qlInterpolationInterpolate(,AC$3,$F7,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE7" s="38" t="str">
         <f>IF(AND(NOT(AC7),AND(AC$4:AC6)),MIN(EXP((AD7-$J7)*$G7),1),"")</f>
@@ -8507,9 +8507,9 @@
         <f>IF(AND(NOT(AC7),AND(AC$4:AC6)),TRUE,AC7)</f>
         <v>1</v>
       </c>
-      <c r="AH7" s="38" t="e">
+      <c r="AH7" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG7),AND(AG$4:AG6))),($J7*$G7-LN(1+Jumpoverwrite6*AI$2))/$G7,_xll.qlInterpolationInterpolate(,AG$3,$F7,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI7" s="38" t="str">
         <f>IF(AND(NOT(AG7),AND(AG$4:AG6)),MIN(EXP((AH7-$J7)*$G7),1),"")</f>
@@ -8520,9 +8520,9 @@
         <f>IF(AND(NOT(AG7),AND(AG$4:AG6)),TRUE,AG7)</f>
         <v>1</v>
       </c>
-      <c r="AL7" s="38" t="e">
+      <c r="AL7" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK7),AND(AK$4:AK6))),($J7*$G7-LN(1+Jumpoverwrite7*AM$2))/$G7,_xll.qlInterpolationInterpolate(,AK$3,$F7,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM7" s="38" t="str">
         <f>IF(AND(NOT(AK7),AND(AK$4:AK6)),MIN(EXP((AL7-$J7)*$G7),1),"")</f>
@@ -8532,9 +8532,9 @@
         <f>IF(AND(NOT(AK7),AND(AK$4:AK6)),TRUE,AK7)</f>
         <v>1</v>
       </c>
-      <c r="AP7" s="38" t="e">
+      <c r="AP7" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO7),AND(AO$4:AO6))),($J7*$G7-LN(1+Jumpoverwrite8*AQ$2))/$G7,_xll.qlInterpolationInterpolate(,AO$3,$F7,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ7" s="38" t="str">
         <f>IF(AND(NOT(AO7),AND(AO$4:AO6)),MIN(EXP((AP7-$J7)*$G7),1),"")</f>
@@ -8544,9 +8544,9 @@
         <f>IF(AND(NOT(AO7),AND(AO$4:AO6)),TRUE,AO7)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="38" t="e">
+      <c r="AT7" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS7),AND(AS$4:AS6))),($J7*$G7-LN(1+Jumpoverwrite9*AU$2))/$G7,_xll.qlInterpolationInterpolate(,AS$3,$F7,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU7" s="38" t="str">
         <f>IF(AND(NOT(AS7),AND(AS$4:AS6)),MIN(EXP((AT7-$J7)*$G7),1),"")</f>
@@ -8556,9 +8556,9 @@
         <f>IF(AND(NOT(AS7),AND(AS$4:AS6)),TRUE,AS7)</f>
         <v>1</v>
       </c>
-      <c r="AX7" s="38" t="e">
+      <c r="AX7" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW7),AND(AW$4:AW6))),($J7*$G7-LN(1+Jumpoverwrite10*AY$2))/$G7,_xll.qlInterpolationInterpolate(,AW$3,$F7,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY7" s="38" t="str">
         <f>IF(AND(NOT(AW7),AND(AW$4:AW6)),MIN(EXP((AX7-$J7)*$G7),1),"")</f>
@@ -8568,9 +8568,9 @@
         <f>IF(AND(NOT(AW7),AND(AW$4:AW6)),TRUE,AW7)</f>
         <v>1</v>
       </c>
-      <c r="BB7" s="38" t="e">
+      <c r="BB7" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA7),AND(BA$4:BA6))),($J7*$G7-LN(1+Jumpoverwrite11*BC$2))/$G7,_xll.qlInterpolationInterpolate(,BA$3,$F7,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC7" s="38" t="str">
         <f>IF(AND(NOT(BA7),AND(BA$4:BA6)),MIN(EXP((BB7-$J7)*$G7),1),"")</f>
@@ -8580,9 +8580,9 @@
         <f>IF(AND(NOT(BA7),AND(BA$4:BA6)),TRUE,BA7)</f>
         <v>1</v>
       </c>
-      <c r="BF7" s="38" t="e">
+      <c r="BF7" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE7),AND(BE$4:BE6))),($J7*$G7-LN(1+Jumpoverwrite12*BG$2))/$G7,_xll.qlInterpolationInterpolate(,BE$3,$F7,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG7" s="38" t="str">
         <f>IF(AND(NOT(BE7),AND(BE$4:BE6)),MIN(EXP((BF7-$J7)*$G7),1),"")</f>
@@ -8592,9 +8592,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ7" s="38" t="e">
+      <c r="BJ7" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI7),AND(BI$4:BI6))),($J7*$G7-LN(1+jumpoverwrite13*BK$2))/$G7,_xll.qlInterpolationInterpolate(,BI$3,$F7,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK7" s="38" t="str">
         <f>IF(AND(NOT(BI7),AND(BI$4:BI6)),MIN(EXP((BJ7-$J7)*$G7),1),"")</f>
@@ -8603,51 +8603,51 @@
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="str">
-        <v>WEURECBOISSEP15</v>
+        <v>WEUREON1M</v>
       </c>
       <c r="B8" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A8)</f>
-        <v>-1.1999999999999999E-3</v>
+        <v>-1E-3</v>
       </c>
       <c r="C8" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A8)</f>
-        <v>42256</v>
+        <v>42138</v>
       </c>
       <c r="D8" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A8)</f>
-        <v>42305</v>
+        <v>42170</v>
       </c>
       <c r="F8" s="103">
         <f t="shared" si="0"/>
-        <v>42280.5</v>
+        <v>42164.5</v>
       </c>
       <c r="G8" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D7,D8)</f>
-        <v>0.1361111111111111</v>
+        <v>3.0555555555555555E-2</v>
       </c>
       <c r="I8" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="41">
         <v>5.0000000000129566E-2</v>
       </c>
       <c r="K8" s="113">
         <f t="shared" si="3"/>
-        <v>42305</v>
+        <v>42170</v>
       </c>
       <c r="L8" s="94"/>
       <c r="M8" s="85" t="b">
         <f>IF(AND(NOT(I8),AND(I$4:I7)),TRUE,I8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M8),AND(M$4:M7))),($J8*$G8-LN(1+Jumpoverwrite1*O$2))/$G8,_xll.qlInterpolationInterpolate(,M$3,$F8,TRUE))</f>
         <v>5.0000000000129566E-2</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="38" t="str">
         <f>IF(AND(NOT(M8),AND(M$4:M7)),MIN(EXP((N8-$J8)*$G8),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P8" s="127"/>
       <c r="Q8" s="85" t="b">
@@ -8692,9 +8692,9 @@
         <f>IF(AND(NOT(Y8),AND(Y$4:Y7)),TRUE,Y8)</f>
         <v>1</v>
       </c>
-      <c r="AD8" s="38" t="e">
+      <c r="AD8" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC8),AND(AC$4:AC7))),($J8*$G8-LN(1+Jumpoverwrite5*AE$2))/$G8,_xll.qlInterpolationInterpolate(,AC$3,$F8,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE8" s="38" t="str">
         <f>IF(AND(NOT(AC8),AND(AC$4:AC7)),MIN(EXP((AD8-$J8)*$G8),1),"")</f>
@@ -8705,9 +8705,9 @@
         <f>IF(AND(NOT(AC8),AND(AC$4:AC7)),TRUE,AC8)</f>
         <v>1</v>
       </c>
-      <c r="AH8" s="38" t="e">
+      <c r="AH8" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG8),AND(AG$4:AG7))),($J8*$G8-LN(1+Jumpoverwrite6*AI$2))/$G8,_xll.qlInterpolationInterpolate(,AG$3,$F8,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI8" s="38" t="str">
         <f>IF(AND(NOT(AG8),AND(AG$4:AG7)),MIN(EXP((AH8-$J8)*$G8),1),"")</f>
@@ -8718,9 +8718,9 @@
         <f>IF(AND(NOT(AG8),AND(AG$4:AG7)),TRUE,AG8)</f>
         <v>1</v>
       </c>
-      <c r="AL8" s="38" t="e">
+      <c r="AL8" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK8),AND(AK$4:AK7))),($J8*$G8-LN(1+Jumpoverwrite7*AM$2))/$G8,_xll.qlInterpolationInterpolate(,AK$3,$F8,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM8" s="38" t="str">
         <f>IF(AND(NOT(AK8),AND(AK$4:AK7)),MIN(EXP((AL8-$J8)*$G8),1),"")</f>
@@ -8730,9 +8730,9 @@
         <f>IF(AND(NOT(AK8),AND(AK$4:AK7)),TRUE,AK8)</f>
         <v>1</v>
       </c>
-      <c r="AP8" s="38" t="e">
+      <c r="AP8" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO8),AND(AO$4:AO7))),($J8*$G8-LN(1+Jumpoverwrite8*AQ$2))/$G8,_xll.qlInterpolationInterpolate(,AO$3,$F8,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ8" s="38" t="str">
         <f>IF(AND(NOT(AO8),AND(AO$4:AO7)),MIN(EXP((AP8-$J8)*$G8),1),"")</f>
@@ -8742,9 +8742,9 @@
         <f>IF(AND(NOT(AO8),AND(AO$4:AO7)),TRUE,AO8)</f>
         <v>1</v>
       </c>
-      <c r="AT8" s="38" t="e">
+      <c r="AT8" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS8),AND(AS$4:AS7))),($J8*$G8-LN(1+Jumpoverwrite9*AU$2))/$G8,_xll.qlInterpolationInterpolate(,AS$3,$F8,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU8" s="38" t="str">
         <f>IF(AND(NOT(AS8),AND(AS$4:AS7)),MIN(EXP((AT8-$J8)*$G8),1),"")</f>
@@ -8754,9 +8754,9 @@
         <f>IF(AND(NOT(AS8),AND(AS$4:AS7)),TRUE,AS8)</f>
         <v>1</v>
       </c>
-      <c r="AX8" s="38" t="e">
+      <c r="AX8" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW8),AND(AW$4:AW7))),($J8*$G8-LN(1+Jumpoverwrite10*AY$2))/$G8,_xll.qlInterpolationInterpolate(,AW$3,$F8,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY8" s="38" t="str">
         <f>IF(AND(NOT(AW8),AND(AW$4:AW7)),MIN(EXP((AX8-$J8)*$G8),1),"")</f>
@@ -8766,9 +8766,9 @@
         <f>IF(AND(NOT(AW8),AND(AW$4:AW7)),TRUE,AW8)</f>
         <v>1</v>
       </c>
-      <c r="BB8" s="38" t="e">
+      <c r="BB8" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA8),AND(BA$4:BA7))),($J8*$G8-LN(1+Jumpoverwrite11*BC$2))/$G8,_xll.qlInterpolationInterpolate(,BA$3,$F8,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC8" s="38" t="str">
         <f>IF(AND(NOT(BA8),AND(BA$4:BA7)),MIN(EXP((BB8-$J8)*$G8),1),"")</f>
@@ -8778,9 +8778,9 @@
         <f>IF(AND(NOT(BA8),AND(BA$4:BA7)),TRUE,BA8)</f>
         <v>1</v>
       </c>
-      <c r="BF8" s="38" t="e">
+      <c r="BF8" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE8),AND(BE$4:BE7))),($J8*$G8-LN(1+Jumpoverwrite12*BG$2))/$G8,_xll.qlInterpolationInterpolate(,BE$3,$F8,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG8" s="38" t="str">
         <f>IF(AND(NOT(BE8),AND(BE$4:BE7)),MIN(EXP((BF8-$J8)*$G8),1),"")</f>
@@ -8790,9 +8790,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ8" s="38" t="e">
+      <c r="BJ8" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI8),AND(BI$4:BI7))),($J8*$G8-LN(1+jumpoverwrite13*BK$2))/$G8,_xll.qlInterpolationInterpolate(,BI$3,$F8,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK8" s="38" t="str">
         <f>IF(AND(NOT(BI8),AND(BI$4:BI7)),MIN(EXP((BJ8-$J8)*$G8),1),"")</f>
@@ -8801,47 +8801,47 @@
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A9" s="37" t="str">
-        <v>WEURECBOISOCT15</v>
+        <v>WEUREON2M</v>
       </c>
       <c r="B9" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A9)</f>
-        <v>-1.1899999999999999E-3</v>
+        <v>-1.0899999999999998E-3</v>
       </c>
       <c r="C9" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A9)</f>
-        <v>42305</v>
+        <v>42138</v>
       </c>
       <c r="D9" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A9)</f>
-        <v>42347</v>
+        <v>42199</v>
       </c>
       <c r="F9" s="103">
         <f t="shared" si="0"/>
-        <v>42326</v>
+        <v>42184.5</v>
       </c>
       <c r="G9" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D8,D9)</f>
-        <v>0.11666666666666667</v>
+        <v>8.0555555555555561E-2</v>
       </c>
       <c r="I9" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" s="41">
         <v>5.0000000000129566E-2</v>
       </c>
       <c r="K9" s="113">
         <f t="shared" si="3"/>
-        <v>42347</v>
+        <v>42199</v>
       </c>
       <c r="L9" s="94"/>
       <c r="M9" s="85" t="b">
         <f>IF(AND(NOT(I9),AND(I$4:I8)),TRUE,I9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M9),AND(M$4:M8))),($J9*$G9-LN(1+Jumpoverwrite1*O$2))/$G9,_xll.qlInterpolationInterpolate(,M$3,$F9,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>-0.20974025974013022</v>
       </c>
       <c r="O9" s="38" t="str">
         <f>IF(AND(NOT(M9),AND(M$4:M8)),MIN(EXP((N9-$J9)*$G9),1),"")</f>
@@ -8850,15 +8850,15 @@
       <c r="P9" s="127"/>
       <c r="Q9" s="85" t="b">
         <f>IF(AND(NOT(M9),AND(M$4:M8)),TRUE,M9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q9),AND(Q$4:Q8))),($J9*$G9-LN(1+Jumpoverwrite2*S$2))/$G9,_xll.qlInterpolationInterpolate(,Q$3,$F9,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
-      </c>
-      <c r="S9" s="38" t="str">
+        <v>-0.20974025974013022</v>
+      </c>
+      <c r="S9" s="38">
         <f>IF(AND(NOT(Q9),AND(Q$4:Q8)),MIN(EXP((R9-$J9)*$G9),1),"")</f>
-        <v/>
+        <v>0.97929385719536355</v>
       </c>
       <c r="T9" s="127"/>
       <c r="U9" s="85" t="b">
@@ -8890,9 +8890,9 @@
         <f>IF(AND(NOT(Y9),AND(Y$4:Y8)),TRUE,Y9)</f>
         <v>1</v>
       </c>
-      <c r="AD9" s="38" t="e">
+      <c r="AD9" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC9),AND(AC$4:AC8))),($J9*$G9-LN(1+Jumpoverwrite5*AE$2))/$G9,_xll.qlInterpolationInterpolate(,AC$3,$F9,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE9" s="38" t="str">
         <f>IF(AND(NOT(AC9),AND(AC$4:AC8)),MIN(EXP((AD9-$J9)*$G9),1),"")</f>
@@ -8903,9 +8903,9 @@
         <f>IF(AND(NOT(AC9),AND(AC$4:AC8)),TRUE,AC9)</f>
         <v>1</v>
       </c>
-      <c r="AH9" s="38" t="e">
+      <c r="AH9" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG9),AND(AG$4:AG8))),($J9*$G9-LN(1+Jumpoverwrite6*AI$2))/$G9,_xll.qlInterpolationInterpolate(,AG$3,$F9,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI9" s="38" t="str">
         <f>IF(AND(NOT(AG9),AND(AG$4:AG8)),MIN(EXP((AH9-$J9)*$G9),1),"")</f>
@@ -8916,9 +8916,9 @@
         <f>IF(AND(NOT(AG9),AND(AG$4:AG8)),TRUE,AG9)</f>
         <v>1</v>
       </c>
-      <c r="AL9" s="38" t="e">
+      <c r="AL9" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK9),AND(AK$4:AK8))),($J9*$G9-LN(1+Jumpoverwrite7*AM$2))/$G9,_xll.qlInterpolationInterpolate(,AK$3,$F9,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM9" s="38" t="str">
         <f>IF(AND(NOT(AK9),AND(AK$4:AK8)),MIN(EXP((AL9-$J9)*$G9),1),"")</f>
@@ -8928,9 +8928,9 @@
         <f>IF(AND(NOT(AK9),AND(AK$4:AK8)),TRUE,AK9)</f>
         <v>1</v>
       </c>
-      <c r="AP9" s="38" t="e">
+      <c r="AP9" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO9),AND(AO$4:AO8))),($J9*$G9-LN(1+Jumpoverwrite8*AQ$2))/$G9,_xll.qlInterpolationInterpolate(,AO$3,$F9,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ9" s="38" t="str">
         <f>IF(AND(NOT(AO9),AND(AO$4:AO8)),MIN(EXP((AP9-$J9)*$G9),1),"")</f>
@@ -8940,9 +8940,9 @@
         <f>IF(AND(NOT(AO9),AND(AO$4:AO8)),TRUE,AO9)</f>
         <v>1</v>
       </c>
-      <c r="AT9" s="38" t="e">
+      <c r="AT9" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS9),AND(AS$4:AS8))),($J9*$G9-LN(1+Jumpoverwrite9*AU$2))/$G9,_xll.qlInterpolationInterpolate(,AS$3,$F9,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU9" s="38" t="str">
         <f>IF(AND(NOT(AS9),AND(AS$4:AS8)),MIN(EXP((AT9-$J9)*$G9),1),"")</f>
@@ -8952,9 +8952,9 @@
         <f>IF(AND(NOT(AS9),AND(AS$4:AS8)),TRUE,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AX9" s="38" t="e">
+      <c r="AX9" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW9),AND(AW$4:AW8))),($J9*$G9-LN(1+Jumpoverwrite10*AY$2))/$G9,_xll.qlInterpolationInterpolate(,AW$3,$F9,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY9" s="38" t="str">
         <f>IF(AND(NOT(AW9),AND(AW$4:AW8)),MIN(EXP((AX9-$J9)*$G9),1),"")</f>
@@ -8964,9 +8964,9 @@
         <f>IF(AND(NOT(AW9),AND(AW$4:AW8)),TRUE,AW9)</f>
         <v>1</v>
       </c>
-      <c r="BB9" s="38" t="e">
+      <c r="BB9" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA9),AND(BA$4:BA8))),($J9*$G9-LN(1+Jumpoverwrite11*BC$2))/$G9,_xll.qlInterpolationInterpolate(,BA$3,$F9,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC9" s="38" t="str">
         <f>IF(AND(NOT(BA9),AND(BA$4:BA8)),MIN(EXP((BB9-$J9)*$G9),1),"")</f>
@@ -8976,9 +8976,9 @@
         <f>IF(AND(NOT(BA9),AND(BA$4:BA8)),TRUE,BA9)</f>
         <v>1</v>
       </c>
-      <c r="BF9" s="38" t="e">
+      <c r="BF9" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE9),AND(BE$4:BE8))),($J9*$G9-LN(1+Jumpoverwrite12*BG$2))/$G9,_xll.qlInterpolationInterpolate(,BE$3,$F9,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG9" s="38" t="str">
         <f>IF(AND(NOT(BE9),AND(BE$4:BE8)),MIN(EXP((BF9-$J9)*$G9),1),"")</f>
@@ -8988,9 +8988,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ9" s="38" t="e">
+      <c r="BJ9" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI9),AND(BI$4:BI8))),($J9*$G9-LN(1+jumpoverwrite13*BK$2))/$G9,_xll.qlInterpolationInterpolate(,BI$3,$F9,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK9" s="38" t="str">
         <f>IF(AND(NOT(BI9),AND(BI$4:BI8)),MIN(EXP((BJ9-$J9)*$G9),1),"")</f>
@@ -8999,47 +8999,47 @@
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="str">
-        <v>WEURECBOISDEC15</v>
+        <v>WEURECBOISJUN15</v>
       </c>
       <c r="B10" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A10)</f>
-        <v>-1.1799999999999998E-3</v>
+        <v>-1.15E-3</v>
       </c>
       <c r="C10" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A10)</f>
-        <v>42347</v>
+        <v>42165</v>
       </c>
       <c r="D10" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A10)</f>
-        <v>42395</v>
+        <v>42207</v>
       </c>
       <c r="F10" s="103">
         <f t="shared" si="0"/>
-        <v>42371</v>
+        <v>42203</v>
       </c>
       <c r="G10" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D9,D10)</f>
-        <v>0.13333333333333333</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="I10" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="41">
-        <v>5.0000000000129566E-2</v>
+        <v>-0.44999999999987045</v>
       </c>
       <c r="K10" s="113">
         <f t="shared" si="3"/>
-        <v>42395</v>
+        <v>42207</v>
       </c>
       <c r="L10" s="94"/>
       <c r="M10" s="85" t="b">
         <f>IF(AND(NOT(I10),AND(I$4:I9)),TRUE,I10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M10),AND(M$4:M9))),($J10*$G10-LN(1+Jumpoverwrite1*O$2))/$G10,_xll.qlInterpolationInterpolate(,M$3,$F10,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>-0.44999999999987045</v>
       </c>
       <c r="O10" s="38" t="str">
         <f>IF(AND(NOT(M10),AND(M$4:M9)),MIN(EXP((N10-$J10)*$G10),1),"")</f>
@@ -9048,15 +9048,15 @@
       <c r="P10" s="127"/>
       <c r="Q10" s="85" t="b">
         <f>IF(AND(NOT(M10),AND(M$4:M9)),TRUE,M10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q10),AND(Q$4:Q9))),($J10*$G10-LN(1+Jumpoverwrite2*S$2))/$G10,_xll.qlInterpolationInterpolate(,Q$3,$F10,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
-      </c>
-      <c r="S10" s="38">
+        <v>-0.44999999999987045</v>
+      </c>
+      <c r="S10" s="38" t="str">
         <f>IF(AND(NOT(Q10),AND(Q$4:Q9)),MIN(EXP((R10-$J10)*$G10),1),"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="T10" s="127"/>
       <c r="U10" s="85" t="b">
@@ -9088,9 +9088,9 @@
         <f>IF(AND(NOT(Y10),AND(Y$4:Y9)),TRUE,Y10)</f>
         <v>1</v>
       </c>
-      <c r="AD10" s="38" t="e">
+      <c r="AD10" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC10),AND(AC$4:AC9))),($J10*$G10-LN(1+Jumpoverwrite5*AE$2))/$G10,_xll.qlInterpolationInterpolate(,AC$3,$F10,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE10" s="38" t="str">
         <f>IF(AND(NOT(AC10),AND(AC$4:AC9)),MIN(EXP((AD10-$J10)*$G10),1),"")</f>
@@ -9101,9 +9101,9 @@
         <f>IF(AND(NOT(AC10),AND(AC$4:AC9)),TRUE,AC10)</f>
         <v>1</v>
       </c>
-      <c r="AH10" s="38" t="e">
+      <c r="AH10" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG10),AND(AG$4:AG9))),($J10*$G10-LN(1+Jumpoverwrite6*AI$2))/$G10,_xll.qlInterpolationInterpolate(,AG$3,$F10,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI10" s="38" t="str">
         <f>IF(AND(NOT(AG10),AND(AG$4:AG9)),MIN(EXP((AH10-$J10)*$G10),1),"")</f>
@@ -9114,9 +9114,9 @@
         <f>IF(AND(NOT(AG10),AND(AG$4:AG9)),TRUE,AG10)</f>
         <v>1</v>
       </c>
-      <c r="AL10" s="38" t="e">
+      <c r="AL10" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK10),AND(AK$4:AK9))),($J10*$G10-LN(1+Jumpoverwrite7*AM$2))/$G10,_xll.qlInterpolationInterpolate(,AK$3,$F10,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM10" s="38" t="str">
         <f>IF(AND(NOT(AK10),AND(AK$4:AK9)),MIN(EXP((AL10-$J10)*$G10),1),"")</f>
@@ -9126,9 +9126,9 @@
         <f>IF(AND(NOT(AK10),AND(AK$4:AK9)),TRUE,AK10)</f>
         <v>1</v>
       </c>
-      <c r="AP10" s="38" t="e">
+      <c r="AP10" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO10),AND(AO$4:AO9))),($J10*$G10-LN(1+Jumpoverwrite8*AQ$2))/$G10,_xll.qlInterpolationInterpolate(,AO$3,$F10,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ10" s="38" t="str">
         <f>IF(AND(NOT(AO10),AND(AO$4:AO9)),MIN(EXP((AP10-$J10)*$G10),1),"")</f>
@@ -9138,9 +9138,9 @@
         <f>IF(AND(NOT(AO10),AND(AO$4:AO9)),TRUE,AO10)</f>
         <v>1</v>
       </c>
-      <c r="AT10" s="38" t="e">
+      <c r="AT10" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS10),AND(AS$4:AS9))),($J10*$G10-LN(1+Jumpoverwrite9*AU$2))/$G10,_xll.qlInterpolationInterpolate(,AS$3,$F10,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU10" s="38" t="str">
         <f>IF(AND(NOT(AS10),AND(AS$4:AS9)),MIN(EXP((AT10-$J10)*$G10),1),"")</f>
@@ -9150,9 +9150,9 @@
         <f>IF(AND(NOT(AS10),AND(AS$4:AS9)),TRUE,AS10)</f>
         <v>1</v>
       </c>
-      <c r="AX10" s="38" t="e">
+      <c r="AX10" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW10),AND(AW$4:AW9))),($J10*$G10-LN(1+Jumpoverwrite10*AY$2))/$G10,_xll.qlInterpolationInterpolate(,AW$3,$F10,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY10" s="38" t="str">
         <f>IF(AND(NOT(AW10),AND(AW$4:AW9)),MIN(EXP((AX10-$J10)*$G10),1),"")</f>
@@ -9162,9 +9162,9 @@
         <f>IF(AND(NOT(AW10),AND(AW$4:AW9)),TRUE,AW10)</f>
         <v>1</v>
       </c>
-      <c r="BB10" s="38" t="e">
+      <c r="BB10" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA10),AND(BA$4:BA9))),($J10*$G10-LN(1+Jumpoverwrite11*BC$2))/$G10,_xll.qlInterpolationInterpolate(,BA$3,$F10,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC10" s="38" t="str">
         <f>IF(AND(NOT(BA10),AND(BA$4:BA9)),MIN(EXP((BB10-$J10)*$G10),1),"")</f>
@@ -9174,9 +9174,9 @@
         <f>IF(AND(NOT(BA10),AND(BA$4:BA9)),TRUE,BA10)</f>
         <v>1</v>
       </c>
-      <c r="BF10" s="38" t="e">
+      <c r="BF10" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE10),AND(BE$4:BE9))),($J10*$G10-LN(1+Jumpoverwrite12*BG$2))/$G10,_xll.qlInterpolationInterpolate(,BE$3,$F10,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG10" s="38" t="str">
         <f>IF(AND(NOT(BE10),AND(BE$4:BE9)),MIN(EXP((BF10-$J10)*$G10),1),"")</f>
@@ -9186,9 +9186,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ10" s="38" t="e">
+      <c r="BJ10" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI10),AND(BI$4:BI9))),($J10*$G10-LN(1+jumpoverwrite13*BK$2))/$G10,_xll.qlInterpolationInterpolate(,BI$3,$F10,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK10" s="38" t="str">
         <f>IF(AND(NOT(BI10),AND(BI$4:BI9)),MIN(EXP((BJ10-$J10)*$G10),1),"")</f>
@@ -9197,47 +9197,47 @@
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="str">
-        <v>WEURECBOISJAN16</v>
+        <v>WEUREON3M</v>
       </c>
       <c r="B11" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A11)</f>
-        <v>-1.1899999999999999E-3</v>
+        <v>-1.1200000000000001E-3</v>
       </c>
       <c r="C11" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A11)</f>
-        <v>42395</v>
+        <v>42138</v>
       </c>
       <c r="D11" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A11)</f>
-        <v>42445</v>
+        <v>42230</v>
       </c>
       <c r="F11" s="103">
         <f t="shared" si="0"/>
-        <v>42420</v>
+        <v>42218.5</v>
       </c>
       <c r="G11" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D10,D11)</f>
-        <v>0.1388888888888889</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="I11" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="41">
-        <v>5.0000000000129566E-2</v>
+        <v>4.9999999998772804E-2</v>
       </c>
       <c r="K11" s="113">
         <f t="shared" si="3"/>
-        <v>42445</v>
+        <v>42230</v>
       </c>
       <c r="L11" s="94"/>
       <c r="M11" s="85" t="b">
         <f>IF(AND(NOT(I11),AND(I$4:I10)),TRUE,I11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M11),AND(M$4:M10))),($J11*$G11-LN(1+Jumpoverwrite1*O$2))/$G11,_xll.qlInterpolationInterpolate(,M$3,$F11,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>-0.45000000000049056</v>
       </c>
       <c r="O11" s="38" t="str">
         <f>IF(AND(NOT(M11),AND(M$4:M10)),MIN(EXP((N11-$J11)*$G11),1),"")</f>
@@ -9246,11 +9246,11 @@
       <c r="P11" s="127"/>
       <c r="Q11" s="85" t="b">
         <f>IF(AND(NOT(M11),AND(M$4:M10)),TRUE,M11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R11" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q11),AND(Q$4:Q10))),($J11*$G11-LN(1+Jumpoverwrite2*S$2))/$G11,_xll.qlInterpolationInterpolate(,Q$3,$F11,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>-0.45000000000049056</v>
       </c>
       <c r="S11" s="38" t="str">
         <f>IF(AND(NOT(Q11),AND(Q$4:Q10)),MIN(EXP((R11-$J11)*$G11),1),"")</f>
@@ -9259,14 +9259,14 @@
       <c r="T11" s="127"/>
       <c r="U11" s="85" t="b">
         <f>IF(AND(NOT(Q11),AND(Q$4:Q10)),TRUE,Q11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V11" s="38">
         <v>0.05</v>
       </c>
-      <c r="W11" s="38" t="str">
+      <c r="W11" s="38">
         <f>IF(AND(NOT(U11),AND(U$4:U10)),MIN(EXP((V11-$J11)*$G11),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="X11" s="127"/>
       <c r="Y11" s="85" t="b">
@@ -9286,9 +9286,9 @@
         <f>IF(AND(NOT(Y11),AND(Y$4:Y10)),TRUE,Y11)</f>
         <v>1</v>
       </c>
-      <c r="AD11" s="38" t="e">
+      <c r="AD11" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC11),AND(AC$4:AC10))),($J11*$G11-LN(1+Jumpoverwrite5*AE$2))/$G11,_xll.qlInterpolationInterpolate(,AC$3,$F11,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE11" s="38" t="str">
         <f>IF(AND(NOT(AC11),AND(AC$4:AC10)),MIN(EXP((AD11-$J11)*$G11),1),"")</f>
@@ -9299,9 +9299,9 @@
         <f>IF(AND(NOT(AC11),AND(AC$4:AC10)),TRUE,AC11)</f>
         <v>1</v>
       </c>
-      <c r="AH11" s="38" t="e">
+      <c r="AH11" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG11),AND(AG$4:AG10))),($J11*$G11-LN(1+Jumpoverwrite6*AI$2))/$G11,_xll.qlInterpolationInterpolate(,AG$3,$F11,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI11" s="38" t="str">
         <f>IF(AND(NOT(AG11),AND(AG$4:AG10)),MIN(EXP((AH11-$J11)*$G11),1),"")</f>
@@ -9312,9 +9312,9 @@
         <f>IF(AND(NOT(AG11),AND(AG$4:AG10)),TRUE,AG11)</f>
         <v>1</v>
       </c>
-      <c r="AL11" s="38" t="e">
+      <c r="AL11" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK11),AND(AK$4:AK10))),($J11*$G11-LN(1+Jumpoverwrite7*AM$2))/$G11,_xll.qlInterpolationInterpolate(,AK$3,$F11,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM11" s="38" t="str">
         <f>IF(AND(NOT(AK11),AND(AK$4:AK10)),MIN(EXP((AL11-$J11)*$G11),1),"")</f>
@@ -9324,9 +9324,9 @@
         <f>IF(AND(NOT(AK11),AND(AK$4:AK10)),TRUE,AK11)</f>
         <v>1</v>
       </c>
-      <c r="AP11" s="38" t="e">
+      <c r="AP11" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO11),AND(AO$4:AO10))),($J11*$G11-LN(1+Jumpoverwrite8*AQ$2))/$G11,_xll.qlInterpolationInterpolate(,AO$3,$F11,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ11" s="38" t="str">
         <f>IF(AND(NOT(AO11),AND(AO$4:AO10)),MIN(EXP((AP11-$J11)*$G11),1),"")</f>
@@ -9336,9 +9336,9 @@
         <f>IF(AND(NOT(AO11),AND(AO$4:AO10)),TRUE,AO11)</f>
         <v>1</v>
       </c>
-      <c r="AT11" s="38" t="e">
+      <c r="AT11" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS11),AND(AS$4:AS10))),($J11*$G11-LN(1+Jumpoverwrite9*AU$2))/$G11,_xll.qlInterpolationInterpolate(,AS$3,$F11,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU11" s="38" t="str">
         <f>IF(AND(NOT(AS11),AND(AS$4:AS10)),MIN(EXP((AT11-$J11)*$G11),1),"")</f>
@@ -9348,9 +9348,9 @@
         <f>IF(AND(NOT(AS11),AND(AS$4:AS10)),TRUE,AS11)</f>
         <v>1</v>
       </c>
-      <c r="AX11" s="38" t="e">
+      <c r="AX11" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW11),AND(AW$4:AW10))),($J11*$G11-LN(1+Jumpoverwrite10*AY$2))/$G11,_xll.qlInterpolationInterpolate(,AW$3,$F11,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY11" s="38" t="str">
         <f>IF(AND(NOT(AW11),AND(AW$4:AW10)),MIN(EXP((AX11-$J11)*$G11),1),"")</f>
@@ -9360,9 +9360,9 @@
         <f>IF(AND(NOT(AW11),AND(AW$4:AW10)),TRUE,AW11)</f>
         <v>1</v>
       </c>
-      <c r="BB11" s="38" t="e">
+      <c r="BB11" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA11),AND(BA$4:BA10))),($J11*$G11-LN(1+Jumpoverwrite11*BC$2))/$G11,_xll.qlInterpolationInterpolate(,BA$3,$F11,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC11" s="38" t="str">
         <f>IF(AND(NOT(BA11),AND(BA$4:BA10)),MIN(EXP((BB11-$J11)*$G11),1),"")</f>
@@ -9372,9 +9372,9 @@
         <f>IF(AND(NOT(BA11),AND(BA$4:BA10)),TRUE,BA11)</f>
         <v>1</v>
       </c>
-      <c r="BF11" s="38" t="e">
+      <c r="BF11" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE11),AND(BE$4:BE10))),($J11*$G11-LN(1+Jumpoverwrite12*BG$2))/$G11,_xll.qlInterpolationInterpolate(,BE$3,$F11,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG11" s="38" t="str">
         <f>IF(AND(NOT(BE11),AND(BE$4:BE10)),MIN(EXP((BF11-$J11)*$G11),1),"")</f>
@@ -9384,9 +9384,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ11" s="38" t="e">
+      <c r="BJ11" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI11),AND(BI$4:BI10))),($J11*$G11-LN(1+jumpoverwrite13*BK$2))/$G11,_xll.qlInterpolationInterpolate(,BI$3,$F11,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK11" s="38" t="str">
         <f>IF(AND(NOT(BI11),AND(BI$4:BI10)),MIN(EXP((BJ11-$J11)*$G11),1),"")</f>
@@ -9395,38 +9395,38 @@
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="str">
-        <v>WEURECBOISMAR16</v>
+        <v>WEURECBOISJUL15</v>
       </c>
       <c r="B12" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A12)</f>
-        <v>-1.0500000000000002E-3</v>
+        <v>-1.2199999999999999E-3</v>
       </c>
       <c r="C12" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A12)</f>
-        <v>42445</v>
+        <v>42207</v>
       </c>
       <c r="D12" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A12)</f>
-        <v>42487</v>
+        <v>42256</v>
       </c>
       <c r="F12" s="103">
         <f t="shared" si="0"/>
-        <v>42466</v>
+        <v>42243</v>
       </c>
       <c r="G12" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D11,D12)</f>
-        <v>0.11666666666666667</v>
+        <v>7.2222222222222215E-2</v>
       </c>
       <c r="I12" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12" s="41">
-        <v>5.0000000000129566E-2</v>
+        <v>4.9999999997909134E-2</v>
       </c>
       <c r="K12" s="113">
         <f t="shared" si="3"/>
-        <v>42487</v>
+        <v>42256</v>
       </c>
       <c r="L12" s="94"/>
       <c r="M12" s="85" t="b">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="N12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M12),AND(M$4:M11))),($J12*$G12-LN(1+Jumpoverwrite1*O$2))/$G12,_xll.qlInterpolationInterpolate(,M$3,$F12,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>-0.45000000000147072</v>
       </c>
       <c r="O12" s="38" t="str">
         <f>IF(AND(NOT(M12),AND(M$4:M11)),MIN(EXP((N12-$J12)*$G12),1),"")</f>
@@ -9448,7 +9448,7 @@
       </c>
       <c r="R12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q12),AND(Q$4:Q11))),($J12*$G12-LN(1+Jumpoverwrite2*S$2))/$G12,_xll.qlInterpolationInterpolate(,Q$3,$F12,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>-0.45000000000147072</v>
       </c>
       <c r="S12" s="38" t="str">
         <f>IF(AND(NOT(Q12),AND(Q$4:Q11)),MIN(EXP((R12-$J12)*$G12),1),"")</f>
@@ -9462,31 +9462,31 @@
       <c r="V12" s="38">
         <v>0.05</v>
       </c>
-      <c r="W12" s="38">
+      <c r="W12" s="38" t="str">
         <f>IF(AND(NOT(U12),AND(U$4:U11)),MIN(EXP((V12-$J12)*$G12),1),"")</f>
-        <v>0.9999999999999849</v>
+        <v/>
       </c>
       <c r="X12" s="127"/>
       <c r="Y12" s="85" t="b">
         <f>IF(AND(NOT(U12),AND(U$4:U11)),TRUE,U12)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y12),AND(Y$4:Y11))),($J12*$G12-LN(1+Jumpoverwrite4*AA$2))/$G12,_xll.qlInterpolationInterpolate(,Y$3,$F12,TRUE))</f>
         <v>0.05</v>
       </c>
-      <c r="AA12" s="38" t="str">
+      <c r="AA12" s="38">
         <f>IF(AND(NOT(Y12),AND(Y$4:Y11)),MIN(EXP((Z12-$J12)*$G12),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AB12" s="127"/>
       <c r="AC12" s="85" t="b">
         <f>IF(AND(NOT(Y12),AND(Y$4:Y11)),TRUE,Y12)</f>
         <v>1</v>
       </c>
-      <c r="AD12" s="38" t="e">
+      <c r="AD12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC12),AND(AC$4:AC11))),($J12*$G12-LN(1+Jumpoverwrite5*AE$2))/$G12,_xll.qlInterpolationInterpolate(,AC$3,$F12,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE12" s="38" t="str">
         <f>IF(AND(NOT(AC12),AND(AC$4:AC11)),MIN(EXP((AD12-$J12)*$G12),1),"")</f>
@@ -9497,9 +9497,9 @@
         <f>IF(AND(NOT(AC12),AND(AC$4:AC11)),TRUE,AC12)</f>
         <v>1</v>
       </c>
-      <c r="AH12" s="38" t="e">
+      <c r="AH12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG12),AND(AG$4:AG11))),($J12*$G12-LN(1+Jumpoverwrite6*AI$2))/$G12,_xll.qlInterpolationInterpolate(,AG$3,$F12,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI12" s="38" t="str">
         <f>IF(AND(NOT(AG12),AND(AG$4:AG11)),MIN(EXP((AH12-$J12)*$G12),1),"")</f>
@@ -9510,9 +9510,9 @@
         <f>IF(AND(NOT(AG12),AND(AG$4:AG11)),TRUE,AG12)</f>
         <v>1</v>
       </c>
-      <c r="AL12" s="38" t="e">
+      <c r="AL12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK12),AND(AK$4:AK11))),($J12*$G12-LN(1+Jumpoverwrite7*AM$2))/$G12,_xll.qlInterpolationInterpolate(,AK$3,$F12,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM12" s="38" t="str">
         <f>IF(AND(NOT(AK12),AND(AK$4:AK11)),MIN(EXP((AL12-$J12)*$G12),1),"")</f>
@@ -9522,9 +9522,9 @@
         <f>IF(AND(NOT(AK12),AND(AK$4:AK11)),TRUE,AK12)</f>
         <v>1</v>
       </c>
-      <c r="AP12" s="38" t="e">
+      <c r="AP12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO12),AND(AO$4:AO11))),($J12*$G12-LN(1+Jumpoverwrite8*AQ$2))/$G12,_xll.qlInterpolationInterpolate(,AO$3,$F12,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ12" s="38" t="str">
         <f>IF(AND(NOT(AO12),AND(AO$4:AO11)),MIN(EXP((AP12-$J12)*$G12),1),"")</f>
@@ -9534,9 +9534,9 @@
         <f>IF(AND(NOT(AO12),AND(AO$4:AO11)),TRUE,AO12)</f>
         <v>1</v>
       </c>
-      <c r="AT12" s="38" t="e">
+      <c r="AT12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS12),AND(AS$4:AS11))),($J12*$G12-LN(1+Jumpoverwrite9*AU$2))/$G12,_xll.qlInterpolationInterpolate(,AS$3,$F12,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU12" s="38" t="str">
         <f>IF(AND(NOT(AS12),AND(AS$4:AS11)),MIN(EXP((AT12-$J12)*$G12),1),"")</f>
@@ -9546,9 +9546,9 @@
         <f>IF(AND(NOT(AS12),AND(AS$4:AS11)),TRUE,AS12)</f>
         <v>1</v>
       </c>
-      <c r="AX12" s="38" t="e">
+      <c r="AX12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW12),AND(AW$4:AW11))),($J12*$G12-LN(1+Jumpoverwrite10*AY$2))/$G12,_xll.qlInterpolationInterpolate(,AW$3,$F12,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY12" s="38" t="str">
         <f>IF(AND(NOT(AW12),AND(AW$4:AW11)),MIN(EXP((AX12-$J12)*$G12),1),"")</f>
@@ -9558,9 +9558,9 @@
         <f>IF(AND(NOT(AW12),AND(AW$4:AW11)),TRUE,AW12)</f>
         <v>1</v>
       </c>
-      <c r="BB12" s="38" t="e">
+      <c r="BB12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA12),AND(BA$4:BA11))),($J12*$G12-LN(1+Jumpoverwrite11*BC$2))/$G12,_xll.qlInterpolationInterpolate(,BA$3,$F12,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC12" s="38" t="str">
         <f>IF(AND(NOT(BA12),AND(BA$4:BA11)),MIN(EXP((BB12-$J12)*$G12),1),"")</f>
@@ -9570,9 +9570,9 @@
         <f>IF(AND(NOT(BA12),AND(BA$4:BA11)),TRUE,BA12)</f>
         <v>1</v>
       </c>
-      <c r="BF12" s="38" t="e">
+      <c r="BF12" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE12),AND(BE$4:BE11))),($J12*$G12-LN(1+Jumpoverwrite12*BG$2))/$G12,_xll.qlInterpolationInterpolate(,BE$3,$F12,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG12" s="38" t="str">
         <f>IF(AND(NOT(BE12),AND(BE$4:BE11)),MIN(EXP((BF12-$J12)*$G12),1),"")</f>
@@ -9582,9 +9582,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ12" s="38" t="e">
+      <c r="BJ12" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI12),AND(BI$4:BI11))),($J12*$G12-LN(1+jumpoverwrite13*BK$2))/$G12,_xll.qlInterpolationInterpolate(,BI$3,$F12,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK12" s="38" t="str">
         <f>IF(AND(NOT(BI12),AND(BI$4:BI11)),MIN(EXP((BJ12-$J12)*$G12),1),"")</f>
@@ -9593,38 +9593,38 @@
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A13" s="37" t="str">
-        <v>WEURECBOISAPR16</v>
+        <v>WEUREON4M</v>
       </c>
       <c r="B13" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A13)</f>
-        <v>-1.0800000000000002E-3</v>
+        <v>-1.15E-3</v>
       </c>
       <c r="C13" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A13)</f>
-        <v>42487</v>
+        <v>42138</v>
       </c>
       <c r="D13" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A13)</f>
-        <v>42529</v>
+        <v>42261</v>
       </c>
       <c r="F13" s="103">
         <f t="shared" si="0"/>
-        <v>42508</v>
+        <v>42258.5</v>
       </c>
       <c r="G13" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D12,D13)</f>
-        <v>0.11666666666666667</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="I13" s="112" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J13" s="41">
-        <v>5.0000000000129566E-2</v>
+        <v>-0.45000000000209084</v>
       </c>
       <c r="K13" s="113">
         <f t="shared" si="3"/>
-        <v>42529</v>
+        <v>42261</v>
       </c>
       <c r="L13" s="94"/>
       <c r="M13" s="85" t="b">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="N13" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M13),AND(M$4:M12))),($J13*$G13-LN(1+Jumpoverwrite1*O$2))/$G13,_xll.qlInterpolationInterpolate(,M$3,$F13,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>-0.45000000000209084</v>
       </c>
       <c r="O13" s="38" t="str">
         <f>IF(AND(NOT(M13),AND(M$4:M12)),MIN(EXP((N13-$J13)*$G13),1),"")</f>
@@ -9646,7 +9646,7 @@
       </c>
       <c r="R13" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q13),AND(Q$4:Q12))),($J13*$G13-LN(1+Jumpoverwrite2*S$2))/$G13,_xll.qlInterpolationInterpolate(,Q$3,$F13,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>-0.45000000000209084</v>
       </c>
       <c r="S13" s="38" t="str">
         <f>IF(AND(NOT(Q13),AND(Q$4:Q12)),MIN(EXP((R13-$J13)*$G13),1),"")</f>
@@ -9682,9 +9682,9 @@
         <f>IF(AND(NOT(Y13),AND(Y$4:Y12)),TRUE,Y13)</f>
         <v>1</v>
       </c>
-      <c r="AD13" s="38" t="e">
+      <c r="AD13" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC13),AND(AC$4:AC12))),($J13*$G13-LN(1+Jumpoverwrite5*AE$2))/$G13,_xll.qlInterpolationInterpolate(,AC$3,$F13,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE13" s="38" t="str">
         <f>IF(AND(NOT(AC13),AND(AC$4:AC12)),MIN(EXP((AD13-$J13)*$G13),1),"")</f>
@@ -9695,9 +9695,9 @@
         <f>IF(AND(NOT(AC13),AND(AC$4:AC12)),TRUE,AC13)</f>
         <v>1</v>
       </c>
-      <c r="AH13" s="38" t="e">
+      <c r="AH13" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG13),AND(AG$4:AG12))),($J13*$G13-LN(1+Jumpoverwrite6*AI$2))/$G13,_xll.qlInterpolationInterpolate(,AG$3,$F13,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI13" s="38" t="str">
         <f>IF(AND(NOT(AG13),AND(AG$4:AG12)),MIN(EXP((AH13-$J13)*$G13),1),"")</f>
@@ -9708,9 +9708,9 @@
         <f>IF(AND(NOT(AG13),AND(AG$4:AG12)),TRUE,AG13)</f>
         <v>1</v>
       </c>
-      <c r="AL13" s="38" t="e">
+      <c r="AL13" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK13),AND(AK$4:AK12))),($J13*$G13-LN(1+Jumpoverwrite7*AM$2))/$G13,_xll.qlInterpolationInterpolate(,AK$3,$F13,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM13" s="38" t="str">
         <f>IF(AND(NOT(AK13),AND(AK$4:AK12)),MIN(EXP((AL13-$J13)*$G13),1),"")</f>
@@ -9720,9 +9720,9 @@
         <f>IF(AND(NOT(AK13),AND(AK$4:AK12)),TRUE,AK13)</f>
         <v>1</v>
       </c>
-      <c r="AP13" s="38" t="e">
+      <c r="AP13" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO13),AND(AO$4:AO12))),($J13*$G13-LN(1+Jumpoverwrite8*AQ$2))/$G13,_xll.qlInterpolationInterpolate(,AO$3,$F13,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ13" s="38" t="str">
         <f>IF(AND(NOT(AO13),AND(AO$4:AO12)),MIN(EXP((AP13-$J13)*$G13),1),"")</f>
@@ -9732,9 +9732,9 @@
         <f>IF(AND(NOT(AO13),AND(AO$4:AO12)),TRUE,AO13)</f>
         <v>1</v>
       </c>
-      <c r="AT13" s="38" t="e">
+      <c r="AT13" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS13),AND(AS$4:AS12))),($J13*$G13-LN(1+Jumpoverwrite9*AU$2))/$G13,_xll.qlInterpolationInterpolate(,AS$3,$F13,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU13" s="38" t="str">
         <f>IF(AND(NOT(AS13),AND(AS$4:AS12)),MIN(EXP((AT13-$J13)*$G13),1),"")</f>
@@ -9744,9 +9744,9 @@
         <f>IF(AND(NOT(AS13),AND(AS$4:AS12)),TRUE,AS13)</f>
         <v>1</v>
       </c>
-      <c r="AX13" s="38" t="e">
+      <c r="AX13" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW13),AND(AW$4:AW12))),($J13*$G13-LN(1+Jumpoverwrite10*AY$2))/$G13,_xll.qlInterpolationInterpolate(,AW$3,$F13,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY13" s="38" t="str">
         <f>IF(AND(NOT(AW13),AND(AW$4:AW12)),MIN(EXP((AX13-$J13)*$G13),1),"")</f>
@@ -9756,9 +9756,9 @@
         <f>IF(AND(NOT(AW13),AND(AW$4:AW12)),TRUE,AW13)</f>
         <v>1</v>
       </c>
-      <c r="BB13" s="38" t="e">
+      <c r="BB13" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA13),AND(BA$4:BA12))),($J13*$G13-LN(1+Jumpoverwrite11*BC$2))/$G13,_xll.qlInterpolationInterpolate(,BA$3,$F13,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC13" s="38" t="str">
         <f>IF(AND(NOT(BA13),AND(BA$4:BA12)),MIN(EXP((BB13-$J13)*$G13),1),"")</f>
@@ -9768,9 +9768,9 @@
         <f>IF(AND(NOT(BA13),AND(BA$4:BA12)),TRUE,BA13)</f>
         <v>1</v>
       </c>
-      <c r="BF13" s="38" t="e">
+      <c r="BF13" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE13),AND(BE$4:BE12))),($J13*$G13-LN(1+Jumpoverwrite12*BG$2))/$G13,_xll.qlInterpolationInterpolate(,BE$3,$F13,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG13" s="38" t="str">
         <f>IF(AND(NOT(BE13),AND(BE$4:BE12)),MIN(EXP((BF13-$J13)*$G13),1),"")</f>
@@ -9780,9 +9780,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ13" s="38" t="e">
+      <c r="BJ13" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI13),AND(BI$4:BI12))),($J13*$G13-LN(1+jumpoverwrite13*BK$2))/$G13,_xll.qlInterpolationInterpolate(,BI$3,$F13,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK13" s="38" t="str">
         <f>IF(AND(NOT(BI13),AND(BI$4:BI12)),MIN(EXP((BJ13-$J13)*$G13),1),"")</f>
@@ -9790,48 +9790,48 @@
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B14" s="17" t="e">
+      <c r="A14" s="37" t="str">
+        <v>WEUREON5M</v>
+      </c>
+      <c r="B14" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" s="18" t="e">
+        <v>-1.16E-3</v>
+      </c>
+      <c r="C14" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D14" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D14" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A14)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F14" s="103" t="e">
+        <v>42291</v>
+      </c>
+      <c r="F14" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="104" t="e">
+        <v>42276</v>
+      </c>
+      <c r="G14" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D13,D14)</f>
-        <v>#NUM!</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I14" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K14" s="113" t="e">
+      <c r="J14" s="41">
+        <v>4.9999999996552302E-2</v>
+      </c>
+      <c r="K14" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42291</v>
       </c>
       <c r="L14" s="94"/>
       <c r="M14" s="85" t="b">
         <f>IF(AND(NOT(I14),AND(I$4:I13)),TRUE,I14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="38" t="e">
+      <c r="N14" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M14),AND(M$4:M13))),($J14*$G14-LN(1+Jumpoverwrite1*O$2))/$G14,_xll.qlInterpolationInterpolate(,M$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-0.22848101266130244</v>
       </c>
       <c r="O14" s="38" t="str">
         <f>IF(AND(NOT(M14),AND(M$4:M13)),MIN(EXP((N14-$J14)*$G14),1),"")</f>
@@ -9842,9 +9842,9 @@
         <f>IF(AND(NOT(M14),AND(M$4:M13)),TRUE,M14)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="38" t="e">
+      <c r="R14" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q14),AND(Q$4:Q13))),($J14*$G14-LN(1+Jumpoverwrite2*S$2))/$G14,_xll.qlInterpolationInterpolate(,Q$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-0.22848101266130244</v>
       </c>
       <c r="S14" s="38" t="str">
         <f>IF(AND(NOT(Q14),AND(Q$4:Q13)),MIN(EXP((R14-$J14)*$G14),1),"")</f>
@@ -9867,35 +9867,35 @@
         <f>IF(AND(NOT(U14),AND(U$4:U13)),TRUE,U14)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="38" t="e">
+      <c r="Z14" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y14),AND(Y$4:Y13))),($J14*$G14-LN(1+Jumpoverwrite4*AA$2))/$G14,_xll.qlInterpolationInterpolate(,Y$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA14" s="38" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AA14" s="38" t="str">
         <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),MIN(EXP((Z14-$J14)*$G14),1),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="AB14" s="127"/>
       <c r="AC14" s="85" t="b">
         <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),TRUE,Y14)</f>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="38">
+        <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC14),AND(AC$4:AC13))),($J14*$G14-LN(1+Jumpoverwrite5*AE$2))/$G14,_xll.qlInterpolationInterpolate(,AC$3,$F14,TRUE))</f>
+        <v>0.05</v>
+      </c>
+      <c r="AE14" s="38">
+        <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),MIN(EXP((AD14-$J14)*$G14),1),"")</f>
         <v>1</v>
-      </c>
-      <c r="AD14" s="38" t="e">
-        <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC14),AND(AC$4:AC13))),($J14*$G14-LN(1+Jumpoverwrite5*AE$2))/$G14,_xll.qlInterpolationInterpolate(,AC$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE14" s="38" t="str">
-        <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),MIN(EXP((AD14-$J14)*$G14),1),"")</f>
-        <v/>
       </c>
       <c r="AF14" s="127"/>
       <c r="AG14" s="85" t="b">
         <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),TRUE,AC14)</f>
         <v>1</v>
       </c>
-      <c r="AH14" s="38" t="e">
+      <c r="AH14" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG14),AND(AG$4:AG13))),($J14*$G14-LN(1+Jumpoverwrite6*AI$2))/$G14,_xll.qlInterpolationInterpolate(,AG$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI14" s="38" t="str">
         <f>IF(AND(NOT(AG14),AND(AG$4:AG13)),MIN(EXP((AH14-$J14)*$G14),1),"")</f>
@@ -9906,9 +9906,9 @@
         <f>IF(AND(NOT(AG14),AND(AG$4:AG13)),TRUE,AG14)</f>
         <v>1</v>
       </c>
-      <c r="AL14" s="38" t="e">
+      <c r="AL14" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK14),AND(AK$4:AK13))),($J14*$G14-LN(1+Jumpoverwrite7*AM$2))/$G14,_xll.qlInterpolationInterpolate(,AK$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM14" s="38" t="str">
         <f>IF(AND(NOT(AK14),AND(AK$4:AK13)),MIN(EXP((AL14-$J14)*$G14),1),"")</f>
@@ -9918,9 +9918,9 @@
         <f>IF(AND(NOT(AK14),AND(AK$4:AK13)),TRUE,AK14)</f>
         <v>1</v>
       </c>
-      <c r="AP14" s="38" t="e">
+      <c r="AP14" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO14),AND(AO$4:AO13))),($J14*$G14-LN(1+Jumpoverwrite8*AQ$2))/$G14,_xll.qlInterpolationInterpolate(,AO$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ14" s="38" t="str">
         <f>IF(AND(NOT(AO14),AND(AO$4:AO13)),MIN(EXP((AP14-$J14)*$G14),1),"")</f>
@@ -9930,9 +9930,9 @@
         <f>IF(AND(NOT(AO14),AND(AO$4:AO13)),TRUE,AO14)</f>
         <v>1</v>
       </c>
-      <c r="AT14" s="38" t="e">
+      <c r="AT14" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS14),AND(AS$4:AS13))),($J14*$G14-LN(1+Jumpoverwrite9*AU$2))/$G14,_xll.qlInterpolationInterpolate(,AS$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU14" s="38" t="str">
         <f>IF(AND(NOT(AS14),AND(AS$4:AS13)),MIN(EXP((AT14-$J14)*$G14),1),"")</f>
@@ -9942,9 +9942,9 @@
         <f>IF(AND(NOT(AS14),AND(AS$4:AS13)),TRUE,AS14)</f>
         <v>1</v>
       </c>
-      <c r="AX14" s="38" t="e">
+      <c r="AX14" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW14),AND(AW$4:AW13))),($J14*$G14-LN(1+Jumpoverwrite10*AY$2))/$G14,_xll.qlInterpolationInterpolate(,AW$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY14" s="38" t="str">
         <f>IF(AND(NOT(AW14),AND(AW$4:AW13)),MIN(EXP((AX14-$J14)*$G14),1),"")</f>
@@ -9954,9 +9954,9 @@
         <f>IF(AND(NOT(AW14),AND(AW$4:AW13)),TRUE,AW14)</f>
         <v>1</v>
       </c>
-      <c r="BB14" s="38" t="e">
+      <c r="BB14" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA14),AND(BA$4:BA13))),($J14*$G14-LN(1+Jumpoverwrite11*BC$2))/$G14,_xll.qlInterpolationInterpolate(,BA$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC14" s="38" t="str">
         <f>IF(AND(NOT(BA14),AND(BA$4:BA13)),MIN(EXP((BB14-$J14)*$G14),1),"")</f>
@@ -9966,9 +9966,9 @@
         <f>IF(AND(NOT(BA14),AND(BA$4:BA13)),TRUE,BA14)</f>
         <v>1</v>
       </c>
-      <c r="BF14" s="38" t="e">
+      <c r="BF14" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE14),AND(BE$4:BE13))),($J14*$G14-LN(1+Jumpoverwrite12*BG$2))/$G14,_xll.qlInterpolationInterpolate(,BE$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG14" s="38" t="str">
         <f>IF(AND(NOT(BE14),AND(BE$4:BE13)),MIN(EXP((BF14-$J14)*$G14),1),"")</f>
@@ -9976,60 +9976,60 @@
       </c>
       <c r="BI14" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ14" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI14),AND(BI$4:BI13))),($J14*$G14-LN(1+jumpoverwrite13*BK$2))/$G14,_xll.qlInterpolationInterpolate(,BI$3,$F14,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BK14" s="38" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="BK14" s="38" t="str">
         <f>IF(AND(NOT(BI14),AND(BI$4:BI13)),MIN(EXP((BJ14-$J14)*$G14),1),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B15" s="17" t="e">
+      <c r="A15" s="37" t="str">
+        <v>WEURECBOISSEP15</v>
+      </c>
+      <c r="B15" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" s="18" t="e">
+        <v>-1.1999999999999999E-3</v>
+      </c>
+      <c r="C15" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D15" s="19" t="e">
+        <v>42256</v>
+      </c>
+      <c r="D15" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A15)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F15" s="103" t="e">
+        <v>42305</v>
+      </c>
+      <c r="F15" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G15" s="104" t="e">
+        <v>42298</v>
+      </c>
+      <c r="G15" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D14,D15)</f>
-        <v>#NUM!</v>
+        <v>3.888888888888889E-2</v>
       </c>
       <c r="I15" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K15" s="113" t="e">
+        <v>1</v>
+      </c>
+      <c r="J15" s="41">
+        <v>4.9999999995688695E-2</v>
+      </c>
+      <c r="K15" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42305</v>
       </c>
       <c r="L15" s="94"/>
       <c r="M15" s="85" t="b">
         <f>IF(AND(NOT(I15),AND(I$4:I14)),TRUE,I15)</f>
-        <v>0</v>
-      </c>
-      <c r="N15" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="N15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M15),AND(M$4:M14))),($J15*$G15-LN(1+Jumpoverwrite1*O$2))/$G15,_xll.qlInterpolationInterpolate(,M$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>4.9999999995688695E-2</v>
       </c>
       <c r="O15" s="38" t="str">
         <f>IF(AND(NOT(M15),AND(M$4:M14)),MIN(EXP((N15-$J15)*$G15),1),"")</f>
@@ -10038,11 +10038,11 @@
       <c r="P15" s="127"/>
       <c r="Q15" s="85" t="b">
         <f>IF(AND(NOT(M15),AND(M$4:M14)),TRUE,M15)</f>
-        <v>0</v>
-      </c>
-      <c r="R15" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="R15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q15),AND(Q$4:Q14))),($J15*$G15-LN(1+Jumpoverwrite2*S$2))/$G15,_xll.qlInterpolationInterpolate(,Q$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>4.9999999995688695E-2</v>
       </c>
       <c r="S15" s="38" t="str">
         <f>IF(AND(NOT(Q15),AND(Q$4:Q14)),MIN(EXP((R15-$J15)*$G15),1),"")</f>
@@ -10051,7 +10051,7 @@
       <c r="T15" s="127"/>
       <c r="U15" s="85" t="b">
         <f>IF(AND(NOT(Q15),AND(Q$4:Q14)),TRUE,Q15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" s="38">
         <v>0.05</v>
@@ -10063,11 +10063,11 @@
       <c r="X15" s="127"/>
       <c r="Y15" s="85" t="b">
         <f>IF(AND(NOT(U15),AND(U$4:U14)),TRUE,U15)</f>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y15),AND(Y$4:Y14))),($J15*$G15-LN(1+Jumpoverwrite4*AA$2))/$G15,_xll.qlInterpolationInterpolate(,Y$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA15" s="38" t="str">
         <f>IF(AND(NOT(Y15),AND(Y$4:Y14)),MIN(EXP((Z15-$J15)*$G15),1),"")</f>
@@ -10076,24 +10076,24 @@
       <c r="AB15" s="127"/>
       <c r="AC15" s="85" t="b">
         <f>IF(AND(NOT(Y15),AND(Y$4:Y14)),TRUE,Y15)</f>
-        <v>0</v>
-      </c>
-      <c r="AD15" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC15),AND(AC$4:AC14))),($J15*$G15-LN(1+Jumpoverwrite5*AE$2))/$G15,_xll.qlInterpolationInterpolate(,AC$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AE15" s="38" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AE15" s="38" t="str">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),MIN(EXP((AD15-$J15)*$G15),1),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="AF15" s="127"/>
       <c r="AG15" s="85" t="b">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),TRUE,AC15)</f>
         <v>1</v>
       </c>
-      <c r="AH15" s="38" t="e">
+      <c r="AH15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG15),AND(AG$4:AG14))),($J15*$G15-LN(1+Jumpoverwrite6*AI$2))/$G15,_xll.qlInterpolationInterpolate(,AG$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI15" s="38" t="str">
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),MIN(EXP((AH15-$J15)*$G15),1),"")</f>
@@ -10104,9 +10104,9 @@
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),TRUE,AG15)</f>
         <v>1</v>
       </c>
-      <c r="AL15" s="38" t="e">
+      <c r="AL15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK15),AND(AK$4:AK14))),($J15*$G15-LN(1+Jumpoverwrite7*AM$2))/$G15,_xll.qlInterpolationInterpolate(,AK$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM15" s="38" t="str">
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),MIN(EXP((AL15-$J15)*$G15),1),"")</f>
@@ -10116,9 +10116,9 @@
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),TRUE,AK15)</f>
         <v>1</v>
       </c>
-      <c r="AP15" s="38" t="e">
+      <c r="AP15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO15),AND(AO$4:AO14))),($J15*$G15-LN(1+Jumpoverwrite8*AQ$2))/$G15,_xll.qlInterpolationInterpolate(,AO$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ15" s="38" t="str">
         <f>IF(AND(NOT(AO15),AND(AO$4:AO14)),MIN(EXP((AP15-$J15)*$G15),1),"")</f>
@@ -10128,9 +10128,9 @@
         <f>IF(AND(NOT(AO15),AND(AO$4:AO14)),TRUE,AO15)</f>
         <v>1</v>
       </c>
-      <c r="AT15" s="38" t="e">
+      <c r="AT15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS15),AND(AS$4:AS14))),($J15*$G15-LN(1+Jumpoverwrite9*AU$2))/$G15,_xll.qlInterpolationInterpolate(,AS$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU15" s="38" t="str">
         <f>IF(AND(NOT(AS15),AND(AS$4:AS14)),MIN(EXP((AT15-$J15)*$G15),1),"")</f>
@@ -10140,9 +10140,9 @@
         <f>IF(AND(NOT(AS15),AND(AS$4:AS14)),TRUE,AS15)</f>
         <v>1</v>
       </c>
-      <c r="AX15" s="38" t="e">
+      <c r="AX15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW15),AND(AW$4:AW14))),($J15*$G15-LN(1+Jumpoverwrite10*AY$2))/$G15,_xll.qlInterpolationInterpolate(,AW$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY15" s="38" t="str">
         <f>IF(AND(NOT(AW15),AND(AW$4:AW14)),MIN(EXP((AX15-$J15)*$G15),1),"")</f>
@@ -10152,9 +10152,9 @@
         <f>IF(AND(NOT(AW15),AND(AW$4:AW14)),TRUE,AW15)</f>
         <v>1</v>
       </c>
-      <c r="BB15" s="38" t="e">
+      <c r="BB15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA15),AND(BA$4:BA14))),($J15*$G15-LN(1+Jumpoverwrite11*BC$2))/$G15,_xll.qlInterpolationInterpolate(,BA$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC15" s="38" t="str">
         <f>IF(AND(NOT(BA15),AND(BA$4:BA14)),MIN(EXP((BB15-$J15)*$G15),1),"")</f>
@@ -10164,9 +10164,9 @@
         <f>IF(AND(NOT(BA15),AND(BA$4:BA14)),TRUE,BA15)</f>
         <v>1</v>
       </c>
-      <c r="BF15" s="38" t="e">
+      <c r="BF15" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE15),AND(BE$4:BE14))),($J15*$G15-LN(1+Jumpoverwrite12*BG$2))/$G15,_xll.qlInterpolationInterpolate(,BE$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG15" s="38" t="str">
         <f>IF(AND(NOT(BE15),AND(BE$4:BE14)),MIN(EXP((BF15-$J15)*$G15),1),"")</f>
@@ -10174,11 +10174,11 @@
       </c>
       <c r="BI15" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ15" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI15),AND(BI$4:BI14))),($J15*$G15-LN(1+jumpoverwrite13*BK$2))/$G15,_xll.qlInterpolationInterpolate(,BI$3,$F15,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK15" s="38" t="str">
         <f>IF(AND(NOT(BI15),AND(BI$4:BI14)),MIN(EXP((BJ15-$J15)*$G15),1),"")</f>
@@ -10186,48 +10186,48 @@
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B16" s="17" t="e">
+      <c r="A16" s="37" t="str">
+        <v>WEUREON6M</v>
+      </c>
+      <c r="B16" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" s="18" t="e">
+        <v>-1.16E-3</v>
+      </c>
+      <c r="C16" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D16" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D16" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A16)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F16" s="103" t="e">
+        <v>42324</v>
+      </c>
+      <c r="F16" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G16" s="104" t="e">
+        <v>42314.5</v>
+      </c>
+      <c r="G16" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D15,D16)</f>
-        <v>#NUM!</v>
+        <v>5.2777777777777778E-2</v>
       </c>
       <c r="I16" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K16" s="113" t="e">
+      <c r="J16" s="41">
+        <v>4.9999999995688695E-2</v>
+      </c>
+      <c r="K16" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42324</v>
       </c>
       <c r="L16" s="94"/>
       <c r="M16" s="85" t="b">
         <f>IF(AND(NOT(I16),AND(I$4:I15)),TRUE,I16)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="38" t="e">
+      <c r="N16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M16),AND(M$4:M15))),($J16*$G16-LN(1+Jumpoverwrite1*O$2))/$G16,_xll.qlInterpolationInterpolate(,M$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-0.28640776699322124</v>
       </c>
       <c r="O16" s="38" t="str">
         <f>IF(AND(NOT(M16),AND(M$4:M15)),MIN(EXP((N16-$J16)*$G16),1),"")</f>
@@ -10238,9 +10238,9 @@
         <f>IF(AND(NOT(M16),AND(M$4:M15)),TRUE,M16)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="38" t="e">
+      <c r="R16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q16),AND(Q$4:Q15))),($J16*$G16-LN(1+Jumpoverwrite2*S$2))/$G16,_xll.qlInterpolationInterpolate(,Q$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-0.28640776699322124</v>
       </c>
       <c r="S16" s="38" t="str">
         <f>IF(AND(NOT(Q16),AND(Q$4:Q15)),MIN(EXP((R16-$J16)*$G16),1),"")</f>
@@ -10263,9 +10263,9 @@
         <f>IF(AND(NOT(U16),AND(U$4:U15)),TRUE,U16)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="38" t="e">
+      <c r="Z16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y16),AND(Y$4:Y15))),($J16*$G16-LN(1+Jumpoverwrite4*AA$2))/$G16,_xll.qlInterpolationInterpolate(,Y$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA16" s="38" t="str">
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),MIN(EXP((Z16-$J16)*$G16),1),"")</f>
@@ -10276,9 +10276,9 @@
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),TRUE,Y16)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="38" t="e">
+      <c r="AD16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC16),AND(AC$4:AC15))),($J16*$G16-LN(1+Jumpoverwrite5*AE$2))/$G16,_xll.qlInterpolationInterpolate(,AC$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE16" s="38" t="str">
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),MIN(EXP((AD16-$J16)*$G16),1),"")</f>
@@ -10289,22 +10289,22 @@
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),TRUE,AC16)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="38" t="e">
+      <c r="AH16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG16),AND(AG$4:AG15))),($J16*$G16-LN(1+Jumpoverwrite6*AI$2))/$G16,_xll.qlInterpolationInterpolate(,AG$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AI16" s="38" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AI16" s="38">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),MIN(EXP((AH16-$J16)*$G16),1),"")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AJ16" s="127"/>
       <c r="AK16" s="85" t="b">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),TRUE,AG16)</f>
         <v>1</v>
       </c>
-      <c r="AL16" s="38" t="e">
+      <c r="AL16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK16),AND(AK$4:AK15))),($J16*$G16-LN(1+Jumpoverwrite7*AM$2))/$G16,_xll.qlInterpolationInterpolate(,AK$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM16" s="38" t="str">
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),MIN(EXP((AL16-$J16)*$G16),1),"")</f>
@@ -10314,9 +10314,9 @@
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),TRUE,AK16)</f>
         <v>1</v>
       </c>
-      <c r="AP16" s="38" t="e">
+      <c r="AP16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO16),AND(AO$4:AO15))),($J16*$G16-LN(1+Jumpoverwrite8*AQ$2))/$G16,_xll.qlInterpolationInterpolate(,AO$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ16" s="38" t="str">
         <f>IF(AND(NOT(AO16),AND(AO$4:AO15)),MIN(EXP((AP16-$J16)*$G16),1),"")</f>
@@ -10326,9 +10326,9 @@
         <f>IF(AND(NOT(AO16),AND(AO$4:AO15)),TRUE,AO16)</f>
         <v>1</v>
       </c>
-      <c r="AT16" s="38" t="e">
+      <c r="AT16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS16),AND(AS$4:AS15))),($J16*$G16-LN(1+Jumpoverwrite9*AU$2))/$G16,_xll.qlInterpolationInterpolate(,AS$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU16" s="38" t="str">
         <f>IF(AND(NOT(AS16),AND(AS$4:AS15)),MIN(EXP((AT16-$J16)*$G16),1),"")</f>
@@ -10338,9 +10338,9 @@
         <f>IF(AND(NOT(AS16),AND(AS$4:AS15)),TRUE,AS16)</f>
         <v>1</v>
       </c>
-      <c r="AX16" s="38" t="e">
+      <c r="AX16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW16),AND(AW$4:AW15))),($J16*$G16-LN(1+Jumpoverwrite10*AY$2))/$G16,_xll.qlInterpolationInterpolate(,AW$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY16" s="38" t="str">
         <f>IF(AND(NOT(AW16),AND(AW$4:AW15)),MIN(EXP((AX16-$J16)*$G16),1),"")</f>
@@ -10350,9 +10350,9 @@
         <f>IF(AND(NOT(AW16),AND(AW$4:AW15)),TRUE,AW16)</f>
         <v>1</v>
       </c>
-      <c r="BB16" s="38" t="e">
+      <c r="BB16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA16),AND(BA$4:BA15))),($J16*$G16-LN(1+Jumpoverwrite11*BC$2))/$G16,_xll.qlInterpolationInterpolate(,BA$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC16" s="38" t="str">
         <f>IF(AND(NOT(BA16),AND(BA$4:BA15)),MIN(EXP((BB16-$J16)*$G16),1),"")</f>
@@ -10362,9 +10362,9 @@
         <f>IF(AND(NOT(BA16),AND(BA$4:BA15)),TRUE,BA16)</f>
         <v>1</v>
       </c>
-      <c r="BF16" s="38" t="e">
+      <c r="BF16" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE16),AND(BE$4:BE15))),($J16*$G16-LN(1+Jumpoverwrite12*BG$2))/$G16,_xll.qlInterpolationInterpolate(,BE$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG16" s="38" t="str">
         <f>IF(AND(NOT(BE16),AND(BE$4:BE15)),MIN(EXP((BF16-$J16)*$G16),1),"")</f>
@@ -10372,11 +10372,11 @@
       </c>
       <c r="BI16" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ16" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI16),AND(BI$4:BI15))),($J16*$G16-LN(1+jumpoverwrite13*BK$2))/$G16,_xll.qlInterpolationInterpolate(,BI$3,$F16,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK16" s="38" t="str">
         <f>IF(AND(NOT(BI16),AND(BI$4:BI15)),MIN(EXP((BJ16-$J16)*$G16),1),"")</f>
@@ -10384,48 +10384,48 @@
       </c>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A17" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B17" s="17" t="e">
+      <c r="A17" s="37" t="str">
+        <v>WEURECBOISOCT15</v>
+      </c>
+      <c r="B17" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" s="18" t="e">
+        <v>-1.1899999999999999E-3</v>
+      </c>
+      <c r="C17" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17" s="19" t="e">
+        <v>42305</v>
+      </c>
+      <c r="D17" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A17)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F17" s="103" t="e">
+        <v>42347</v>
+      </c>
+      <c r="F17" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G17" s="104" t="e">
+        <v>42335.5</v>
+      </c>
+      <c r="G17" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D16,D17)</f>
-        <v>#NUM!</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="I17" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K17" s="113" t="e">
+      <c r="J17" s="41">
+        <v>4.9999999995688695E-2</v>
+      </c>
+      <c r="K17" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42347</v>
       </c>
       <c r="L17" s="94"/>
       <c r="M17" s="85" t="b">
         <f>IF(AND(NOT(I17),AND(I$4:I16)),TRUE,I17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="38" t="e">
+      <c r="N17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M17),AND(M$4:M16))),($J17*$G17-LN(1+Jumpoverwrite1*O$2))/$G17,_xll.qlInterpolationInterpolate(,M$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-0.71456310679728841</v>
       </c>
       <c r="O17" s="38" t="str">
         <f>IF(AND(NOT(M17),AND(M$4:M16)),MIN(EXP((N17-$J17)*$G17),1),"")</f>
@@ -10436,9 +10436,9 @@
         <f>IF(AND(NOT(M17),AND(M$4:M16)),TRUE,M17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="38" t="e">
+      <c r="R17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q17),AND(Q$4:Q16))),($J17*$G17-LN(1+Jumpoverwrite2*S$2))/$G17,_xll.qlInterpolationInterpolate(,Q$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-0.71456310679728841</v>
       </c>
       <c r="S17" s="38" t="str">
         <f>IF(AND(NOT(Q17),AND(Q$4:Q16)),MIN(EXP((R17-$J17)*$G17),1),"")</f>
@@ -10461,9 +10461,9 @@
         <f>IF(AND(NOT(U17),AND(U$4:U16)),TRUE,U17)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="38" t="e">
+      <c r="Z17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y17),AND(Y$4:Y16))),($J17*$G17-LN(1+Jumpoverwrite4*AA$2))/$G17,_xll.qlInterpolationInterpolate(,Y$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA17" s="38" t="str">
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),MIN(EXP((Z17-$J17)*$G17),1),"")</f>
@@ -10474,9 +10474,9 @@
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),TRUE,Y17)</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="38" t="e">
+      <c r="AD17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC17),AND(AC$4:AC16))),($J17*$G17-LN(1+Jumpoverwrite5*AE$2))/$G17,_xll.qlInterpolationInterpolate(,AC$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE17" s="38" t="str">
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),MIN(EXP((AD17-$J17)*$G17),1),"")</f>
@@ -10487,9 +10487,9 @@
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),TRUE,AC17)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="38" t="e">
+      <c r="AH17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG17),AND(AG$4:AG16))),($J17*$G17-LN(1+Jumpoverwrite6*AI$2))/$G17,_xll.qlInterpolationInterpolate(,AG$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI17" s="38" t="str">
         <f>IF(AND(NOT(AG17),AND(AG$4:AG16)),MIN(EXP((AH17-$J17)*$G17),1),"")</f>
@@ -10500,21 +10500,21 @@
         <f>IF(AND(NOT(AG17),AND(AG$4:AG16)),TRUE,AG17)</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="38" t="e">
+      <c r="AL17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK17),AND(AK$4:AK16))),($J17*$G17-LN(1+Jumpoverwrite7*AM$2))/$G17,_xll.qlInterpolationInterpolate(,AK$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AM17" s="38" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AM17" s="38">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),MIN(EXP((AL17-$J17)*$G17),1),"")</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="AO17" s="85" t="b">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),TRUE,AK17)</f>
         <v>1</v>
       </c>
-      <c r="AP17" s="38" t="e">
+      <c r="AP17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO17),AND(AO$4:AO16))),($J17*$G17-LN(1+Jumpoverwrite8*AQ$2))/$G17,_xll.qlInterpolationInterpolate(,AO$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ17" s="38" t="str">
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),MIN(EXP((AP17-$J17)*$G17),1),"")</f>
@@ -10524,9 +10524,9 @@
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),TRUE,AO17)</f>
         <v>1</v>
       </c>
-      <c r="AT17" s="38" t="e">
+      <c r="AT17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS17),AND(AS$4:AS16))),($J17*$G17-LN(1+Jumpoverwrite9*AU$2))/$G17,_xll.qlInterpolationInterpolate(,AS$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU17" s="38" t="str">
         <f>IF(AND(NOT(AS17),AND(AS$4:AS16)),MIN(EXP((AT17-$J17)*$G17),1),"")</f>
@@ -10536,9 +10536,9 @@
         <f>IF(AND(NOT(AS17),AND(AS$4:AS16)),TRUE,AS17)</f>
         <v>1</v>
       </c>
-      <c r="AX17" s="38" t="e">
+      <c r="AX17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW17),AND(AW$4:AW16))),($J17*$G17-LN(1+Jumpoverwrite10*AY$2))/$G17,_xll.qlInterpolationInterpolate(,AW$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY17" s="38" t="str">
         <f>IF(AND(NOT(AW17),AND(AW$4:AW16)),MIN(EXP((AX17-$J17)*$G17),1),"")</f>
@@ -10548,9 +10548,9 @@
         <f>IF(AND(NOT(AW17),AND(AW$4:AW16)),TRUE,AW17)</f>
         <v>1</v>
       </c>
-      <c r="BB17" s="38" t="e">
+      <c r="BB17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA17),AND(BA$4:BA16))),($J17*$G17-LN(1+Jumpoverwrite11*BC$2))/$G17,_xll.qlInterpolationInterpolate(,BA$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC17" s="38" t="str">
         <f>IF(AND(NOT(BA17),AND(BA$4:BA16)),MIN(EXP((BB17-$J17)*$G17),1),"")</f>
@@ -10560,9 +10560,9 @@
         <f>IF(AND(NOT(BA17),AND(BA$4:BA16)),TRUE,BA17)</f>
         <v>1</v>
       </c>
-      <c r="BF17" s="38" t="e">
+      <c r="BF17" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE17),AND(BE$4:BE16))),($J17*$G17-LN(1+Jumpoverwrite12*BG$2))/$G17,_xll.qlInterpolationInterpolate(,BE$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG17" s="38" t="str">
         <f>IF(AND(NOT(BE17),AND(BE$4:BE16)),MIN(EXP((BF17-$J17)*$G17),1),"")</f>
@@ -10570,11 +10570,11 @@
       </c>
       <c r="BI17" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ17" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI17),AND(BI$4:BI16))),($J17*$G17-LN(1+jumpoverwrite13*BK$2))/$G17,_xll.qlInterpolationInterpolate(,BI$3,$F17,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK17" s="38" t="str">
         <f>IF(AND(NOT(BI17),AND(BI$4:BI16)),MIN(EXP((BJ17-$J17)*$G17),1),"")</f>
@@ -10582,48 +10582,48 @@
       </c>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B18" s="17" t="e">
+      <c r="A18" s="37" t="str">
+        <v>WEUREON7M</v>
+      </c>
+      <c r="B18" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" s="18" t="e">
+        <v>-1.1799999999999998E-3</v>
+      </c>
+      <c r="C18" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D18" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D18" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A18)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F18" s="103" t="e">
+        <v>42352</v>
+      </c>
+      <c r="F18" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G18" s="104" t="e">
+        <v>42349.5</v>
+      </c>
+      <c r="G18" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D17,D18)</f>
-        <v>#NUM!</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="I18" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K18" s="113" t="e">
+        <v>1</v>
+      </c>
+      <c r="J18" s="41">
+        <v>-1</v>
+      </c>
+      <c r="K18" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42352</v>
       </c>
       <c r="L18" s="94"/>
       <c r="M18" s="85" t="b">
         <f>IF(AND(NOT(I18),AND(I$4:I17)),TRUE,I18)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="N18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M18),AND(M$4:M17))),($J18*$G18-LN(1+Jumpoverwrite1*O$2))/$G18,_xll.qlInterpolationInterpolate(,M$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-1</v>
       </c>
       <c r="O18" s="38" t="str">
         <f>IF(AND(NOT(M18),AND(M$4:M17)),MIN(EXP((N18-$J18)*$G18),1),"")</f>
@@ -10632,11 +10632,11 @@
       <c r="P18" s="127"/>
       <c r="Q18" s="85" t="b">
         <f>IF(AND(NOT(M18),AND(M$4:M17)),TRUE,M18)</f>
-        <v>0</v>
-      </c>
-      <c r="R18" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="R18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q18),AND(Q$4:Q17))),($J18*$G18-LN(1+Jumpoverwrite2*S$2))/$G18,_xll.qlInterpolationInterpolate(,Q$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-1</v>
       </c>
       <c r="S18" s="38" t="str">
         <f>IF(AND(NOT(Q18),AND(Q$4:Q17)),MIN(EXP((R18-$J18)*$G18),1),"")</f>
@@ -10645,7 +10645,7 @@
       <c r="T18" s="127"/>
       <c r="U18" s="85" t="b">
         <f>IF(AND(NOT(Q18),AND(Q$4:Q17)),TRUE,Q18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="38">
         <v>0.05</v>
@@ -10657,11 +10657,11 @@
       <c r="X18" s="127"/>
       <c r="Y18" s="85" t="b">
         <f>IF(AND(NOT(U18),AND(U$4:U17)),TRUE,U18)</f>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y18),AND(Y$4:Y17))),($J18*$G18-LN(1+Jumpoverwrite4*AA$2))/$G18,_xll.qlInterpolationInterpolate(,Y$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA18" s="38" t="str">
         <f>IF(AND(NOT(Y18),AND(Y$4:Y17)),MIN(EXP((Z18-$J18)*$G18),1),"")</f>
@@ -10670,11 +10670,11 @@
       <c r="AB18" s="127"/>
       <c r="AC18" s="85" t="b">
         <f>IF(AND(NOT(Y18),AND(Y$4:Y17)),TRUE,Y18)</f>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC18),AND(AC$4:AC17))),($J18*$G18-LN(1+Jumpoverwrite5*AE$2))/$G18,_xll.qlInterpolationInterpolate(,AC$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE18" s="38" t="str">
         <f>IF(AND(NOT(AC18),AND(AC$4:AC17)),MIN(EXP((AD18-$J18)*$G18),1),"")</f>
@@ -10683,11 +10683,11 @@
       <c r="AF18" s="127"/>
       <c r="AG18" s="85" t="b">
         <f>IF(AND(NOT(AC18),AND(AC$4:AC17)),TRUE,AC18)</f>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG18),AND(AG$4:AG17))),($J18*$G18-LN(1+Jumpoverwrite6*AI$2))/$G18,_xll.qlInterpolationInterpolate(,AG$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI18" s="38" t="str">
         <f>IF(AND(NOT(AG18),AND(AG$4:AG17)),MIN(EXP((AH18-$J18)*$G18),1),"")</f>
@@ -10696,11 +10696,11 @@
       <c r="AJ18" s="127"/>
       <c r="AK18" s="85" t="b">
         <f>IF(AND(NOT(AG18),AND(AG$4:AG17)),TRUE,AG18)</f>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK18),AND(AK$4:AK17))),($J18*$G18-LN(1+Jumpoverwrite7*AM$2))/$G18,_xll.qlInterpolationInterpolate(,AK$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM18" s="38" t="str">
         <f>IF(AND(NOT(AK18),AND(AK$4:AK17)),MIN(EXP((AL18-$J18)*$G18),1),"")</f>
@@ -10708,23 +10708,23 @@
       </c>
       <c r="AO18" s="85" t="b">
         <f>IF(AND(NOT(AK18),AND(AK$4:AK17)),TRUE,AK18)</f>
-        <v>0</v>
-      </c>
-      <c r="AP18" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO18),AND(AO$4:AO17))),($J18*$G18-LN(1+Jumpoverwrite8*AQ$2))/$G18,_xll.qlInterpolationInterpolate(,AO$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ18" s="38" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AQ18" s="38" t="str">
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),MIN(EXP((AP18-$J18)*$G18),1),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="AS18" s="85" t="b">
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),TRUE,AO18)</f>
         <v>1</v>
       </c>
-      <c r="AT18" s="38" t="e">
+      <c r="AT18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS18),AND(AS$4:AS17))),($J18*$G18-LN(1+Jumpoverwrite9*AU$2))/$G18,_xll.qlInterpolationInterpolate(,AS$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU18" s="38" t="str">
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),MIN(EXP((AT18-$J18)*$G18),1),"")</f>
@@ -10734,9 +10734,9 @@
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),TRUE,AS18)</f>
         <v>1</v>
       </c>
-      <c r="AX18" s="38" t="e">
+      <c r="AX18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW18),AND(AW$4:AW17))),($J18*$G18-LN(1+Jumpoverwrite10*AY$2))/$G18,_xll.qlInterpolationInterpolate(,AW$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY18" s="38" t="str">
         <f>IF(AND(NOT(AW18),AND(AW$4:AW17)),MIN(EXP((AX18-$J18)*$G18),1),"")</f>
@@ -10746,9 +10746,9 @@
         <f>IF(AND(NOT(AW18),AND(AW$4:AW17)),TRUE,AW18)</f>
         <v>1</v>
       </c>
-      <c r="BB18" s="38" t="e">
+      <c r="BB18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA18),AND(BA$4:BA17))),($J18*$G18-LN(1+Jumpoverwrite11*BC$2))/$G18,_xll.qlInterpolationInterpolate(,BA$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC18" s="38" t="str">
         <f>IF(AND(NOT(BA18),AND(BA$4:BA17)),MIN(EXP((BB18-$J18)*$G18),1),"")</f>
@@ -10758,9 +10758,9 @@
         <f>IF(AND(NOT(BA18),AND(BA$4:BA17)),TRUE,BA18)</f>
         <v>1</v>
       </c>
-      <c r="BF18" s="38" t="e">
+      <c r="BF18" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE18),AND(BE$4:BE17))),($J18*$G18-LN(1+Jumpoverwrite12*BG$2))/$G18,_xll.qlInterpolationInterpolate(,BE$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG18" s="38" t="str">
         <f>IF(AND(NOT(BE18),AND(BE$4:BE17)),MIN(EXP((BF18-$J18)*$G18),1),"")</f>
@@ -10768,11 +10768,11 @@
       </c>
       <c r="BI18" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ18" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI18),AND(BI$4:BI17))),($J18*$G18-LN(1+jumpoverwrite13*BK$2))/$G18,_xll.qlInterpolationInterpolate(,BI$3,$F18,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK18" s="38" t="str">
         <f>IF(AND(NOT(BI18),AND(BI$4:BI17)),MIN(EXP((BJ18-$J18)*$G18),1),"")</f>
@@ -10780,48 +10780,48 @@
       </c>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B19" s="17" t="e">
+      <c r="A19" s="37" t="str">
+        <v>WEUREON8M</v>
+      </c>
+      <c r="B19" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" s="18" t="e">
+        <v>-1.16E-3</v>
+      </c>
+      <c r="C19" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D19" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D19" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A19)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" s="103" t="e">
+        <v>42383</v>
+      </c>
+      <c r="F19" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G19" s="104" t="e">
+        <v>42367.5</v>
+      </c>
+      <c r="G19" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D18,D19)</f>
-        <v>#NUM!</v>
+        <v>8.611111111111111E-2</v>
       </c>
       <c r="I19" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K19" s="113" t="e">
+      <c r="J19" s="41">
+        <v>-1.3910476811838102E-3</v>
+      </c>
+      <c r="K19" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42383</v>
       </c>
       <c r="L19" s="94"/>
       <c r="M19" s="85" t="b">
         <f>IF(AND(NOT(I19),AND(I$4:I18)),TRUE,I19)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="38" t="e">
+      <c r="N19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M19),AND(M$4:M18))),($J19*$G19-LN(1+Jumpoverwrite1*O$2))/$G19,_xll.qlInterpolationInterpolate(,M$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-0.31708959134859915</v>
       </c>
       <c r="O19" s="38" t="str">
         <f>IF(AND(NOT(M19),AND(M$4:M18)),MIN(EXP((N19-$J19)*$G19),1),"")</f>
@@ -10832,9 +10832,9 @@
         <f>IF(AND(NOT(M19),AND(M$4:M18)),TRUE,M19)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="38" t="e">
+      <c r="R19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q19),AND(Q$4:Q18))),($J19*$G19-LN(1+Jumpoverwrite2*S$2))/$G19,_xll.qlInterpolationInterpolate(,Q$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-0.31708959134859915</v>
       </c>
       <c r="S19" s="38" t="str">
         <f>IF(AND(NOT(Q19),AND(Q$4:Q18)),MIN(EXP((R19-$J19)*$G19),1),"")</f>
@@ -10857,9 +10857,9 @@
         <f>IF(AND(NOT(U19),AND(U$4:U18)),TRUE,U19)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="38" t="e">
+      <c r="Z19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y19),AND(Y$4:Y18))),($J19*$G19-LN(1+Jumpoverwrite4*AA$2))/$G19,_xll.qlInterpolationInterpolate(,Y$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA19" s="38" t="str">
         <f>IF(AND(NOT(Y19),AND(Y$4:Y18)),MIN(EXP((Z19-$J19)*$G19),1),"")</f>
@@ -10870,9 +10870,9 @@
         <f>IF(AND(NOT(Y19),AND(Y$4:Y18)),TRUE,Y19)</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="38" t="e">
+      <c r="AD19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC19),AND(AC$4:AC18))),($J19*$G19-LN(1+Jumpoverwrite5*AE$2))/$G19,_xll.qlInterpolationInterpolate(,AC$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE19" s="38" t="str">
         <f>IF(AND(NOT(AC19),AND(AC$4:AC18)),MIN(EXP((AD19-$J19)*$G19),1),"")</f>
@@ -10883,9 +10883,9 @@
         <f>IF(AND(NOT(AC19),AND(AC$4:AC18)),TRUE,AC19)</f>
         <v>0</v>
       </c>
-      <c r="AH19" s="38" t="e">
+      <c r="AH19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG19),AND(AG$4:AG18))),($J19*$G19-LN(1+Jumpoverwrite6*AI$2))/$G19,_xll.qlInterpolationInterpolate(,AG$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI19" s="38" t="str">
         <f>IF(AND(NOT(AG19),AND(AG$4:AG18)),MIN(EXP((AH19-$J19)*$G19),1),"")</f>
@@ -10896,9 +10896,9 @@
         <f>IF(AND(NOT(AG19),AND(AG$4:AG18)),TRUE,AG19)</f>
         <v>0</v>
       </c>
-      <c r="AL19" s="38" t="e">
+      <c r="AL19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK19),AND(AK$4:AK18))),($J19*$G19-LN(1+Jumpoverwrite7*AM$2))/$G19,_xll.qlInterpolationInterpolate(,AK$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM19" s="38" t="str">
         <f>IF(AND(NOT(AK19),AND(AK$4:AK18)),MIN(EXP((AL19-$J19)*$G19),1),"")</f>
@@ -10908,33 +10908,33 @@
         <f>IF(AND(NOT(AK19),AND(AK$4:AK18)),TRUE,AK19)</f>
         <v>0</v>
       </c>
-      <c r="AP19" s="38" t="e">
+      <c r="AP19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO19),AND(AO$4:AO18))),($J19*$G19-LN(1+Jumpoverwrite8*AQ$2))/$G19,_xll.qlInterpolationInterpolate(,AO$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AQ19" s="38" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="AQ19" s="38">
         <f>IF(AND(NOT(AO19),AND(AO$4:AO18)),MIN(EXP((AP19-$J19)*$G19),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AS19" s="85" t="b">
         <f>IF(AND(NOT(AO19),AND(AO$4:AO18)),TRUE,AO19)</f>
-        <v>0</v>
-      </c>
-      <c r="AT19" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AT19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS19),AND(AS$4:AS18))),($J19*$G19-LN(1+Jumpoverwrite9*AU$2))/$G19,_xll.qlInterpolationInterpolate(,AS$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU19" s="38" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AU19" s="38" t="str">
         <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),MIN(EXP((AT19-$J19)*$G19),1),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="AW19" s="85" t="b">
         <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),TRUE,AS19)</f>
         <v>1</v>
       </c>
-      <c r="AX19" s="38" t="e">
+      <c r="AX19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW19),AND(AW$4:AW18))),($J19*$G19-LN(1+Jumpoverwrite10*AY$2))/$G19,_xll.qlInterpolationInterpolate(,AW$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY19" s="38" t="str">
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),MIN(EXP((AX19-$J19)*$G19),1),"")</f>
@@ -10944,9 +10944,9 @@
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),TRUE,AW19)</f>
         <v>1</v>
       </c>
-      <c r="BB19" s="38" t="e">
+      <c r="BB19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA19),AND(BA$4:BA18))),($J19*$G19-LN(1+Jumpoverwrite11*BC$2))/$G19,_xll.qlInterpolationInterpolate(,BA$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC19" s="38" t="str">
         <f>IF(AND(NOT(BA19),AND(BA$4:BA18)),MIN(EXP((BB19-$J19)*$G19),1),"")</f>
@@ -10956,9 +10956,9 @@
         <f>IF(AND(NOT(BA19),AND(BA$4:BA18)),TRUE,BA19)</f>
         <v>1</v>
       </c>
-      <c r="BF19" s="38" t="e">
+      <c r="BF19" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE19),AND(BE$4:BE18))),($J19*$G19-LN(1+Jumpoverwrite12*BG$2))/$G19,_xll.qlInterpolationInterpolate(,BE$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG19" s="38" t="str">
         <f>IF(AND(NOT(BE19),AND(BE$4:BE18)),MIN(EXP((BF19-$J19)*$G19),1),"")</f>
@@ -10966,11 +10966,11 @@
       </c>
       <c r="BI19" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ19" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI19),AND(BI$4:BI18))),($J19*$G19-LN(1+jumpoverwrite13*BK$2))/$G19,_xll.qlInterpolationInterpolate(,BI$3,$F19,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK19" s="38" t="str">
         <f>IF(AND(NOT(BI19),AND(BI$4:BI18)),MIN(EXP((BJ19-$J19)*$G19),1),"")</f>
@@ -10978,48 +10978,48 @@
       </c>
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B20" s="17" t="e">
+      <c r="A20" s="37" t="str">
+        <v>WEURECBOISDEC15</v>
+      </c>
+      <c r="B20" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" s="18" t="e">
+        <v>-1.1799999999999998E-3</v>
+      </c>
+      <c r="C20" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D20" s="19" t="e">
+        <v>42347</v>
+      </c>
+      <c r="D20" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A20)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F20" s="103" t="e">
+        <v>42395</v>
+      </c>
+      <c r="F20" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G20" s="104" t="e">
+        <v>42389</v>
+      </c>
+      <c r="G20" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D19,D20)</f>
-        <v>#NUM!</v>
+        <v>3.3333333333333333E-2</v>
       </c>
       <c r="I20" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K20" s="113" t="e">
+        <v>1</v>
+      </c>
+      <c r="J20" s="41">
+        <v>0.49860895231835162</v>
+      </c>
+      <c r="K20" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42395</v>
       </c>
       <c r="L20" s="94"/>
       <c r="M20" s="85" t="b">
         <f>IF(AND(NOT(I20),AND(I$4:I19)),TRUE,I20)</f>
-        <v>0</v>
-      </c>
-      <c r="N20" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="N20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M20),AND(M$4:M19))),($J20*$G20-LN(1+Jumpoverwrite1*O$2))/$G20,_xll.qlInterpolationInterpolate(,M$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.49860895231835162</v>
       </c>
       <c r="O20" s="38" t="str">
         <f>IF(AND(NOT(M20),AND(M$4:M19)),MIN(EXP((N20-$J20)*$G20),1),"")</f>
@@ -11028,11 +11028,11 @@
       <c r="P20" s="127"/>
       <c r="Q20" s="85" t="b">
         <f>IF(AND(NOT(M20),AND(M$4:M19)),TRUE,M20)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="R20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q20),AND(Q$4:Q19))),($J20*$G20-LN(1+Jumpoverwrite2*S$2))/$G20,_xll.qlInterpolationInterpolate(,Q$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.49860895231835162</v>
       </c>
       <c r="S20" s="38" t="str">
         <f>IF(AND(NOT(Q20),AND(Q$4:Q19)),MIN(EXP((R20-$J20)*$G20),1),"")</f>
@@ -11041,7 +11041,7 @@
       <c r="T20" s="127"/>
       <c r="U20" s="85" t="b">
         <f>IF(AND(NOT(Q20),AND(Q$4:Q19)),TRUE,Q20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="38">
         <v>0.05</v>
@@ -11053,11 +11053,11 @@
       <c r="X20" s="127"/>
       <c r="Y20" s="85" t="b">
         <f>IF(AND(NOT(U20),AND(U$4:U19)),TRUE,U20)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y20),AND(Y$4:Y19))),($J20*$G20-LN(1+Jumpoverwrite4*AA$2))/$G20,_xll.qlInterpolationInterpolate(,Y$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA20" s="38" t="str">
         <f>IF(AND(NOT(Y20),AND(Y$4:Y19)),MIN(EXP((Z20-$J20)*$G20),1),"")</f>
@@ -11066,11 +11066,11 @@
       <c r="AB20" s="127"/>
       <c r="AC20" s="85" t="b">
         <f>IF(AND(NOT(Y20),AND(Y$4:Y19)),TRUE,Y20)</f>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC20),AND(AC$4:AC19))),($J20*$G20-LN(1+Jumpoverwrite5*AE$2))/$G20,_xll.qlInterpolationInterpolate(,AC$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE20" s="38" t="str">
         <f>IF(AND(NOT(AC20),AND(AC$4:AC19)),MIN(EXP((AD20-$J20)*$G20),1),"")</f>
@@ -11079,11 +11079,11 @@
       <c r="AF20" s="127"/>
       <c r="AG20" s="85" t="b">
         <f>IF(AND(NOT(AC20),AND(AC$4:AC19)),TRUE,AC20)</f>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG20),AND(AG$4:AG19))),($J20*$G20-LN(1+Jumpoverwrite6*AI$2))/$G20,_xll.qlInterpolationInterpolate(,AG$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI20" s="38" t="str">
         <f>IF(AND(NOT(AG20),AND(AG$4:AG19)),MIN(EXP((AH20-$J20)*$G20),1),"")</f>
@@ -11092,11 +11092,11 @@
       <c r="AJ20" s="127"/>
       <c r="AK20" s="85" t="b">
         <f>IF(AND(NOT(AG20),AND(AG$4:AG19)),TRUE,AG20)</f>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK20),AND(AK$4:AK19))),($J20*$G20-LN(1+Jumpoverwrite7*AM$2))/$G20,_xll.qlInterpolationInterpolate(,AK$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM20" s="38" t="str">
         <f>IF(AND(NOT(AK20),AND(AK$4:AK19)),MIN(EXP((AL20-$J20)*$G20),1),"")</f>
@@ -11104,11 +11104,11 @@
       </c>
       <c r="AO20" s="85" t="b">
         <f>IF(AND(NOT(AK20),AND(AK$4:AK19)),TRUE,AK20)</f>
-        <v>0</v>
-      </c>
-      <c r="AP20" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO20),AND(AO$4:AO19))),($J20*$G20-LN(1+Jumpoverwrite8*AQ$2))/$G20,_xll.qlInterpolationInterpolate(,AO$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ20" s="38" t="str">
         <f>IF(AND(NOT(AO20),AND(AO$4:AO19)),MIN(EXP((AP20-$J20)*$G20),1),"")</f>
@@ -11116,11 +11116,11 @@
       </c>
       <c r="AS20" s="85" t="b">
         <f>IF(AND(NOT(AO20),AND(AO$4:AO19)),TRUE,AO20)</f>
-        <v>0</v>
-      </c>
-      <c r="AT20" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS20),AND(AS$4:AS19))),($J20*$G20-LN(1+Jumpoverwrite9*AU$2))/$G20,_xll.qlInterpolationInterpolate(,AS$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU20" s="38" t="str">
         <f>IF(AND(NOT(AS20),AND(AS$4:AS19)),MIN(EXP((AT20-$J20)*$G20),1),"")</f>
@@ -11128,23 +11128,23 @@
       </c>
       <c r="AW20" s="85" t="b">
         <f>IF(AND(NOT(AS20),AND(AS$4:AS19)),TRUE,AS20)</f>
-        <v>0</v>
-      </c>
-      <c r="AX20" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AX20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW20),AND(AW$4:AW19))),($J20*$G20-LN(1+Jumpoverwrite10*AY$2))/$G20,_xll.qlInterpolationInterpolate(,AW$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY20" s="38" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="AY20" s="38" t="str">
         <f>IF(AND(NOT(AW20),AND(AW$4:AW19)),MIN(EXP((AX20-$J20)*$G20),1),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="BA20" s="85" t="b">
         <f>IF(AND(NOT(AW20),AND(AW$4:AW19)),TRUE,AW20)</f>
         <v>1</v>
       </c>
-      <c r="BB20" s="38" t="e">
+      <c r="BB20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA20),AND(BA$4:BA19))),($J20*$G20-LN(1+Jumpoverwrite11*BC$2))/$G20,_xll.qlInterpolationInterpolate(,BA$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC20" s="38" t="str">
         <f>IF(AND(NOT(BA20),AND(BA$4:BA19)),MIN(EXP((BB20-$J20)*$G20),1),"")</f>
@@ -11154,9 +11154,9 @@
         <f>IF(AND(NOT(BA20),AND(BA$4:BA19)),TRUE,BA20)</f>
         <v>1</v>
       </c>
-      <c r="BF20" s="38" t="e">
+      <c r="BF20" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE20),AND(BE$4:BE19))),($J20*$G20-LN(1+Jumpoverwrite12*BG$2))/$G20,_xll.qlInterpolationInterpolate(,BE$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG20" s="38" t="str">
         <f>IF(AND(NOT(BE20),AND(BE$4:BE19)),MIN(EXP((BF20-$J20)*$G20),1),"")</f>
@@ -11164,11 +11164,11 @@
       </c>
       <c r="BI20" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ20" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI20),AND(BI$4:BI19))),($J20*$G20-LN(1+jumpoverwrite13*BK$2))/$G20,_xll.qlInterpolationInterpolate(,BI$3,$F20,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK20" s="38" t="str">
         <f>IF(AND(NOT(BI20),AND(BI$4:BI19)),MIN(EXP((BJ20-$J20)*$G20),1),"")</f>
@@ -11176,48 +11176,48 @@
       </c>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B21" s="17" t="e">
+      <c r="A21" s="37" t="str">
+        <v>WEUREON9M</v>
+      </c>
+      <c r="B21" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C21" s="18" t="e">
+        <v>-1.17E-3</v>
+      </c>
+      <c r="C21" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D21" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D21" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A21)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F21" s="103" t="e">
+        <v>42415</v>
+      </c>
+      <c r="F21" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G21" s="104" t="e">
+        <v>42405</v>
+      </c>
+      <c r="G21" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D20,D21)</f>
-        <v>#NUM!</v>
+        <v>5.5555555555555552E-2</v>
       </c>
       <c r="I21" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K21" s="113" t="e">
+      <c r="J21" s="41">
+        <v>-0.27630914178443888</v>
+      </c>
+      <c r="K21" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42415</v>
       </c>
       <c r="L21" s="94"/>
       <c r="M21" s="85" t="b">
         <f>IF(AND(NOT(I21),AND(I$4:I20)),TRUE,I21)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="38" t="e">
+      <c r="N21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M21),AND(M$4:M20))),($J21*$G21-LN(1+Jumpoverwrite1*O$2))/$G21,_xll.qlInterpolationInterpolate(,M$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.49885219562880373</v>
       </c>
       <c r="O21" s="38" t="str">
         <f>IF(AND(NOT(M21),AND(M$4:M20)),MIN(EXP((N21-$J21)*$G21),1),"")</f>
@@ -11228,9 +11228,9 @@
         <f>IF(AND(NOT(M21),AND(M$4:M20)),TRUE,M21)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="38" t="e">
+      <c r="R21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q21),AND(Q$4:Q20))),($J21*$G21-LN(1+Jumpoverwrite2*S$2))/$G21,_xll.qlInterpolationInterpolate(,Q$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.49885219562880373</v>
       </c>
       <c r="S21" s="38" t="str">
         <f>IF(AND(NOT(Q21),AND(Q$4:Q20)),MIN(EXP((R21-$J21)*$G21),1),"")</f>
@@ -11253,9 +11253,9 @@
         <f>IF(AND(NOT(U21),AND(U$4:U20)),TRUE,U21)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="38" t="e">
+      <c r="Z21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y21),AND(Y$4:Y20))),($J21*$G21-LN(1+Jumpoverwrite4*AA$2))/$G21,_xll.qlInterpolationInterpolate(,Y$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA21" s="38" t="str">
         <f>IF(AND(NOT(Y21),AND(Y$4:Y20)),MIN(EXP((Z21-$J21)*$G21),1),"")</f>
@@ -11266,9 +11266,9 @@
         <f>IF(AND(NOT(Y21),AND(Y$4:Y20)),TRUE,Y21)</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="38" t="e">
+      <c r="AD21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC21),AND(AC$4:AC20))),($J21*$G21-LN(1+Jumpoverwrite5*AE$2))/$G21,_xll.qlInterpolationInterpolate(,AC$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE21" s="38" t="str">
         <f>IF(AND(NOT(AC21),AND(AC$4:AC20)),MIN(EXP((AD21-$J21)*$G21),1),"")</f>
@@ -11279,9 +11279,9 @@
         <f>IF(AND(NOT(AC21),AND(AC$4:AC20)),TRUE,AC21)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="38" t="e">
+      <c r="AH21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG21),AND(AG$4:AG20))),($J21*$G21-LN(1+Jumpoverwrite6*AI$2))/$G21,_xll.qlInterpolationInterpolate(,AG$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI21" s="38" t="str">
         <f>IF(AND(NOT(AG21),AND(AG$4:AG20)),MIN(EXP((AH21-$J21)*$G21),1),"")</f>
@@ -11292,9 +11292,9 @@
         <f>IF(AND(NOT(AG21),AND(AG$4:AG20)),TRUE,AG21)</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="38" t="e">
+      <c r="AL21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK21),AND(AK$4:AK20))),($J21*$G21-LN(1+Jumpoverwrite7*AM$2))/$G21,_xll.qlInterpolationInterpolate(,AK$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM21" s="38" t="str">
         <f>IF(AND(NOT(AK21),AND(AK$4:AK20)),MIN(EXP((AL21-$J21)*$G21),1),"")</f>
@@ -11304,9 +11304,9 @@
         <f>IF(AND(NOT(AK21),AND(AK$4:AK20)),TRUE,AK21)</f>
         <v>0</v>
       </c>
-      <c r="AP21" s="38" t="e">
+      <c r="AP21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO21),AND(AO$4:AO20))),($J21*$G21-LN(1+Jumpoverwrite8*AQ$2))/$G21,_xll.qlInterpolationInterpolate(,AO$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ21" s="38" t="str">
         <f>IF(AND(NOT(AO21),AND(AO$4:AO20)),MIN(EXP((AP21-$J21)*$G21),1),"")</f>
@@ -11316,21 +11316,21 @@
         <f>IF(AND(NOT(AO21),AND(AO$4:AO20)),TRUE,AO21)</f>
         <v>0</v>
       </c>
-      <c r="AT21" s="38" t="e">
+      <c r="AT21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS21),AND(AS$4:AS20))),($J21*$G21-LN(1+Jumpoverwrite9*AU$2))/$G21,_xll.qlInterpolationInterpolate(,AS$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AU21" s="38" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="AU21" s="38">
         <f>IF(AND(NOT(AS21),AND(AS$4:AS20)),MIN(EXP((AT21-$J21)*$G21),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AW21" s="85" t="b">
         <f>IF(AND(NOT(AS21),AND(AS$4:AS20)),TRUE,AS21)</f>
-        <v>0</v>
-      </c>
-      <c r="AX21" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AX21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW21),AND(AW$4:AW20))),($J21*$G21-LN(1+Jumpoverwrite10*AY$2))/$G21,_xll.qlInterpolationInterpolate(,AW$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY21" s="38" t="str">
         <f>IF(AND(NOT(AW21),AND(AW$4:AW20)),MIN(EXP((AX21-$J21)*$G21),1),"")</f>
@@ -11338,23 +11338,23 @@
       </c>
       <c r="BA21" s="85" t="b">
         <f>IF(AND(NOT(AW21),AND(AW$4:AW20)),TRUE,AW21)</f>
-        <v>0</v>
-      </c>
-      <c r="BB21" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BB21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA21),AND(BA$4:BA20))),($J21*$G21-LN(1+Jumpoverwrite11*BC$2))/$G21,_xll.qlInterpolationInterpolate(,BA$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC21" s="38" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="BC21" s="38" t="str">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),MIN(EXP((BB21-$J21)*$G21),1),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="BE21" s="85" t="b">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),TRUE,BA21)</f>
         <v>1</v>
       </c>
-      <c r="BF21" s="38" t="e">
+      <c r="BF21" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE21),AND(BE$4:BE20))),($J21*$G21-LN(1+Jumpoverwrite12*BG$2))/$G21,_xll.qlInterpolationInterpolate(,BE$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG21" s="38" t="str">
         <f>IF(AND(NOT(BE21),AND(BE$4:BE20)),MIN(EXP((BF21-$J21)*$G21),1),"")</f>
@@ -11362,11 +11362,11 @@
       </c>
       <c r="BI21" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ21" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI21),AND(BI$4:BI20))),($J21*$G21-LN(1+jumpoverwrite13*BK$2))/$G21,_xll.qlInterpolationInterpolate(,BI$3,$F21,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK21" s="38" t="str">
         <f>IF(AND(NOT(BI21),AND(BI$4:BI20)),MIN(EXP((BJ21-$J21)*$G21),1),"")</f>
@@ -11374,48 +11374,48 @@
       </c>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B22" s="17" t="e">
+      <c r="A22" s="37" t="str">
+        <v>WEURECBOISJAN16</v>
+      </c>
+      <c r="B22" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C22" s="18" t="e">
+        <v>-1.1899999999999999E-3</v>
+      </c>
+      <c r="C22" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D22" s="19" t="e">
+        <v>42395</v>
+      </c>
+      <c r="D22" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A22)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F22" s="103" t="e">
+        <v>42445</v>
+      </c>
+      <c r="F22" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G22" s="104" t="e">
+        <v>42430</v>
+      </c>
+      <c r="G22" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D21,D22)</f>
-        <v>#NUM!</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="I22" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K22" s="113" t="e">
+      <c r="J22" s="41">
+        <v>0.22369085821664864</v>
+      </c>
+      <c r="K22" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42445</v>
       </c>
       <c r="L22" s="94"/>
       <c r="M22" s="85" t="b">
         <f>IF(AND(NOT(I22),AND(I$4:I21)),TRUE,I22)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="38" t="e">
+      <c r="N22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M22),AND(M$4:M21))),($J22*$G22-LN(1+Jumpoverwrite1*O$2))/$G22,_xll.qlInterpolationInterpolate(,M$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.49923226330138509</v>
       </c>
       <c r="O22" s="38" t="str">
         <f>IF(AND(NOT(M22),AND(M$4:M21)),MIN(EXP((N22-$J22)*$G22),1),"")</f>
@@ -11426,9 +11426,9 @@
         <f>IF(AND(NOT(M22),AND(M$4:M21)),TRUE,M22)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="38" t="e">
+      <c r="R22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q22),AND(Q$4:Q21))),($J22*$G22-LN(1+Jumpoverwrite2*S$2))/$G22,_xll.qlInterpolationInterpolate(,Q$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.49923226330138509</v>
       </c>
       <c r="S22" s="38" t="str">
         <f>IF(AND(NOT(Q22),AND(Q$4:Q21)),MIN(EXP((R22-$J22)*$G22),1),"")</f>
@@ -11451,9 +11451,9 @@
         <f>IF(AND(NOT(U22),AND(U$4:U21)),TRUE,U22)</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="38" t="e">
+      <c r="Z22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y22),AND(Y$4:Y21))),($J22*$G22-LN(1+Jumpoverwrite4*AA$2))/$G22,_xll.qlInterpolationInterpolate(,Y$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA22" s="38" t="str">
         <f>IF(AND(NOT(Y22),AND(Y$4:Y21)),MIN(EXP((Z22-$J22)*$G22),1),"")</f>
@@ -11464,9 +11464,9 @@
         <f>IF(AND(NOT(Y22),AND(Y$4:Y21)),TRUE,Y22)</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="38" t="e">
+      <c r="AD22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC22),AND(AC$4:AC21))),($J22*$G22-LN(1+Jumpoverwrite5*AE$2))/$G22,_xll.qlInterpolationInterpolate(,AC$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE22" s="38" t="str">
         <f>IF(AND(NOT(AC22),AND(AC$4:AC21)),MIN(EXP((AD22-$J22)*$G22),1),"")</f>
@@ -11477,9 +11477,9 @@
         <f>IF(AND(NOT(AC22),AND(AC$4:AC21)),TRUE,AC22)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="38" t="e">
+      <c r="AH22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG22),AND(AG$4:AG21))),($J22*$G22-LN(1+Jumpoverwrite6*AI$2))/$G22,_xll.qlInterpolationInterpolate(,AG$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI22" s="38" t="str">
         <f>IF(AND(NOT(AG22),AND(AG$4:AG21)),MIN(EXP((AH22-$J22)*$G22),1),"")</f>
@@ -11490,9 +11490,9 @@
         <f>IF(AND(NOT(AG22),AND(AG$4:AG21)),TRUE,AG22)</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="38" t="e">
+      <c r="AL22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK22),AND(AK$4:AK21))),($J22*$G22-LN(1+Jumpoverwrite7*AM$2))/$G22,_xll.qlInterpolationInterpolate(,AK$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM22" s="38" t="str">
         <f>IF(AND(NOT(AK22),AND(AK$4:AK21)),MIN(EXP((AL22-$J22)*$G22),1),"")</f>
@@ -11502,9 +11502,9 @@
         <f>IF(AND(NOT(AK22),AND(AK$4:AK21)),TRUE,AK22)</f>
         <v>0</v>
       </c>
-      <c r="AP22" s="38" t="e">
+      <c r="AP22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO22),AND(AO$4:AO21))),($J22*$G22-LN(1+Jumpoverwrite8*AQ$2))/$G22,_xll.qlInterpolationInterpolate(,AO$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ22" s="38" t="str">
         <f>IF(AND(NOT(AO22),AND(AO$4:AO21)),MIN(EXP((AP22-$J22)*$G22),1),"")</f>
@@ -11514,9 +11514,9 @@
         <f>IF(AND(NOT(AO22),AND(AO$4:AO21)),TRUE,AO22)</f>
         <v>0</v>
       </c>
-      <c r="AT22" s="38" t="e">
+      <c r="AT22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS22),AND(AS$4:AS21))),($J22*$G22-LN(1+Jumpoverwrite9*AU$2))/$G22,_xll.qlInterpolationInterpolate(,AS$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU22" s="38" t="str">
         <f>IF(AND(NOT(AS22),AND(AS$4:AS21)),MIN(EXP((AT22-$J22)*$G22),1),"")</f>
@@ -11526,21 +11526,21 @@
         <f>IF(AND(NOT(AS22),AND(AS$4:AS21)),TRUE,AS22)</f>
         <v>0</v>
       </c>
-      <c r="AX22" s="38" t="e">
+      <c r="AX22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW22),AND(AW$4:AW21))),($J22*$G22-LN(1+Jumpoverwrite10*AY$2))/$G22,_xll.qlInterpolationInterpolate(,AW$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AY22" s="38" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="AY22" s="38">
         <f>IF(AND(NOT(AW22),AND(AW$4:AW21)),MIN(EXP((AX22-$J22)*$G22),1),"")</f>
-        <v/>
+        <v>0.98563001002356998</v>
       </c>
       <c r="BA22" s="85" t="b">
         <f>IF(AND(NOT(AW22),AND(AW$4:AW21)),TRUE,AW22)</f>
-        <v>0</v>
-      </c>
-      <c r="BB22" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA22),AND(BA$4:BA21))),($J22*$G22-LN(1+Jumpoverwrite11*BC$2))/$G22,_xll.qlInterpolationInterpolate(,BA$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC22" s="38" t="str">
         <f>IF(AND(NOT(BA22),AND(BA$4:BA21)),MIN(EXP((BB22-$J22)*$G22),1),"")</f>
@@ -11548,23 +11548,23 @@
       </c>
       <c r="BE22" s="85" t="b">
         <f>IF(AND(NOT(BA22),AND(BA$4:BA21)),TRUE,BA22)</f>
-        <v>0</v>
-      </c>
-      <c r="BF22" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE22),AND(BE$4:BE21))),($J22*$G22-LN(1+Jumpoverwrite12*BG$2))/$G22,_xll.qlInterpolationInterpolate(,BE$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG22" s="38" t="e">
+        <v>0.05</v>
+      </c>
+      <c r="BG22" s="38" t="str">
         <f>IF(AND(NOT(BE22),AND(BE$4:BE21)),MIN(EXP((BF22-$J22)*$G22),1),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="BI22" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ22" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI22),AND(BI$4:BI21))),($J22*$G22-LN(1+jumpoverwrite13*BK$2))/$G22,_xll.qlInterpolationInterpolate(,BI$3,$F22,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK22" s="38" t="str">
         <f>IF(AND(NOT(BI22),AND(BI$4:BI21)),MIN(EXP((BJ22-$J22)*$G22),1),"")</f>
@@ -11572,48 +11572,48 @@
       </c>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B23" s="17" t="e">
+      <c r="A23" s="37" t="str">
+        <v>WEUREON11M</v>
+      </c>
+      <c r="B23" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C23" s="18" t="e">
+        <v>-1.16E-3</v>
+      </c>
+      <c r="C23" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D23" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D23" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A23)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F23" s="103" t="e">
+        <v>42474</v>
+      </c>
+      <c r="F23" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G23" s="104" t="e">
+        <v>42459.5</v>
+      </c>
+      <c r="G23" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D22,D23)</f>
-        <v>#NUM!</v>
+        <v>8.0555555555555561E-2</v>
       </c>
       <c r="I23" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K23" s="113" t="e">
+      <c r="J23" s="41">
+        <v>-0.27630914178347288</v>
+      </c>
+      <c r="K23" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42474</v>
       </c>
       <c r="L23" s="94"/>
       <c r="M23" s="85" t="b">
         <f>IF(AND(NOT(I23),AND(I$4:I22)),TRUE,I23)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="38" t="e">
+      <c r="N23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M23),AND(M$4:M22))),($J23*$G23-LN(1+Jumpoverwrite1*O$2))/$G23,_xll.qlInterpolationInterpolate(,M$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.49968074315503119</v>
       </c>
       <c r="O23" s="38" t="str">
         <f>IF(AND(NOT(M23),AND(M$4:M22)),MIN(EXP((N23-$J23)*$G23),1),"")</f>
@@ -11624,9 +11624,9 @@
         <f>IF(AND(NOT(M23),AND(M$4:M22)),TRUE,M23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="38" t="e">
+      <c r="R23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q23),AND(Q$4:Q22))),($J23*$G23-LN(1+Jumpoverwrite2*S$2))/$G23,_xll.qlInterpolationInterpolate(,Q$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.49968074315503119</v>
       </c>
       <c r="S23" s="38" t="str">
         <f>IF(AND(NOT(Q23),AND(Q$4:Q22)),MIN(EXP((R23-$J23)*$G23),1),"")</f>
@@ -11649,9 +11649,9 @@
         <f>IF(AND(NOT(U23),AND(U$4:U22)),TRUE,U23)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="38" t="e">
+      <c r="Z23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y23),AND(Y$4:Y22))),($J23*$G23-LN(1+Jumpoverwrite4*AA$2))/$G23,_xll.qlInterpolationInterpolate(,Y$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA23" s="38" t="str">
         <f>IF(AND(NOT(Y23),AND(Y$4:Y22)),MIN(EXP((Z23-$J23)*$G23),1),"")</f>
@@ -11662,9 +11662,9 @@
         <f>IF(AND(NOT(Y23),AND(Y$4:Y22)),TRUE,Y23)</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="38" t="e">
+      <c r="AD23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC23),AND(AC$4:AC22))),($J23*$G23-LN(1+Jumpoverwrite5*AE$2))/$G23,_xll.qlInterpolationInterpolate(,AC$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE23" s="38" t="str">
         <f>IF(AND(NOT(AC23),AND(AC$4:AC22)),MIN(EXP((AD23-$J23)*$G23),1),"")</f>
@@ -11675,9 +11675,9 @@
         <f>IF(AND(NOT(AC23),AND(AC$4:AC22)),TRUE,AC23)</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="38" t="e">
+      <c r="AH23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG23),AND(AG$4:AG22))),($J23*$G23-LN(1+Jumpoverwrite6*AI$2))/$G23,_xll.qlInterpolationInterpolate(,AG$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI23" s="38" t="str">
         <f>IF(AND(NOT(AG23),AND(AG$4:AG22)),MIN(EXP((AH23-$J23)*$G23),1),"")</f>
@@ -11688,9 +11688,9 @@
         <f>IF(AND(NOT(AG23),AND(AG$4:AG22)),TRUE,AG23)</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="38" t="e">
+      <c r="AL23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK23),AND(AK$4:AK22))),($J23*$G23-LN(1+Jumpoverwrite7*AM$2))/$G23,_xll.qlInterpolationInterpolate(,AK$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM23" s="38" t="str">
         <f>IF(AND(NOT(AK23),AND(AK$4:AK22)),MIN(EXP((AL23-$J23)*$G23),1),"")</f>
@@ -11700,9 +11700,9 @@
         <f>IF(AND(NOT(AK23),AND(AK$4:AK22)),TRUE,AK23)</f>
         <v>0</v>
       </c>
-      <c r="AP23" s="38" t="e">
+      <c r="AP23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO23),AND(AO$4:AO22))),($J23*$G23-LN(1+Jumpoverwrite8*AQ$2))/$G23,_xll.qlInterpolationInterpolate(,AO$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ23" s="38" t="str">
         <f>IF(AND(NOT(AO23),AND(AO$4:AO22)),MIN(EXP((AP23-$J23)*$G23),1),"")</f>
@@ -11712,9 +11712,9 @@
         <f>IF(AND(NOT(AO23),AND(AO$4:AO22)),TRUE,AO23)</f>
         <v>0</v>
       </c>
-      <c r="AT23" s="38" t="e">
+      <c r="AT23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS23),AND(AS$4:AS22))),($J23*$G23-LN(1+Jumpoverwrite9*AU$2))/$G23,_xll.qlInterpolationInterpolate(,AS$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU23" s="38" t="str">
         <f>IF(AND(NOT(AS23),AND(AS$4:AS22)),MIN(EXP((AT23-$J23)*$G23),1),"")</f>
@@ -11724,9 +11724,9 @@
         <f>IF(AND(NOT(AS23),AND(AS$4:AS22)),TRUE,AS23)</f>
         <v>0</v>
       </c>
-      <c r="AX23" s="38" t="e">
+      <c r="AX23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW23),AND(AW$4:AW22))),($J23*$G23-LN(1+Jumpoverwrite10*AY$2))/$G23,_xll.qlInterpolationInterpolate(,AW$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY23" s="38" t="str">
         <f>IF(AND(NOT(AW23),AND(AW$4:AW22)),MIN(EXP((AX23-$J23)*$G23),1),"")</f>
@@ -11736,21 +11736,21 @@
         <f>IF(AND(NOT(AW23),AND(AW$4:AW22)),TRUE,AW23)</f>
         <v>0</v>
       </c>
-      <c r="BB23" s="38" t="e">
+      <c r="BB23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA23),AND(BA$4:BA22))),($J23*$G23-LN(1+Jumpoverwrite11*BC$2))/$G23,_xll.qlInterpolationInterpolate(,BA$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BC23" s="38" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="BC23" s="38">
         <f>IF(AND(NOT(BA23),AND(BA$4:BA22)),MIN(EXP((BB23-$J23)*$G23),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BE23" s="85" t="b">
         <f>IF(AND(NOT(BA23),AND(BA$4:BA22)),TRUE,BA23)</f>
-        <v>0</v>
-      </c>
-      <c r="BF23" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF23" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE23),AND(BE$4:BE22))),($J23*$G23-LN(1+Jumpoverwrite12*BG$2))/$G23,_xll.qlInterpolationInterpolate(,BE$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG23" s="38" t="str">
         <f>IF(AND(NOT(BE23),AND(BE$4:BE22)),MIN(EXP((BF23-$J23)*$G23),1),"")</f>
@@ -11758,11 +11758,11 @@
       </c>
       <c r="BI23" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ23" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI23),AND(BI$4:BI22))),($J23*$G23-LN(1+jumpoverwrite13*BK$2))/$G23,_xll.qlInterpolationInterpolate(,BI$3,$F23,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK23" s="38" t="str">
         <f>IF(AND(NOT(BI23),AND(BI$4:BI22)),MIN(EXP((BJ23-$J23)*$G23),1),"")</f>
@@ -11770,48 +11770,48 @@
       </c>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B24" s="17" t="e">
+      <c r="A24" s="37" t="str">
+        <v>WEURECBOISMAR16</v>
+      </c>
+      <c r="B24" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" s="18" t="e">
+        <v>-1.0500000000000002E-3</v>
+      </c>
+      <c r="C24" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="19" t="e">
+        <v>42445</v>
+      </c>
+      <c r="D24" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A24)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="103" t="e">
+        <v>42487</v>
+      </c>
+      <c r="F24" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G24" s="104" t="e">
+        <v>42480.5</v>
+      </c>
+      <c r="G24" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D23,D24)</f>
-        <v>#NUM!</v>
+        <v>3.6111111111111108E-2</v>
       </c>
       <c r="I24" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K24" s="113" t="e">
+        <v>1</v>
+      </c>
+      <c r="J24" s="41">
+        <v>0.49999999999999956</v>
+      </c>
+      <c r="K24" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42487</v>
       </c>
       <c r="L24" s="94"/>
       <c r="M24" s="85" t="b">
         <f>IF(AND(NOT(I24),AND(I$4:I23)),TRUE,I24)</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="N24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M24),AND(M$4:M23))),($J24*$G24-LN(1+Jumpoverwrite1*O$2))/$G24,_xll.qlInterpolationInterpolate(,M$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.49999999999999956</v>
       </c>
       <c r="O24" s="38" t="str">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),MIN(EXP((N24-$J24)*$G24),1),"")</f>
@@ -11820,11 +11820,11 @@
       <c r="P24" s="127"/>
       <c r="Q24" s="85" t="b">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),TRUE,M24)</f>
-        <v>0</v>
-      </c>
-      <c r="R24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="R24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q24),AND(Q$4:Q23))),($J24*$G24-LN(1+Jumpoverwrite2*S$2))/$G24,_xll.qlInterpolationInterpolate(,Q$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.49999999999999956</v>
       </c>
       <c r="S24" s="38" t="str">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),MIN(EXP((R24-$J24)*$G24),1),"")</f>
@@ -11833,7 +11833,7 @@
       <c r="T24" s="127"/>
       <c r="U24" s="85" t="b">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),TRUE,Q24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="38">
         <v>0.05</v>
@@ -11845,11 +11845,11 @@
       <c r="X24" s="127"/>
       <c r="Y24" s="85" t="b">
         <f>IF(AND(NOT(U24),AND(U$4:U23)),TRUE,U24)</f>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y24),AND(Y$4:Y23))),($J24*$G24-LN(1+Jumpoverwrite4*AA$2))/$G24,_xll.qlInterpolationInterpolate(,Y$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA24" s="38" t="str">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),MIN(EXP((Z24-$J24)*$G24),1),"")</f>
@@ -11858,11 +11858,11 @@
       <c r="AB24" s="127"/>
       <c r="AC24" s="85" t="b">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),TRUE,Y24)</f>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC24),AND(AC$4:AC23))),($J24*$G24-LN(1+Jumpoverwrite5*AE$2))/$G24,_xll.qlInterpolationInterpolate(,AC$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE24" s="38" t="str">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),MIN(EXP((AD24-$J24)*$G24),1),"")</f>
@@ -11871,11 +11871,11 @@
       <c r="AF24" s="127"/>
       <c r="AG24" s="85" t="b">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),TRUE,AC24)</f>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG24),AND(AG$4:AG23))),($J24*$G24-LN(1+Jumpoverwrite6*AI$2))/$G24,_xll.qlInterpolationInterpolate(,AG$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI24" s="38" t="str">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),MIN(EXP((AH24-$J24)*$G24),1),"")</f>
@@ -11884,11 +11884,11 @@
       <c r="AJ24" s="127"/>
       <c r="AK24" s="85" t="b">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),TRUE,AG24)</f>
-        <v>0</v>
-      </c>
-      <c r="AL24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK24),AND(AK$4:AK23))),($J24*$G24-LN(1+Jumpoverwrite7*AM$2))/$G24,_xll.qlInterpolationInterpolate(,AK$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM24" s="38" t="str">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),MIN(EXP((AL24-$J24)*$G24),1),"")</f>
@@ -11896,11 +11896,11 @@
       </c>
       <c r="AO24" s="85" t="b">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),TRUE,AK24)</f>
-        <v>0</v>
-      </c>
-      <c r="AP24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO24),AND(AO$4:AO23))),($J24*$G24-LN(1+Jumpoverwrite8*AQ$2))/$G24,_xll.qlInterpolationInterpolate(,AO$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ24" s="38" t="str">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),MIN(EXP((AP24-$J24)*$G24),1),"")</f>
@@ -11908,11 +11908,11 @@
       </c>
       <c r="AS24" s="85" t="b">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),TRUE,AO24)</f>
-        <v>0</v>
-      </c>
-      <c r="AT24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS24),AND(AS$4:AS23))),($J24*$G24-LN(1+Jumpoverwrite9*AU$2))/$G24,_xll.qlInterpolationInterpolate(,AS$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU24" s="38" t="str">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),MIN(EXP((AT24-$J24)*$G24),1),"")</f>
@@ -11920,11 +11920,11 @@
       </c>
       <c r="AW24" s="85" t="b">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),TRUE,AS24)</f>
-        <v>0</v>
-      </c>
-      <c r="AX24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AX24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW24),AND(AW$4:AW23))),($J24*$G24-LN(1+Jumpoverwrite10*AY$2))/$G24,_xll.qlInterpolationInterpolate(,AW$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY24" s="38" t="str">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),MIN(EXP((AX24-$J24)*$G24),1),"")</f>
@@ -11932,11 +11932,11 @@
       </c>
       <c r="BA24" s="85" t="b">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),TRUE,AW24)</f>
-        <v>0</v>
-      </c>
-      <c r="BB24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA24),AND(BA$4:BA23))),($J24*$G24-LN(1+Jumpoverwrite11*BC$2))/$G24,_xll.qlInterpolationInterpolate(,BA$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC24" s="38" t="str">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),MIN(EXP((BB24-$J24)*$G24),1),"")</f>
@@ -11944,11 +11944,11 @@
       </c>
       <c r="BE24" s="85" t="b">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),TRUE,BA24)</f>
-        <v>0</v>
-      </c>
-      <c r="BF24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF24" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE24),AND(BE$4:BE23))),($J24*$G24-LN(1+Jumpoverwrite12*BG$2))/$G24,_xll.qlInterpolationInterpolate(,BE$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG24" s="38" t="str">
         <f>IF(AND(NOT(BE24),AND(BE$4:BE23)),MIN(EXP((BF24-$J24)*$G24),1),"")</f>
@@ -11956,11 +11956,11 @@
       </c>
       <c r="BI24" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ24" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI24),AND(BI$4:BI23))),($J24*$G24-LN(1+jumpoverwrite13*BK$2))/$G24,_xll.qlInterpolationInterpolate(,BI$3,$F24,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK24" s="38" t="str">
         <f>IF(AND(NOT(BI24),AND(BI$4:BI23)),MIN(EXP((BJ24-$J24)*$G24),1),"")</f>
@@ -11968,48 +11968,48 @@
       </c>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A25" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B25" s="17" t="e">
+      <c r="A25" s="37" t="str">
+        <v>WEUREON1Y</v>
+      </c>
+      <c r="B25" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C25" s="18" t="e">
+        <v>-1.15E-3</v>
+      </c>
+      <c r="C25" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D25" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D25" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A25)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" s="103" t="e">
+        <v>42506</v>
+      </c>
+      <c r="F25" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G25" s="104" t="e">
+        <v>42496.5</v>
+      </c>
+      <c r="G25" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D24,D25)</f>
-        <v>#NUM!</v>
+        <v>5.2777777777777778E-2</v>
       </c>
       <c r="I25" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K25" s="113" t="e">
+      <c r="J25" s="41">
+        <v>-0.27721410037703631</v>
+      </c>
+      <c r="K25" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42506</v>
       </c>
       <c r="L25" s="94"/>
       <c r="M25" s="85" t="b">
         <f>IF(AND(NOT(I25),AND(I$4:I24)),TRUE,I25)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="38" t="e">
+      <c r="N25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M25),AND(M$4:M24))),($J25*$G25-LN(1+Jumpoverwrite1*O$2))/$G25,_xll.qlInterpolationInterpolate(,M$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.34926756841207751</v>
       </c>
       <c r="O25" s="38" t="str">
         <f>IF(AND(NOT(M25),AND(M$4:M24)),MIN(EXP((N25-$J25)*$G25),1),"")</f>
@@ -12020,9 +12020,9 @@
         <f>IF(AND(NOT(M25),AND(M$4:M24)),TRUE,M25)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="38" t="e">
+      <c r="R25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q25),AND(Q$4:Q24))),($J25*$G25-LN(1+Jumpoverwrite2*S$2))/$G25,_xll.qlInterpolationInterpolate(,Q$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.34926756841207751</v>
       </c>
       <c r="S25" s="38" t="str">
         <f>IF(AND(NOT(Q25),AND(Q$4:Q24)),MIN(EXP((R25-$J25)*$G25),1),"")</f>
@@ -12045,9 +12045,9 @@
         <f>IF(AND(NOT(U25),AND(U$4:U24)),TRUE,U25)</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="38" t="e">
+      <c r="Z25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y25),AND(Y$4:Y24))),($J25*$G25-LN(1+Jumpoverwrite4*AA$2))/$G25,_xll.qlInterpolationInterpolate(,Y$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA25" s="38" t="str">
         <f>IF(AND(NOT(Y25),AND(Y$4:Y24)),MIN(EXP((Z25-$J25)*$G25),1),"")</f>
@@ -12058,9 +12058,9 @@
         <f>IF(AND(NOT(Y25),AND(Y$4:Y24)),TRUE,Y25)</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="38" t="e">
+      <c r="AD25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC25),AND(AC$4:AC24))),($J25*$G25-LN(1+Jumpoverwrite5*AE$2))/$G25,_xll.qlInterpolationInterpolate(,AC$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE25" s="38" t="str">
         <f>IF(AND(NOT(AC25),AND(AC$4:AC24)),MIN(EXP((AD25-$J25)*$G25),1),"")</f>
@@ -12071,9 +12071,9 @@
         <f>IF(AND(NOT(AC25),AND(AC$4:AC24)),TRUE,AC25)</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="38" t="e">
+      <c r="AH25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG25),AND(AG$4:AG24))),($J25*$G25-LN(1+Jumpoverwrite6*AI$2))/$G25,_xll.qlInterpolationInterpolate(,AG$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI25" s="38" t="str">
         <f>IF(AND(NOT(AG25),AND(AG$4:AG24)),MIN(EXP((AH25-$J25)*$G25),1),"")</f>
@@ -12084,9 +12084,9 @@
         <f>IF(AND(NOT(AG25),AND(AG$4:AG24)),TRUE,AG25)</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="38" t="e">
+      <c r="AL25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK25),AND(AK$4:AK24))),($J25*$G25-LN(1+Jumpoverwrite7*AM$2))/$G25,_xll.qlInterpolationInterpolate(,AK$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM25" s="38" t="str">
         <f>IF(AND(NOT(AK25),AND(AK$4:AK24)),MIN(EXP((AL25-$J25)*$G25),1),"")</f>
@@ -12096,9 +12096,9 @@
         <f>IF(AND(NOT(AK25),AND(AK$4:AK24)),TRUE,AK25)</f>
         <v>0</v>
       </c>
-      <c r="AP25" s="38" t="e">
+      <c r="AP25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO25),AND(AO$4:AO24))),($J25*$G25-LN(1+Jumpoverwrite8*AQ$2))/$G25,_xll.qlInterpolationInterpolate(,AO$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ25" s="38" t="str">
         <f>IF(AND(NOT(AO25),AND(AO$4:AO24)),MIN(EXP((AP25-$J25)*$G25),1),"")</f>
@@ -12108,9 +12108,9 @@
         <f>IF(AND(NOT(AO25),AND(AO$4:AO24)),TRUE,AO25)</f>
         <v>0</v>
       </c>
-      <c r="AT25" s="38" t="e">
+      <c r="AT25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS25),AND(AS$4:AS24))),($J25*$G25-LN(1+Jumpoverwrite9*AU$2))/$G25,_xll.qlInterpolationInterpolate(,AS$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU25" s="38" t="str">
         <f>IF(AND(NOT(AS25),AND(AS$4:AS24)),MIN(EXP((AT25-$J25)*$G25),1),"")</f>
@@ -12120,9 +12120,9 @@
         <f>IF(AND(NOT(AS25),AND(AS$4:AS24)),TRUE,AS25)</f>
         <v>0</v>
       </c>
-      <c r="AX25" s="38" t="e">
+      <c r="AX25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW25),AND(AW$4:AW24))),($J25*$G25-LN(1+Jumpoverwrite10*AY$2))/$G25,_xll.qlInterpolationInterpolate(,AW$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY25" s="38" t="str">
         <f>IF(AND(NOT(AW25),AND(AW$4:AW24)),MIN(EXP((AX25-$J25)*$G25),1),"")</f>
@@ -12132,9 +12132,9 @@
         <f>IF(AND(NOT(AW25),AND(AW$4:AW24)),TRUE,AW25)</f>
         <v>0</v>
       </c>
-      <c r="BB25" s="38" t="e">
+      <c r="BB25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA25),AND(BA$4:BA24))),($J25*$G25-LN(1+Jumpoverwrite11*BC$2))/$G25,_xll.qlInterpolationInterpolate(,BA$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC25" s="38" t="str">
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),MIN(EXP((BB25-$J25)*$G25),1),"")</f>
@@ -12144,21 +12144,21 @@
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),TRUE,BA25)</f>
         <v>0</v>
       </c>
-      <c r="BF25" s="38" t="e">
+      <c r="BF25" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE25),AND(BE$4:BE24))),($J25*$G25-LN(1+Jumpoverwrite12*BG$2))/$G25,_xll.qlInterpolationInterpolate(,BE$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BG25" s="38" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="BG25" s="38">
         <f>IF(AND(NOT(BE25),AND(BE$4:BE24)),MIN(EXP((BF25-$J25)*$G25),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="BI25" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ25" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI25),AND(BI$4:BI24))),($J25*$G25-LN(1+jumpoverwrite13*BK$2))/$G25,_xll.qlInterpolationInterpolate(,BI$3,$F25,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK25" s="38" t="str">
         <f>IF(AND(NOT(BI25),AND(BI$4:BI24)),MIN(EXP((BJ25-$J25)*$G25),1),"")</f>
@@ -12166,48 +12166,48 @@
       </c>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B26" s="17" t="e">
+      <c r="A26" s="37" t="str">
+        <v>WEURECBOISAPR16</v>
+      </c>
+      <c r="B26" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" s="18" t="e">
+        <v>-1.0800000000000002E-3</v>
+      </c>
+      <c r="C26" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" s="19" t="e">
+        <v>42487</v>
+      </c>
+      <c r="D26" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A26)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="103" t="e">
+        <v>42529</v>
+      </c>
+      <c r="F26" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G26" s="104" t="e">
+        <v>42517.5</v>
+      </c>
+      <c r="G26" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D25,D26)</f>
-        <v>#NUM!</v>
+        <v>6.3888888888888884E-2</v>
       </c>
       <c r="I26" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K26" s="113" t="e">
+      <c r="J26" s="41">
+        <v>0.22278589962422879</v>
+      </c>
+      <c r="K26" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42529</v>
       </c>
       <c r="L26" s="94"/>
       <c r="M26" s="85" t="b">
         <f>IF(AND(NOT(I26),AND(I$4:I25)),TRUE,I26)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="38" t="e">
+      <c r="N26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M26),AND(M$4:M25))),($J26*$G26-LN(1+Jumpoverwrite1*O$2))/$G26,_xll.qlInterpolationInterpolate(,M$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.15143125195292978</v>
       </c>
       <c r="O26" s="38" t="str">
         <f>IF(AND(NOT(M26),AND(M$4:M25)),MIN(EXP((N26-$J26)*$G26),1),"")</f>
@@ -12218,9 +12218,9 @@
         <f>IF(AND(NOT(M26),AND(M$4:M25)),TRUE,M26)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="38" t="e">
+      <c r="R26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q26),AND(Q$4:Q25))),($J26*$G26-LN(1+Jumpoverwrite2*S$2))/$G26,_xll.qlInterpolationInterpolate(,Q$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.15143125195292978</v>
       </c>
       <c r="S26" s="38" t="str">
         <f>IF(AND(NOT(Q26),AND(Q$4:Q25)),MIN(EXP((R26-$J26)*$G26),1),"")</f>
@@ -12243,9 +12243,9 @@
         <f>IF(AND(NOT(U26),AND(U$4:U25)),TRUE,U26)</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="38" t="e">
+      <c r="Z26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y26),AND(Y$4:Y25))),($J26*$G26-LN(1+Jumpoverwrite4*AA$2))/$G26,_xll.qlInterpolationInterpolate(,Y$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA26" s="38" t="str">
         <f>IF(AND(NOT(Y26),AND(Y$4:Y25)),MIN(EXP((Z26-$J26)*$G26),1),"")</f>
@@ -12256,9 +12256,9 @@
         <f>IF(AND(NOT(Y26),AND(Y$4:Y25)),TRUE,Y26)</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="38" t="e">
+      <c r="AD26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC26),AND(AC$4:AC25))),($J26*$G26-LN(1+Jumpoverwrite5*AE$2))/$G26,_xll.qlInterpolationInterpolate(,AC$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE26" s="38" t="str">
         <f>IF(AND(NOT(AC26),AND(AC$4:AC25)),MIN(EXP((AD26-$J26)*$G26),1),"")</f>
@@ -12269,9 +12269,9 @@
         <f>IF(AND(NOT(AC26),AND(AC$4:AC25)),TRUE,AC26)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="38" t="e">
+      <c r="AH26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG26),AND(AG$4:AG25))),($J26*$G26-LN(1+Jumpoverwrite6*AI$2))/$G26,_xll.qlInterpolationInterpolate(,AG$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI26" s="38" t="str">
         <f>IF(AND(NOT(AG26),AND(AG$4:AG25)),MIN(EXP((AH26-$J26)*$G26),1),"")</f>
@@ -12282,9 +12282,9 @@
         <f>IF(AND(NOT(AG26),AND(AG$4:AG25)),TRUE,AG26)</f>
         <v>0</v>
       </c>
-      <c r="AL26" s="38" t="e">
+      <c r="AL26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK26),AND(AK$4:AK25))),($J26*$G26-LN(1+Jumpoverwrite7*AM$2))/$G26,_xll.qlInterpolationInterpolate(,AK$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM26" s="38" t="str">
         <f>IF(AND(NOT(AK26),AND(AK$4:AK25)),MIN(EXP((AL26-$J26)*$G26),1),"")</f>
@@ -12294,9 +12294,9 @@
         <f>IF(AND(NOT(AK26),AND(AK$4:AK25)),TRUE,AK26)</f>
         <v>0</v>
       </c>
-      <c r="AP26" s="38" t="e">
+      <c r="AP26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO26),AND(AO$4:AO25))),($J26*$G26-LN(1+Jumpoverwrite8*AQ$2))/$G26,_xll.qlInterpolationInterpolate(,AO$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ26" s="38" t="str">
         <f>IF(AND(NOT(AO26),AND(AO$4:AO25)),MIN(EXP((AP26-$J26)*$G26),1),"")</f>
@@ -12306,9 +12306,9 @@
         <f>IF(AND(NOT(AO26),AND(AO$4:AO25)),TRUE,AO26)</f>
         <v>0</v>
       </c>
-      <c r="AT26" s="38" t="e">
+      <c r="AT26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS26),AND(AS$4:AS25))),($J26*$G26-LN(1+Jumpoverwrite9*AU$2))/$G26,_xll.qlInterpolationInterpolate(,AS$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU26" s="38" t="str">
         <f>IF(AND(NOT(AS26),AND(AS$4:AS25)),MIN(EXP((AT26-$J26)*$G26),1),"")</f>
@@ -12318,9 +12318,9 @@
         <f>IF(AND(NOT(AS26),AND(AS$4:AS25)),TRUE,AS26)</f>
         <v>0</v>
       </c>
-      <c r="AX26" s="38" t="e">
+      <c r="AX26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW26),AND(AW$4:AW25))),($J26*$G26-LN(1+Jumpoverwrite10*AY$2))/$G26,_xll.qlInterpolationInterpolate(,AW$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY26" s="38" t="str">
         <f>IF(AND(NOT(AW26),AND(AW$4:AW25)),MIN(EXP((AX26-$J26)*$G26),1),"")</f>
@@ -12330,9 +12330,9 @@
         <f>IF(AND(NOT(AW26),AND(AW$4:AW25)),TRUE,AW26)</f>
         <v>0</v>
       </c>
-      <c r="BB26" s="38" t="e">
+      <c r="BB26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA26),AND(BA$4:BA25))),($J26*$G26-LN(1+Jumpoverwrite11*BC$2))/$G26,_xll.qlInterpolationInterpolate(,BA$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC26" s="38" t="str">
         <f>IF(AND(NOT(BA26),AND(BA$4:BA25)),MIN(EXP((BB26-$J26)*$G26),1),"")</f>
@@ -12342,9 +12342,9 @@
         <f>IF(AND(NOT(BA26),AND(BA$4:BA25)),TRUE,BA26)</f>
         <v>0</v>
       </c>
-      <c r="BF26" s="38" t="e">
+      <c r="BF26" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE26),AND(BE$4:BE25))),($J26*$G26-LN(1+Jumpoverwrite12*BG$2))/$G26,_xll.qlInterpolationInterpolate(,BE$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG26" s="38" t="str">
         <f>IF(AND(NOT(BE26),AND(BE$4:BE25)),MIN(EXP((BF26-$J26)*$G26),1),"")</f>
@@ -12352,11 +12352,11 @@
       </c>
       <c r="BI26" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ26" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI26),AND(BI$4:BI25))),($J26*$G26-LN(1+jumpoverwrite13*BK$2))/$G26,_xll.qlInterpolationInterpolate(,BI$3,$F26,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK26" s="38" t="str">
         <f>IF(AND(NOT(BI26),AND(BI$4:BI25)),MIN(EXP((BJ26-$J26)*$G26),1),"")</f>
@@ -12364,48 +12364,48 @@
       </c>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B27" s="17" t="e">
+      <c r="A27" s="37" t="str">
+        <v>WEUREON15M</v>
+      </c>
+      <c r="B27" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C27" s="18" t="e">
+        <v>-1.1200000000000001E-3</v>
+      </c>
+      <c r="C27" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D27" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="103" t="e">
+        <v>42597</v>
+      </c>
+      <c r="F27" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G27" s="104" t="e">
+        <v>42563</v>
+      </c>
+      <c r="G27" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D26,D27)</f>
-        <v>#NUM!</v>
+        <v>0.18888888888888888</v>
       </c>
       <c r="I27" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K27" s="113" t="e">
+        <v>1</v>
+      </c>
+      <c r="J27" s="41">
+        <v>-0.27721410037522365</v>
+      </c>
+      <c r="K27" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42597</v>
       </c>
       <c r="L27" s="94"/>
       <c r="M27" s="85" t="b">
         <f>IF(AND(NOT(I27),AND(I$4:I26)),TRUE,I27)</f>
-        <v>0</v>
-      </c>
-      <c r="N27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="N27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M27),AND(M$4:M26))),($J27*$G27-LN(1+Jumpoverwrite1*O$2))/$G27,_xll.qlInterpolationInterpolate(,M$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-0.27721410037522365</v>
       </c>
       <c r="O27" s="38" t="str">
         <f>IF(AND(NOT(M27),AND(M$4:M26)),MIN(EXP((N27-$J27)*$G27),1),"")</f>
@@ -12414,11 +12414,11 @@
       <c r="P27" s="127"/>
       <c r="Q27" s="85" t="b">
         <f>IF(AND(NOT(M27),AND(M$4:M26)),TRUE,M27)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="R27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q27),AND(Q$4:Q26))),($J27*$G27-LN(1+Jumpoverwrite2*S$2))/$G27,_xll.qlInterpolationInterpolate(,Q$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>-0.27721410037522365</v>
       </c>
       <c r="S27" s="38" t="str">
         <f>IF(AND(NOT(Q27),AND(Q$4:Q26)),MIN(EXP((R27-$J27)*$G27),1),"")</f>
@@ -12427,7 +12427,7 @@
       <c r="T27" s="127"/>
       <c r="U27" s="85" t="b">
         <f>IF(AND(NOT(Q27),AND(Q$4:Q26)),TRUE,Q27)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" s="38">
         <v>0.05</v>
@@ -12439,11 +12439,11 @@
       <c r="X27" s="127"/>
       <c r="Y27" s="85" t="b">
         <f>IF(AND(NOT(U27),AND(U$4:U26)),TRUE,U27)</f>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y27),AND(Y$4:Y26))),($J27*$G27-LN(1+Jumpoverwrite4*AA$2))/$G27,_xll.qlInterpolationInterpolate(,Y$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA27" s="38" t="str">
         <f>IF(AND(NOT(Y27),AND(Y$4:Y26)),MIN(EXP((Z27-$J27)*$G27),1),"")</f>
@@ -12452,11 +12452,11 @@
       <c r="AB27" s="127"/>
       <c r="AC27" s="85" t="b">
         <f>IF(AND(NOT(Y27),AND(Y$4:Y26)),TRUE,Y27)</f>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC27),AND(AC$4:AC26))),($J27*$G27-LN(1+Jumpoverwrite5*AE$2))/$G27,_xll.qlInterpolationInterpolate(,AC$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE27" s="38" t="str">
         <f>IF(AND(NOT(AC27),AND(AC$4:AC26)),MIN(EXP((AD27-$J27)*$G27),1),"")</f>
@@ -12465,11 +12465,11 @@
       <c r="AF27" s="127"/>
       <c r="AG27" s="85" t="b">
         <f>IF(AND(NOT(AC27),AND(AC$4:AC26)),TRUE,AC27)</f>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG27),AND(AG$4:AG26))),($J27*$G27-LN(1+Jumpoverwrite6*AI$2))/$G27,_xll.qlInterpolationInterpolate(,AG$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI27" s="38" t="str">
         <f>IF(AND(NOT(AG27),AND(AG$4:AG26)),MIN(EXP((AH27-$J27)*$G27),1),"")</f>
@@ -12478,11 +12478,11 @@
       <c r="AJ27" s="127"/>
       <c r="AK27" s="85" t="b">
         <f>IF(AND(NOT(AG27),AND(AG$4:AG26)),TRUE,AG27)</f>
-        <v>0</v>
-      </c>
-      <c r="AL27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK27),AND(AK$4:AK26))),($J27*$G27-LN(1+Jumpoverwrite7*AM$2))/$G27,_xll.qlInterpolationInterpolate(,AK$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM27" s="38" t="str">
         <f>IF(AND(NOT(AK27),AND(AK$4:AK26)),MIN(EXP((AL27-$J27)*$G27),1),"")</f>
@@ -12490,11 +12490,11 @@
       </c>
       <c r="AO27" s="85" t="b">
         <f>IF(AND(NOT(AK27),AND(AK$4:AK26)),TRUE,AK27)</f>
-        <v>0</v>
-      </c>
-      <c r="AP27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO27),AND(AO$4:AO26))),($J27*$G27-LN(1+Jumpoverwrite8*AQ$2))/$G27,_xll.qlInterpolationInterpolate(,AO$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ27" s="38" t="str">
         <f>IF(AND(NOT(AO27),AND(AO$4:AO26)),MIN(EXP((AP27-$J27)*$G27),1),"")</f>
@@ -12502,11 +12502,11 @@
       </c>
       <c r="AS27" s="85" t="b">
         <f>IF(AND(NOT(AO27),AND(AO$4:AO26)),TRUE,AO27)</f>
-        <v>0</v>
-      </c>
-      <c r="AT27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AT27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS27),AND(AS$4:AS26))),($J27*$G27-LN(1+Jumpoverwrite9*AU$2))/$G27,_xll.qlInterpolationInterpolate(,AS$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU27" s="38" t="str">
         <f>IF(AND(NOT(AS27),AND(AS$4:AS26)),MIN(EXP((AT27-$J27)*$G27),1),"")</f>
@@ -12514,11 +12514,11 @@
       </c>
       <c r="AW27" s="85" t="b">
         <f>IF(AND(NOT(AS27),AND(AS$4:AS26)),TRUE,AS27)</f>
-        <v>0</v>
-      </c>
-      <c r="AX27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AX27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW27),AND(AW$4:AW26))),($J27*$G27-LN(1+Jumpoverwrite10*AY$2))/$G27,_xll.qlInterpolationInterpolate(,AW$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY27" s="38" t="str">
         <f>IF(AND(NOT(AW27),AND(AW$4:AW26)),MIN(EXP((AX27-$J27)*$G27),1),"")</f>
@@ -12526,11 +12526,11 @@
       </c>
       <c r="BA27" s="85" t="b">
         <f>IF(AND(NOT(AW27),AND(AW$4:AW26)),TRUE,AW27)</f>
-        <v>0</v>
-      </c>
-      <c r="BB27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BB27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA27),AND(BA$4:BA26))),($J27*$G27-LN(1+Jumpoverwrite11*BC$2))/$G27,_xll.qlInterpolationInterpolate(,BA$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC27" s="38" t="str">
         <f>IF(AND(NOT(BA27),AND(BA$4:BA26)),MIN(EXP((BB27-$J27)*$G27),1),"")</f>
@@ -12538,11 +12538,11 @@
       </c>
       <c r="BE27" s="85" t="b">
         <f>IF(AND(NOT(BA27),AND(BA$4:BA26)),TRUE,BA27)</f>
-        <v>0</v>
-      </c>
-      <c r="BF27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF27" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE27),AND(BE$4:BE26))),($J27*$G27-LN(1+Jumpoverwrite12*BG$2))/$G27,_xll.qlInterpolationInterpolate(,BE$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG27" s="38" t="str">
         <f>IF(AND(NOT(BE27),AND(BE$4:BE26)),MIN(EXP((BF27-$J27)*$G27),1),"")</f>
@@ -12550,11 +12550,11 @@
       </c>
       <c r="BI27" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ27" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI27),AND(BI$4:BI26))),($J27*$G27-LN(1+jumpoverwrite13*BK$2))/$G27,_xll.qlInterpolationInterpolate(,BI$3,$F27,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK27" s="38" t="str">
         <f>IF(AND(NOT(BI27),AND(BI$4:BI26)),MIN(EXP((BJ27-$J27)*$G27),1),"")</f>
@@ -12562,48 +12562,48 @@
       </c>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B28" s="17" t="e">
+      <c r="A28" s="37" t="str">
+        <v>WEUREON18M</v>
+      </c>
+      <c r="B28" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" s="18" t="e">
+        <v>-1.07E-3</v>
+      </c>
+      <c r="C28" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D28" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A28)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="103" t="e">
+        <v>42688</v>
+      </c>
+      <c r="F28" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G28" s="104" t="e">
+        <v>42642.5</v>
+      </c>
+      <c r="G28" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D27,D28)</f>
-        <v>#NUM!</v>
+        <v>0.25277777777777777</v>
       </c>
       <c r="I28" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K28" s="113" t="e">
+        <v>1</v>
+      </c>
+      <c r="J28" s="41">
+        <v>0.22278589962311857</v>
+      </c>
+      <c r="K28" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42688</v>
       </c>
       <c r="L28" s="94"/>
       <c r="M28" s="85" t="b">
         <f>IF(AND(NOT(I28),AND(I$4:I27)),TRUE,I28)</f>
-        <v>0</v>
-      </c>
-      <c r="N28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="N28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M28),AND(M$4:M27))),($J28*$G28-LN(1+Jumpoverwrite1*O$2))/$G28,_xll.qlInterpolationInterpolate(,M$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.22278589962311857</v>
       </c>
       <c r="O28" s="38" t="str">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),MIN(EXP((N28-$J28)*$G28),1),"")</f>
@@ -12612,11 +12612,11 @@
       <c r="P28" s="127"/>
       <c r="Q28" s="85" t="b">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),TRUE,M28)</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="R28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q28),AND(Q$4:Q27))),($J28*$G28-LN(1+Jumpoverwrite2*S$2))/$G28,_xll.qlInterpolationInterpolate(,Q$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.22278589962311857</v>
       </c>
       <c r="S28" s="38" t="str">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),MIN(EXP((R28-$J28)*$G28),1),"")</f>
@@ -12625,7 +12625,7 @@
       <c r="T28" s="127"/>
       <c r="U28" s="85" t="b">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),TRUE,Q28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="38">
         <v>0.05</v>
@@ -12637,11 +12637,11 @@
       <c r="X28" s="127"/>
       <c r="Y28" s="85" t="b">
         <f>IF(AND(NOT(U28),AND(U$4:U27)),TRUE,U28)</f>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y28),AND(Y$4:Y27))),($J28*$G28-LN(1+Jumpoverwrite4*AA$2))/$G28,_xll.qlInterpolationInterpolate(,Y$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA28" s="38" t="str">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),MIN(EXP((Z28-$J28)*$G28),1),"")</f>
@@ -12650,11 +12650,11 @@
       <c r="AB28" s="127"/>
       <c r="AC28" s="85" t="b">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),TRUE,Y28)</f>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC28),AND(AC$4:AC27))),($J28*$G28-LN(1+Jumpoverwrite5*AE$2))/$G28,_xll.qlInterpolationInterpolate(,AC$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE28" s="38" t="str">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),MIN(EXP((AD28-$J28)*$G28),1),"")</f>
@@ -12663,11 +12663,11 @@
       <c r="AF28" s="127"/>
       <c r="AG28" s="85" t="b">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),TRUE,AC28)</f>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG28),AND(AG$4:AG27))),($J28*$G28-LN(1+Jumpoverwrite6*AI$2))/$G28,_xll.qlInterpolationInterpolate(,AG$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI28" s="38" t="str">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),MIN(EXP((AH28-$J28)*$G28),1),"")</f>
@@ -12676,11 +12676,11 @@
       <c r="AJ28" s="127"/>
       <c r="AK28" s="85" t="b">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),TRUE,AG28)</f>
-        <v>0</v>
-      </c>
-      <c r="AL28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK28),AND(AK$4:AK27))),($J28*$G28-LN(1+Jumpoverwrite7*AM$2))/$G28,_xll.qlInterpolationInterpolate(,AK$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM28" s="38" t="str">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),MIN(EXP((AL28-$J28)*$G28),1),"")</f>
@@ -12688,11 +12688,11 @@
       </c>
       <c r="AO28" s="85" t="b">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),TRUE,AK28)</f>
-        <v>0</v>
-      </c>
-      <c r="AP28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO28),AND(AO$4:AO27))),($J28*$G28-LN(1+Jumpoverwrite8*AQ$2))/$G28,_xll.qlInterpolationInterpolate(,AO$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ28" s="38" t="str">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),MIN(EXP((AP28-$J28)*$G28),1),"")</f>
@@ -12700,11 +12700,11 @@
       </c>
       <c r="AS28" s="85" t="b">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),TRUE,AO28)</f>
-        <v>0</v>
-      </c>
-      <c r="AT28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS28),AND(AS$4:AS27))),($J28*$G28-LN(1+Jumpoverwrite9*AU$2))/$G28,_xll.qlInterpolationInterpolate(,AS$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU28" s="38" t="str">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),MIN(EXP((AT28-$J28)*$G28),1),"")</f>
@@ -12712,11 +12712,11 @@
       </c>
       <c r="AW28" s="85" t="b">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),TRUE,AS28)</f>
-        <v>0</v>
-      </c>
-      <c r="AX28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AX28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW28),AND(AW$4:AW27))),($J28*$G28-LN(1+Jumpoverwrite10*AY$2))/$G28,_xll.qlInterpolationInterpolate(,AW$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY28" s="38" t="str">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),MIN(EXP((AX28-$J28)*$G28),1),"")</f>
@@ -12724,11 +12724,11 @@
       </c>
       <c r="BA28" s="85" t="b">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),TRUE,AW28)</f>
-        <v>0</v>
-      </c>
-      <c r="BB28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA28),AND(BA$4:BA27))),($J28*$G28-LN(1+Jumpoverwrite11*BC$2))/$G28,_xll.qlInterpolationInterpolate(,BA$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC28" s="38" t="str">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),MIN(EXP((BB28-$J28)*$G28),1),"")</f>
@@ -12736,11 +12736,11 @@
       </c>
       <c r="BE28" s="85" t="b">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),TRUE,BA28)</f>
-        <v>0</v>
-      </c>
-      <c r="BF28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF28" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE28),AND(BE$4:BE27))),($J28*$G28-LN(1+Jumpoverwrite12*BG$2))/$G28,_xll.qlInterpolationInterpolate(,BE$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG28" s="38" t="str">
         <f>IF(AND(NOT(BE28),AND(BE$4:BE27)),MIN(EXP((BF28-$J28)*$G28),1),"")</f>
@@ -12748,11 +12748,11 @@
       </c>
       <c r="BI28" s="85" t="b">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BJ28" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI28),AND(BI$4:BI27))),($J28*$G28-LN(1+jumpoverwrite13*BK$2))/$G28,_xll.qlInterpolationInterpolate(,BI$3,$F28,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK28" s="38" t="str">
         <f>IF(AND(NOT(BI28),AND(BI$4:BI27)),MIN(EXP((BJ28-$J28)*$G28),1),"")</f>
@@ -12760,48 +12760,48 @@
       </c>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B29" s="17" t="e">
+      <c r="A29" s="37" t="str">
+        <v>WEUREON21M</v>
+      </c>
+      <c r="B29" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" s="18" t="e">
+        <v>-9.7999999999999997E-4</v>
+      </c>
+      <c r="C29" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D29" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A29)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="103" t="e">
+        <v>42780</v>
+      </c>
+      <c r="F29" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G29" s="104" t="e">
+        <v>42734</v>
+      </c>
+      <c r="G29" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D28,D29)</f>
-        <v>#NUM!</v>
+        <v>0.25555555555555554</v>
       </c>
       <c r="I29" s="112" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K29" s="113" t="e">
+      <c r="J29" s="41">
+        <v>-0.27721410037744404</v>
+      </c>
+      <c r="K29" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42780</v>
       </c>
       <c r="L29" s="94"/>
       <c r="M29" s="85" t="b">
         <f>IF(AND(NOT(I29),AND(I$4:I28)),TRUE,I29)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="38" t="e">
+      <c r="N29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M29),AND(M$4:M28))),($J29*$G29-LN(1+Jumpoverwrite1*O$2))/$G29,_xll.qlInterpolationInterpolate(,M$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.30481354396383525</v>
       </c>
       <c r="O29" s="38" t="str">
         <f>IF(AND(NOT(M29),AND(M$4:M28)),MIN(EXP((N29-$J29)*$G29),1),"")</f>
@@ -12812,9 +12812,9 @@
         <f>IF(AND(NOT(M29),AND(M$4:M28)),TRUE,M29)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="38" t="e">
+      <c r="R29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q29),AND(Q$4:Q28))),($J29*$G29-LN(1+Jumpoverwrite2*S$2))/$G29,_xll.qlInterpolationInterpolate(,Q$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.30481354396383525</v>
       </c>
       <c r="S29" s="38" t="str">
         <f>IF(AND(NOT(Q29),AND(Q$4:Q28)),MIN(EXP((R29-$J29)*$G29),1),"")</f>
@@ -12837,9 +12837,9 @@
         <f>IF(AND(NOT(U29),AND(U$4:U28)),TRUE,U29)</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="38" t="e">
+      <c r="Z29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y29),AND(Y$4:Y28))),($J29*$G29-LN(1+Jumpoverwrite4*AA$2))/$G29,_xll.qlInterpolationInterpolate(,Y$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA29" s="38" t="str">
         <f>IF(AND(NOT(Y29),AND(Y$4:Y28)),MIN(EXP((Z29-$J29)*$G29),1),"")</f>
@@ -12850,9 +12850,9 @@
         <f>IF(AND(NOT(Y29),AND(Y$4:Y28)),TRUE,Y29)</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="38" t="e">
+      <c r="AD29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC29),AND(AC$4:AC28))),($J29*$G29-LN(1+Jumpoverwrite5*AE$2))/$G29,_xll.qlInterpolationInterpolate(,AC$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE29" s="38" t="str">
         <f>IF(AND(NOT(AC29),AND(AC$4:AC28)),MIN(EXP((AD29-$J29)*$G29),1),"")</f>
@@ -12863,9 +12863,9 @@
         <f>IF(AND(NOT(AC29),AND(AC$4:AC28)),TRUE,AC29)</f>
         <v>0</v>
       </c>
-      <c r="AH29" s="38" t="e">
+      <c r="AH29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG29),AND(AG$4:AG28))),($J29*$G29-LN(1+Jumpoverwrite6*AI$2))/$G29,_xll.qlInterpolationInterpolate(,AG$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI29" s="38" t="str">
         <f>IF(AND(NOT(AG29),AND(AG$4:AG28)),MIN(EXP((AH29-$J29)*$G29),1),"")</f>
@@ -12876,9 +12876,9 @@
         <f>IF(AND(NOT(AG29),AND(AG$4:AG28)),TRUE,AG29)</f>
         <v>0</v>
       </c>
-      <c r="AL29" s="38" t="e">
+      <c r="AL29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK29),AND(AK$4:AK28))),($J29*$G29-LN(1+Jumpoverwrite7*AM$2))/$G29,_xll.qlInterpolationInterpolate(,AK$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM29" s="38" t="str">
         <f>IF(AND(NOT(AK29),AND(AK$4:AK28)),MIN(EXP((AL29-$J29)*$G29),1),"")</f>
@@ -12888,9 +12888,9 @@
         <f>IF(AND(NOT(AK29),AND(AK$4:AK28)),TRUE,AK29)</f>
         <v>0</v>
       </c>
-      <c r="AP29" s="38" t="e">
+      <c r="AP29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO29),AND(AO$4:AO28))),($J29*$G29-LN(1+Jumpoverwrite8*AQ$2))/$G29,_xll.qlInterpolationInterpolate(,AO$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ29" s="38" t="str">
         <f>IF(AND(NOT(AO29),AND(AO$4:AO28)),MIN(EXP((AP29-$J29)*$G29),1),"")</f>
@@ -12900,9 +12900,9 @@
         <f>IF(AND(NOT(AO29),AND(AO$4:AO28)),TRUE,AO29)</f>
         <v>0</v>
       </c>
-      <c r="AT29" s="38" t="e">
+      <c r="AT29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS29),AND(AS$4:AS28))),($J29*$G29-LN(1+Jumpoverwrite9*AU$2))/$G29,_xll.qlInterpolationInterpolate(,AS$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU29" s="38" t="str">
         <f>IF(AND(NOT(AS29),AND(AS$4:AS28)),MIN(EXP((AT29-$J29)*$G29),1),"")</f>
@@ -12912,9 +12912,9 @@
         <f>IF(AND(NOT(AS29),AND(AS$4:AS28)),TRUE,AS29)</f>
         <v>0</v>
       </c>
-      <c r="AX29" s="38" t="e">
+      <c r="AX29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW29),AND(AW$4:AW28))),($J29*$G29-LN(1+Jumpoverwrite10*AY$2))/$G29,_xll.qlInterpolationInterpolate(,AW$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY29" s="38" t="str">
         <f>IF(AND(NOT(AW29),AND(AW$4:AW28)),MIN(EXP((AX29-$J29)*$G29),1),"")</f>
@@ -12924,9 +12924,9 @@
         <f>IF(AND(NOT(AW29),AND(AW$4:AW28)),TRUE,AW29)</f>
         <v>0</v>
       </c>
-      <c r="BB29" s="38" t="e">
+      <c r="BB29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA29),AND(BA$4:BA28))),($J29*$G29-LN(1+Jumpoverwrite11*BC$2))/$G29,_xll.qlInterpolationInterpolate(,BA$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC29" s="38" t="str">
         <f>IF(AND(NOT(BA29),AND(BA$4:BA28)),MIN(EXP((BB29-$J29)*$G29),1),"")</f>
@@ -12936,9 +12936,9 @@
         <f>IF(AND(NOT(BA29),AND(BA$4:BA28)),TRUE,BA29)</f>
         <v>0</v>
       </c>
-      <c r="BF29" s="38" t="e">
+      <c r="BF29" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE29),AND(BE$4:BE28))),($J29*$G29-LN(1+Jumpoverwrite12*BG$2))/$G29,_xll.qlInterpolationInterpolate(,BE$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG29" s="38" t="str">
         <f>IF(AND(NOT(BE29),AND(BE$4:BE28)),MIN(EXP((BF29-$J29)*$G29),1),"")</f>
@@ -12948,58 +12948,58 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ29" s="38" t="e">
+      <c r="BJ29" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI29),AND(BI$4:BI28))),($J29*$G29-LN(1+jumpoverwrite13*BK$2))/$G29,_xll.qlInterpolationInterpolate(,BI$3,$F29,TRUE))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="BK29" s="38" t="str">
+        <v>0.05</v>
+      </c>
+      <c r="BK29" s="38">
         <f>IF(AND(NOT(BI29),AND(BI$4:BI28)),MIN(EXP((BJ29-$J29)*$G29),1),"")</f>
-        <v/>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="B30" s="17" t="e">
+      <c r="A30" s="37" t="str">
+        <v>WEUREON2Y</v>
+      </c>
+      <c r="B30" s="17">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C30" s="18" t="e">
+        <v>-8.699999999999999E-4</v>
+      </c>
+      <c r="C30" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="19" t="e">
+        <v>42138</v>
+      </c>
+      <c r="D30" s="19">
         <f>_xll.qlRateHelperLatestDate(Trigger,$A30)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="103" t="e">
+        <v>42870</v>
+      </c>
+      <c r="F30" s="103">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G30" s="104" t="e">
+        <v>42825</v>
+      </c>
+      <c r="G30" s="104">
         <f>_xll.qlDayCounterYearFraction(Trigger,DayCounter,D29,D30)</f>
-        <v>#NUM!</v>
+        <v>0.25</v>
       </c>
       <c r="I30" s="112" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K30" s="113" t="e">
+        <v>1</v>
+      </c>
+      <c r="J30" s="41">
+        <v>0.38639294981088679</v>
+      </c>
+      <c r="K30" s="113">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>42870</v>
       </c>
       <c r="L30" s="94"/>
       <c r="M30" s="85" t="b">
         <f>IF(AND(NOT(I30),AND(I$4:I29)),TRUE,I30)</f>
-        <v>0</v>
-      </c>
-      <c r="N30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="N30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M30),AND(M$4:M29))),($J30*$G30-LN(1+Jumpoverwrite1*O$2))/$G30,_xll.qlInterpolationInterpolate(,M$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.38639294981088679</v>
       </c>
       <c r="O30" s="38" t="str">
         <f>IF(AND(NOT(M30),AND(M$4:M29)),MIN(EXP((N30-$J30)*$G30),1),"")</f>
@@ -13008,11 +13008,11 @@
       <c r="P30" s="127"/>
       <c r="Q30" s="85" t="b">
         <f>IF(AND(NOT(M30),AND(M$4:M29)),TRUE,M30)</f>
-        <v>0</v>
-      </c>
-      <c r="R30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="R30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q30),AND(Q$4:Q29))),($J30*$G30-LN(1+Jumpoverwrite2*S$2))/$G30,_xll.qlInterpolationInterpolate(,Q$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.38639294981088679</v>
       </c>
       <c r="S30" s="38" t="str">
         <f>IF(AND(NOT(Q30),AND(Q$4:Q29)),MIN(EXP((R30-$J30)*$G30),1),"")</f>
@@ -13021,7 +13021,7 @@
       <c r="T30" s="127"/>
       <c r="U30" s="85" t="b">
         <f>IF(AND(NOT(Q30),AND(Q$4:Q29)),TRUE,Q30)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="38">
         <v>0.05</v>
@@ -13033,11 +13033,11 @@
       <c r="X30" s="127"/>
       <c r="Y30" s="85" t="b">
         <f>IF(AND(NOT(U30),AND(U$4:U29)),TRUE,U30)</f>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y30),AND(Y$4:Y29))),($J30*$G30-LN(1+Jumpoverwrite4*AA$2))/$G30,_xll.qlInterpolationInterpolate(,Y$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AA30" s="38" t="str">
         <f>IF(AND(NOT(Y30),AND(Y$4:Y29)),MIN(EXP((Z30-$J30)*$G30),1),"")</f>
@@ -13046,11 +13046,11 @@
       <c r="AB30" s="127"/>
       <c r="AC30" s="85" t="b">
         <f>IF(AND(NOT(Y30),AND(Y$4:Y29)),TRUE,Y30)</f>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC30),AND(AC$4:AC29))),($J30*$G30-LN(1+Jumpoverwrite5*AE$2))/$G30,_xll.qlInterpolationInterpolate(,AC$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AE30" s="38" t="str">
         <f>IF(AND(NOT(AC30),AND(AC$4:AC29)),MIN(EXP((AD30-$J30)*$G30),1),"")</f>
@@ -13059,11 +13059,11 @@
       <c r="AF30" s="127"/>
       <c r="AG30" s="85" t="b">
         <f>IF(AND(NOT(AC30),AND(AC$4:AC29)),TRUE,AC30)</f>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AH30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG30),AND(AG$4:AG29))),($J30*$G30-LN(1+Jumpoverwrite6*AI$2))/$G30,_xll.qlInterpolationInterpolate(,AG$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AI30" s="38" t="str">
         <f>IF(AND(NOT(AG30),AND(AG$4:AG29)),MIN(EXP((AH30-$J30)*$G30),1),"")</f>
@@ -13072,11 +13072,11 @@
       <c r="AJ30" s="127"/>
       <c r="AK30" s="85" t="b">
         <f>IF(AND(NOT(AG30),AND(AG$4:AG29)),TRUE,AG30)</f>
-        <v>0</v>
-      </c>
-      <c r="AL30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AL30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK30),AND(AK$4:AK29))),($J30*$G30-LN(1+Jumpoverwrite7*AM$2))/$G30,_xll.qlInterpolationInterpolate(,AK$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AM30" s="38" t="str">
         <f>IF(AND(NOT(AK30),AND(AK$4:AK29)),MIN(EXP((AL30-$J30)*$G30),1),"")</f>
@@ -13084,11 +13084,11 @@
       </c>
       <c r="AO30" s="85" t="b">
         <f>IF(AND(NOT(AK30),AND(AK$4:AK29)),TRUE,AK30)</f>
-        <v>0</v>
-      </c>
-      <c r="AP30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO30),AND(AO$4:AO29))),($J30*$G30-LN(1+Jumpoverwrite8*AQ$2))/$G30,_xll.qlInterpolationInterpolate(,AO$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AQ30" s="38" t="str">
         <f>IF(AND(NOT(AO30),AND(AO$4:AO29)),MIN(EXP((AP30-$J30)*$G30),1),"")</f>
@@ -13096,11 +13096,11 @@
       </c>
       <c r="AS30" s="85" t="b">
         <f>IF(AND(NOT(AO30),AND(AO$4:AO29)),TRUE,AO30)</f>
-        <v>0</v>
-      </c>
-      <c r="AT30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS30),AND(AS$4:AS29))),($J30*$G30-LN(1+Jumpoverwrite9*AU$2))/$G30,_xll.qlInterpolationInterpolate(,AS$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AU30" s="38" t="str">
         <f>IF(AND(NOT(AS30),AND(AS$4:AS29)),MIN(EXP((AT30-$J30)*$G30),1),"")</f>
@@ -13108,11 +13108,11 @@
       </c>
       <c r="AW30" s="85" t="b">
         <f>IF(AND(NOT(AS30),AND(AS$4:AS29)),TRUE,AS30)</f>
-        <v>0</v>
-      </c>
-      <c r="AX30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="AX30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW30),AND(AW$4:AW29))),($J30*$G30-LN(1+Jumpoverwrite10*AY$2))/$G30,_xll.qlInterpolationInterpolate(,AW$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="AY30" s="38" t="str">
         <f>IF(AND(NOT(AW30),AND(AW$4:AW29)),MIN(EXP((AX30-$J30)*$G30),1),"")</f>
@@ -13120,11 +13120,11 @@
       </c>
       <c r="BA30" s="85" t="b">
         <f>IF(AND(NOT(AW30),AND(AW$4:AW29)),TRUE,AW30)</f>
-        <v>0</v>
-      </c>
-      <c r="BB30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA30),AND(BA$4:BA29))),($J30*$G30-LN(1+Jumpoverwrite11*BC$2))/$G30,_xll.qlInterpolationInterpolate(,BA$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BC30" s="38" t="str">
         <f>IF(AND(NOT(BA30),AND(BA$4:BA29)),MIN(EXP((BB30-$J30)*$G30),1),"")</f>
@@ -13132,11 +13132,11 @@
       </c>
       <c r="BE30" s="85" t="b">
         <f>IF(AND(NOT(BA30),AND(BA$4:BA29)),TRUE,BA30)</f>
-        <v>0</v>
-      </c>
-      <c r="BF30" s="38" t="e">
+        <v>1</v>
+      </c>
+      <c r="BF30" s="38">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE30),AND(BE$4:BE29))),($J30*$G30-LN(1+Jumpoverwrite12*BG$2))/$G30,_xll.qlInterpolationInterpolate(,BE$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BG30" s="38" t="str">
         <f>IF(AND(NOT(BE30),AND(BE$4:BE29)),MIN(EXP((BF30-$J30)*$G30),1),"")</f>
@@ -13146,9 +13146,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ30" s="38" t="e">
+      <c r="BJ30" s="38">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI30),AND(BI$4:BI29))),($J30*$G30-LN(1+jumpoverwrite13*BK$2))/$G30,_xll.qlInterpolationInterpolate(,BI$3,$F30,TRUE))</f>
-        <v>#VALUE!</v>
+        <v>0.05</v>
       </c>
       <c r="BK30" s="38" t="str">
         <f>IF(AND(NOT(BI30),AND(BI$4:BI29)),MIN(EXP((BJ30-$J30)*$G30),1),"")</f>
@@ -32820,7 +32820,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="23">
         <f>_xll.ohTrigger(M3:M4)</f>
-        <v>88</v>
+        <v>12</v>
       </c>
       <c r="N1" s="144"/>
     </row>
@@ -32894,7 +32894,7 @@
       </c>
       <c r="K3" s="40" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J3,,TRUE)</f>
-        <v>EURJump1_SYNTHON_Quote#0003</v>
+        <v>EURJump1_SYNTHON_Quote#0000</v>
       </c>
       <c r="L3" s="40">
         <f t="array" ref="L3:L15">QuoteLive</f>
@@ -32928,11 +32928,11 @@
       </c>
       <c r="D4" s="153">
         <f>JumpValue2</f>
-        <v>1</v>
+        <v>0.97929385719536355</v>
       </c>
       <c r="E4" s="156">
         <f>JumpSize2</f>
-        <v>0</v>
+        <v>7.5324675324675461</v>
       </c>
       <c r="F4" s="139"/>
       <c r="G4" s="143"/>
@@ -32946,14 +32946,14 @@
       </c>
       <c r="K4" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J4,,TRUE)</f>
-        <v>EURJump2_SYNTHON_Quote#0003</v>
+        <v>EURJump2_SYNTHON_Quote#0000</v>
       </c>
       <c r="L4" s="141">
-        <v>1</v>
+        <v>0.97929385719536355</v>
       </c>
       <c r="M4" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K4,ROUND($L4,7))</f>
-        <v>0</v>
+        <v>-2.070609999999995E-2</v>
       </c>
       <c r="N4" s="144"/>
       <c r="P4" s="166" t="s">
@@ -32979,11 +32979,11 @@
       </c>
       <c r="D5" s="153">
         <f>JumpValue3</f>
-        <v>0.9999999999999849</v>
+        <v>1</v>
       </c>
       <c r="E5" s="156">
         <f>JumpSize3</f>
-        <v>1.8118839761882692E-12</v>
+        <v>0</v>
       </c>
       <c r="F5" s="139"/>
       <c r="G5" s="143"/>
@@ -32997,10 +32997,10 @@
       </c>
       <c r="K5" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J5,,TRUE)</f>
-        <v>EURJump3_SYNTHON_Quote#0003</v>
+        <v>EURJump3_SYNTHON_Quote#0000</v>
       </c>
       <c r="L5" s="141">
-        <v>0.9999999999999849</v>
+        <v>1</v>
       </c>
       <c r="M5" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K5,ROUND($L5,7))</f>
@@ -33028,13 +33028,13 @@
         <f>JumpDate4</f>
         <v>42247</v>
       </c>
-      <c r="D6" s="153" t="e">
+      <c r="D6" s="153">
         <f>JumpValue4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E6" s="156" t="e">
+        <v>1</v>
+      </c>
+      <c r="E6" s="156">
         <f>JumpSize4</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F6" s="139"/>
       <c r="G6" s="143"/>
@@ -33048,14 +33048,14 @@
       </c>
       <c r="K6" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J6,,TRUE)</f>
-        <v>EURJump4_SYNTHON_Quote#0003</v>
-      </c>
-      <c r="L6" s="141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M6" s="141" t="e">
+        <v>EURJump4_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="L6" s="141">
+        <v>1</v>
+      </c>
+      <c r="M6" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K6,ROUND($L6,7))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="N6" s="144"/>
       <c r="P6" s="166" t="s">
@@ -33079,13 +33079,13 @@
         <f>JumpDate5</f>
         <v>42277</v>
       </c>
-      <c r="D7" s="153" t="e">
+      <c r="D7" s="153">
         <f>JumpValue5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" s="156" t="e">
+        <v>1</v>
+      </c>
+      <c r="E7" s="156">
         <f>JumpSize5</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F7" s="139"/>
       <c r="G7" s="143"/>
@@ -33099,14 +33099,14 @@
       </c>
       <c r="K7" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J7,,TRUE)</f>
-        <v>EURJump5_SYNTHON_Quote#0003</v>
-      </c>
-      <c r="L7" s="141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M7" s="141" t="e">
+        <v>EURJump5_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="L7" s="141">
+        <v>1</v>
+      </c>
+      <c r="M7" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K7,ROUND($L7,7))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="N7" s="144"/>
       <c r="P7" s="166" t="s">
@@ -33130,13 +33130,13 @@
         <f>JumpDate6</f>
         <v>42307</v>
       </c>
-      <c r="D8" s="153" t="e">
+      <c r="D8" s="153">
         <f>JumpValue6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E8" s="156" t="e">
+        <v>1</v>
+      </c>
+      <c r="E8" s="156">
         <f>JumpSize6</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F8" s="139"/>
       <c r="G8" s="143"/>
@@ -33150,14 +33150,14 @@
       </c>
       <c r="K8" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J8,,TRUE)</f>
-        <v>EURJump6_SYNTHON_Quote#0003</v>
-      </c>
-      <c r="L8" s="141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M8" s="141" t="e">
+        <v>EURJump6_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="L8" s="141">
+        <v>1</v>
+      </c>
+      <c r="M8" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K8,ROUND($L8,7))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="N8" s="144"/>
       <c r="P8" s="166" t="s">
@@ -33181,13 +33181,13 @@
         <f>JumpDate7</f>
         <v>42338</v>
       </c>
-      <c r="D9" s="153" t="e">
+      <c r="D9" s="153">
         <f>JumpValue7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E9" s="156" t="e">
+        <v>1</v>
+      </c>
+      <c r="E9" s="156">
         <f>JumpSize7</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F9" s="139"/>
       <c r="G9" s="143"/>
@@ -33201,14 +33201,14 @@
       </c>
       <c r="K9" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J9,,TRUE)</f>
-        <v>EURJump7_SYNTHON_Quote#0003</v>
-      </c>
-      <c r="L9" s="141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M9" s="141" t="e">
+        <v>EURJump7_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="L9" s="141">
+        <v>1</v>
+      </c>
+      <c r="M9" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K9,ROUND($L9,7))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="N9" s="144"/>
       <c r="P9" s="166" t="s">
@@ -33232,13 +33232,13 @@
         <f>JumpDate8</f>
         <v>42369</v>
       </c>
-      <c r="D10" s="153" t="e">
+      <c r="D10" s="153">
         <f>JumpValue8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" s="156" t="e">
+        <v>1</v>
+      </c>
+      <c r="E10" s="156">
         <f>JumpSize8</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F10" s="139"/>
       <c r="G10" s="143"/>
@@ -33252,14 +33252,14 @@
       </c>
       <c r="K10" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J10,,TRUE)</f>
-        <v>EURJump8_SYNTHON_Quote#0003</v>
-      </c>
-      <c r="L10" s="141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M10" s="141" t="e">
+        <v>EURJump8_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="L10" s="141">
+        <v>1</v>
+      </c>
+      <c r="M10" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K10,ROUND($L10,7))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="N10" s="144"/>
       <c r="P10" s="166" t="s">
@@ -33283,13 +33283,13 @@
         <f>JumpDate9</f>
         <v>42398</v>
       </c>
-      <c r="D11" s="153" t="e">
+      <c r="D11" s="153">
         <f>JumpValue9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E11" s="156" t="e">
+        <v>1</v>
+      </c>
+      <c r="E11" s="156">
         <f>JumpSize9</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F11" s="139"/>
       <c r="G11" s="143"/>
@@ -33303,14 +33303,14 @@
       </c>
       <c r="K11" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J11,,TRUE)</f>
-        <v>EURJump9_SYNTHON_Quote#0003</v>
-      </c>
-      <c r="L11" s="141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M11" s="141" t="e">
+        <v>EURJump9_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="L11" s="141">
+        <v>1</v>
+      </c>
+      <c r="M11" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K11,ROUND($L11,7))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="N11" s="144"/>
       <c r="P11" s="166" t="s">
@@ -33334,13 +33334,13 @@
         <f>JumpDate10</f>
         <v>42429</v>
       </c>
-      <c r="D12" s="153" t="e">
+      <c r="D12" s="153">
         <f>JumpValue10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="156" t="e">
+        <v>0.98563001002356998</v>
+      </c>
+      <c r="E12" s="156">
         <f>JumpSize10</f>
-        <v>#VALUE!</v>
+        <v>5.2107257464994792</v>
       </c>
       <c r="F12" s="139"/>
       <c r="G12" s="143"/>
@@ -33354,14 +33354,14 @@
       </c>
       <c r="K12" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J12,,TRUE)</f>
-        <v>EURJump10_SYNTHON_Quote#0003</v>
-      </c>
-      <c r="L12" s="141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M12" s="141" t="e">
+        <v>EURJump10_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="L12" s="141">
+        <v>0.98563001002356998</v>
+      </c>
+      <c r="M12" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K12,ROUND($L12,7))</f>
-        <v>#VALUE!</v>
+        <v>0.98563000000000001</v>
       </c>
       <c r="N12" s="144"/>
       <c r="P12" s="166" t="s">
@@ -33385,13 +33385,13 @@
         <f>JumpDate11</f>
         <v>42460</v>
       </c>
-      <c r="D13" s="153" t="e">
+      <c r="D13" s="153">
         <f>JumpValue11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="156" t="e">
+        <v>1</v>
+      </c>
+      <c r="E13" s="156">
         <f>JumpSize11</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
       <c r="F13" s="139"/>
       <c r="G13" s="143"/>
@@ -33405,14 +33405,14 @@
       </c>
       <c r="K13" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J13,,TRUE)</f>
-        <v>EURJump11_SYNTHON_Quote#0003</v>
-      </c>
-      <c r="L13" s="141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M13" s="141" t="e">
+        <v>EURJump11_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="L13" s="141">
+        <v>1</v>
+      </c>
+      <c r="M13" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K13,ROUND($L13,7))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="N13" s="144"/>
       <c r="P13" s="166" t="s">
@@ -33436,13 +33436,13 @@
         <f>JumpDate12</f>
         <v>42489</v>
       </c>
-      <c r="D14" s="153" t="e">
+      <c r="D14" s="153">
         <f>JumpValue12</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="E14" s="156" t="e">
         <f>JumpSize12</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F14" s="139"/>
       <c r="G14" s="143"/>
@@ -33456,14 +33456,14 @@
       </c>
       <c r="K14" s="141" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J14,,TRUE)</f>
-        <v>EURJump12_SYNTHON_Quote#0003</v>
-      </c>
-      <c r="L14" s="141" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M14" s="141" t="e">
+        <v>EURJump12_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="L14" s="141">
+        <v>1</v>
+      </c>
+      <c r="M14" s="141">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K14,ROUND($L14,7))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="N14" s="144"/>
       <c r="P14" s="166" t="s">
@@ -33487,13 +33487,13 @@
         <f ca="1">JumpDate13</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="154" t="e">
+      <c r="D15" s="154">
         <f>JumpValue13</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="E15" s="157" t="e">
         <f ca="1">JumpSize13</f>
-        <v>#VALUE!</v>
+        <v>#NUM!</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="143"/>
@@ -33507,14 +33507,14 @@
       </c>
       <c r="K15" s="142" t="str">
         <f>_xll.qlSimpleQuote(Trigger,J15,,TRUE)</f>
-        <v>EURJump13_SYNTHON_Quote#0003</v>
-      </c>
-      <c r="L15" s="142" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="M15" s="142" t="e">
+        <v>EURJump13_SYNTHON_Quote#0000</v>
+      </c>
+      <c r="L15" s="142">
+        <v>1</v>
+      </c>
+      <c r="M15" s="142">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K15,ROUND($L15,7))</f>
-        <v>#VALUE!</v>
+        <v>1</v>
       </c>
       <c r="N15" s="144"/>
       <c r="P15" s="166" t="s">

--- a/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_JumpsQuotesFeedON.xlsx
@@ -1418,76 +1418,76 @@
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="24"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0000000000129566E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0000000000129566E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.0000000000129566E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0000000000129566E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.44999999999987045</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.9999999998772804E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.9999999997909134E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.45000000000209084</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9999999996552302E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.9999999995688695E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9999999995688695E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.9999999995688695E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.3910476811838102E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.49860895231835162</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.27630914178443888</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.22369085821664864</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.27630914178347288</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.49999999999999956</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.27721410037703631</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.22278589962422879</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.27721410037522365</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1594,73 +1594,73 @@
                 <c:formatCode>0.0000%</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.05</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1675,11 +1675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280832256"/>
-        <c:axId val="280850432"/>
+        <c:axId val="273117952"/>
+        <c:axId val="273119488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280832256"/>
+        <c:axId val="273117952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1699,12 +1699,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280850432"/>
+        <c:crossAx val="273119488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280850432"/>
+        <c:axId val="273119488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1715,7 +1715,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280832256"/>
+        <c:crossAx val="273117952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4872,11 +4872,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="284702976"/>
-        <c:axId val="284717056"/>
+        <c:axId val="272929536"/>
+        <c:axId val="272931072"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="284702976"/>
+        <c:axId val="272929536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4896,14 +4896,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284717056"/>
+        <c:crossAx val="272931072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="284717056"/>
+        <c:axId val="272931072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4914,7 +4914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="284702976"/>
+        <c:crossAx val="272929536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5688,7 +5688,7 @@
       </c>
       <c r="I9" s="29">
         <f>_xll.ohTrigger(Contribution!M1)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -5761,7 +5761,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="54" t="e">
-        <f ca="1">_xll.qlPiecewiseYieldCurve(,,,,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,JumpQuotes,JumpDates,Accuracy,TraitsID,InterpolatorID)</f>
+        <f>_xll.qlPiecewiseYieldCurve(,,,,NDays,Calendar,_xll.ohPack(Calculation!A5:A129),DayCounter,JumpQuotes,JumpDates,Accuracy,TraitsID,InterpolatorID)</f>
         <v>#NUM!</v>
       </c>
       <c r="J14" s="4"/>
@@ -7378,7 +7378,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="11" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -7458,93 +7458,93 @@
       <c r="N1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="O1" s="38">
+      <c r="O1" s="38" t="e">
         <f>MAX(O5:O129)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="R1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="S1" s="38">
+      <c r="S1" s="38" t="e">
         <f>MAX(S5:S129)</f>
-        <v>0.97929385719536355</v>
+        <v>#VALUE!</v>
       </c>
       <c r="V1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="W1" s="38">
+      <c r="W1" s="38" t="e">
         <f>MAX(W5:W129)</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AA1" s="38">
+      <c r="AA1" s="38" t="e">
         <f>MAX(AA5:AA129)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AD1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AE1" s="38">
+      <c r="AE1" s="38" t="e">
         <f>MAX(AE5:AE129)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AH1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AI1" s="38">
+      <c r="AI1" s="38" t="e">
         <f>MAX(AI5:AI129)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AL1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AM1" s="38">
+      <c r="AM1" s="38" t="e">
         <f>MAX(AM5:AM129)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AP1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AQ1" s="38">
+      <c r="AQ1" s="38" t="e">
         <f>MAX(AQ5:AQ129)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AT1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AU1" s="38">
+      <c r="AU1" s="38" t="e">
         <f>MAX(AU5:AU129)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AX1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="AY1" s="38">
+      <c r="AY1" s="38" t="e">
         <f>MAX(AY5:AY129)</f>
-        <v>0.98563001002356998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BB1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="BC1" s="38">
+      <c r="BC1" s="38" t="e">
         <f>MAX(BC5:BC129)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BF1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="BG1" s="38">
+      <c r="BG1" s="38" t="e">
         <f>MAX(BG5:BG129)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BJ1" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="BK1" s="38">
+      <c r="BK1" s="38" t="e">
         <f>MAX(BK5:BK129)</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.2">
@@ -7690,16 +7690,16 @@
         <f>_xll.qlDayCounterYearFraction(,DayCounter,BE2,_xll.qlCalendarAdvance(,Calendar,BE2,"1D""following"))</f>
         <v>#NUM!</v>
       </c>
-      <c r="BI2" s="107" t="e">
-        <f ca="1">_xll.qlCalendarAdjust(Calendar,DATE(YEAR(SettlementDate)+1,12,31),"Preceding",Trigger)</f>
-        <v>#NAME?</v>
+      <c r="BI2" s="107">
+        <f>_xll.qlCalendarAdjust(Trigger,Calendar,DATE(YEAR(SettlementDate)+1,12,31),"Preceding")</f>
+        <v>42734</v>
       </c>
       <c r="BJ2" s="117" t="s">
         <v>68</v>
       </c>
-      <c r="BK2" s="130" t="e">
-        <f ca="1">_xll.qlDayCounterYearFraction(,DayCounter,BI2,_xll.qlCalendarAdvance(,Calendar,BI2,"1D","following"))</f>
-        <v>#NUM!</v>
+      <c r="BK2" s="130">
+        <f>_xll.qlDayCounterYearFraction(,DayCounter,BI2,_xll.qlCalendarAdvance(,Calendar,BI2,"1D","following"))</f>
+        <v>8.3333333333333332E-3</v>
       </c>
     </row>
     <row r="3" spans="1:63" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -7733,9 +7733,9 @@
         <v>66</v>
       </c>
       <c r="L3" s="125"/>
-      <c r="M3" s="107" t="str">
+      <c r="M3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,M5:M129),_xll.ohFilter(J5:J129,M5:M129))</f>
-        <v>obj_0052a#0006</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" s="118" t="s">
         <v>67</v>
@@ -7744,9 +7744,9 @@
         <v>69</v>
       </c>
       <c r="P3" s="126"/>
-      <c r="Q3" s="107" t="str">
+      <c r="Q3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,Q5:Q129),_xll.ohFilter(N5:N129,Q5:Q129))</f>
-        <v>obj_0052b#0006</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" s="118" t="s">
         <v>67</v>
@@ -7755,9 +7755,9 @@
         <v>69</v>
       </c>
       <c r="T3" s="127"/>
-      <c r="U3" s="107" t="str">
+      <c r="U3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,U5:U129),_xll.ohFilter(R5:R129,U5:U129))</f>
-        <v>obj_0052c#0006</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" s="118" t="s">
         <v>67</v>
@@ -7766,9 +7766,9 @@
         <v>69</v>
       </c>
       <c r="X3" s="127"/>
-      <c r="Y3" s="107" t="str">
+      <c r="Y3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,Y5:Y129),_xll.ohFilter(V5:V129,Y5:Y129))</f>
-        <v>obj_0052d#0006</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" s="118" t="s">
         <v>67</v>
@@ -7777,9 +7777,9 @@
         <v>69</v>
       </c>
       <c r="AB3" s="127"/>
-      <c r="AC3" s="107" t="str">
+      <c r="AC3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AC5:AC129),_xll.ohFilter(Z5:Z129,AC5:AC129))</f>
-        <v>obj_0052e#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" s="118" t="s">
         <v>67</v>
@@ -7788,9 +7788,9 @@
         <v>69</v>
       </c>
       <c r="AF3" s="127"/>
-      <c r="AG3" s="107" t="str">
+      <c r="AG3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AG5:AG129),_xll.ohFilter(AD5:AD129,AG5:AG129))</f>
-        <v>obj_0052f#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="AH3" s="118" t="s">
         <v>67</v>
@@ -7799,9 +7799,9 @@
         <v>69</v>
       </c>
       <c r="AJ3" s="127"/>
-      <c r="AK3" s="107" t="str">
+      <c r="AK3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AK5:AK129),_xll.ohFilter(AH5:AH129,AK5:AK129))</f>
-        <v>obj_00530#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="AL3" s="118" t="s">
         <v>67</v>
@@ -7809,9 +7809,9 @@
       <c r="AM3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="AO3" s="107" t="str">
+      <c r="AO3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AO5:AO129),_xll.ohFilter(AL5:AL129,AO5:AO129))</f>
-        <v>obj_00531#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="AP3" s="118" t="s">
         <v>67</v>
@@ -7819,9 +7819,9 @@
       <c r="AQ3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="AS3" s="107" t="str">
+      <c r="AS3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AS5:AS129),_xll.ohFilter(AP5:AP129,AS5:AS129))</f>
-        <v>obj_00532#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="AT3" s="118" t="s">
         <v>67</v>
@@ -7829,9 +7829,9 @@
       <c r="AU3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="AW3" s="107" t="str">
+      <c r="AW3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,AW5:AW129),_xll.ohFilter(AT5:AT129,AW5:AW129))</f>
-        <v>obj_00533#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="AX3" s="118" t="s">
         <v>67</v>
@@ -7839,9 +7839,9 @@
       <c r="AY3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="BA3" s="107" t="str">
+      <c r="BA3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,BA5:BA129),_xll.ohFilter(AX5:AX129,BA5:BA129))</f>
-        <v>obj_00534#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="BB3" s="118" t="s">
         <v>67</v>
@@ -7849,9 +7849,9 @@
       <c r="BC3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="BE3" s="107" t="str">
+      <c r="BE3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,BE5:BE129),_xll.ohFilter(BB5:BB129,BE5:BE129))</f>
-        <v>obj_00535#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="BF3" s="118" t="s">
         <v>67</v>
@@ -7859,9 +7859,9 @@
       <c r="BG3" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="BI3" s="107" t="str">
+      <c r="BI3" s="107" t="e">
         <f>_xll.qlGenericInterp(,,,,FwdInterpolation,_xll.ohFilter($F5:$F129,BI5:BI129),_xll.ohFilter(BF5:BF129,BI5:BI129))</f>
-        <v>obj_00536#0000</v>
+        <v>#NUM!</v>
       </c>
       <c r="BJ3" s="118" t="s">
         <v>67</v>
@@ -7883,9 +7883,9 @@
       <c r="I4" s="81" t="b">
         <v>0</v>
       </c>
-      <c r="J4" s="110">
+      <c r="J4" s="110" t="e">
         <f t="array" ref="J4:J129">_xll.qlPiecewiseYieldCurveData(InterestRatesTrigger,YieldCurve)</f>
-        <v>0.05</v>
+        <v>#NUM!</v>
       </c>
       <c r="K4" s="111">
         <f>D4</f>
@@ -7896,95 +7896,95 @@
         <v>1</v>
       </c>
       <c r="N4" s="119"/>
-      <c r="O4" s="120">
+      <c r="O4" s="120" t="e">
         <f>-LN(MAX(O5:O33))/O$2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P4" s="126"/>
       <c r="Q4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="R4" s="119"/>
-      <c r="S4" s="120">
+      <c r="S4" s="120" t="e">
         <f>-LN(MAX(S5:S33))/S$2</f>
-        <v>7.5324675324675461</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T4" s="127"/>
       <c r="U4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="V4" s="119"/>
-      <c r="W4" s="120">
+      <c r="W4" s="120" t="e">
         <f>-LN(MAX(W5:W33))/W$2</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="X4" s="127"/>
       <c r="Y4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="Z4" s="119"/>
-      <c r="AA4" s="120">
+      <c r="AA4" s="120" t="e">
         <f>-LN(MAX(AA5:AA33))/AA$2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AB4" s="127"/>
       <c r="AC4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AD4" s="119"/>
-      <c r="AE4" s="120">
+      <c r="AE4" s="120" t="e">
         <f>-LN(MAX(AE5:AE33))/AE$2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AF4" s="127"/>
       <c r="AG4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AH4" s="119"/>
-      <c r="AI4" s="120">
+      <c r="AI4" s="120" t="e">
         <f>-LN(MAX(AI5:AI33))/AI$2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AJ4" s="127"/>
       <c r="AK4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AL4" s="119"/>
-      <c r="AM4" s="120">
+      <c r="AM4" s="120" t="e">
         <f>-LN(MAX(AM5:AM33))/AM$2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AO4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AP4" s="119"/>
-      <c r="AQ4" s="120">
+      <c r="AQ4" s="120" t="e">
         <f>-LN(MAX(AQ5:AQ33))/AQ$2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AS4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AT4" s="119"/>
-      <c r="AU4" s="120">
+      <c r="AU4" s="120" t="e">
         <f>-LN(MAX(AU5:AU33))/AU$2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AW4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="AX4" s="119"/>
-      <c r="AY4" s="120">
+      <c r="AY4" s="120" t="e">
         <f>-LN(MAX(AY5:AY33))/AY$2</f>
-        <v>5.2107257464994792</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BA4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="BB4" s="119"/>
-      <c r="BC4" s="120">
+      <c r="BC4" s="120" t="e">
         <f>-LN(MAX(BC5:BC33))/BC$2</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BE4" s="121" t="b">
         <v>1</v>
@@ -7992,15 +7992,15 @@
       <c r="BF4" s="119"/>
       <c r="BG4" s="120" t="e">
         <f>-LN(MAX(BG5:BG33))/BG$2</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BI4" s="121" t="b">
         <v>1</v>
       </c>
       <c r="BJ4" s="119"/>
       <c r="BK4" s="120" t="e">
-        <f ca="1">-LN(MAX(BK5:BK33))/BK$2</f>
-        <v>#NUM!</v>
+        <f>-LN(MAX(BK5:BK33))/BK$2</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.2">
@@ -8008,9 +8008,9 @@
         <f t="array" ref="A5:A129">_xll.qlRateHelperSelection(Trigger,_xll.ohFilter(RateHelpers,RateHelpersIncluded),_xll.ohFilter(RateHelpersPriority,RateHelpersIncluded),$B$1,0,2,"AllDepos",_xll.ohFilter(MinDistance,RateHelpersIncluded))</f>
         <v>WEUREONSW</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A5)</f>
-        <v>-1.0400000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C5" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A5)</f>
@@ -8033,8 +8033,8 @@
         <f>IF(ISERROR(K5),FALSE,IF(OR(MONTH(K5)-MONTH(K4)=1,YEAR(K5)-YEAR(K4)=1),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="J5" s="41">
-        <v>0.05</v>
+      <c r="J5" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K5" s="113">
         <f>D5</f>
@@ -8045,9 +8045,9 @@
         <f>IF(AND(NOT(I5),AND(I$4:I4)),TRUE,I5)</f>
         <v>1</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M5),AND(M$4:M4))),($J5*$G5-LN(1+Jumpoverwrite1*O$2))/$G5,_xll.qlInterpolationInterpolate(,M$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O5" s="38" t="str">
         <f>IF(AND(NOT(M5),AND(M$4:M4)),MIN(EXP((N5-$J5)*$G5),1),"")</f>
@@ -8058,9 +8058,9 @@
         <f>IF(AND(NOT(M5),AND(M$4:M4)),TRUE,M5)</f>
         <v>1</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q5),AND(Q$4:Q4))),($J5*$G5-LN(1+Jumpoverwrite2*S$2))/$G5,_xll.qlInterpolationInterpolate(,Q$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S5" s="38" t="str">
         <f>IF(AND(NOT(Q5),AND(Q$4:Q4)),MIN(EXP((R5-$J5)*$G5),1),"")</f>
@@ -8071,9 +8071,9 @@
         <f>IF(AND(NOT(Q5),AND(Q$4:Q4)),TRUE,Q5)</f>
         <v>1</v>
       </c>
-      <c r="V5" s="38">
+      <c r="V5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite3)),AND(NOT(U5),AND(U$4:U4))),($J5*$G5-LN(1+Jumpoverwrite3*W$2))/$G5,_xll.qlInterpolationInterpolate(,U$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="W5" s="38" t="str">
         <f>IF(AND(NOT(U5),AND(U$4:U4)),MIN(EXP((V5-$J5)*$G5),1),"")</f>
@@ -8084,9 +8084,9 @@
         <f>IF(AND(NOT(U5),AND(U$4:U4)),TRUE,U5)</f>
         <v>1</v>
       </c>
-      <c r="Z5" s="38">
+      <c r="Z5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y5),AND(Y$4:Y4))),($J5*$G5-LN(1+Jumpoverwrite4*AA$2))/$G5,_xll.qlInterpolationInterpolate(,Y$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA5" s="38" t="str">
         <f>IF(AND(NOT(Y5),AND(Y$4:Y4)),MIN(EXP((Z5-$J5)*$G5),1),"")</f>
@@ -8097,9 +8097,9 @@
         <f>IF(AND(NOT(Y5),AND(Y$4:Y4)),TRUE,Y5)</f>
         <v>1</v>
       </c>
-      <c r="AD5" s="38">
+      <c r="AD5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC5),AND(AC$4:AC4))),($J5*$G5-LN(1+Jumpoverwrite5*AE$2))/$G5,_xll.qlInterpolationInterpolate(,AC$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE5" s="38" t="str">
         <f>IF(AND(NOT(AC5),AND(AC$4:AC4)),MIN(EXP((AD5-$J5)*$G5),1),"")</f>
@@ -8110,9 +8110,9 @@
         <f>IF(AND(NOT(AC5),AND(AC$4:AC4)),TRUE,AC5)</f>
         <v>1</v>
       </c>
-      <c r="AH5" s="38">
+      <c r="AH5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG5),AND(AG$4:AG4))),($J5*$G5-LN(1+Jumpoverwrite6*AI$2))/$G5,_xll.qlInterpolationInterpolate(,AG$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI5" s="38" t="str">
         <f>IF(AND(NOT(AG5),AND(AG$4:AG4)),MIN(EXP((AH5-$J5)*$G5),1),"")</f>
@@ -8123,9 +8123,9 @@
         <f>IF(AND(NOT(AG5),AND(AG$4:AG4)),TRUE,AG5)</f>
         <v>1</v>
       </c>
-      <c r="AL5" s="38">
+      <c r="AL5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK5),AND(AK$4:AK4))),($J5*$G5-LN(1+Jumpoverwrite7*AM$2))/$G5,_xll.qlInterpolationInterpolate(,AK$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM5" s="38" t="str">
         <f>IF(AND(NOT(AK5),AND(AK$4:AK4)),MIN(EXP((AL5-$J5)*$G5),1),"")</f>
@@ -8135,9 +8135,9 @@
         <f>IF(AND(NOT(AK5),AND(AK$4:AK4)),TRUE,AK5)</f>
         <v>1</v>
       </c>
-      <c r="AP5" s="38">
+      <c r="AP5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO5),AND(AO$4:AO4))),($J5*$G5-LN(1+Jumpoverwrite8*AQ$2))/$G5,_xll.qlInterpolationInterpolate(,AO$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ5" s="38" t="str">
         <f>IF(AND(NOT(AO5),AND(AO$4:AO4)),MIN(EXP((AP5-$J5)*$G5),1),"")</f>
@@ -8147,9 +8147,9 @@
         <f>IF(AND(NOT(AO5),AND(AO$4:AO4)),TRUE,AO5)</f>
         <v>1</v>
       </c>
-      <c r="AT5" s="38">
+      <c r="AT5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS5),AND(AS$4:AS4))),($J5*$G5-LN(1+Jumpoverwrite9*AU$2))/$G5,_xll.qlInterpolationInterpolate(,AS$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU5" s="38" t="str">
         <f>IF(AND(NOT(AS5),AND(AS$4:AS4)),MIN(EXP((AT5-$J5)*$G5),1),"")</f>
@@ -8159,9 +8159,9 @@
         <f>IF(AND(NOT(AS5),AND(AS$4:AS4)),TRUE,AS5)</f>
         <v>1</v>
       </c>
-      <c r="AX5" s="38">
+      <c r="AX5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW5),AND(AW$4:AW4))),($J5*$G5-LN(1+Jumpoverwrite10*AY$2))/$G5,_xll.qlInterpolationInterpolate(,AW$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY5" s="38" t="str">
         <f>IF(AND(NOT(AW5),AND(AW$4:AW4)),MIN(EXP((AX5-$J5)*$G5),1),"")</f>
@@ -8171,9 +8171,9 @@
         <f>IF(AND(NOT(AW5),AND(AW$4:AW4)),TRUE,AW5)</f>
         <v>1</v>
       </c>
-      <c r="BB5" s="38">
+      <c r="BB5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA5),AND(BA$4:BA4))),($J5*$G5-LN(1+Jumpoverwrite11*BC$2))/$G5,_xll.qlInterpolationInterpolate(,BA$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC5" s="38" t="str">
         <f>IF(AND(NOT(BA5),AND(BA$4:BA4)),MIN(EXP((BB5-$J5)*$G5),1),"")</f>
@@ -8183,9 +8183,9 @@
         <f>IF(AND(NOT(BA5),AND(BA$4:BA4)),TRUE,BA5)</f>
         <v>1</v>
       </c>
-      <c r="BF5" s="38">
+      <c r="BF5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE5),AND(BE$4:BE4))),($J5*$G5-LN(1+Jumpoverwrite12*BG$2))/$G5,_xll.qlInterpolationInterpolate(,BE$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG5" s="38" t="str">
         <f>IF(AND(NOT(BE5),AND(BE$4:BE4)),MIN(EXP((BF5-$J5)*$G5),1),"")</f>
@@ -8195,9 +8195,9 @@
         <f t="shared" ref="BI5:BI36" si="1">IF(ISERROR(K5),FALSE,IF(YEAR(K5)-YEAR(SettlementDate)=2,FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="BJ5" s="38">
+      <c r="BJ5" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI5),AND(BI$4:BI4))),($J5*$G5-LN(1+jumpoverwrite13*BK$2))/$G5,_xll.qlInterpolationInterpolate(,BI$3,$F5,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK5" s="38" t="str">
         <f>IF(AND(NOT(BI5),AND(BI$4:BI4)),MIN(EXP((BJ5-$J5)*$G5),1),"")</f>
@@ -8208,9 +8208,9 @@
       <c r="A6" s="37" t="str">
         <v>WEUREON2W</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A6)</f>
-        <v>-9.2000000000000003E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="C6" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A6)</f>
@@ -8233,8 +8233,8 @@
         <f t="shared" ref="I6:I69" si="2">IF(ISERROR(K6),FALSE,IF(OR(MONTH(K6)-MONTH(K5)=1,YEAR(K6)-YEAR(K5)=1),FALSE,TRUE))</f>
         <v>1</v>
       </c>
-      <c r="J6" s="41">
-        <v>5.0000000000129566E-2</v>
+      <c r="J6" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K6" s="113">
         <f t="shared" ref="K6:K69" si="3">D6</f>
@@ -8245,9 +8245,9 @@
         <f>IF(AND(NOT(I6),AND(I$4:I5)),TRUE,I6)</f>
         <v>1</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M6),AND(M$4:M5))),($J6*$G6-LN(1+Jumpoverwrite1*O$2))/$G6,_xll.qlInterpolationInterpolate(,M$3,$F6,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O6" s="38" t="str">
         <f>IF(AND(NOT(M6),AND(M$4:M5)),MIN(EXP((N6-$J6)*$G6),1),"")</f>
@@ -8258,9 +8258,9 @@
         <f>IF(AND(NOT(M6),AND(M$4:M5)),TRUE,M6)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="38">
+      <c r="R6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q6),AND(Q$4:Q5))),($J6*$G6-LN(1+Jumpoverwrite2*S$2))/$G6,_xll.qlInterpolationInterpolate(,Q$3,$F6,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S6" s="38" t="str">
         <f>IF(AND(NOT(Q6),AND(Q$4:Q5)),MIN(EXP((R6-$J6)*$G6),1),"")</f>
@@ -8283,9 +8283,9 @@
         <f>IF(AND(NOT(U6),AND(U$4:U5)),TRUE,U6)</f>
         <v>1</v>
       </c>
-      <c r="Z6" s="38">
+      <c r="Z6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y6),AND(Y$4:Y5))),($J6*$G6-LN(1+Jumpoverwrite4*AA$2))/$G6,_xll.qlInterpolationInterpolate(,Y$3,$F6,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA6" s="38" t="str">
         <f>IF(AND(NOT(Y6),AND(Y$4:Y5)),MIN(EXP((Z6-$J6)*$G6),1),"")</f>
@@ -8296,9 +8296,9 @@
         <f>IF(AND(NOT(Y6),AND(Y$4:Y5)),TRUE,Y6)</f>
         <v>1</v>
       </c>
-      <c r="AD6" s="38">
+      <c r="AD6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC6),AND(AC$4:AC5))),($J6*$G6-LN(1+Jumpoverwrite5*AE$2))/$G6,_xll.qlInterpolationInterpolate(,AC$3,$F6,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE6" s="38" t="str">
         <f>IF(AND(NOT(AC6),AND(AC$4:AC5)),MIN(EXP((AD6-$J6)*$G6),1),"")</f>
@@ -8309,9 +8309,9 @@
         <f>IF(AND(NOT(AC6),AND(AC$4:AC5)),TRUE,AC6)</f>
         <v>1</v>
       </c>
-      <c r="AH6" s="38">
+      <c r="AH6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG6),AND(AG$4:AG5))),($J6*$G6-LN(1+Jumpoverwrite6*AI$2))/$G6,_xll.qlInterpolationInterpolate(,AG$3,$F6,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI6" s="38" t="str">
         <f>IF(AND(NOT(AG6),AND(AG$4:AG5)),MIN(EXP((AH6-$J6)*$G6),1),"")</f>
@@ -8322,9 +8322,9 @@
         <f>IF(AND(NOT(AG6),AND(AG$4:AG5)),TRUE,AG6)</f>
         <v>1</v>
       </c>
-      <c r="AL6" s="38">
+      <c r="AL6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK6),AND(AK$4:AK5))),($J6*$G6-LN(1+Jumpoverwrite7*AM$2))/$G6,_xll.qlInterpolationInterpolate(,AK$3,$F6,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM6" s="38" t="str">
         <f>IF(AND(NOT(AK6),AND(AK$4:AK5)),MIN(EXP((AL6-$J6)*$G6),1),"")</f>
@@ -8334,9 +8334,9 @@
         <f>IF(AND(NOT(AK6),AND(AK$4:AK5)),TRUE,AK6)</f>
         <v>1</v>
       </c>
-      <c r="AP6" s="38">
+      <c r="AP6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO6),AND(AO$4:AO5))),($J6*$G6-LN(1+Jumpoverwrite8*AQ$2))/$G6,_xll.qlInterpolationInterpolate(,AO$3,$F6,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ6" s="38" t="str">
         <f>IF(AND(NOT(AO6),AND(AO$4:AO5)),MIN(EXP((AP6-$J6)*$G6),1),"")</f>
@@ -8346,9 +8346,9 @@
         <f>IF(AND(NOT(AO6),AND(AO$4:AO5)),TRUE,AO6)</f>
         <v>1</v>
       </c>
-      <c r="AT6" s="38">
+      <c r="AT6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS6),AND(AS$4:AS5))),($J6*$G6-LN(1+Jumpoverwrite9*AU$2))/$G6,_xll.qlInterpolationInterpolate(,AS$3,$F6,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU6" s="38" t="str">
         <f>IF(AND(NOT(AS6),AND(AS$4:AS5)),MIN(EXP((AT6-$J6)*$G6),1),"")</f>
@@ -8358,9 +8358,9 @@
         <f>IF(AND(NOT(AS6),AND(AS$4:AS5)),TRUE,AS6)</f>
         <v>1</v>
       </c>
-      <c r="AX6" s="38">
+      <c r="AX6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW6),AND(AW$4:AW5))),($J6*$G6-LN(1+Jumpoverwrite10*AY$2))/$G6,_xll.qlInterpolationInterpolate(,AW$3,$F6,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY6" s="38" t="str">
         <f>IF(AND(NOT(AW6),AND(AW$4:AW5)),MIN(EXP((AX6-$J6)*$G6),1),"")</f>
@@ -8370,9 +8370,9 @@
         <f>IF(AND(NOT(AW6),AND(AW$4:AW5)),TRUE,AW6)</f>
         <v>1</v>
       </c>
-      <c r="BB6" s="38">
+      <c r="BB6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA6),AND(BA$4:BA5))),($J6*$G6-LN(1+Jumpoverwrite11*BC$2))/$G6,_xll.qlInterpolationInterpolate(,BA$3,$F6,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC6" s="38" t="str">
         <f>IF(AND(NOT(BA6),AND(BA$4:BA5)),MIN(EXP((BB6-$J6)*$G6),1),"")</f>
@@ -8382,9 +8382,9 @@
         <f>IF(AND(NOT(BA6),AND(BA$4:BA5)),TRUE,BA6)</f>
         <v>1</v>
       </c>
-      <c r="BF6" s="38">
+      <c r="BF6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE6),AND(BE$4:BE5))),($J6*$G6-LN(1+Jumpoverwrite12*BG$2))/$G6,_xll.qlInterpolationInterpolate(,BE$3,$F6,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG6" s="38" t="str">
         <f>IF(AND(NOT(BE6),AND(BE$4:BE5)),MIN(EXP((BF6-$J6)*$G6),1),"")</f>
@@ -8394,9 +8394,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ6" s="38">
+      <c r="BJ6" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI6),AND(BI$4:BI5))),($J6*$G6-LN(1+jumpoverwrite13*BK$2))/$G6,_xll.qlInterpolationInterpolate(,BI$3,$F6,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK6" s="38" t="str">
         <f>IF(AND(NOT(BI6),AND(BI$4:BI5)),MIN(EXP((BJ6-$J6)*$G6),1),"")</f>
@@ -8407,9 +8407,9 @@
       <c r="A7" s="37" t="str">
         <v>WEUREON3W</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A7)</f>
-        <v>-9.7000000000000005E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="C7" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A7)</f>
@@ -8431,8 +8431,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="41">
-        <v>5.0000000000129566E-2</v>
+      <c r="J7" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K7" s="113">
         <f t="shared" si="3"/>
@@ -8443,22 +8443,22 @@
         <f>IF(AND(NOT(I7),AND(I$4:I6)),TRUE,I7)</f>
         <v>0</v>
       </c>
-      <c r="N7" s="38">
+      <c r="N7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M7),AND(M$4:M6))),($J7*$G7-LN(1+Jumpoverwrite1*O$2))/$G7,_xll.qlInterpolationInterpolate(,M$3,$F7,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
-      </c>
-      <c r="O7" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="O7" s="38" t="e">
         <f>IF(AND(NOT(M7),AND(M$4:M6)),MIN(EXP((N7-$J7)*$G7),1),"")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="P7" s="128"/>
       <c r="Q7" s="85" t="b">
         <f>IF(AND(NOT(M7),AND(M$4:M6)),TRUE,M7)</f>
         <v>1</v>
       </c>
-      <c r="R7" s="38">
+      <c r="R7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q7),AND(Q$4:Q6))),($J7*$G7-LN(1+Jumpoverwrite2*S$2))/$G7,_xll.qlInterpolationInterpolate(,Q$3,$F7,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S7" s="38" t="str">
         <f>IF(AND(NOT(Q7),AND(Q$4:Q6)),MIN(EXP((R7-$J7)*$G7),1),"")</f>
@@ -8481,9 +8481,9 @@
         <f>IF(AND(NOT(U7),AND(U$4:U6)),TRUE,U7)</f>
         <v>1</v>
       </c>
-      <c r="Z7" s="38">
+      <c r="Z7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y7),AND(Y$4:Y6))),($J7*$G7-LN(1+Jumpoverwrite4*AA$2))/$G7,_xll.qlInterpolationInterpolate(,Y$3,$F7,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA7" s="38" t="str">
         <f>IF(AND(NOT(Y7),AND(Y$4:Y6)),MIN(EXP((Z7-$J7)*$G7),1),"")</f>
@@ -8494,9 +8494,9 @@
         <f>IF(AND(NOT(Y7),AND(Y$4:Y6)),TRUE,Y7)</f>
         <v>1</v>
       </c>
-      <c r="AD7" s="38">
+      <c r="AD7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC7),AND(AC$4:AC6))),($J7*$G7-LN(1+Jumpoverwrite5*AE$2))/$G7,_xll.qlInterpolationInterpolate(,AC$3,$F7,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE7" s="38" t="str">
         <f>IF(AND(NOT(AC7),AND(AC$4:AC6)),MIN(EXP((AD7-$J7)*$G7),1),"")</f>
@@ -8507,9 +8507,9 @@
         <f>IF(AND(NOT(AC7),AND(AC$4:AC6)),TRUE,AC7)</f>
         <v>1</v>
       </c>
-      <c r="AH7" s="38">
+      <c r="AH7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG7),AND(AG$4:AG6))),($J7*$G7-LN(1+Jumpoverwrite6*AI$2))/$G7,_xll.qlInterpolationInterpolate(,AG$3,$F7,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI7" s="38" t="str">
         <f>IF(AND(NOT(AG7),AND(AG$4:AG6)),MIN(EXP((AH7-$J7)*$G7),1),"")</f>
@@ -8520,9 +8520,9 @@
         <f>IF(AND(NOT(AG7),AND(AG$4:AG6)),TRUE,AG7)</f>
         <v>1</v>
       </c>
-      <c r="AL7" s="38">
+      <c r="AL7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK7),AND(AK$4:AK6))),($J7*$G7-LN(1+Jumpoverwrite7*AM$2))/$G7,_xll.qlInterpolationInterpolate(,AK$3,$F7,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM7" s="38" t="str">
         <f>IF(AND(NOT(AK7),AND(AK$4:AK6)),MIN(EXP((AL7-$J7)*$G7),1),"")</f>
@@ -8532,9 +8532,9 @@
         <f>IF(AND(NOT(AK7),AND(AK$4:AK6)),TRUE,AK7)</f>
         <v>1</v>
       </c>
-      <c r="AP7" s="38">
+      <c r="AP7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO7),AND(AO$4:AO6))),($J7*$G7-LN(1+Jumpoverwrite8*AQ$2))/$G7,_xll.qlInterpolationInterpolate(,AO$3,$F7,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ7" s="38" t="str">
         <f>IF(AND(NOT(AO7),AND(AO$4:AO6)),MIN(EXP((AP7-$J7)*$G7),1),"")</f>
@@ -8544,9 +8544,9 @@
         <f>IF(AND(NOT(AO7),AND(AO$4:AO6)),TRUE,AO7)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="38">
+      <c r="AT7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS7),AND(AS$4:AS6))),($J7*$G7-LN(1+Jumpoverwrite9*AU$2))/$G7,_xll.qlInterpolationInterpolate(,AS$3,$F7,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU7" s="38" t="str">
         <f>IF(AND(NOT(AS7),AND(AS$4:AS6)),MIN(EXP((AT7-$J7)*$G7),1),"")</f>
@@ -8556,9 +8556,9 @@
         <f>IF(AND(NOT(AS7),AND(AS$4:AS6)),TRUE,AS7)</f>
         <v>1</v>
       </c>
-      <c r="AX7" s="38">
+      <c r="AX7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW7),AND(AW$4:AW6))),($J7*$G7-LN(1+Jumpoverwrite10*AY$2))/$G7,_xll.qlInterpolationInterpolate(,AW$3,$F7,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY7" s="38" t="str">
         <f>IF(AND(NOT(AW7),AND(AW$4:AW6)),MIN(EXP((AX7-$J7)*$G7),1),"")</f>
@@ -8568,9 +8568,9 @@
         <f>IF(AND(NOT(AW7),AND(AW$4:AW6)),TRUE,AW7)</f>
         <v>1</v>
       </c>
-      <c r="BB7" s="38">
+      <c r="BB7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA7),AND(BA$4:BA6))),($J7*$G7-LN(1+Jumpoverwrite11*BC$2))/$G7,_xll.qlInterpolationInterpolate(,BA$3,$F7,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC7" s="38" t="str">
         <f>IF(AND(NOT(BA7),AND(BA$4:BA6)),MIN(EXP((BB7-$J7)*$G7),1),"")</f>
@@ -8580,9 +8580,9 @@
         <f>IF(AND(NOT(BA7),AND(BA$4:BA6)),TRUE,BA7)</f>
         <v>1</v>
       </c>
-      <c r="BF7" s="38">
+      <c r="BF7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE7),AND(BE$4:BE6))),($J7*$G7-LN(1+Jumpoverwrite12*BG$2))/$G7,_xll.qlInterpolationInterpolate(,BE$3,$F7,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG7" s="38" t="str">
         <f>IF(AND(NOT(BE7),AND(BE$4:BE6)),MIN(EXP((BF7-$J7)*$G7),1),"")</f>
@@ -8592,9 +8592,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ7" s="38">
+      <c r="BJ7" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI7),AND(BI$4:BI6))),($J7*$G7-LN(1+jumpoverwrite13*BK$2))/$G7,_xll.qlInterpolationInterpolate(,BI$3,$F7,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK7" s="38" t="str">
         <f>IF(AND(NOT(BI7),AND(BI$4:BI6)),MIN(EXP((BJ7-$J7)*$G7),1),"")</f>
@@ -8605,9 +8605,9 @@
       <c r="A8" s="37" t="str">
         <v>WEUREON1M</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A8)</f>
-        <v>-1E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C8" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A8)</f>
@@ -8629,8 +8629,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J8" s="41">
-        <v>5.0000000000129566E-2</v>
+      <c r="J8" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K8" s="113">
         <f t="shared" si="3"/>
@@ -8641,9 +8641,9 @@
         <f>IF(AND(NOT(I8),AND(I$4:I7)),TRUE,I8)</f>
         <v>1</v>
       </c>
-      <c r="N8" s="38">
+      <c r="N8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M8),AND(M$4:M7))),($J8*$G8-LN(1+Jumpoverwrite1*O$2))/$G8,_xll.qlInterpolationInterpolate(,M$3,$F8,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O8" s="38" t="str">
         <f>IF(AND(NOT(M8),AND(M$4:M7)),MIN(EXP((N8-$J8)*$G8),1),"")</f>
@@ -8654,9 +8654,9 @@
         <f>IF(AND(NOT(M8),AND(M$4:M7)),TRUE,M8)</f>
         <v>1</v>
       </c>
-      <c r="R8" s="38">
+      <c r="R8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q8),AND(Q$4:Q7))),($J8*$G8-LN(1+Jumpoverwrite2*S$2))/$G8,_xll.qlInterpolationInterpolate(,Q$3,$F8,TRUE))</f>
-        <v>5.0000000000129566E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S8" s="38" t="str">
         <f>IF(AND(NOT(Q8),AND(Q$4:Q7)),MIN(EXP((R8-$J8)*$G8),1),"")</f>
@@ -8679,9 +8679,9 @@
         <f>IF(AND(NOT(U8),AND(U$4:U7)),TRUE,U8)</f>
         <v>1</v>
       </c>
-      <c r="Z8" s="38">
+      <c r="Z8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y8),AND(Y$4:Y7))),($J8*$G8-LN(1+Jumpoverwrite4*AA$2))/$G8,_xll.qlInterpolationInterpolate(,Y$3,$F8,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA8" s="38" t="str">
         <f>IF(AND(NOT(Y8),AND(Y$4:Y7)),MIN(EXP((Z8-$J8)*$G8),1),"")</f>
@@ -8692,9 +8692,9 @@
         <f>IF(AND(NOT(Y8),AND(Y$4:Y7)),TRUE,Y8)</f>
         <v>1</v>
       </c>
-      <c r="AD8" s="38">
+      <c r="AD8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC8),AND(AC$4:AC7))),($J8*$G8-LN(1+Jumpoverwrite5*AE$2))/$G8,_xll.qlInterpolationInterpolate(,AC$3,$F8,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE8" s="38" t="str">
         <f>IF(AND(NOT(AC8),AND(AC$4:AC7)),MIN(EXP((AD8-$J8)*$G8),1),"")</f>
@@ -8705,9 +8705,9 @@
         <f>IF(AND(NOT(AC8),AND(AC$4:AC7)),TRUE,AC8)</f>
         <v>1</v>
       </c>
-      <c r="AH8" s="38">
+      <c r="AH8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG8),AND(AG$4:AG7))),($J8*$G8-LN(1+Jumpoverwrite6*AI$2))/$G8,_xll.qlInterpolationInterpolate(,AG$3,$F8,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI8" s="38" t="str">
         <f>IF(AND(NOT(AG8),AND(AG$4:AG7)),MIN(EXP((AH8-$J8)*$G8),1),"")</f>
@@ -8718,9 +8718,9 @@
         <f>IF(AND(NOT(AG8),AND(AG$4:AG7)),TRUE,AG8)</f>
         <v>1</v>
       </c>
-      <c r="AL8" s="38">
+      <c r="AL8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK8),AND(AK$4:AK7))),($J8*$G8-LN(1+Jumpoverwrite7*AM$2))/$G8,_xll.qlInterpolationInterpolate(,AK$3,$F8,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM8" s="38" t="str">
         <f>IF(AND(NOT(AK8),AND(AK$4:AK7)),MIN(EXP((AL8-$J8)*$G8),1),"")</f>
@@ -8730,9 +8730,9 @@
         <f>IF(AND(NOT(AK8),AND(AK$4:AK7)),TRUE,AK8)</f>
         <v>1</v>
       </c>
-      <c r="AP8" s="38">
+      <c r="AP8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO8),AND(AO$4:AO7))),($J8*$G8-LN(1+Jumpoverwrite8*AQ$2))/$G8,_xll.qlInterpolationInterpolate(,AO$3,$F8,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ8" s="38" t="str">
         <f>IF(AND(NOT(AO8),AND(AO$4:AO7)),MIN(EXP((AP8-$J8)*$G8),1),"")</f>
@@ -8742,9 +8742,9 @@
         <f>IF(AND(NOT(AO8),AND(AO$4:AO7)),TRUE,AO8)</f>
         <v>1</v>
       </c>
-      <c r="AT8" s="38">
+      <c r="AT8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS8),AND(AS$4:AS7))),($J8*$G8-LN(1+Jumpoverwrite9*AU$2))/$G8,_xll.qlInterpolationInterpolate(,AS$3,$F8,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU8" s="38" t="str">
         <f>IF(AND(NOT(AS8),AND(AS$4:AS7)),MIN(EXP((AT8-$J8)*$G8),1),"")</f>
@@ -8754,9 +8754,9 @@
         <f>IF(AND(NOT(AS8),AND(AS$4:AS7)),TRUE,AS8)</f>
         <v>1</v>
       </c>
-      <c r="AX8" s="38">
+      <c r="AX8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW8),AND(AW$4:AW7))),($J8*$G8-LN(1+Jumpoverwrite10*AY$2))/$G8,_xll.qlInterpolationInterpolate(,AW$3,$F8,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY8" s="38" t="str">
         <f>IF(AND(NOT(AW8),AND(AW$4:AW7)),MIN(EXP((AX8-$J8)*$G8),1),"")</f>
@@ -8766,9 +8766,9 @@
         <f>IF(AND(NOT(AW8),AND(AW$4:AW7)),TRUE,AW8)</f>
         <v>1</v>
       </c>
-      <c r="BB8" s="38">
+      <c r="BB8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA8),AND(BA$4:BA7))),($J8*$G8-LN(1+Jumpoverwrite11*BC$2))/$G8,_xll.qlInterpolationInterpolate(,BA$3,$F8,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC8" s="38" t="str">
         <f>IF(AND(NOT(BA8),AND(BA$4:BA7)),MIN(EXP((BB8-$J8)*$G8),1),"")</f>
@@ -8778,9 +8778,9 @@
         <f>IF(AND(NOT(BA8),AND(BA$4:BA7)),TRUE,BA8)</f>
         <v>1</v>
       </c>
-      <c r="BF8" s="38">
+      <c r="BF8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE8),AND(BE$4:BE7))),($J8*$G8-LN(1+Jumpoverwrite12*BG$2))/$G8,_xll.qlInterpolationInterpolate(,BE$3,$F8,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG8" s="38" t="str">
         <f>IF(AND(NOT(BE8),AND(BE$4:BE7)),MIN(EXP((BF8-$J8)*$G8),1),"")</f>
@@ -8790,9 +8790,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ8" s="38">
+      <c r="BJ8" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI8),AND(BI$4:BI7))),($J8*$G8-LN(1+jumpoverwrite13*BK$2))/$G8,_xll.qlInterpolationInterpolate(,BI$3,$F8,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK8" s="38" t="str">
         <f>IF(AND(NOT(BI8),AND(BI$4:BI7)),MIN(EXP((BJ8-$J8)*$G8),1),"")</f>
@@ -8803,9 +8803,9 @@
       <c r="A9" s="37" t="str">
         <v>WEUREON2M</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A9)</f>
-        <v>-1.0899999999999998E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C9" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A9)</f>
@@ -8827,8 +8827,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J9" s="41">
-        <v>5.0000000000129566E-2</v>
+      <c r="J9" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K9" s="113">
         <f t="shared" si="3"/>
@@ -8839,9 +8839,9 @@
         <f>IF(AND(NOT(I9),AND(I$4:I8)),TRUE,I9)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M9),AND(M$4:M8))),($J9*$G9-LN(1+Jumpoverwrite1*O$2))/$G9,_xll.qlInterpolationInterpolate(,M$3,$F9,TRUE))</f>
-        <v>-0.20974025974013022</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O9" s="38" t="str">
         <f>IF(AND(NOT(M9),AND(M$4:M8)),MIN(EXP((N9-$J9)*$G9),1),"")</f>
@@ -8852,13 +8852,13 @@
         <f>IF(AND(NOT(M9),AND(M$4:M8)),TRUE,M9)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="38">
+      <c r="R9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q9),AND(Q$4:Q8))),($J9*$G9-LN(1+Jumpoverwrite2*S$2))/$G9,_xll.qlInterpolationInterpolate(,Q$3,$F9,TRUE))</f>
-        <v>-0.20974025974013022</v>
-      </c>
-      <c r="S9" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S9" s="38" t="e">
         <f>IF(AND(NOT(Q9),AND(Q$4:Q8)),MIN(EXP((R9-$J9)*$G9),1),"")</f>
-        <v>0.97929385719536355</v>
+        <v>#VALUE!</v>
       </c>
       <c r="T9" s="127"/>
       <c r="U9" s="85" t="b">
@@ -8877,9 +8877,9 @@
         <f>IF(AND(NOT(U9),AND(U$4:U8)),TRUE,U9)</f>
         <v>1</v>
       </c>
-      <c r="Z9" s="38">
+      <c r="Z9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y9),AND(Y$4:Y8))),($J9*$G9-LN(1+Jumpoverwrite4*AA$2))/$G9,_xll.qlInterpolationInterpolate(,Y$3,$F9,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA9" s="38" t="str">
         <f>IF(AND(NOT(Y9),AND(Y$4:Y8)),MIN(EXP((Z9-$J9)*$G9),1),"")</f>
@@ -8890,9 +8890,9 @@
         <f>IF(AND(NOT(Y9),AND(Y$4:Y8)),TRUE,Y9)</f>
         <v>1</v>
       </c>
-      <c r="AD9" s="38">
+      <c r="AD9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC9),AND(AC$4:AC8))),($J9*$G9-LN(1+Jumpoverwrite5*AE$2))/$G9,_xll.qlInterpolationInterpolate(,AC$3,$F9,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE9" s="38" t="str">
         <f>IF(AND(NOT(AC9),AND(AC$4:AC8)),MIN(EXP((AD9-$J9)*$G9),1),"")</f>
@@ -8903,9 +8903,9 @@
         <f>IF(AND(NOT(AC9),AND(AC$4:AC8)),TRUE,AC9)</f>
         <v>1</v>
       </c>
-      <c r="AH9" s="38">
+      <c r="AH9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG9),AND(AG$4:AG8))),($J9*$G9-LN(1+Jumpoverwrite6*AI$2))/$G9,_xll.qlInterpolationInterpolate(,AG$3,$F9,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI9" s="38" t="str">
         <f>IF(AND(NOT(AG9),AND(AG$4:AG8)),MIN(EXP((AH9-$J9)*$G9),1),"")</f>
@@ -8916,9 +8916,9 @@
         <f>IF(AND(NOT(AG9),AND(AG$4:AG8)),TRUE,AG9)</f>
         <v>1</v>
       </c>
-      <c r="AL9" s="38">
+      <c r="AL9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK9),AND(AK$4:AK8))),($J9*$G9-LN(1+Jumpoverwrite7*AM$2))/$G9,_xll.qlInterpolationInterpolate(,AK$3,$F9,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM9" s="38" t="str">
         <f>IF(AND(NOT(AK9),AND(AK$4:AK8)),MIN(EXP((AL9-$J9)*$G9),1),"")</f>
@@ -8928,9 +8928,9 @@
         <f>IF(AND(NOT(AK9),AND(AK$4:AK8)),TRUE,AK9)</f>
         <v>1</v>
       </c>
-      <c r="AP9" s="38">
+      <c r="AP9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO9),AND(AO$4:AO8))),($J9*$G9-LN(1+Jumpoverwrite8*AQ$2))/$G9,_xll.qlInterpolationInterpolate(,AO$3,$F9,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ9" s="38" t="str">
         <f>IF(AND(NOT(AO9),AND(AO$4:AO8)),MIN(EXP((AP9-$J9)*$G9),1),"")</f>
@@ -8940,9 +8940,9 @@
         <f>IF(AND(NOT(AO9),AND(AO$4:AO8)),TRUE,AO9)</f>
         <v>1</v>
       </c>
-      <c r="AT9" s="38">
+      <c r="AT9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS9),AND(AS$4:AS8))),($J9*$G9-LN(1+Jumpoverwrite9*AU$2))/$G9,_xll.qlInterpolationInterpolate(,AS$3,$F9,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU9" s="38" t="str">
         <f>IF(AND(NOT(AS9),AND(AS$4:AS8)),MIN(EXP((AT9-$J9)*$G9),1),"")</f>
@@ -8952,9 +8952,9 @@
         <f>IF(AND(NOT(AS9),AND(AS$4:AS8)),TRUE,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AX9" s="38">
+      <c r="AX9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW9),AND(AW$4:AW8))),($J9*$G9-LN(1+Jumpoverwrite10*AY$2))/$G9,_xll.qlInterpolationInterpolate(,AW$3,$F9,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY9" s="38" t="str">
         <f>IF(AND(NOT(AW9),AND(AW$4:AW8)),MIN(EXP((AX9-$J9)*$G9),1),"")</f>
@@ -8964,9 +8964,9 @@
         <f>IF(AND(NOT(AW9),AND(AW$4:AW8)),TRUE,AW9)</f>
         <v>1</v>
       </c>
-      <c r="BB9" s="38">
+      <c r="BB9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA9),AND(BA$4:BA8))),($J9*$G9-LN(1+Jumpoverwrite11*BC$2))/$G9,_xll.qlInterpolationInterpolate(,BA$3,$F9,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC9" s="38" t="str">
         <f>IF(AND(NOT(BA9),AND(BA$4:BA8)),MIN(EXP((BB9-$J9)*$G9),1),"")</f>
@@ -8976,9 +8976,9 @@
         <f>IF(AND(NOT(BA9),AND(BA$4:BA8)),TRUE,BA9)</f>
         <v>1</v>
       </c>
-      <c r="BF9" s="38">
+      <c r="BF9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE9),AND(BE$4:BE8))),($J9*$G9-LN(1+Jumpoverwrite12*BG$2))/$G9,_xll.qlInterpolationInterpolate(,BE$3,$F9,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG9" s="38" t="str">
         <f>IF(AND(NOT(BE9),AND(BE$4:BE8)),MIN(EXP((BF9-$J9)*$G9),1),"")</f>
@@ -8988,9 +8988,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ9" s="38">
+      <c r="BJ9" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI9),AND(BI$4:BI8))),($J9*$G9-LN(1+jumpoverwrite13*BK$2))/$G9,_xll.qlInterpolationInterpolate(,BI$3,$F9,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK9" s="38" t="str">
         <f>IF(AND(NOT(BI9),AND(BI$4:BI8)),MIN(EXP((BJ9-$J9)*$G9),1),"")</f>
@@ -9001,9 +9001,9 @@
       <c r="A10" s="37" t="str">
         <v>WEURECBOISJUN15</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A10)</f>
-        <v>-1.15E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C10" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A10)</f>
@@ -9025,8 +9025,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J10" s="41">
-        <v>-0.44999999999987045</v>
+      <c r="J10" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K10" s="113">
         <f t="shared" si="3"/>
@@ -9037,9 +9037,9 @@
         <f>IF(AND(NOT(I10),AND(I$4:I9)),TRUE,I10)</f>
         <v>1</v>
       </c>
-      <c r="N10" s="38">
+      <c r="N10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M10),AND(M$4:M9))),($J10*$G10-LN(1+Jumpoverwrite1*O$2))/$G10,_xll.qlInterpolationInterpolate(,M$3,$F10,TRUE))</f>
-        <v>-0.44999999999987045</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O10" s="38" t="str">
         <f>IF(AND(NOT(M10),AND(M$4:M9)),MIN(EXP((N10-$J10)*$G10),1),"")</f>
@@ -9050,9 +9050,9 @@
         <f>IF(AND(NOT(M10),AND(M$4:M9)),TRUE,M10)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="38">
+      <c r="R10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q10),AND(Q$4:Q9))),($J10*$G10-LN(1+Jumpoverwrite2*S$2))/$G10,_xll.qlInterpolationInterpolate(,Q$3,$F10,TRUE))</f>
-        <v>-0.44999999999987045</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S10" s="38" t="str">
         <f>IF(AND(NOT(Q10),AND(Q$4:Q9)),MIN(EXP((R10-$J10)*$G10),1),"")</f>
@@ -9075,9 +9075,9 @@
         <f>IF(AND(NOT(U10),AND(U$4:U9)),TRUE,U10)</f>
         <v>1</v>
       </c>
-      <c r="Z10" s="38">
+      <c r="Z10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y10),AND(Y$4:Y9))),($J10*$G10-LN(1+Jumpoverwrite4*AA$2))/$G10,_xll.qlInterpolationInterpolate(,Y$3,$F10,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA10" s="38" t="str">
         <f>IF(AND(NOT(Y10),AND(Y$4:Y9)),MIN(EXP((Z10-$J10)*$G10),1),"")</f>
@@ -9088,9 +9088,9 @@
         <f>IF(AND(NOT(Y10),AND(Y$4:Y9)),TRUE,Y10)</f>
         <v>1</v>
       </c>
-      <c r="AD10" s="38">
+      <c r="AD10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC10),AND(AC$4:AC9))),($J10*$G10-LN(1+Jumpoverwrite5*AE$2))/$G10,_xll.qlInterpolationInterpolate(,AC$3,$F10,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE10" s="38" t="str">
         <f>IF(AND(NOT(AC10),AND(AC$4:AC9)),MIN(EXP((AD10-$J10)*$G10),1),"")</f>
@@ -9101,9 +9101,9 @@
         <f>IF(AND(NOT(AC10),AND(AC$4:AC9)),TRUE,AC10)</f>
         <v>1</v>
       </c>
-      <c r="AH10" s="38">
+      <c r="AH10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG10),AND(AG$4:AG9))),($J10*$G10-LN(1+Jumpoverwrite6*AI$2))/$G10,_xll.qlInterpolationInterpolate(,AG$3,$F10,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI10" s="38" t="str">
         <f>IF(AND(NOT(AG10),AND(AG$4:AG9)),MIN(EXP((AH10-$J10)*$G10),1),"")</f>
@@ -9114,9 +9114,9 @@
         <f>IF(AND(NOT(AG10),AND(AG$4:AG9)),TRUE,AG10)</f>
         <v>1</v>
       </c>
-      <c r="AL10" s="38">
+      <c r="AL10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK10),AND(AK$4:AK9))),($J10*$G10-LN(1+Jumpoverwrite7*AM$2))/$G10,_xll.qlInterpolationInterpolate(,AK$3,$F10,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM10" s="38" t="str">
         <f>IF(AND(NOT(AK10),AND(AK$4:AK9)),MIN(EXP((AL10-$J10)*$G10),1),"")</f>
@@ -9126,9 +9126,9 @@
         <f>IF(AND(NOT(AK10),AND(AK$4:AK9)),TRUE,AK10)</f>
         <v>1</v>
       </c>
-      <c r="AP10" s="38">
+      <c r="AP10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO10),AND(AO$4:AO9))),($J10*$G10-LN(1+Jumpoverwrite8*AQ$2))/$G10,_xll.qlInterpolationInterpolate(,AO$3,$F10,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ10" s="38" t="str">
         <f>IF(AND(NOT(AO10),AND(AO$4:AO9)),MIN(EXP((AP10-$J10)*$G10),1),"")</f>
@@ -9138,9 +9138,9 @@
         <f>IF(AND(NOT(AO10),AND(AO$4:AO9)),TRUE,AO10)</f>
         <v>1</v>
       </c>
-      <c r="AT10" s="38">
+      <c r="AT10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS10),AND(AS$4:AS9))),($J10*$G10-LN(1+Jumpoverwrite9*AU$2))/$G10,_xll.qlInterpolationInterpolate(,AS$3,$F10,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU10" s="38" t="str">
         <f>IF(AND(NOT(AS10),AND(AS$4:AS9)),MIN(EXP((AT10-$J10)*$G10),1),"")</f>
@@ -9150,9 +9150,9 @@
         <f>IF(AND(NOT(AS10),AND(AS$4:AS9)),TRUE,AS10)</f>
         <v>1</v>
       </c>
-      <c r="AX10" s="38">
+      <c r="AX10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW10),AND(AW$4:AW9))),($J10*$G10-LN(1+Jumpoverwrite10*AY$2))/$G10,_xll.qlInterpolationInterpolate(,AW$3,$F10,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY10" s="38" t="str">
         <f>IF(AND(NOT(AW10),AND(AW$4:AW9)),MIN(EXP((AX10-$J10)*$G10),1),"")</f>
@@ -9162,9 +9162,9 @@
         <f>IF(AND(NOT(AW10),AND(AW$4:AW9)),TRUE,AW10)</f>
         <v>1</v>
       </c>
-      <c r="BB10" s="38">
+      <c r="BB10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA10),AND(BA$4:BA9))),($J10*$G10-LN(1+Jumpoverwrite11*BC$2))/$G10,_xll.qlInterpolationInterpolate(,BA$3,$F10,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC10" s="38" t="str">
         <f>IF(AND(NOT(BA10),AND(BA$4:BA9)),MIN(EXP((BB10-$J10)*$G10),1),"")</f>
@@ -9174,9 +9174,9 @@
         <f>IF(AND(NOT(BA10),AND(BA$4:BA9)),TRUE,BA10)</f>
         <v>1</v>
       </c>
-      <c r="BF10" s="38">
+      <c r="BF10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE10),AND(BE$4:BE9))),($J10*$G10-LN(1+Jumpoverwrite12*BG$2))/$G10,_xll.qlInterpolationInterpolate(,BE$3,$F10,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG10" s="38" t="str">
         <f>IF(AND(NOT(BE10),AND(BE$4:BE9)),MIN(EXP((BF10-$J10)*$G10),1),"")</f>
@@ -9186,9 +9186,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ10" s="38">
+      <c r="BJ10" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI10),AND(BI$4:BI9))),($J10*$G10-LN(1+jumpoverwrite13*BK$2))/$G10,_xll.qlInterpolationInterpolate(,BI$3,$F10,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK10" s="38" t="str">
         <f>IF(AND(NOT(BI10),AND(BI$4:BI9)),MIN(EXP((BJ10-$J10)*$G10),1),"")</f>
@@ -9199,9 +9199,9 @@
       <c r="A11" s="37" t="str">
         <v>WEUREON3M</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A11)</f>
-        <v>-1.1200000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C11" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A11)</f>
@@ -9223,8 +9223,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="41">
-        <v>4.9999999998772804E-2</v>
+      <c r="J11" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K11" s="113">
         <f t="shared" si="3"/>
@@ -9235,9 +9235,9 @@
         <f>IF(AND(NOT(I11),AND(I$4:I10)),TRUE,I11)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="38">
+      <c r="N11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M11),AND(M$4:M10))),($J11*$G11-LN(1+Jumpoverwrite1*O$2))/$G11,_xll.qlInterpolationInterpolate(,M$3,$F11,TRUE))</f>
-        <v>-0.45000000000049056</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O11" s="38" t="str">
         <f>IF(AND(NOT(M11),AND(M$4:M10)),MIN(EXP((N11-$J11)*$G11),1),"")</f>
@@ -9248,9 +9248,9 @@
         <f>IF(AND(NOT(M11),AND(M$4:M10)),TRUE,M11)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="38">
+      <c r="R11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q11),AND(Q$4:Q10))),($J11*$G11-LN(1+Jumpoverwrite2*S$2))/$G11,_xll.qlInterpolationInterpolate(,Q$3,$F11,TRUE))</f>
-        <v>-0.45000000000049056</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S11" s="38" t="str">
         <f>IF(AND(NOT(Q11),AND(Q$4:Q10)),MIN(EXP((R11-$J11)*$G11),1),"")</f>
@@ -9264,18 +9264,18 @@
       <c r="V11" s="38">
         <v>0.05</v>
       </c>
-      <c r="W11" s="38">
+      <c r="W11" s="38" t="e">
         <f>IF(AND(NOT(U11),AND(U$4:U10)),MIN(EXP((V11-$J11)*$G11),1),"")</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="X11" s="127"/>
       <c r="Y11" s="85" t="b">
         <f>IF(AND(NOT(U11),AND(U$4:U10)),TRUE,U11)</f>
         <v>1</v>
       </c>
-      <c r="Z11" s="38">
+      <c r="Z11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y11),AND(Y$4:Y10))),($J11*$G11-LN(1+Jumpoverwrite4*AA$2))/$G11,_xll.qlInterpolationInterpolate(,Y$3,$F11,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA11" s="38" t="str">
         <f>IF(AND(NOT(Y11),AND(Y$4:Y10)),MIN(EXP((Z11-$J11)*$G11),1),"")</f>
@@ -9286,9 +9286,9 @@
         <f>IF(AND(NOT(Y11),AND(Y$4:Y10)),TRUE,Y11)</f>
         <v>1</v>
       </c>
-      <c r="AD11" s="38">
+      <c r="AD11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC11),AND(AC$4:AC10))),($J11*$G11-LN(1+Jumpoverwrite5*AE$2))/$G11,_xll.qlInterpolationInterpolate(,AC$3,$F11,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE11" s="38" t="str">
         <f>IF(AND(NOT(AC11),AND(AC$4:AC10)),MIN(EXP((AD11-$J11)*$G11),1),"")</f>
@@ -9299,9 +9299,9 @@
         <f>IF(AND(NOT(AC11),AND(AC$4:AC10)),TRUE,AC11)</f>
         <v>1</v>
       </c>
-      <c r="AH11" s="38">
+      <c r="AH11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG11),AND(AG$4:AG10))),($J11*$G11-LN(1+Jumpoverwrite6*AI$2))/$G11,_xll.qlInterpolationInterpolate(,AG$3,$F11,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI11" s="38" t="str">
         <f>IF(AND(NOT(AG11),AND(AG$4:AG10)),MIN(EXP((AH11-$J11)*$G11),1),"")</f>
@@ -9312,9 +9312,9 @@
         <f>IF(AND(NOT(AG11),AND(AG$4:AG10)),TRUE,AG11)</f>
         <v>1</v>
       </c>
-      <c r="AL11" s="38">
+      <c r="AL11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK11),AND(AK$4:AK10))),($J11*$G11-LN(1+Jumpoverwrite7*AM$2))/$G11,_xll.qlInterpolationInterpolate(,AK$3,$F11,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM11" s="38" t="str">
         <f>IF(AND(NOT(AK11),AND(AK$4:AK10)),MIN(EXP((AL11-$J11)*$G11),1),"")</f>
@@ -9324,9 +9324,9 @@
         <f>IF(AND(NOT(AK11),AND(AK$4:AK10)),TRUE,AK11)</f>
         <v>1</v>
       </c>
-      <c r="AP11" s="38">
+      <c r="AP11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO11),AND(AO$4:AO10))),($J11*$G11-LN(1+Jumpoverwrite8*AQ$2))/$G11,_xll.qlInterpolationInterpolate(,AO$3,$F11,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ11" s="38" t="str">
         <f>IF(AND(NOT(AO11),AND(AO$4:AO10)),MIN(EXP((AP11-$J11)*$G11),1),"")</f>
@@ -9336,9 +9336,9 @@
         <f>IF(AND(NOT(AO11),AND(AO$4:AO10)),TRUE,AO11)</f>
         <v>1</v>
       </c>
-      <c r="AT11" s="38">
+      <c r="AT11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS11),AND(AS$4:AS10))),($J11*$G11-LN(1+Jumpoverwrite9*AU$2))/$G11,_xll.qlInterpolationInterpolate(,AS$3,$F11,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU11" s="38" t="str">
         <f>IF(AND(NOT(AS11),AND(AS$4:AS10)),MIN(EXP((AT11-$J11)*$G11),1),"")</f>
@@ -9348,9 +9348,9 @@
         <f>IF(AND(NOT(AS11),AND(AS$4:AS10)),TRUE,AS11)</f>
         <v>1</v>
       </c>
-      <c r="AX11" s="38">
+      <c r="AX11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW11),AND(AW$4:AW10))),($J11*$G11-LN(1+Jumpoverwrite10*AY$2))/$G11,_xll.qlInterpolationInterpolate(,AW$3,$F11,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY11" s="38" t="str">
         <f>IF(AND(NOT(AW11),AND(AW$4:AW10)),MIN(EXP((AX11-$J11)*$G11),1),"")</f>
@@ -9360,9 +9360,9 @@
         <f>IF(AND(NOT(AW11),AND(AW$4:AW10)),TRUE,AW11)</f>
         <v>1</v>
       </c>
-      <c r="BB11" s="38">
+      <c r="BB11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA11),AND(BA$4:BA10))),($J11*$G11-LN(1+Jumpoverwrite11*BC$2))/$G11,_xll.qlInterpolationInterpolate(,BA$3,$F11,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC11" s="38" t="str">
         <f>IF(AND(NOT(BA11),AND(BA$4:BA10)),MIN(EXP((BB11-$J11)*$G11),1),"")</f>
@@ -9372,9 +9372,9 @@
         <f>IF(AND(NOT(BA11),AND(BA$4:BA10)),TRUE,BA11)</f>
         <v>1</v>
       </c>
-      <c r="BF11" s="38">
+      <c r="BF11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE11),AND(BE$4:BE10))),($J11*$G11-LN(1+Jumpoverwrite12*BG$2))/$G11,_xll.qlInterpolationInterpolate(,BE$3,$F11,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG11" s="38" t="str">
         <f>IF(AND(NOT(BE11),AND(BE$4:BE10)),MIN(EXP((BF11-$J11)*$G11),1),"")</f>
@@ -9384,9 +9384,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ11" s="38">
+      <c r="BJ11" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI11),AND(BI$4:BI10))),($J11*$G11-LN(1+jumpoverwrite13*BK$2))/$G11,_xll.qlInterpolationInterpolate(,BI$3,$F11,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK11" s="38" t="str">
         <f>IF(AND(NOT(BI11),AND(BI$4:BI10)),MIN(EXP((BJ11-$J11)*$G11),1),"")</f>
@@ -9397,9 +9397,9 @@
       <c r="A12" s="37" t="str">
         <v>WEURECBOISJUL15</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A12)</f>
-        <v>-1.2199999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C12" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A12)</f>
@@ -9421,8 +9421,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="41">
-        <v>4.9999999997909134E-2</v>
+      <c r="J12" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K12" s="113">
         <f t="shared" si="3"/>
@@ -9433,9 +9433,9 @@
         <f>IF(AND(NOT(I12),AND(I$4:I11)),TRUE,I12)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M12),AND(M$4:M11))),($J12*$G12-LN(1+Jumpoverwrite1*O$2))/$G12,_xll.qlInterpolationInterpolate(,M$3,$F12,TRUE))</f>
-        <v>-0.45000000000147072</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O12" s="38" t="str">
         <f>IF(AND(NOT(M12),AND(M$4:M11)),MIN(EXP((N12-$J12)*$G12),1),"")</f>
@@ -9446,9 +9446,9 @@
         <f>IF(AND(NOT(M12),AND(M$4:M11)),TRUE,M12)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="38">
+      <c r="R12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q12),AND(Q$4:Q11))),($J12*$G12-LN(1+Jumpoverwrite2*S$2))/$G12,_xll.qlInterpolationInterpolate(,Q$3,$F12,TRUE))</f>
-        <v>-0.45000000000147072</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S12" s="38" t="str">
         <f>IF(AND(NOT(Q12),AND(Q$4:Q11)),MIN(EXP((R12-$J12)*$G12),1),"")</f>
@@ -9471,22 +9471,22 @@
         <f>IF(AND(NOT(U12),AND(U$4:U11)),TRUE,U12)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="38">
+      <c r="Z12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y12),AND(Y$4:Y11))),($J12*$G12-LN(1+Jumpoverwrite4*AA$2))/$G12,_xll.qlInterpolationInterpolate(,Y$3,$F12,TRUE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="AA12" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA12" s="38" t="e">
         <f>IF(AND(NOT(Y12),AND(Y$4:Y11)),MIN(EXP((Z12-$J12)*$G12),1),"")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AB12" s="127"/>
       <c r="AC12" s="85" t="b">
         <f>IF(AND(NOT(Y12),AND(Y$4:Y11)),TRUE,Y12)</f>
         <v>1</v>
       </c>
-      <c r="AD12" s="38">
+      <c r="AD12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC12),AND(AC$4:AC11))),($J12*$G12-LN(1+Jumpoverwrite5*AE$2))/$G12,_xll.qlInterpolationInterpolate(,AC$3,$F12,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE12" s="38" t="str">
         <f>IF(AND(NOT(AC12),AND(AC$4:AC11)),MIN(EXP((AD12-$J12)*$G12),1),"")</f>
@@ -9497,9 +9497,9 @@
         <f>IF(AND(NOT(AC12),AND(AC$4:AC11)),TRUE,AC12)</f>
         <v>1</v>
       </c>
-      <c r="AH12" s="38">
+      <c r="AH12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG12),AND(AG$4:AG11))),($J12*$G12-LN(1+Jumpoverwrite6*AI$2))/$G12,_xll.qlInterpolationInterpolate(,AG$3,$F12,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI12" s="38" t="str">
         <f>IF(AND(NOT(AG12),AND(AG$4:AG11)),MIN(EXP((AH12-$J12)*$G12),1),"")</f>
@@ -9510,9 +9510,9 @@
         <f>IF(AND(NOT(AG12),AND(AG$4:AG11)),TRUE,AG12)</f>
         <v>1</v>
       </c>
-      <c r="AL12" s="38">
+      <c r="AL12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK12),AND(AK$4:AK11))),($J12*$G12-LN(1+Jumpoverwrite7*AM$2))/$G12,_xll.qlInterpolationInterpolate(,AK$3,$F12,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM12" s="38" t="str">
         <f>IF(AND(NOT(AK12),AND(AK$4:AK11)),MIN(EXP((AL12-$J12)*$G12),1),"")</f>
@@ -9522,9 +9522,9 @@
         <f>IF(AND(NOT(AK12),AND(AK$4:AK11)),TRUE,AK12)</f>
         <v>1</v>
       </c>
-      <c r="AP12" s="38">
+      <c r="AP12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO12),AND(AO$4:AO11))),($J12*$G12-LN(1+Jumpoverwrite8*AQ$2))/$G12,_xll.qlInterpolationInterpolate(,AO$3,$F12,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ12" s="38" t="str">
         <f>IF(AND(NOT(AO12),AND(AO$4:AO11)),MIN(EXP((AP12-$J12)*$G12),1),"")</f>
@@ -9534,9 +9534,9 @@
         <f>IF(AND(NOT(AO12),AND(AO$4:AO11)),TRUE,AO12)</f>
         <v>1</v>
       </c>
-      <c r="AT12" s="38">
+      <c r="AT12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS12),AND(AS$4:AS11))),($J12*$G12-LN(1+Jumpoverwrite9*AU$2))/$G12,_xll.qlInterpolationInterpolate(,AS$3,$F12,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU12" s="38" t="str">
         <f>IF(AND(NOT(AS12),AND(AS$4:AS11)),MIN(EXP((AT12-$J12)*$G12),1),"")</f>
@@ -9546,9 +9546,9 @@
         <f>IF(AND(NOT(AS12),AND(AS$4:AS11)),TRUE,AS12)</f>
         <v>1</v>
       </c>
-      <c r="AX12" s="38">
+      <c r="AX12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW12),AND(AW$4:AW11))),($J12*$G12-LN(1+Jumpoverwrite10*AY$2))/$G12,_xll.qlInterpolationInterpolate(,AW$3,$F12,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY12" s="38" t="str">
         <f>IF(AND(NOT(AW12),AND(AW$4:AW11)),MIN(EXP((AX12-$J12)*$G12),1),"")</f>
@@ -9558,9 +9558,9 @@
         <f>IF(AND(NOT(AW12),AND(AW$4:AW11)),TRUE,AW12)</f>
         <v>1</v>
       </c>
-      <c r="BB12" s="38">
+      <c r="BB12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA12),AND(BA$4:BA11))),($J12*$G12-LN(1+Jumpoverwrite11*BC$2))/$G12,_xll.qlInterpolationInterpolate(,BA$3,$F12,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC12" s="38" t="str">
         <f>IF(AND(NOT(BA12),AND(BA$4:BA11)),MIN(EXP((BB12-$J12)*$G12),1),"")</f>
@@ -9570,9 +9570,9 @@
         <f>IF(AND(NOT(BA12),AND(BA$4:BA11)),TRUE,BA12)</f>
         <v>1</v>
       </c>
-      <c r="BF12" s="38">
+      <c r="BF12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE12),AND(BE$4:BE11))),($J12*$G12-LN(1+Jumpoverwrite12*BG$2))/$G12,_xll.qlInterpolationInterpolate(,BE$3,$F12,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG12" s="38" t="str">
         <f>IF(AND(NOT(BE12),AND(BE$4:BE11)),MIN(EXP((BF12-$J12)*$G12),1),"")</f>
@@ -9582,9 +9582,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ12" s="38">
+      <c r="BJ12" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI12),AND(BI$4:BI11))),($J12*$G12-LN(1+jumpoverwrite13*BK$2))/$G12,_xll.qlInterpolationInterpolate(,BI$3,$F12,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK12" s="38" t="str">
         <f>IF(AND(NOT(BI12),AND(BI$4:BI11)),MIN(EXP((BJ12-$J12)*$G12),1),"")</f>
@@ -9595,9 +9595,9 @@
       <c r="A13" s="37" t="str">
         <v>WEUREON4M</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A13)</f>
-        <v>-1.15E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C13" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A13)</f>
@@ -9619,8 +9619,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J13" s="41">
-        <v>-0.45000000000209084</v>
+      <c r="J13" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K13" s="113">
         <f t="shared" si="3"/>
@@ -9631,9 +9631,9 @@
         <f>IF(AND(NOT(I13),AND(I$4:I12)),TRUE,I13)</f>
         <v>1</v>
       </c>
-      <c r="N13" s="38">
+      <c r="N13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M13),AND(M$4:M12))),($J13*$G13-LN(1+Jumpoverwrite1*O$2))/$G13,_xll.qlInterpolationInterpolate(,M$3,$F13,TRUE))</f>
-        <v>-0.45000000000209084</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O13" s="38" t="str">
         <f>IF(AND(NOT(M13),AND(M$4:M12)),MIN(EXP((N13-$J13)*$G13),1),"")</f>
@@ -9644,9 +9644,9 @@
         <f>IF(AND(NOT(M13),AND(M$4:M12)),TRUE,M13)</f>
         <v>1</v>
       </c>
-      <c r="R13" s="38">
+      <c r="R13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q13),AND(Q$4:Q12))),($J13*$G13-LN(1+Jumpoverwrite2*S$2))/$G13,_xll.qlInterpolationInterpolate(,Q$3,$F13,TRUE))</f>
-        <v>-0.45000000000209084</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S13" s="38" t="str">
         <f>IF(AND(NOT(Q13),AND(Q$4:Q12)),MIN(EXP((R13-$J13)*$G13),1),"")</f>
@@ -9669,9 +9669,9 @@
         <f>IF(AND(NOT(U13),AND(U$4:U12)),TRUE,U13)</f>
         <v>1</v>
       </c>
-      <c r="Z13" s="38">
+      <c r="Z13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y13),AND(Y$4:Y12))),($J13*$G13-LN(1+Jumpoverwrite4*AA$2))/$G13,_xll.qlInterpolationInterpolate(,Y$3,$F13,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA13" s="38" t="str">
         <f>IF(AND(NOT(Y13),AND(Y$4:Y12)),MIN(EXP((Z13-$J13)*$G13),1),"")</f>
@@ -9682,9 +9682,9 @@
         <f>IF(AND(NOT(Y13),AND(Y$4:Y12)),TRUE,Y13)</f>
         <v>1</v>
       </c>
-      <c r="AD13" s="38">
+      <c r="AD13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC13),AND(AC$4:AC12))),($J13*$G13-LN(1+Jumpoverwrite5*AE$2))/$G13,_xll.qlInterpolationInterpolate(,AC$3,$F13,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE13" s="38" t="str">
         <f>IF(AND(NOT(AC13),AND(AC$4:AC12)),MIN(EXP((AD13-$J13)*$G13),1),"")</f>
@@ -9695,9 +9695,9 @@
         <f>IF(AND(NOT(AC13),AND(AC$4:AC12)),TRUE,AC13)</f>
         <v>1</v>
       </c>
-      <c r="AH13" s="38">
+      <c r="AH13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG13),AND(AG$4:AG12))),($J13*$G13-LN(1+Jumpoverwrite6*AI$2))/$G13,_xll.qlInterpolationInterpolate(,AG$3,$F13,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI13" s="38" t="str">
         <f>IF(AND(NOT(AG13),AND(AG$4:AG12)),MIN(EXP((AH13-$J13)*$G13),1),"")</f>
@@ -9708,9 +9708,9 @@
         <f>IF(AND(NOT(AG13),AND(AG$4:AG12)),TRUE,AG13)</f>
         <v>1</v>
       </c>
-      <c r="AL13" s="38">
+      <c r="AL13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK13),AND(AK$4:AK12))),($J13*$G13-LN(1+Jumpoverwrite7*AM$2))/$G13,_xll.qlInterpolationInterpolate(,AK$3,$F13,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM13" s="38" t="str">
         <f>IF(AND(NOT(AK13),AND(AK$4:AK12)),MIN(EXP((AL13-$J13)*$G13),1),"")</f>
@@ -9720,9 +9720,9 @@
         <f>IF(AND(NOT(AK13),AND(AK$4:AK12)),TRUE,AK13)</f>
         <v>1</v>
       </c>
-      <c r="AP13" s="38">
+      <c r="AP13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO13),AND(AO$4:AO12))),($J13*$G13-LN(1+Jumpoverwrite8*AQ$2))/$G13,_xll.qlInterpolationInterpolate(,AO$3,$F13,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ13" s="38" t="str">
         <f>IF(AND(NOT(AO13),AND(AO$4:AO12)),MIN(EXP((AP13-$J13)*$G13),1),"")</f>
@@ -9732,9 +9732,9 @@
         <f>IF(AND(NOT(AO13),AND(AO$4:AO12)),TRUE,AO13)</f>
         <v>1</v>
       </c>
-      <c r="AT13" s="38">
+      <c r="AT13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS13),AND(AS$4:AS12))),($J13*$G13-LN(1+Jumpoverwrite9*AU$2))/$G13,_xll.qlInterpolationInterpolate(,AS$3,$F13,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU13" s="38" t="str">
         <f>IF(AND(NOT(AS13),AND(AS$4:AS12)),MIN(EXP((AT13-$J13)*$G13),1),"")</f>
@@ -9744,9 +9744,9 @@
         <f>IF(AND(NOT(AS13),AND(AS$4:AS12)),TRUE,AS13)</f>
         <v>1</v>
       </c>
-      <c r="AX13" s="38">
+      <c r="AX13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW13),AND(AW$4:AW12))),($J13*$G13-LN(1+Jumpoverwrite10*AY$2))/$G13,_xll.qlInterpolationInterpolate(,AW$3,$F13,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY13" s="38" t="str">
         <f>IF(AND(NOT(AW13),AND(AW$4:AW12)),MIN(EXP((AX13-$J13)*$G13),1),"")</f>
@@ -9756,9 +9756,9 @@
         <f>IF(AND(NOT(AW13),AND(AW$4:AW12)),TRUE,AW13)</f>
         <v>1</v>
       </c>
-      <c r="BB13" s="38">
+      <c r="BB13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA13),AND(BA$4:BA12))),($J13*$G13-LN(1+Jumpoverwrite11*BC$2))/$G13,_xll.qlInterpolationInterpolate(,BA$3,$F13,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC13" s="38" t="str">
         <f>IF(AND(NOT(BA13),AND(BA$4:BA12)),MIN(EXP((BB13-$J13)*$G13),1),"")</f>
@@ -9768,9 +9768,9 @@
         <f>IF(AND(NOT(BA13),AND(BA$4:BA12)),TRUE,BA13)</f>
         <v>1</v>
       </c>
-      <c r="BF13" s="38">
+      <c r="BF13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE13),AND(BE$4:BE12))),($J13*$G13-LN(1+Jumpoverwrite12*BG$2))/$G13,_xll.qlInterpolationInterpolate(,BE$3,$F13,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG13" s="38" t="str">
         <f>IF(AND(NOT(BE13),AND(BE$4:BE12)),MIN(EXP((BF13-$J13)*$G13),1),"")</f>
@@ -9780,9 +9780,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ13" s="38">
+      <c r="BJ13" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI13),AND(BI$4:BI12))),($J13*$G13-LN(1+jumpoverwrite13*BK$2))/$G13,_xll.qlInterpolationInterpolate(,BI$3,$F13,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK13" s="38" t="str">
         <f>IF(AND(NOT(BI13),AND(BI$4:BI12)),MIN(EXP((BJ13-$J13)*$G13),1),"")</f>
@@ -9793,9 +9793,9 @@
       <c r="A14" s="37" t="str">
         <v>WEUREON5M</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A14)</f>
-        <v>-1.16E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C14" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A14)</f>
@@ -9817,8 +9817,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="41">
-        <v>4.9999999996552302E-2</v>
+      <c r="J14" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K14" s="113">
         <f t="shared" si="3"/>
@@ -9829,9 +9829,9 @@
         <f>IF(AND(NOT(I14),AND(I$4:I13)),TRUE,I14)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="38">
+      <c r="N14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M14),AND(M$4:M13))),($J14*$G14-LN(1+Jumpoverwrite1*O$2))/$G14,_xll.qlInterpolationInterpolate(,M$3,$F14,TRUE))</f>
-        <v>-0.22848101266130244</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O14" s="38" t="str">
         <f>IF(AND(NOT(M14),AND(M$4:M13)),MIN(EXP((N14-$J14)*$G14),1),"")</f>
@@ -9842,9 +9842,9 @@
         <f>IF(AND(NOT(M14),AND(M$4:M13)),TRUE,M14)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="38">
+      <c r="R14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q14),AND(Q$4:Q13))),($J14*$G14-LN(1+Jumpoverwrite2*S$2))/$G14,_xll.qlInterpolationInterpolate(,Q$3,$F14,TRUE))</f>
-        <v>-0.22848101266130244</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S14" s="38" t="str">
         <f>IF(AND(NOT(Q14),AND(Q$4:Q13)),MIN(EXP((R14-$J14)*$G14),1),"")</f>
@@ -9867,9 +9867,9 @@
         <f>IF(AND(NOT(U14),AND(U$4:U13)),TRUE,U14)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="38">
+      <c r="Z14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y14),AND(Y$4:Y13))),($J14*$G14-LN(1+Jumpoverwrite4*AA$2))/$G14,_xll.qlInterpolationInterpolate(,Y$3,$F14,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA14" s="38" t="str">
         <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),MIN(EXP((Z14-$J14)*$G14),1),"")</f>
@@ -9880,22 +9880,22 @@
         <f>IF(AND(NOT(Y14),AND(Y$4:Y13)),TRUE,Y14)</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="38">
+      <c r="AD14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC14),AND(AC$4:AC13))),($J14*$G14-LN(1+Jumpoverwrite5*AE$2))/$G14,_xll.qlInterpolationInterpolate(,AC$3,$F14,TRUE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="AE14" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AE14" s="38" t="e">
         <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),MIN(EXP((AD14-$J14)*$G14),1),"")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AF14" s="127"/>
       <c r="AG14" s="85" t="b">
         <f>IF(AND(NOT(AC14),AND(AC$4:AC13)),TRUE,AC14)</f>
         <v>1</v>
       </c>
-      <c r="AH14" s="38">
+      <c r="AH14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG14),AND(AG$4:AG13))),($J14*$G14-LN(1+Jumpoverwrite6*AI$2))/$G14,_xll.qlInterpolationInterpolate(,AG$3,$F14,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI14" s="38" t="str">
         <f>IF(AND(NOT(AG14),AND(AG$4:AG13)),MIN(EXP((AH14-$J14)*$G14),1),"")</f>
@@ -9906,9 +9906,9 @@
         <f>IF(AND(NOT(AG14),AND(AG$4:AG13)),TRUE,AG14)</f>
         <v>1</v>
       </c>
-      <c r="AL14" s="38">
+      <c r="AL14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK14),AND(AK$4:AK13))),($J14*$G14-LN(1+Jumpoverwrite7*AM$2))/$G14,_xll.qlInterpolationInterpolate(,AK$3,$F14,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM14" s="38" t="str">
         <f>IF(AND(NOT(AK14),AND(AK$4:AK13)),MIN(EXP((AL14-$J14)*$G14),1),"")</f>
@@ -9918,9 +9918,9 @@
         <f>IF(AND(NOT(AK14),AND(AK$4:AK13)),TRUE,AK14)</f>
         <v>1</v>
       </c>
-      <c r="AP14" s="38">
+      <c r="AP14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO14),AND(AO$4:AO13))),($J14*$G14-LN(1+Jumpoverwrite8*AQ$2))/$G14,_xll.qlInterpolationInterpolate(,AO$3,$F14,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ14" s="38" t="str">
         <f>IF(AND(NOT(AO14),AND(AO$4:AO13)),MIN(EXP((AP14-$J14)*$G14),1),"")</f>
@@ -9930,9 +9930,9 @@
         <f>IF(AND(NOT(AO14),AND(AO$4:AO13)),TRUE,AO14)</f>
         <v>1</v>
       </c>
-      <c r="AT14" s="38">
+      <c r="AT14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS14),AND(AS$4:AS13))),($J14*$G14-LN(1+Jumpoverwrite9*AU$2))/$G14,_xll.qlInterpolationInterpolate(,AS$3,$F14,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU14" s="38" t="str">
         <f>IF(AND(NOT(AS14),AND(AS$4:AS13)),MIN(EXP((AT14-$J14)*$G14),1),"")</f>
@@ -9942,9 +9942,9 @@
         <f>IF(AND(NOT(AS14),AND(AS$4:AS13)),TRUE,AS14)</f>
         <v>1</v>
       </c>
-      <c r="AX14" s="38">
+      <c r="AX14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW14),AND(AW$4:AW13))),($J14*$G14-LN(1+Jumpoverwrite10*AY$2))/$G14,_xll.qlInterpolationInterpolate(,AW$3,$F14,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY14" s="38" t="str">
         <f>IF(AND(NOT(AW14),AND(AW$4:AW13)),MIN(EXP((AX14-$J14)*$G14),1),"")</f>
@@ -9954,9 +9954,9 @@
         <f>IF(AND(NOT(AW14),AND(AW$4:AW13)),TRUE,AW14)</f>
         <v>1</v>
       </c>
-      <c r="BB14" s="38">
+      <c r="BB14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA14),AND(BA$4:BA13))),($J14*$G14-LN(1+Jumpoverwrite11*BC$2))/$G14,_xll.qlInterpolationInterpolate(,BA$3,$F14,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC14" s="38" t="str">
         <f>IF(AND(NOT(BA14),AND(BA$4:BA13)),MIN(EXP((BB14-$J14)*$G14),1),"")</f>
@@ -9966,9 +9966,9 @@
         <f>IF(AND(NOT(BA14),AND(BA$4:BA13)),TRUE,BA14)</f>
         <v>1</v>
       </c>
-      <c r="BF14" s="38">
+      <c r="BF14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE14),AND(BE$4:BE13))),($J14*$G14-LN(1+Jumpoverwrite12*BG$2))/$G14,_xll.qlInterpolationInterpolate(,BE$3,$F14,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG14" s="38" t="str">
         <f>IF(AND(NOT(BE14),AND(BE$4:BE13)),MIN(EXP((BF14-$J14)*$G14),1),"")</f>
@@ -9978,9 +9978,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ14" s="38">
+      <c r="BJ14" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI14),AND(BI$4:BI13))),($J14*$G14-LN(1+jumpoverwrite13*BK$2))/$G14,_xll.qlInterpolationInterpolate(,BI$3,$F14,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK14" s="38" t="str">
         <f>IF(AND(NOT(BI14),AND(BI$4:BI13)),MIN(EXP((BJ14-$J14)*$G14),1),"")</f>
@@ -9991,9 +9991,9 @@
       <c r="A15" s="37" t="str">
         <v>WEURECBOISSEP15</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A15)</f>
-        <v>-1.1999999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C15" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A15)</f>
@@ -10015,8 +10015,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J15" s="41">
-        <v>4.9999999995688695E-2</v>
+      <c r="J15" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K15" s="113">
         <f t="shared" si="3"/>
@@ -10027,9 +10027,9 @@
         <f>IF(AND(NOT(I15),AND(I$4:I14)),TRUE,I15)</f>
         <v>1</v>
       </c>
-      <c r="N15" s="38">
+      <c r="N15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M15),AND(M$4:M14))),($J15*$G15-LN(1+Jumpoverwrite1*O$2))/$G15,_xll.qlInterpolationInterpolate(,M$3,$F15,TRUE))</f>
-        <v>4.9999999995688695E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O15" s="38" t="str">
         <f>IF(AND(NOT(M15),AND(M$4:M14)),MIN(EXP((N15-$J15)*$G15),1),"")</f>
@@ -10040,9 +10040,9 @@
         <f>IF(AND(NOT(M15),AND(M$4:M14)),TRUE,M15)</f>
         <v>1</v>
       </c>
-      <c r="R15" s="38">
+      <c r="R15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q15),AND(Q$4:Q14))),($J15*$G15-LN(1+Jumpoverwrite2*S$2))/$G15,_xll.qlInterpolationInterpolate(,Q$3,$F15,TRUE))</f>
-        <v>4.9999999995688695E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S15" s="38" t="str">
         <f>IF(AND(NOT(Q15),AND(Q$4:Q14)),MIN(EXP((R15-$J15)*$G15),1),"")</f>
@@ -10065,9 +10065,9 @@
         <f>IF(AND(NOT(U15),AND(U$4:U14)),TRUE,U15)</f>
         <v>1</v>
       </c>
-      <c r="Z15" s="38">
+      <c r="Z15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y15),AND(Y$4:Y14))),($J15*$G15-LN(1+Jumpoverwrite4*AA$2))/$G15,_xll.qlInterpolationInterpolate(,Y$3,$F15,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA15" s="38" t="str">
         <f>IF(AND(NOT(Y15),AND(Y$4:Y14)),MIN(EXP((Z15-$J15)*$G15),1),"")</f>
@@ -10078,9 +10078,9 @@
         <f>IF(AND(NOT(Y15),AND(Y$4:Y14)),TRUE,Y15)</f>
         <v>1</v>
       </c>
-      <c r="AD15" s="38">
+      <c r="AD15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC15),AND(AC$4:AC14))),($J15*$G15-LN(1+Jumpoverwrite5*AE$2))/$G15,_xll.qlInterpolationInterpolate(,AC$3,$F15,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE15" s="38" t="str">
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),MIN(EXP((AD15-$J15)*$G15),1),"")</f>
@@ -10091,9 +10091,9 @@
         <f>IF(AND(NOT(AC15),AND(AC$4:AC14)),TRUE,AC15)</f>
         <v>1</v>
       </c>
-      <c r="AH15" s="38">
+      <c r="AH15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG15),AND(AG$4:AG14))),($J15*$G15-LN(1+Jumpoverwrite6*AI$2))/$G15,_xll.qlInterpolationInterpolate(,AG$3,$F15,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI15" s="38" t="str">
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),MIN(EXP((AH15-$J15)*$G15),1),"")</f>
@@ -10104,9 +10104,9 @@
         <f>IF(AND(NOT(AG15),AND(AG$4:AG14)),TRUE,AG15)</f>
         <v>1</v>
       </c>
-      <c r="AL15" s="38">
+      <c r="AL15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK15),AND(AK$4:AK14))),($J15*$G15-LN(1+Jumpoverwrite7*AM$2))/$G15,_xll.qlInterpolationInterpolate(,AK$3,$F15,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM15" s="38" t="str">
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),MIN(EXP((AL15-$J15)*$G15),1),"")</f>
@@ -10116,9 +10116,9 @@
         <f>IF(AND(NOT(AK15),AND(AK$4:AK14)),TRUE,AK15)</f>
         <v>1</v>
       </c>
-      <c r="AP15" s="38">
+      <c r="AP15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO15),AND(AO$4:AO14))),($J15*$G15-LN(1+Jumpoverwrite8*AQ$2))/$G15,_xll.qlInterpolationInterpolate(,AO$3,$F15,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ15" s="38" t="str">
         <f>IF(AND(NOT(AO15),AND(AO$4:AO14)),MIN(EXP((AP15-$J15)*$G15),1),"")</f>
@@ -10128,9 +10128,9 @@
         <f>IF(AND(NOT(AO15),AND(AO$4:AO14)),TRUE,AO15)</f>
         <v>1</v>
       </c>
-      <c r="AT15" s="38">
+      <c r="AT15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS15),AND(AS$4:AS14))),($J15*$G15-LN(1+Jumpoverwrite9*AU$2))/$G15,_xll.qlInterpolationInterpolate(,AS$3,$F15,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU15" s="38" t="str">
         <f>IF(AND(NOT(AS15),AND(AS$4:AS14)),MIN(EXP((AT15-$J15)*$G15),1),"")</f>
@@ -10140,9 +10140,9 @@
         <f>IF(AND(NOT(AS15),AND(AS$4:AS14)),TRUE,AS15)</f>
         <v>1</v>
       </c>
-      <c r="AX15" s="38">
+      <c r="AX15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW15),AND(AW$4:AW14))),($J15*$G15-LN(1+Jumpoverwrite10*AY$2))/$G15,_xll.qlInterpolationInterpolate(,AW$3,$F15,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY15" s="38" t="str">
         <f>IF(AND(NOT(AW15),AND(AW$4:AW14)),MIN(EXP((AX15-$J15)*$G15),1),"")</f>
@@ -10152,9 +10152,9 @@
         <f>IF(AND(NOT(AW15),AND(AW$4:AW14)),TRUE,AW15)</f>
         <v>1</v>
       </c>
-      <c r="BB15" s="38">
+      <c r="BB15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA15),AND(BA$4:BA14))),($J15*$G15-LN(1+Jumpoverwrite11*BC$2))/$G15,_xll.qlInterpolationInterpolate(,BA$3,$F15,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC15" s="38" t="str">
         <f>IF(AND(NOT(BA15),AND(BA$4:BA14)),MIN(EXP((BB15-$J15)*$G15),1),"")</f>
@@ -10164,9 +10164,9 @@
         <f>IF(AND(NOT(BA15),AND(BA$4:BA14)),TRUE,BA15)</f>
         <v>1</v>
       </c>
-      <c r="BF15" s="38">
+      <c r="BF15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE15),AND(BE$4:BE14))),($J15*$G15-LN(1+Jumpoverwrite12*BG$2))/$G15,_xll.qlInterpolationInterpolate(,BE$3,$F15,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG15" s="38" t="str">
         <f>IF(AND(NOT(BE15),AND(BE$4:BE14)),MIN(EXP((BF15-$J15)*$G15),1),"")</f>
@@ -10176,9 +10176,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ15" s="38">
+      <c r="BJ15" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI15),AND(BI$4:BI14))),($J15*$G15-LN(1+jumpoverwrite13*BK$2))/$G15,_xll.qlInterpolationInterpolate(,BI$3,$F15,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK15" s="38" t="str">
         <f>IF(AND(NOT(BI15),AND(BI$4:BI14)),MIN(EXP((BJ15-$J15)*$G15),1),"")</f>
@@ -10189,9 +10189,9 @@
       <c r="A16" s="37" t="str">
         <v>WEUREON6M</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A16)</f>
-        <v>-1.16E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C16" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A16)</f>
@@ -10213,8 +10213,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J16" s="41">
-        <v>4.9999999995688695E-2</v>
+      <c r="J16" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K16" s="113">
         <f t="shared" si="3"/>
@@ -10225,9 +10225,9 @@
         <f>IF(AND(NOT(I16),AND(I$4:I15)),TRUE,I16)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="38">
+      <c r="N16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M16),AND(M$4:M15))),($J16*$G16-LN(1+Jumpoverwrite1*O$2))/$G16,_xll.qlInterpolationInterpolate(,M$3,$F16,TRUE))</f>
-        <v>-0.28640776699322124</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O16" s="38" t="str">
         <f>IF(AND(NOT(M16),AND(M$4:M15)),MIN(EXP((N16-$J16)*$G16),1),"")</f>
@@ -10238,9 +10238,9 @@
         <f>IF(AND(NOT(M16),AND(M$4:M15)),TRUE,M16)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="38">
+      <c r="R16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q16),AND(Q$4:Q15))),($J16*$G16-LN(1+Jumpoverwrite2*S$2))/$G16,_xll.qlInterpolationInterpolate(,Q$3,$F16,TRUE))</f>
-        <v>-0.28640776699322124</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S16" s="38" t="str">
         <f>IF(AND(NOT(Q16),AND(Q$4:Q15)),MIN(EXP((R16-$J16)*$G16),1),"")</f>
@@ -10263,9 +10263,9 @@
         <f>IF(AND(NOT(U16),AND(U$4:U15)),TRUE,U16)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="38">
+      <c r="Z16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y16),AND(Y$4:Y15))),($J16*$G16-LN(1+Jumpoverwrite4*AA$2))/$G16,_xll.qlInterpolationInterpolate(,Y$3,$F16,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA16" s="38" t="str">
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),MIN(EXP((Z16-$J16)*$G16),1),"")</f>
@@ -10276,9 +10276,9 @@
         <f>IF(AND(NOT(Y16),AND(Y$4:Y15)),TRUE,Y16)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="38">
+      <c r="AD16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC16),AND(AC$4:AC15))),($J16*$G16-LN(1+Jumpoverwrite5*AE$2))/$G16,_xll.qlInterpolationInterpolate(,AC$3,$F16,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE16" s="38" t="str">
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),MIN(EXP((AD16-$J16)*$G16),1),"")</f>
@@ -10289,22 +10289,22 @@
         <f>IF(AND(NOT(AC16),AND(AC$4:AC15)),TRUE,AC16)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="38">
+      <c r="AH16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG16),AND(AG$4:AG15))),($J16*$G16-LN(1+Jumpoverwrite6*AI$2))/$G16,_xll.qlInterpolationInterpolate(,AG$3,$F16,TRUE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="AI16" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AI16" s="38" t="e">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),MIN(EXP((AH16-$J16)*$G16),1),"")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AJ16" s="127"/>
       <c r="AK16" s="85" t="b">
         <f>IF(AND(NOT(AG16),AND(AG$4:AG15)),TRUE,AG16)</f>
         <v>1</v>
       </c>
-      <c r="AL16" s="38">
+      <c r="AL16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK16),AND(AK$4:AK15))),($J16*$G16-LN(1+Jumpoverwrite7*AM$2))/$G16,_xll.qlInterpolationInterpolate(,AK$3,$F16,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM16" s="38" t="str">
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),MIN(EXP((AL16-$J16)*$G16),1),"")</f>
@@ -10314,9 +10314,9 @@
         <f>IF(AND(NOT(AK16),AND(AK$4:AK15)),TRUE,AK16)</f>
         <v>1</v>
       </c>
-      <c r="AP16" s="38">
+      <c r="AP16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO16),AND(AO$4:AO15))),($J16*$G16-LN(1+Jumpoverwrite8*AQ$2))/$G16,_xll.qlInterpolationInterpolate(,AO$3,$F16,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ16" s="38" t="str">
         <f>IF(AND(NOT(AO16),AND(AO$4:AO15)),MIN(EXP((AP16-$J16)*$G16),1),"")</f>
@@ -10326,9 +10326,9 @@
         <f>IF(AND(NOT(AO16),AND(AO$4:AO15)),TRUE,AO16)</f>
         <v>1</v>
       </c>
-      <c r="AT16" s="38">
+      <c r="AT16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS16),AND(AS$4:AS15))),($J16*$G16-LN(1+Jumpoverwrite9*AU$2))/$G16,_xll.qlInterpolationInterpolate(,AS$3,$F16,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU16" s="38" t="str">
         <f>IF(AND(NOT(AS16),AND(AS$4:AS15)),MIN(EXP((AT16-$J16)*$G16),1),"")</f>
@@ -10338,9 +10338,9 @@
         <f>IF(AND(NOT(AS16),AND(AS$4:AS15)),TRUE,AS16)</f>
         <v>1</v>
       </c>
-      <c r="AX16" s="38">
+      <c r="AX16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW16),AND(AW$4:AW15))),($J16*$G16-LN(1+Jumpoverwrite10*AY$2))/$G16,_xll.qlInterpolationInterpolate(,AW$3,$F16,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY16" s="38" t="str">
         <f>IF(AND(NOT(AW16),AND(AW$4:AW15)),MIN(EXP((AX16-$J16)*$G16),1),"")</f>
@@ -10350,9 +10350,9 @@
         <f>IF(AND(NOT(AW16),AND(AW$4:AW15)),TRUE,AW16)</f>
         <v>1</v>
       </c>
-      <c r="BB16" s="38">
+      <c r="BB16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA16),AND(BA$4:BA15))),($J16*$G16-LN(1+Jumpoverwrite11*BC$2))/$G16,_xll.qlInterpolationInterpolate(,BA$3,$F16,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC16" s="38" t="str">
         <f>IF(AND(NOT(BA16),AND(BA$4:BA15)),MIN(EXP((BB16-$J16)*$G16),1),"")</f>
@@ -10362,9 +10362,9 @@
         <f>IF(AND(NOT(BA16),AND(BA$4:BA15)),TRUE,BA16)</f>
         <v>1</v>
       </c>
-      <c r="BF16" s="38">
+      <c r="BF16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE16),AND(BE$4:BE15))),($J16*$G16-LN(1+Jumpoverwrite12*BG$2))/$G16,_xll.qlInterpolationInterpolate(,BE$3,$F16,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG16" s="38" t="str">
         <f>IF(AND(NOT(BE16),AND(BE$4:BE15)),MIN(EXP((BF16-$J16)*$G16),1),"")</f>
@@ -10374,9 +10374,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ16" s="38">
+      <c r="BJ16" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI16),AND(BI$4:BI15))),($J16*$G16-LN(1+jumpoverwrite13*BK$2))/$G16,_xll.qlInterpolationInterpolate(,BI$3,$F16,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK16" s="38" t="str">
         <f>IF(AND(NOT(BI16),AND(BI$4:BI15)),MIN(EXP((BJ16-$J16)*$G16),1),"")</f>
@@ -10387,9 +10387,9 @@
       <c r="A17" s="37" t="str">
         <v>WEURECBOISOCT15</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A17)</f>
-        <v>-1.1899999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C17" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A17)</f>
@@ -10411,8 +10411,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J17" s="41">
-        <v>4.9999999995688695E-2</v>
+      <c r="J17" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K17" s="113">
         <f t="shared" si="3"/>
@@ -10423,9 +10423,9 @@
         <f>IF(AND(NOT(I17),AND(I$4:I16)),TRUE,I17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="38">
+      <c r="N17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M17),AND(M$4:M16))),($J17*$G17-LN(1+Jumpoverwrite1*O$2))/$G17,_xll.qlInterpolationInterpolate(,M$3,$F17,TRUE))</f>
-        <v>-0.71456310679728841</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O17" s="38" t="str">
         <f>IF(AND(NOT(M17),AND(M$4:M16)),MIN(EXP((N17-$J17)*$G17),1),"")</f>
@@ -10436,9 +10436,9 @@
         <f>IF(AND(NOT(M17),AND(M$4:M16)),TRUE,M17)</f>
         <v>0</v>
       </c>
-      <c r="R17" s="38">
+      <c r="R17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q17),AND(Q$4:Q16))),($J17*$G17-LN(1+Jumpoverwrite2*S$2))/$G17,_xll.qlInterpolationInterpolate(,Q$3,$F17,TRUE))</f>
-        <v>-0.71456310679728841</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S17" s="38" t="str">
         <f>IF(AND(NOT(Q17),AND(Q$4:Q16)),MIN(EXP((R17-$J17)*$G17),1),"")</f>
@@ -10461,9 +10461,9 @@
         <f>IF(AND(NOT(U17),AND(U$4:U16)),TRUE,U17)</f>
         <v>0</v>
       </c>
-      <c r="Z17" s="38">
+      <c r="Z17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y17),AND(Y$4:Y16))),($J17*$G17-LN(1+Jumpoverwrite4*AA$2))/$G17,_xll.qlInterpolationInterpolate(,Y$3,$F17,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA17" s="38" t="str">
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),MIN(EXP((Z17-$J17)*$G17),1),"")</f>
@@ -10474,9 +10474,9 @@
         <f>IF(AND(NOT(Y17),AND(Y$4:Y16)),TRUE,Y17)</f>
         <v>0</v>
       </c>
-      <c r="AD17" s="38">
+      <c r="AD17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC17),AND(AC$4:AC16))),($J17*$G17-LN(1+Jumpoverwrite5*AE$2))/$G17,_xll.qlInterpolationInterpolate(,AC$3,$F17,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE17" s="38" t="str">
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),MIN(EXP((AD17-$J17)*$G17),1),"")</f>
@@ -10487,9 +10487,9 @@
         <f>IF(AND(NOT(AC17),AND(AC$4:AC16)),TRUE,AC17)</f>
         <v>0</v>
       </c>
-      <c r="AH17" s="38">
+      <c r="AH17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG17),AND(AG$4:AG16))),($J17*$G17-LN(1+Jumpoverwrite6*AI$2))/$G17,_xll.qlInterpolationInterpolate(,AG$3,$F17,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI17" s="38" t="str">
         <f>IF(AND(NOT(AG17),AND(AG$4:AG16)),MIN(EXP((AH17-$J17)*$G17),1),"")</f>
@@ -10500,21 +10500,21 @@
         <f>IF(AND(NOT(AG17),AND(AG$4:AG16)),TRUE,AG17)</f>
         <v>0</v>
       </c>
-      <c r="AL17" s="38">
+      <c r="AL17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK17),AND(AK$4:AK16))),($J17*$G17-LN(1+Jumpoverwrite7*AM$2))/$G17,_xll.qlInterpolationInterpolate(,AK$3,$F17,TRUE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="AM17" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AM17" s="38" t="e">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),MIN(EXP((AL17-$J17)*$G17),1),"")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AO17" s="85" t="b">
         <f>IF(AND(NOT(AK17),AND(AK$4:AK16)),TRUE,AK17)</f>
         <v>1</v>
       </c>
-      <c r="AP17" s="38">
+      <c r="AP17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO17),AND(AO$4:AO16))),($J17*$G17-LN(1+Jumpoverwrite8*AQ$2))/$G17,_xll.qlInterpolationInterpolate(,AO$3,$F17,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ17" s="38" t="str">
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),MIN(EXP((AP17-$J17)*$G17),1),"")</f>
@@ -10524,9 +10524,9 @@
         <f>IF(AND(NOT(AO17),AND(AO$4:AO16)),TRUE,AO17)</f>
         <v>1</v>
       </c>
-      <c r="AT17" s="38">
+      <c r="AT17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS17),AND(AS$4:AS16))),($J17*$G17-LN(1+Jumpoverwrite9*AU$2))/$G17,_xll.qlInterpolationInterpolate(,AS$3,$F17,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU17" s="38" t="str">
         <f>IF(AND(NOT(AS17),AND(AS$4:AS16)),MIN(EXP((AT17-$J17)*$G17),1),"")</f>
@@ -10536,9 +10536,9 @@
         <f>IF(AND(NOT(AS17),AND(AS$4:AS16)),TRUE,AS17)</f>
         <v>1</v>
       </c>
-      <c r="AX17" s="38">
+      <c r="AX17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW17),AND(AW$4:AW16))),($J17*$G17-LN(1+Jumpoverwrite10*AY$2))/$G17,_xll.qlInterpolationInterpolate(,AW$3,$F17,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY17" s="38" t="str">
         <f>IF(AND(NOT(AW17),AND(AW$4:AW16)),MIN(EXP((AX17-$J17)*$G17),1),"")</f>
@@ -10548,9 +10548,9 @@
         <f>IF(AND(NOT(AW17),AND(AW$4:AW16)),TRUE,AW17)</f>
         <v>1</v>
       </c>
-      <c r="BB17" s="38">
+      <c r="BB17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA17),AND(BA$4:BA16))),($J17*$G17-LN(1+Jumpoverwrite11*BC$2))/$G17,_xll.qlInterpolationInterpolate(,BA$3,$F17,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC17" s="38" t="str">
         <f>IF(AND(NOT(BA17),AND(BA$4:BA16)),MIN(EXP((BB17-$J17)*$G17),1),"")</f>
@@ -10560,9 +10560,9 @@
         <f>IF(AND(NOT(BA17),AND(BA$4:BA16)),TRUE,BA17)</f>
         <v>1</v>
       </c>
-      <c r="BF17" s="38">
+      <c r="BF17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE17),AND(BE$4:BE16))),($J17*$G17-LN(1+Jumpoverwrite12*BG$2))/$G17,_xll.qlInterpolationInterpolate(,BE$3,$F17,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG17" s="38" t="str">
         <f>IF(AND(NOT(BE17),AND(BE$4:BE16)),MIN(EXP((BF17-$J17)*$G17),1),"")</f>
@@ -10572,9 +10572,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ17" s="38">
+      <c r="BJ17" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI17),AND(BI$4:BI16))),($J17*$G17-LN(1+jumpoverwrite13*BK$2))/$G17,_xll.qlInterpolationInterpolate(,BI$3,$F17,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK17" s="38" t="str">
         <f>IF(AND(NOT(BI17),AND(BI$4:BI16)),MIN(EXP((BJ17-$J17)*$G17),1),"")</f>
@@ -10585,9 +10585,9 @@
       <c r="A18" s="37" t="str">
         <v>WEUREON7M</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A18)</f>
-        <v>-1.1799999999999998E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C18" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A18)</f>
@@ -10609,8 +10609,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J18" s="41">
-        <v>-1</v>
+      <c r="J18" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K18" s="113">
         <f t="shared" si="3"/>
@@ -10621,9 +10621,9 @@
         <f>IF(AND(NOT(I18),AND(I$4:I17)),TRUE,I18)</f>
         <v>1</v>
       </c>
-      <c r="N18" s="38">
+      <c r="N18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M18),AND(M$4:M17))),($J18*$G18-LN(1+Jumpoverwrite1*O$2))/$G18,_xll.qlInterpolationInterpolate(,M$3,$F18,TRUE))</f>
-        <v>-1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O18" s="38" t="str">
         <f>IF(AND(NOT(M18),AND(M$4:M17)),MIN(EXP((N18-$J18)*$G18),1),"")</f>
@@ -10634,9 +10634,9 @@
         <f>IF(AND(NOT(M18),AND(M$4:M17)),TRUE,M18)</f>
         <v>1</v>
       </c>
-      <c r="R18" s="38">
+      <c r="R18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q18),AND(Q$4:Q17))),($J18*$G18-LN(1+Jumpoverwrite2*S$2))/$G18,_xll.qlInterpolationInterpolate(,Q$3,$F18,TRUE))</f>
-        <v>-1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S18" s="38" t="str">
         <f>IF(AND(NOT(Q18),AND(Q$4:Q17)),MIN(EXP((R18-$J18)*$G18),1),"")</f>
@@ -10659,9 +10659,9 @@
         <f>IF(AND(NOT(U18),AND(U$4:U17)),TRUE,U18)</f>
         <v>1</v>
       </c>
-      <c r="Z18" s="38">
+      <c r="Z18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y18),AND(Y$4:Y17))),($J18*$G18-LN(1+Jumpoverwrite4*AA$2))/$G18,_xll.qlInterpolationInterpolate(,Y$3,$F18,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA18" s="38" t="str">
         <f>IF(AND(NOT(Y18),AND(Y$4:Y17)),MIN(EXP((Z18-$J18)*$G18),1),"")</f>
@@ -10672,9 +10672,9 @@
         <f>IF(AND(NOT(Y18),AND(Y$4:Y17)),TRUE,Y18)</f>
         <v>1</v>
       </c>
-      <c r="AD18" s="38">
+      <c r="AD18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC18),AND(AC$4:AC17))),($J18*$G18-LN(1+Jumpoverwrite5*AE$2))/$G18,_xll.qlInterpolationInterpolate(,AC$3,$F18,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE18" s="38" t="str">
         <f>IF(AND(NOT(AC18),AND(AC$4:AC17)),MIN(EXP((AD18-$J18)*$G18),1),"")</f>
@@ -10685,9 +10685,9 @@
         <f>IF(AND(NOT(AC18),AND(AC$4:AC17)),TRUE,AC18)</f>
         <v>1</v>
       </c>
-      <c r="AH18" s="38">
+      <c r="AH18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG18),AND(AG$4:AG17))),($J18*$G18-LN(1+Jumpoverwrite6*AI$2))/$G18,_xll.qlInterpolationInterpolate(,AG$3,$F18,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI18" s="38" t="str">
         <f>IF(AND(NOT(AG18),AND(AG$4:AG17)),MIN(EXP((AH18-$J18)*$G18),1),"")</f>
@@ -10698,9 +10698,9 @@
         <f>IF(AND(NOT(AG18),AND(AG$4:AG17)),TRUE,AG18)</f>
         <v>1</v>
       </c>
-      <c r="AL18" s="38">
+      <c r="AL18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK18),AND(AK$4:AK17))),($J18*$G18-LN(1+Jumpoverwrite7*AM$2))/$G18,_xll.qlInterpolationInterpolate(,AK$3,$F18,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM18" s="38" t="str">
         <f>IF(AND(NOT(AK18),AND(AK$4:AK17)),MIN(EXP((AL18-$J18)*$G18),1),"")</f>
@@ -10710,9 +10710,9 @@
         <f>IF(AND(NOT(AK18),AND(AK$4:AK17)),TRUE,AK18)</f>
         <v>1</v>
       </c>
-      <c r="AP18" s="38">
+      <c r="AP18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO18),AND(AO$4:AO17))),($J18*$G18-LN(1+Jumpoverwrite8*AQ$2))/$G18,_xll.qlInterpolationInterpolate(,AO$3,$F18,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ18" s="38" t="str">
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),MIN(EXP((AP18-$J18)*$G18),1),"")</f>
@@ -10722,9 +10722,9 @@
         <f>IF(AND(NOT(AO18),AND(AO$4:AO17)),TRUE,AO18)</f>
         <v>1</v>
       </c>
-      <c r="AT18" s="38">
+      <c r="AT18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS18),AND(AS$4:AS17))),($J18*$G18-LN(1+Jumpoverwrite9*AU$2))/$G18,_xll.qlInterpolationInterpolate(,AS$3,$F18,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU18" s="38" t="str">
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),MIN(EXP((AT18-$J18)*$G18),1),"")</f>
@@ -10734,9 +10734,9 @@
         <f>IF(AND(NOT(AS18),AND(AS$4:AS17)),TRUE,AS18)</f>
         <v>1</v>
       </c>
-      <c r="AX18" s="38">
+      <c r="AX18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW18),AND(AW$4:AW17))),($J18*$G18-LN(1+Jumpoverwrite10*AY$2))/$G18,_xll.qlInterpolationInterpolate(,AW$3,$F18,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY18" s="38" t="str">
         <f>IF(AND(NOT(AW18),AND(AW$4:AW17)),MIN(EXP((AX18-$J18)*$G18),1),"")</f>
@@ -10746,9 +10746,9 @@
         <f>IF(AND(NOT(AW18),AND(AW$4:AW17)),TRUE,AW18)</f>
         <v>1</v>
       </c>
-      <c r="BB18" s="38">
+      <c r="BB18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA18),AND(BA$4:BA17))),($J18*$G18-LN(1+Jumpoverwrite11*BC$2))/$G18,_xll.qlInterpolationInterpolate(,BA$3,$F18,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC18" s="38" t="str">
         <f>IF(AND(NOT(BA18),AND(BA$4:BA17)),MIN(EXP((BB18-$J18)*$G18),1),"")</f>
@@ -10758,9 +10758,9 @@
         <f>IF(AND(NOT(BA18),AND(BA$4:BA17)),TRUE,BA18)</f>
         <v>1</v>
       </c>
-      <c r="BF18" s="38">
+      <c r="BF18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE18),AND(BE$4:BE17))),($J18*$G18-LN(1+Jumpoverwrite12*BG$2))/$G18,_xll.qlInterpolationInterpolate(,BE$3,$F18,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG18" s="38" t="str">
         <f>IF(AND(NOT(BE18),AND(BE$4:BE17)),MIN(EXP((BF18-$J18)*$G18),1),"")</f>
@@ -10770,9 +10770,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ18" s="38">
+      <c r="BJ18" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI18),AND(BI$4:BI17))),($J18*$G18-LN(1+jumpoverwrite13*BK$2))/$G18,_xll.qlInterpolationInterpolate(,BI$3,$F18,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK18" s="38" t="str">
         <f>IF(AND(NOT(BI18),AND(BI$4:BI17)),MIN(EXP((BJ18-$J18)*$G18),1),"")</f>
@@ -10783,9 +10783,9 @@
       <c r="A19" s="37" t="str">
         <v>WEUREON8M</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A19)</f>
-        <v>-1.16E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C19" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A19)</f>
@@ -10807,8 +10807,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J19" s="41">
-        <v>-1.3910476811838102E-3</v>
+      <c r="J19" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K19" s="113">
         <f t="shared" si="3"/>
@@ -10819,9 +10819,9 @@
         <f>IF(AND(NOT(I19),AND(I$4:I18)),TRUE,I19)</f>
         <v>0</v>
       </c>
-      <c r="N19" s="38">
+      <c r="N19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M19),AND(M$4:M18))),($J19*$G19-LN(1+Jumpoverwrite1*O$2))/$G19,_xll.qlInterpolationInterpolate(,M$3,$F19,TRUE))</f>
-        <v>-0.31708959134859915</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O19" s="38" t="str">
         <f>IF(AND(NOT(M19),AND(M$4:M18)),MIN(EXP((N19-$J19)*$G19),1),"")</f>
@@ -10832,9 +10832,9 @@
         <f>IF(AND(NOT(M19),AND(M$4:M18)),TRUE,M19)</f>
         <v>0</v>
       </c>
-      <c r="R19" s="38">
+      <c r="R19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q19),AND(Q$4:Q18))),($J19*$G19-LN(1+Jumpoverwrite2*S$2))/$G19,_xll.qlInterpolationInterpolate(,Q$3,$F19,TRUE))</f>
-        <v>-0.31708959134859915</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S19" s="38" t="str">
         <f>IF(AND(NOT(Q19),AND(Q$4:Q18)),MIN(EXP((R19-$J19)*$G19),1),"")</f>
@@ -10857,9 +10857,9 @@
         <f>IF(AND(NOT(U19),AND(U$4:U18)),TRUE,U19)</f>
         <v>0</v>
       </c>
-      <c r="Z19" s="38">
+      <c r="Z19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y19),AND(Y$4:Y18))),($J19*$G19-LN(1+Jumpoverwrite4*AA$2))/$G19,_xll.qlInterpolationInterpolate(,Y$3,$F19,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA19" s="38" t="str">
         <f>IF(AND(NOT(Y19),AND(Y$4:Y18)),MIN(EXP((Z19-$J19)*$G19),1),"")</f>
@@ -10870,9 +10870,9 @@
         <f>IF(AND(NOT(Y19),AND(Y$4:Y18)),TRUE,Y19)</f>
         <v>0</v>
       </c>
-      <c r="AD19" s="38">
+      <c r="AD19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC19),AND(AC$4:AC18))),($J19*$G19-LN(1+Jumpoverwrite5*AE$2))/$G19,_xll.qlInterpolationInterpolate(,AC$3,$F19,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE19" s="38" t="str">
         <f>IF(AND(NOT(AC19),AND(AC$4:AC18)),MIN(EXP((AD19-$J19)*$G19),1),"")</f>
@@ -10883,9 +10883,9 @@
         <f>IF(AND(NOT(AC19),AND(AC$4:AC18)),TRUE,AC19)</f>
         <v>0</v>
       </c>
-      <c r="AH19" s="38">
+      <c r="AH19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG19),AND(AG$4:AG18))),($J19*$G19-LN(1+Jumpoverwrite6*AI$2))/$G19,_xll.qlInterpolationInterpolate(,AG$3,$F19,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI19" s="38" t="str">
         <f>IF(AND(NOT(AG19),AND(AG$4:AG18)),MIN(EXP((AH19-$J19)*$G19),1),"")</f>
@@ -10896,9 +10896,9 @@
         <f>IF(AND(NOT(AG19),AND(AG$4:AG18)),TRUE,AG19)</f>
         <v>0</v>
       </c>
-      <c r="AL19" s="38">
+      <c r="AL19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK19),AND(AK$4:AK18))),($J19*$G19-LN(1+Jumpoverwrite7*AM$2))/$G19,_xll.qlInterpolationInterpolate(,AK$3,$F19,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM19" s="38" t="str">
         <f>IF(AND(NOT(AK19),AND(AK$4:AK18)),MIN(EXP((AL19-$J19)*$G19),1),"")</f>
@@ -10908,21 +10908,21 @@
         <f>IF(AND(NOT(AK19),AND(AK$4:AK18)),TRUE,AK19)</f>
         <v>0</v>
       </c>
-      <c r="AP19" s="38">
+      <c r="AP19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO19),AND(AO$4:AO18))),($J19*$G19-LN(1+Jumpoverwrite8*AQ$2))/$G19,_xll.qlInterpolationInterpolate(,AO$3,$F19,TRUE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="AQ19" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AQ19" s="38" t="e">
         <f>IF(AND(NOT(AO19),AND(AO$4:AO18)),MIN(EXP((AP19-$J19)*$G19),1),"")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AS19" s="85" t="b">
         <f>IF(AND(NOT(AO19),AND(AO$4:AO18)),TRUE,AO19)</f>
         <v>1</v>
       </c>
-      <c r="AT19" s="38">
+      <c r="AT19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS19),AND(AS$4:AS18))),($J19*$G19-LN(1+Jumpoverwrite9*AU$2))/$G19,_xll.qlInterpolationInterpolate(,AS$3,$F19,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU19" s="38" t="str">
         <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),MIN(EXP((AT19-$J19)*$G19),1),"")</f>
@@ -10932,9 +10932,9 @@
         <f>IF(AND(NOT(AS19),AND(AS$4:AS18)),TRUE,AS19)</f>
         <v>1</v>
       </c>
-      <c r="AX19" s="38">
+      <c r="AX19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW19),AND(AW$4:AW18))),($J19*$G19-LN(1+Jumpoverwrite10*AY$2))/$G19,_xll.qlInterpolationInterpolate(,AW$3,$F19,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY19" s="38" t="str">
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),MIN(EXP((AX19-$J19)*$G19),1),"")</f>
@@ -10944,9 +10944,9 @@
         <f>IF(AND(NOT(AW19),AND(AW$4:AW18)),TRUE,AW19)</f>
         <v>1</v>
       </c>
-      <c r="BB19" s="38">
+      <c r="BB19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA19),AND(BA$4:BA18))),($J19*$G19-LN(1+Jumpoverwrite11*BC$2))/$G19,_xll.qlInterpolationInterpolate(,BA$3,$F19,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC19" s="38" t="str">
         <f>IF(AND(NOT(BA19),AND(BA$4:BA18)),MIN(EXP((BB19-$J19)*$G19),1),"")</f>
@@ -10956,9 +10956,9 @@
         <f>IF(AND(NOT(BA19),AND(BA$4:BA18)),TRUE,BA19)</f>
         <v>1</v>
       </c>
-      <c r="BF19" s="38">
+      <c r="BF19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE19),AND(BE$4:BE18))),($J19*$G19-LN(1+Jumpoverwrite12*BG$2))/$G19,_xll.qlInterpolationInterpolate(,BE$3,$F19,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG19" s="38" t="str">
         <f>IF(AND(NOT(BE19),AND(BE$4:BE18)),MIN(EXP((BF19-$J19)*$G19),1),"")</f>
@@ -10968,9 +10968,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ19" s="38">
+      <c r="BJ19" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI19),AND(BI$4:BI18))),($J19*$G19-LN(1+jumpoverwrite13*BK$2))/$G19,_xll.qlInterpolationInterpolate(,BI$3,$F19,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK19" s="38" t="str">
         <f>IF(AND(NOT(BI19),AND(BI$4:BI18)),MIN(EXP((BJ19-$J19)*$G19),1),"")</f>
@@ -10981,9 +10981,9 @@
       <c r="A20" s="37" t="str">
         <v>WEURECBOISDEC15</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A20)</f>
-        <v>-1.1799999999999998E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C20" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A20)</f>
@@ -11005,8 +11005,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J20" s="41">
-        <v>0.49860895231835162</v>
+      <c r="J20" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K20" s="113">
         <f t="shared" si="3"/>
@@ -11017,9 +11017,9 @@
         <f>IF(AND(NOT(I20),AND(I$4:I19)),TRUE,I20)</f>
         <v>1</v>
       </c>
-      <c r="N20" s="38">
+      <c r="N20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M20),AND(M$4:M19))),($J20*$G20-LN(1+Jumpoverwrite1*O$2))/$G20,_xll.qlInterpolationInterpolate(,M$3,$F20,TRUE))</f>
-        <v>0.49860895231835162</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O20" s="38" t="str">
         <f>IF(AND(NOT(M20),AND(M$4:M19)),MIN(EXP((N20-$J20)*$G20),1),"")</f>
@@ -11030,9 +11030,9 @@
         <f>IF(AND(NOT(M20),AND(M$4:M19)),TRUE,M20)</f>
         <v>1</v>
       </c>
-      <c r="R20" s="38">
+      <c r="R20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q20),AND(Q$4:Q19))),($J20*$G20-LN(1+Jumpoverwrite2*S$2))/$G20,_xll.qlInterpolationInterpolate(,Q$3,$F20,TRUE))</f>
-        <v>0.49860895231835162</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S20" s="38" t="str">
         <f>IF(AND(NOT(Q20),AND(Q$4:Q19)),MIN(EXP((R20-$J20)*$G20),1),"")</f>
@@ -11055,9 +11055,9 @@
         <f>IF(AND(NOT(U20),AND(U$4:U19)),TRUE,U20)</f>
         <v>1</v>
       </c>
-      <c r="Z20" s="38">
+      <c r="Z20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y20),AND(Y$4:Y19))),($J20*$G20-LN(1+Jumpoverwrite4*AA$2))/$G20,_xll.qlInterpolationInterpolate(,Y$3,$F20,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA20" s="38" t="str">
         <f>IF(AND(NOT(Y20),AND(Y$4:Y19)),MIN(EXP((Z20-$J20)*$G20),1),"")</f>
@@ -11068,9 +11068,9 @@
         <f>IF(AND(NOT(Y20),AND(Y$4:Y19)),TRUE,Y20)</f>
         <v>1</v>
       </c>
-      <c r="AD20" s="38">
+      <c r="AD20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC20),AND(AC$4:AC19))),($J20*$G20-LN(1+Jumpoverwrite5*AE$2))/$G20,_xll.qlInterpolationInterpolate(,AC$3,$F20,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE20" s="38" t="str">
         <f>IF(AND(NOT(AC20),AND(AC$4:AC19)),MIN(EXP((AD20-$J20)*$G20),1),"")</f>
@@ -11081,9 +11081,9 @@
         <f>IF(AND(NOT(AC20),AND(AC$4:AC19)),TRUE,AC20)</f>
         <v>1</v>
       </c>
-      <c r="AH20" s="38">
+      <c r="AH20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG20),AND(AG$4:AG19))),($J20*$G20-LN(1+Jumpoverwrite6*AI$2))/$G20,_xll.qlInterpolationInterpolate(,AG$3,$F20,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI20" s="38" t="str">
         <f>IF(AND(NOT(AG20),AND(AG$4:AG19)),MIN(EXP((AH20-$J20)*$G20),1),"")</f>
@@ -11094,9 +11094,9 @@
         <f>IF(AND(NOT(AG20),AND(AG$4:AG19)),TRUE,AG20)</f>
         <v>1</v>
       </c>
-      <c r="AL20" s="38">
+      <c r="AL20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK20),AND(AK$4:AK19))),($J20*$G20-LN(1+Jumpoverwrite7*AM$2))/$G20,_xll.qlInterpolationInterpolate(,AK$3,$F20,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM20" s="38" t="str">
         <f>IF(AND(NOT(AK20),AND(AK$4:AK19)),MIN(EXP((AL20-$J20)*$G20),1),"")</f>
@@ -11106,9 +11106,9 @@
         <f>IF(AND(NOT(AK20),AND(AK$4:AK19)),TRUE,AK20)</f>
         <v>1</v>
       </c>
-      <c r="AP20" s="38">
+      <c r="AP20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO20),AND(AO$4:AO19))),($J20*$G20-LN(1+Jumpoverwrite8*AQ$2))/$G20,_xll.qlInterpolationInterpolate(,AO$3,$F20,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ20" s="38" t="str">
         <f>IF(AND(NOT(AO20),AND(AO$4:AO19)),MIN(EXP((AP20-$J20)*$G20),1),"")</f>
@@ -11118,9 +11118,9 @@
         <f>IF(AND(NOT(AO20),AND(AO$4:AO19)),TRUE,AO20)</f>
         <v>1</v>
       </c>
-      <c r="AT20" s="38">
+      <c r="AT20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS20),AND(AS$4:AS19))),($J20*$G20-LN(1+Jumpoverwrite9*AU$2))/$G20,_xll.qlInterpolationInterpolate(,AS$3,$F20,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU20" s="38" t="str">
         <f>IF(AND(NOT(AS20),AND(AS$4:AS19)),MIN(EXP((AT20-$J20)*$G20),1),"")</f>
@@ -11130,9 +11130,9 @@
         <f>IF(AND(NOT(AS20),AND(AS$4:AS19)),TRUE,AS20)</f>
         <v>1</v>
       </c>
-      <c r="AX20" s="38">
+      <c r="AX20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW20),AND(AW$4:AW19))),($J20*$G20-LN(1+Jumpoverwrite10*AY$2))/$G20,_xll.qlInterpolationInterpolate(,AW$3,$F20,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY20" s="38" t="str">
         <f>IF(AND(NOT(AW20),AND(AW$4:AW19)),MIN(EXP((AX20-$J20)*$G20),1),"")</f>
@@ -11142,9 +11142,9 @@
         <f>IF(AND(NOT(AW20),AND(AW$4:AW19)),TRUE,AW20)</f>
         <v>1</v>
       </c>
-      <c r="BB20" s="38">
+      <c r="BB20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA20),AND(BA$4:BA19))),($J20*$G20-LN(1+Jumpoverwrite11*BC$2))/$G20,_xll.qlInterpolationInterpolate(,BA$3,$F20,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC20" s="38" t="str">
         <f>IF(AND(NOT(BA20),AND(BA$4:BA19)),MIN(EXP((BB20-$J20)*$G20),1),"")</f>
@@ -11154,9 +11154,9 @@
         <f>IF(AND(NOT(BA20),AND(BA$4:BA19)),TRUE,BA20)</f>
         <v>1</v>
       </c>
-      <c r="BF20" s="38">
+      <c r="BF20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE20),AND(BE$4:BE19))),($J20*$G20-LN(1+Jumpoverwrite12*BG$2))/$G20,_xll.qlInterpolationInterpolate(,BE$3,$F20,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG20" s="38" t="str">
         <f>IF(AND(NOT(BE20),AND(BE$4:BE19)),MIN(EXP((BF20-$J20)*$G20),1),"")</f>
@@ -11166,9 +11166,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ20" s="38">
+      <c r="BJ20" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI20),AND(BI$4:BI19))),($J20*$G20-LN(1+jumpoverwrite13*BK$2))/$G20,_xll.qlInterpolationInterpolate(,BI$3,$F20,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK20" s="38" t="str">
         <f>IF(AND(NOT(BI20),AND(BI$4:BI19)),MIN(EXP((BJ20-$J20)*$G20),1),"")</f>
@@ -11179,9 +11179,9 @@
       <c r="A21" s="37" t="str">
         <v>WEUREON9M</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A21)</f>
-        <v>-1.17E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C21" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A21)</f>
@@ -11203,8 +11203,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J21" s="41">
-        <v>-0.27630914178443888</v>
+      <c r="J21" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K21" s="113">
         <f t="shared" si="3"/>
@@ -11215,9 +11215,9 @@
         <f>IF(AND(NOT(I21),AND(I$4:I20)),TRUE,I21)</f>
         <v>0</v>
       </c>
-      <c r="N21" s="38">
+      <c r="N21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M21),AND(M$4:M20))),($J21*$G21-LN(1+Jumpoverwrite1*O$2))/$G21,_xll.qlInterpolationInterpolate(,M$3,$F21,TRUE))</f>
-        <v>0.49885219562880373</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O21" s="38" t="str">
         <f>IF(AND(NOT(M21),AND(M$4:M20)),MIN(EXP((N21-$J21)*$G21),1),"")</f>
@@ -11228,9 +11228,9 @@
         <f>IF(AND(NOT(M21),AND(M$4:M20)),TRUE,M21)</f>
         <v>0</v>
       </c>
-      <c r="R21" s="38">
+      <c r="R21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q21),AND(Q$4:Q20))),($J21*$G21-LN(1+Jumpoverwrite2*S$2))/$G21,_xll.qlInterpolationInterpolate(,Q$3,$F21,TRUE))</f>
-        <v>0.49885219562880373</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S21" s="38" t="str">
         <f>IF(AND(NOT(Q21),AND(Q$4:Q20)),MIN(EXP((R21-$J21)*$G21),1),"")</f>
@@ -11253,9 +11253,9 @@
         <f>IF(AND(NOT(U21),AND(U$4:U20)),TRUE,U21)</f>
         <v>0</v>
       </c>
-      <c r="Z21" s="38">
+      <c r="Z21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y21),AND(Y$4:Y20))),($J21*$G21-LN(1+Jumpoverwrite4*AA$2))/$G21,_xll.qlInterpolationInterpolate(,Y$3,$F21,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA21" s="38" t="str">
         <f>IF(AND(NOT(Y21),AND(Y$4:Y20)),MIN(EXP((Z21-$J21)*$G21),1),"")</f>
@@ -11266,9 +11266,9 @@
         <f>IF(AND(NOT(Y21),AND(Y$4:Y20)),TRUE,Y21)</f>
         <v>0</v>
       </c>
-      <c r="AD21" s="38">
+      <c r="AD21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC21),AND(AC$4:AC20))),($J21*$G21-LN(1+Jumpoverwrite5*AE$2))/$G21,_xll.qlInterpolationInterpolate(,AC$3,$F21,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE21" s="38" t="str">
         <f>IF(AND(NOT(AC21),AND(AC$4:AC20)),MIN(EXP((AD21-$J21)*$G21),1),"")</f>
@@ -11279,9 +11279,9 @@
         <f>IF(AND(NOT(AC21),AND(AC$4:AC20)),TRUE,AC21)</f>
         <v>0</v>
       </c>
-      <c r="AH21" s="38">
+      <c r="AH21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG21),AND(AG$4:AG20))),($J21*$G21-LN(1+Jumpoverwrite6*AI$2))/$G21,_xll.qlInterpolationInterpolate(,AG$3,$F21,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI21" s="38" t="str">
         <f>IF(AND(NOT(AG21),AND(AG$4:AG20)),MIN(EXP((AH21-$J21)*$G21),1),"")</f>
@@ -11292,9 +11292,9 @@
         <f>IF(AND(NOT(AG21),AND(AG$4:AG20)),TRUE,AG21)</f>
         <v>0</v>
       </c>
-      <c r="AL21" s="38">
+      <c r="AL21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK21),AND(AK$4:AK20))),($J21*$G21-LN(1+Jumpoverwrite7*AM$2))/$G21,_xll.qlInterpolationInterpolate(,AK$3,$F21,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM21" s="38" t="str">
         <f>IF(AND(NOT(AK21),AND(AK$4:AK20)),MIN(EXP((AL21-$J21)*$G21),1),"")</f>
@@ -11304,9 +11304,9 @@
         <f>IF(AND(NOT(AK21),AND(AK$4:AK20)),TRUE,AK21)</f>
         <v>0</v>
       </c>
-      <c r="AP21" s="38">
+      <c r="AP21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO21),AND(AO$4:AO20))),($J21*$G21-LN(1+Jumpoverwrite8*AQ$2))/$G21,_xll.qlInterpolationInterpolate(,AO$3,$F21,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ21" s="38" t="str">
         <f>IF(AND(NOT(AO21),AND(AO$4:AO20)),MIN(EXP((AP21-$J21)*$G21),1),"")</f>
@@ -11316,21 +11316,21 @@
         <f>IF(AND(NOT(AO21),AND(AO$4:AO20)),TRUE,AO21)</f>
         <v>0</v>
       </c>
-      <c r="AT21" s="38">
+      <c r="AT21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS21),AND(AS$4:AS20))),($J21*$G21-LN(1+Jumpoverwrite9*AU$2))/$G21,_xll.qlInterpolationInterpolate(,AS$3,$F21,TRUE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="AU21" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AU21" s="38" t="e">
         <f>IF(AND(NOT(AS21),AND(AS$4:AS20)),MIN(EXP((AT21-$J21)*$G21),1),"")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AW21" s="85" t="b">
         <f>IF(AND(NOT(AS21),AND(AS$4:AS20)),TRUE,AS21)</f>
         <v>1</v>
       </c>
-      <c r="AX21" s="38">
+      <c r="AX21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW21),AND(AW$4:AW20))),($J21*$G21-LN(1+Jumpoverwrite10*AY$2))/$G21,_xll.qlInterpolationInterpolate(,AW$3,$F21,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY21" s="38" t="str">
         <f>IF(AND(NOT(AW21),AND(AW$4:AW20)),MIN(EXP((AX21-$J21)*$G21),1),"")</f>
@@ -11340,9 +11340,9 @@
         <f>IF(AND(NOT(AW21),AND(AW$4:AW20)),TRUE,AW21)</f>
         <v>1</v>
       </c>
-      <c r="BB21" s="38">
+      <c r="BB21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA21),AND(BA$4:BA20))),($J21*$G21-LN(1+Jumpoverwrite11*BC$2))/$G21,_xll.qlInterpolationInterpolate(,BA$3,$F21,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC21" s="38" t="str">
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),MIN(EXP((BB21-$J21)*$G21),1),"")</f>
@@ -11352,9 +11352,9 @@
         <f>IF(AND(NOT(BA21),AND(BA$4:BA20)),TRUE,BA21)</f>
         <v>1</v>
       </c>
-      <c r="BF21" s="38">
+      <c r="BF21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE21),AND(BE$4:BE20))),($J21*$G21-LN(1+Jumpoverwrite12*BG$2))/$G21,_xll.qlInterpolationInterpolate(,BE$3,$F21,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG21" s="38" t="str">
         <f>IF(AND(NOT(BE21),AND(BE$4:BE20)),MIN(EXP((BF21-$J21)*$G21),1),"")</f>
@@ -11364,9 +11364,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ21" s="38">
+      <c r="BJ21" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI21),AND(BI$4:BI20))),($J21*$G21-LN(1+jumpoverwrite13*BK$2))/$G21,_xll.qlInterpolationInterpolate(,BI$3,$F21,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK21" s="38" t="str">
         <f>IF(AND(NOT(BI21),AND(BI$4:BI20)),MIN(EXP((BJ21-$J21)*$G21),1),"")</f>
@@ -11377,9 +11377,9 @@
       <c r="A22" s="37" t="str">
         <v>WEURECBOISJAN16</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A22)</f>
-        <v>-1.1899999999999999E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C22" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A22)</f>
@@ -11401,8 +11401,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J22" s="41">
-        <v>0.22369085821664864</v>
+      <c r="J22" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K22" s="113">
         <f t="shared" si="3"/>
@@ -11413,9 +11413,9 @@
         <f>IF(AND(NOT(I22),AND(I$4:I21)),TRUE,I22)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="38">
+      <c r="N22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M22),AND(M$4:M21))),($J22*$G22-LN(1+Jumpoverwrite1*O$2))/$G22,_xll.qlInterpolationInterpolate(,M$3,$F22,TRUE))</f>
-        <v>0.49923226330138509</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O22" s="38" t="str">
         <f>IF(AND(NOT(M22),AND(M$4:M21)),MIN(EXP((N22-$J22)*$G22),1),"")</f>
@@ -11426,9 +11426,9 @@
         <f>IF(AND(NOT(M22),AND(M$4:M21)),TRUE,M22)</f>
         <v>0</v>
       </c>
-      <c r="R22" s="38">
+      <c r="R22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q22),AND(Q$4:Q21))),($J22*$G22-LN(1+Jumpoverwrite2*S$2))/$G22,_xll.qlInterpolationInterpolate(,Q$3,$F22,TRUE))</f>
-        <v>0.49923226330138509</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S22" s="38" t="str">
         <f>IF(AND(NOT(Q22),AND(Q$4:Q21)),MIN(EXP((R22-$J22)*$G22),1),"")</f>
@@ -11451,9 +11451,9 @@
         <f>IF(AND(NOT(U22),AND(U$4:U21)),TRUE,U22)</f>
         <v>0</v>
       </c>
-      <c r="Z22" s="38">
+      <c r="Z22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y22),AND(Y$4:Y21))),($J22*$G22-LN(1+Jumpoverwrite4*AA$2))/$G22,_xll.qlInterpolationInterpolate(,Y$3,$F22,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA22" s="38" t="str">
         <f>IF(AND(NOT(Y22),AND(Y$4:Y21)),MIN(EXP((Z22-$J22)*$G22),1),"")</f>
@@ -11464,9 +11464,9 @@
         <f>IF(AND(NOT(Y22),AND(Y$4:Y21)),TRUE,Y22)</f>
         <v>0</v>
       </c>
-      <c r="AD22" s="38">
+      <c r="AD22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC22),AND(AC$4:AC21))),($J22*$G22-LN(1+Jumpoverwrite5*AE$2))/$G22,_xll.qlInterpolationInterpolate(,AC$3,$F22,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE22" s="38" t="str">
         <f>IF(AND(NOT(AC22),AND(AC$4:AC21)),MIN(EXP((AD22-$J22)*$G22),1),"")</f>
@@ -11477,9 +11477,9 @@
         <f>IF(AND(NOT(AC22),AND(AC$4:AC21)),TRUE,AC22)</f>
         <v>0</v>
       </c>
-      <c r="AH22" s="38">
+      <c r="AH22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG22),AND(AG$4:AG21))),($J22*$G22-LN(1+Jumpoverwrite6*AI$2))/$G22,_xll.qlInterpolationInterpolate(,AG$3,$F22,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI22" s="38" t="str">
         <f>IF(AND(NOT(AG22),AND(AG$4:AG21)),MIN(EXP((AH22-$J22)*$G22),1),"")</f>
@@ -11490,9 +11490,9 @@
         <f>IF(AND(NOT(AG22),AND(AG$4:AG21)),TRUE,AG22)</f>
         <v>0</v>
       </c>
-      <c r="AL22" s="38">
+      <c r="AL22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK22),AND(AK$4:AK21))),($J22*$G22-LN(1+Jumpoverwrite7*AM$2))/$G22,_xll.qlInterpolationInterpolate(,AK$3,$F22,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM22" s="38" t="str">
         <f>IF(AND(NOT(AK22),AND(AK$4:AK21)),MIN(EXP((AL22-$J22)*$G22),1),"")</f>
@@ -11502,9 +11502,9 @@
         <f>IF(AND(NOT(AK22),AND(AK$4:AK21)),TRUE,AK22)</f>
         <v>0</v>
       </c>
-      <c r="AP22" s="38">
+      <c r="AP22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO22),AND(AO$4:AO21))),($J22*$G22-LN(1+Jumpoverwrite8*AQ$2))/$G22,_xll.qlInterpolationInterpolate(,AO$3,$F22,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ22" s="38" t="str">
         <f>IF(AND(NOT(AO22),AND(AO$4:AO21)),MIN(EXP((AP22-$J22)*$G22),1),"")</f>
@@ -11514,9 +11514,9 @@
         <f>IF(AND(NOT(AO22),AND(AO$4:AO21)),TRUE,AO22)</f>
         <v>0</v>
       </c>
-      <c r="AT22" s="38">
+      <c r="AT22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS22),AND(AS$4:AS21))),($J22*$G22-LN(1+Jumpoverwrite9*AU$2))/$G22,_xll.qlInterpolationInterpolate(,AS$3,$F22,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU22" s="38" t="str">
         <f>IF(AND(NOT(AS22),AND(AS$4:AS21)),MIN(EXP((AT22-$J22)*$G22),1),"")</f>
@@ -11526,21 +11526,21 @@
         <f>IF(AND(NOT(AS22),AND(AS$4:AS21)),TRUE,AS22)</f>
         <v>0</v>
       </c>
-      <c r="AX22" s="38">
+      <c r="AX22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW22),AND(AW$4:AW21))),($J22*$G22-LN(1+Jumpoverwrite10*AY$2))/$G22,_xll.qlInterpolationInterpolate(,AW$3,$F22,TRUE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="AY22" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="AY22" s="38" t="e">
         <f>IF(AND(NOT(AW22),AND(AW$4:AW21)),MIN(EXP((AX22-$J22)*$G22),1),"")</f>
-        <v>0.98563001002356998</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BA22" s="85" t="b">
         <f>IF(AND(NOT(AW22),AND(AW$4:AW21)),TRUE,AW22)</f>
         <v>1</v>
       </c>
-      <c r="BB22" s="38">
+      <c r="BB22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA22),AND(BA$4:BA21))),($J22*$G22-LN(1+Jumpoverwrite11*BC$2))/$G22,_xll.qlInterpolationInterpolate(,BA$3,$F22,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC22" s="38" t="str">
         <f>IF(AND(NOT(BA22),AND(BA$4:BA21)),MIN(EXP((BB22-$J22)*$G22),1),"")</f>
@@ -11550,9 +11550,9 @@
         <f>IF(AND(NOT(BA22),AND(BA$4:BA21)),TRUE,BA22)</f>
         <v>1</v>
       </c>
-      <c r="BF22" s="38">
+      <c r="BF22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE22),AND(BE$4:BE21))),($J22*$G22-LN(1+Jumpoverwrite12*BG$2))/$G22,_xll.qlInterpolationInterpolate(,BE$3,$F22,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG22" s="38" t="str">
         <f>IF(AND(NOT(BE22),AND(BE$4:BE21)),MIN(EXP((BF22-$J22)*$G22),1),"")</f>
@@ -11562,9 +11562,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ22" s="38">
+      <c r="BJ22" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI22),AND(BI$4:BI21))),($J22*$G22-LN(1+jumpoverwrite13*BK$2))/$G22,_xll.qlInterpolationInterpolate(,BI$3,$F22,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK22" s="38" t="str">
         <f>IF(AND(NOT(BI22),AND(BI$4:BI21)),MIN(EXP((BJ22-$J22)*$G22),1),"")</f>
@@ -11575,9 +11575,9 @@
       <c r="A23" s="37" t="str">
         <v>WEUREON11M</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A23)</f>
-        <v>-1.16E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C23" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A23)</f>
@@ -11599,8 +11599,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J23" s="41">
-        <v>-0.27630914178347288</v>
+      <c r="J23" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K23" s="113">
         <f t="shared" si="3"/>
@@ -11611,9 +11611,9 @@
         <f>IF(AND(NOT(I23),AND(I$4:I22)),TRUE,I23)</f>
         <v>0</v>
       </c>
-      <c r="N23" s="38">
+      <c r="N23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M23),AND(M$4:M22))),($J23*$G23-LN(1+Jumpoverwrite1*O$2))/$G23,_xll.qlInterpolationInterpolate(,M$3,$F23,TRUE))</f>
-        <v>0.49968074315503119</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O23" s="38" t="str">
         <f>IF(AND(NOT(M23),AND(M$4:M22)),MIN(EXP((N23-$J23)*$G23),1),"")</f>
@@ -11624,9 +11624,9 @@
         <f>IF(AND(NOT(M23),AND(M$4:M22)),TRUE,M23)</f>
         <v>0</v>
       </c>
-      <c r="R23" s="38">
+      <c r="R23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q23),AND(Q$4:Q22))),($J23*$G23-LN(1+Jumpoverwrite2*S$2))/$G23,_xll.qlInterpolationInterpolate(,Q$3,$F23,TRUE))</f>
-        <v>0.49968074315503119</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S23" s="38" t="str">
         <f>IF(AND(NOT(Q23),AND(Q$4:Q22)),MIN(EXP((R23-$J23)*$G23),1),"")</f>
@@ -11649,9 +11649,9 @@
         <f>IF(AND(NOT(U23),AND(U$4:U22)),TRUE,U23)</f>
         <v>0</v>
       </c>
-      <c r="Z23" s="38">
+      <c r="Z23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y23),AND(Y$4:Y22))),($J23*$G23-LN(1+Jumpoverwrite4*AA$2))/$G23,_xll.qlInterpolationInterpolate(,Y$3,$F23,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA23" s="38" t="str">
         <f>IF(AND(NOT(Y23),AND(Y$4:Y22)),MIN(EXP((Z23-$J23)*$G23),1),"")</f>
@@ -11662,9 +11662,9 @@
         <f>IF(AND(NOT(Y23),AND(Y$4:Y22)),TRUE,Y23)</f>
         <v>0</v>
       </c>
-      <c r="AD23" s="38">
+      <c r="AD23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC23),AND(AC$4:AC22))),($J23*$G23-LN(1+Jumpoverwrite5*AE$2))/$G23,_xll.qlInterpolationInterpolate(,AC$3,$F23,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE23" s="38" t="str">
         <f>IF(AND(NOT(AC23),AND(AC$4:AC22)),MIN(EXP((AD23-$J23)*$G23),1),"")</f>
@@ -11675,9 +11675,9 @@
         <f>IF(AND(NOT(AC23),AND(AC$4:AC22)),TRUE,AC23)</f>
         <v>0</v>
       </c>
-      <c r="AH23" s="38">
+      <c r="AH23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG23),AND(AG$4:AG22))),($J23*$G23-LN(1+Jumpoverwrite6*AI$2))/$G23,_xll.qlInterpolationInterpolate(,AG$3,$F23,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI23" s="38" t="str">
         <f>IF(AND(NOT(AG23),AND(AG$4:AG22)),MIN(EXP((AH23-$J23)*$G23),1),"")</f>
@@ -11688,9 +11688,9 @@
         <f>IF(AND(NOT(AG23),AND(AG$4:AG22)),TRUE,AG23)</f>
         <v>0</v>
       </c>
-      <c r="AL23" s="38">
+      <c r="AL23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK23),AND(AK$4:AK22))),($J23*$G23-LN(1+Jumpoverwrite7*AM$2))/$G23,_xll.qlInterpolationInterpolate(,AK$3,$F23,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM23" s="38" t="str">
         <f>IF(AND(NOT(AK23),AND(AK$4:AK22)),MIN(EXP((AL23-$J23)*$G23),1),"")</f>
@@ -11700,9 +11700,9 @@
         <f>IF(AND(NOT(AK23),AND(AK$4:AK22)),TRUE,AK23)</f>
         <v>0</v>
       </c>
-      <c r="AP23" s="38">
+      <c r="AP23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO23),AND(AO$4:AO22))),($J23*$G23-LN(1+Jumpoverwrite8*AQ$2))/$G23,_xll.qlInterpolationInterpolate(,AO$3,$F23,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ23" s="38" t="str">
         <f>IF(AND(NOT(AO23),AND(AO$4:AO22)),MIN(EXP((AP23-$J23)*$G23),1),"")</f>
@@ -11712,9 +11712,9 @@
         <f>IF(AND(NOT(AO23),AND(AO$4:AO22)),TRUE,AO23)</f>
         <v>0</v>
       </c>
-      <c r="AT23" s="38">
+      <c r="AT23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS23),AND(AS$4:AS22))),($J23*$G23-LN(1+Jumpoverwrite9*AU$2))/$G23,_xll.qlInterpolationInterpolate(,AS$3,$F23,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU23" s="38" t="str">
         <f>IF(AND(NOT(AS23),AND(AS$4:AS22)),MIN(EXP((AT23-$J23)*$G23),1),"")</f>
@@ -11724,9 +11724,9 @@
         <f>IF(AND(NOT(AS23),AND(AS$4:AS22)),TRUE,AS23)</f>
         <v>0</v>
       </c>
-      <c r="AX23" s="38">
+      <c r="AX23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW23),AND(AW$4:AW22))),($J23*$G23-LN(1+Jumpoverwrite10*AY$2))/$G23,_xll.qlInterpolationInterpolate(,AW$3,$F23,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY23" s="38" t="str">
         <f>IF(AND(NOT(AW23),AND(AW$4:AW22)),MIN(EXP((AX23-$J23)*$G23),1),"")</f>
@@ -11736,21 +11736,21 @@
         <f>IF(AND(NOT(AW23),AND(AW$4:AW22)),TRUE,AW23)</f>
         <v>0</v>
       </c>
-      <c r="BB23" s="38">
+      <c r="BB23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA23),AND(BA$4:BA22))),($J23*$G23-LN(1+Jumpoverwrite11*BC$2))/$G23,_xll.qlInterpolationInterpolate(,BA$3,$F23,TRUE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="BC23" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BC23" s="38" t="e">
         <f>IF(AND(NOT(BA23),AND(BA$4:BA22)),MIN(EXP((BB23-$J23)*$G23),1),"")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BE23" s="85" t="b">
         <f>IF(AND(NOT(BA23),AND(BA$4:BA22)),TRUE,BA23)</f>
         <v>1</v>
       </c>
-      <c r="BF23" s="38">
+      <c r="BF23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE23),AND(BE$4:BE22))),($J23*$G23-LN(1+Jumpoverwrite12*BG$2))/$G23,_xll.qlInterpolationInterpolate(,BE$3,$F23,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG23" s="38" t="str">
         <f>IF(AND(NOT(BE23),AND(BE$4:BE22)),MIN(EXP((BF23-$J23)*$G23),1),"")</f>
@@ -11760,9 +11760,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ23" s="38">
+      <c r="BJ23" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI23),AND(BI$4:BI22))),($J23*$G23-LN(1+jumpoverwrite13*BK$2))/$G23,_xll.qlInterpolationInterpolate(,BI$3,$F23,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK23" s="38" t="str">
         <f>IF(AND(NOT(BI23),AND(BI$4:BI22)),MIN(EXP((BJ23-$J23)*$G23),1),"")</f>
@@ -11773,9 +11773,9 @@
       <c r="A24" s="37" t="str">
         <v>WEURECBOISMAR16</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A24)</f>
-        <v>-1.0500000000000002E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C24" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A24)</f>
@@ -11797,8 +11797,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J24" s="41">
-        <v>0.49999999999999956</v>
+      <c r="J24" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K24" s="113">
         <f t="shared" si="3"/>
@@ -11809,9 +11809,9 @@
         <f>IF(AND(NOT(I24),AND(I$4:I23)),TRUE,I24)</f>
         <v>1</v>
       </c>
-      <c r="N24" s="38">
+      <c r="N24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M24),AND(M$4:M23))),($J24*$G24-LN(1+Jumpoverwrite1*O$2))/$G24,_xll.qlInterpolationInterpolate(,M$3,$F24,TRUE))</f>
-        <v>0.49999999999999956</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O24" s="38" t="str">
         <f>IF(AND(NOT(M24),AND(M$4:M23)),MIN(EXP((N24-$J24)*$G24),1),"")</f>
@@ -11822,9 +11822,9 @@
         <f>IF(AND(NOT(M24),AND(M$4:M23)),TRUE,M24)</f>
         <v>1</v>
       </c>
-      <c r="R24" s="38">
+      <c r="R24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q24),AND(Q$4:Q23))),($J24*$G24-LN(1+Jumpoverwrite2*S$2))/$G24,_xll.qlInterpolationInterpolate(,Q$3,$F24,TRUE))</f>
-        <v>0.49999999999999956</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S24" s="38" t="str">
         <f>IF(AND(NOT(Q24),AND(Q$4:Q23)),MIN(EXP((R24-$J24)*$G24),1),"")</f>
@@ -11847,9 +11847,9 @@
         <f>IF(AND(NOT(U24),AND(U$4:U23)),TRUE,U24)</f>
         <v>1</v>
       </c>
-      <c r="Z24" s="38">
+      <c r="Z24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y24),AND(Y$4:Y23))),($J24*$G24-LN(1+Jumpoverwrite4*AA$2))/$G24,_xll.qlInterpolationInterpolate(,Y$3,$F24,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA24" s="38" t="str">
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),MIN(EXP((Z24-$J24)*$G24),1),"")</f>
@@ -11860,9 +11860,9 @@
         <f>IF(AND(NOT(Y24),AND(Y$4:Y23)),TRUE,Y24)</f>
         <v>1</v>
       </c>
-      <c r="AD24" s="38">
+      <c r="AD24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC24),AND(AC$4:AC23))),($J24*$G24-LN(1+Jumpoverwrite5*AE$2))/$G24,_xll.qlInterpolationInterpolate(,AC$3,$F24,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE24" s="38" t="str">
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),MIN(EXP((AD24-$J24)*$G24),1),"")</f>
@@ -11873,9 +11873,9 @@
         <f>IF(AND(NOT(AC24),AND(AC$4:AC23)),TRUE,AC24)</f>
         <v>1</v>
       </c>
-      <c r="AH24" s="38">
+      <c r="AH24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG24),AND(AG$4:AG23))),($J24*$G24-LN(1+Jumpoverwrite6*AI$2))/$G24,_xll.qlInterpolationInterpolate(,AG$3,$F24,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI24" s="38" t="str">
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),MIN(EXP((AH24-$J24)*$G24),1),"")</f>
@@ -11886,9 +11886,9 @@
         <f>IF(AND(NOT(AG24),AND(AG$4:AG23)),TRUE,AG24)</f>
         <v>1</v>
       </c>
-      <c r="AL24" s="38">
+      <c r="AL24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK24),AND(AK$4:AK23))),($J24*$G24-LN(1+Jumpoverwrite7*AM$2))/$G24,_xll.qlInterpolationInterpolate(,AK$3,$F24,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM24" s="38" t="str">
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),MIN(EXP((AL24-$J24)*$G24),1),"")</f>
@@ -11898,9 +11898,9 @@
         <f>IF(AND(NOT(AK24),AND(AK$4:AK23)),TRUE,AK24)</f>
         <v>1</v>
       </c>
-      <c r="AP24" s="38">
+      <c r="AP24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO24),AND(AO$4:AO23))),($J24*$G24-LN(1+Jumpoverwrite8*AQ$2))/$G24,_xll.qlInterpolationInterpolate(,AO$3,$F24,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ24" s="38" t="str">
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),MIN(EXP((AP24-$J24)*$G24),1),"")</f>
@@ -11910,9 +11910,9 @@
         <f>IF(AND(NOT(AO24),AND(AO$4:AO23)),TRUE,AO24)</f>
         <v>1</v>
       </c>
-      <c r="AT24" s="38">
+      <c r="AT24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS24),AND(AS$4:AS23))),($J24*$G24-LN(1+Jumpoverwrite9*AU$2))/$G24,_xll.qlInterpolationInterpolate(,AS$3,$F24,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU24" s="38" t="str">
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),MIN(EXP((AT24-$J24)*$G24),1),"")</f>
@@ -11922,9 +11922,9 @@
         <f>IF(AND(NOT(AS24),AND(AS$4:AS23)),TRUE,AS24)</f>
         <v>1</v>
       </c>
-      <c r="AX24" s="38">
+      <c r="AX24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW24),AND(AW$4:AW23))),($J24*$G24-LN(1+Jumpoverwrite10*AY$2))/$G24,_xll.qlInterpolationInterpolate(,AW$3,$F24,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY24" s="38" t="str">
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),MIN(EXP((AX24-$J24)*$G24),1),"")</f>
@@ -11934,9 +11934,9 @@
         <f>IF(AND(NOT(AW24),AND(AW$4:AW23)),TRUE,AW24)</f>
         <v>1</v>
       </c>
-      <c r="BB24" s="38">
+      <c r="BB24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA24),AND(BA$4:BA23))),($J24*$G24-LN(1+Jumpoverwrite11*BC$2))/$G24,_xll.qlInterpolationInterpolate(,BA$3,$F24,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC24" s="38" t="str">
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),MIN(EXP((BB24-$J24)*$G24),1),"")</f>
@@ -11946,9 +11946,9 @@
         <f>IF(AND(NOT(BA24),AND(BA$4:BA23)),TRUE,BA24)</f>
         <v>1</v>
       </c>
-      <c r="BF24" s="38">
+      <c r="BF24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE24),AND(BE$4:BE23))),($J24*$G24-LN(1+Jumpoverwrite12*BG$2))/$G24,_xll.qlInterpolationInterpolate(,BE$3,$F24,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG24" s="38" t="str">
         <f>IF(AND(NOT(BE24),AND(BE$4:BE23)),MIN(EXP((BF24-$J24)*$G24),1),"")</f>
@@ -11958,9 +11958,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ24" s="38">
+      <c r="BJ24" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI24),AND(BI$4:BI23))),($J24*$G24-LN(1+jumpoverwrite13*BK$2))/$G24,_xll.qlInterpolationInterpolate(,BI$3,$F24,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK24" s="38" t="str">
         <f>IF(AND(NOT(BI24),AND(BI$4:BI23)),MIN(EXP((BJ24-$J24)*$G24),1),"")</f>
@@ -11971,9 +11971,9 @@
       <c r="A25" s="37" t="str">
         <v>WEUREON1Y</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A25)</f>
-        <v>-1.15E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C25" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A25)</f>
@@ -11995,8 +11995,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J25" s="41">
-        <v>-0.27721410037703631</v>
+      <c r="J25" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K25" s="113">
         <f t="shared" si="3"/>
@@ -12007,9 +12007,9 @@
         <f>IF(AND(NOT(I25),AND(I$4:I24)),TRUE,I25)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="38">
+      <c r="N25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M25),AND(M$4:M24))),($J25*$G25-LN(1+Jumpoverwrite1*O$2))/$G25,_xll.qlInterpolationInterpolate(,M$3,$F25,TRUE))</f>
-        <v>0.34926756841207751</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O25" s="38" t="str">
         <f>IF(AND(NOT(M25),AND(M$4:M24)),MIN(EXP((N25-$J25)*$G25),1),"")</f>
@@ -12020,9 +12020,9 @@
         <f>IF(AND(NOT(M25),AND(M$4:M24)),TRUE,M25)</f>
         <v>0</v>
       </c>
-      <c r="R25" s="38">
+      <c r="R25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q25),AND(Q$4:Q24))),($J25*$G25-LN(1+Jumpoverwrite2*S$2))/$G25,_xll.qlInterpolationInterpolate(,Q$3,$F25,TRUE))</f>
-        <v>0.34926756841207751</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S25" s="38" t="str">
         <f>IF(AND(NOT(Q25),AND(Q$4:Q24)),MIN(EXP((R25-$J25)*$G25),1),"")</f>
@@ -12045,9 +12045,9 @@
         <f>IF(AND(NOT(U25),AND(U$4:U24)),TRUE,U25)</f>
         <v>0</v>
       </c>
-      <c r="Z25" s="38">
+      <c r="Z25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y25),AND(Y$4:Y24))),($J25*$G25-LN(1+Jumpoverwrite4*AA$2))/$G25,_xll.qlInterpolationInterpolate(,Y$3,$F25,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA25" s="38" t="str">
         <f>IF(AND(NOT(Y25),AND(Y$4:Y24)),MIN(EXP((Z25-$J25)*$G25),1),"")</f>
@@ -12058,9 +12058,9 @@
         <f>IF(AND(NOT(Y25),AND(Y$4:Y24)),TRUE,Y25)</f>
         <v>0</v>
       </c>
-      <c r="AD25" s="38">
+      <c r="AD25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC25),AND(AC$4:AC24))),($J25*$G25-LN(1+Jumpoverwrite5*AE$2))/$G25,_xll.qlInterpolationInterpolate(,AC$3,$F25,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE25" s="38" t="str">
         <f>IF(AND(NOT(AC25),AND(AC$4:AC24)),MIN(EXP((AD25-$J25)*$G25),1),"")</f>
@@ -12071,9 +12071,9 @@
         <f>IF(AND(NOT(AC25),AND(AC$4:AC24)),TRUE,AC25)</f>
         <v>0</v>
       </c>
-      <c r="AH25" s="38">
+      <c r="AH25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG25),AND(AG$4:AG24))),($J25*$G25-LN(1+Jumpoverwrite6*AI$2))/$G25,_xll.qlInterpolationInterpolate(,AG$3,$F25,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI25" s="38" t="str">
         <f>IF(AND(NOT(AG25),AND(AG$4:AG24)),MIN(EXP((AH25-$J25)*$G25),1),"")</f>
@@ -12084,9 +12084,9 @@
         <f>IF(AND(NOT(AG25),AND(AG$4:AG24)),TRUE,AG25)</f>
         <v>0</v>
       </c>
-      <c r="AL25" s="38">
+      <c r="AL25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK25),AND(AK$4:AK24))),($J25*$G25-LN(1+Jumpoverwrite7*AM$2))/$G25,_xll.qlInterpolationInterpolate(,AK$3,$F25,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM25" s="38" t="str">
         <f>IF(AND(NOT(AK25),AND(AK$4:AK24)),MIN(EXP((AL25-$J25)*$G25),1),"")</f>
@@ -12096,9 +12096,9 @@
         <f>IF(AND(NOT(AK25),AND(AK$4:AK24)),TRUE,AK25)</f>
         <v>0</v>
       </c>
-      <c r="AP25" s="38">
+      <c r="AP25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO25),AND(AO$4:AO24))),($J25*$G25-LN(1+Jumpoverwrite8*AQ$2))/$G25,_xll.qlInterpolationInterpolate(,AO$3,$F25,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ25" s="38" t="str">
         <f>IF(AND(NOT(AO25),AND(AO$4:AO24)),MIN(EXP((AP25-$J25)*$G25),1),"")</f>
@@ -12108,9 +12108,9 @@
         <f>IF(AND(NOT(AO25),AND(AO$4:AO24)),TRUE,AO25)</f>
         <v>0</v>
       </c>
-      <c r="AT25" s="38">
+      <c r="AT25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS25),AND(AS$4:AS24))),($J25*$G25-LN(1+Jumpoverwrite9*AU$2))/$G25,_xll.qlInterpolationInterpolate(,AS$3,$F25,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU25" s="38" t="str">
         <f>IF(AND(NOT(AS25),AND(AS$4:AS24)),MIN(EXP((AT25-$J25)*$G25),1),"")</f>
@@ -12120,9 +12120,9 @@
         <f>IF(AND(NOT(AS25),AND(AS$4:AS24)),TRUE,AS25)</f>
         <v>0</v>
       </c>
-      <c r="AX25" s="38">
+      <c r="AX25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW25),AND(AW$4:AW24))),($J25*$G25-LN(1+Jumpoverwrite10*AY$2))/$G25,_xll.qlInterpolationInterpolate(,AW$3,$F25,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY25" s="38" t="str">
         <f>IF(AND(NOT(AW25),AND(AW$4:AW24)),MIN(EXP((AX25-$J25)*$G25),1),"")</f>
@@ -12132,9 +12132,9 @@
         <f>IF(AND(NOT(AW25),AND(AW$4:AW24)),TRUE,AW25)</f>
         <v>0</v>
       </c>
-      <c r="BB25" s="38">
+      <c r="BB25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA25),AND(BA$4:BA24))),($J25*$G25-LN(1+Jumpoverwrite11*BC$2))/$G25,_xll.qlInterpolationInterpolate(,BA$3,$F25,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC25" s="38" t="str">
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),MIN(EXP((BB25-$J25)*$G25),1),"")</f>
@@ -12144,21 +12144,21 @@
         <f>IF(AND(NOT(BA25),AND(BA$4:BA24)),TRUE,BA25)</f>
         <v>0</v>
       </c>
-      <c r="BF25" s="38">
+      <c r="BF25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE25),AND(BE$4:BE24))),($J25*$G25-LN(1+Jumpoverwrite12*BG$2))/$G25,_xll.qlInterpolationInterpolate(,BE$3,$F25,TRUE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="BG25" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BG25" s="38" t="e">
         <f>IF(AND(NOT(BE25),AND(BE$4:BE24)),MIN(EXP((BF25-$J25)*$G25),1),"")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BI25" s="85" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ25" s="38">
+      <c r="BJ25" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI25),AND(BI$4:BI24))),($J25*$G25-LN(1+jumpoverwrite13*BK$2))/$G25,_xll.qlInterpolationInterpolate(,BI$3,$F25,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK25" s="38" t="str">
         <f>IF(AND(NOT(BI25),AND(BI$4:BI24)),MIN(EXP((BJ25-$J25)*$G25),1),"")</f>
@@ -12169,9 +12169,9 @@
       <c r="A26" s="37" t="str">
         <v>WEURECBOISAPR16</v>
       </c>
-      <c r="B26" s="17">
+      <c r="B26" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A26)</f>
-        <v>-1.0800000000000002E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C26" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A26)</f>
@@ -12193,8 +12193,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J26" s="41">
-        <v>0.22278589962422879</v>
+      <c r="J26" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K26" s="113">
         <f t="shared" si="3"/>
@@ -12205,9 +12205,9 @@
         <f>IF(AND(NOT(I26),AND(I$4:I25)),TRUE,I26)</f>
         <v>0</v>
       </c>
-      <c r="N26" s="38">
+      <c r="N26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M26),AND(M$4:M25))),($J26*$G26-LN(1+Jumpoverwrite1*O$2))/$G26,_xll.qlInterpolationInterpolate(,M$3,$F26,TRUE))</f>
-        <v>0.15143125195292978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O26" s="38" t="str">
         <f>IF(AND(NOT(M26),AND(M$4:M25)),MIN(EXP((N26-$J26)*$G26),1),"")</f>
@@ -12218,9 +12218,9 @@
         <f>IF(AND(NOT(M26),AND(M$4:M25)),TRUE,M26)</f>
         <v>0</v>
       </c>
-      <c r="R26" s="38">
+      <c r="R26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q26),AND(Q$4:Q25))),($J26*$G26-LN(1+Jumpoverwrite2*S$2))/$G26,_xll.qlInterpolationInterpolate(,Q$3,$F26,TRUE))</f>
-        <v>0.15143125195292978</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S26" s="38" t="str">
         <f>IF(AND(NOT(Q26),AND(Q$4:Q25)),MIN(EXP((R26-$J26)*$G26),1),"")</f>
@@ -12243,9 +12243,9 @@
         <f>IF(AND(NOT(U26),AND(U$4:U25)),TRUE,U26)</f>
         <v>0</v>
       </c>
-      <c r="Z26" s="38">
+      <c r="Z26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y26),AND(Y$4:Y25))),($J26*$G26-LN(1+Jumpoverwrite4*AA$2))/$G26,_xll.qlInterpolationInterpolate(,Y$3,$F26,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA26" s="38" t="str">
         <f>IF(AND(NOT(Y26),AND(Y$4:Y25)),MIN(EXP((Z26-$J26)*$G26),1),"")</f>
@@ -12256,9 +12256,9 @@
         <f>IF(AND(NOT(Y26),AND(Y$4:Y25)),TRUE,Y26)</f>
         <v>0</v>
       </c>
-      <c r="AD26" s="38">
+      <c r="AD26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC26),AND(AC$4:AC25))),($J26*$G26-LN(1+Jumpoverwrite5*AE$2))/$G26,_xll.qlInterpolationInterpolate(,AC$3,$F26,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE26" s="38" t="str">
         <f>IF(AND(NOT(AC26),AND(AC$4:AC25)),MIN(EXP((AD26-$J26)*$G26),1),"")</f>
@@ -12269,9 +12269,9 @@
         <f>IF(AND(NOT(AC26),AND(AC$4:AC25)),TRUE,AC26)</f>
         <v>0</v>
       </c>
-      <c r="AH26" s="38">
+      <c r="AH26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG26),AND(AG$4:AG25))),($J26*$G26-LN(1+Jumpoverwrite6*AI$2))/$G26,_xll.qlInterpolationInterpolate(,AG$3,$F26,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI26" s="38" t="str">
         <f>IF(AND(NOT(AG26),AND(AG$4:AG25)),MIN(EXP((AH26-$J26)*$G26),1),"")</f>
@@ -12282,9 +12282,9 @@
         <f>IF(AND(NOT(AG26),AND(AG$4:AG25)),TRUE,AG26)</f>
         <v>0</v>
       </c>
-      <c r="AL26" s="38">
+      <c r="AL26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK26),AND(AK$4:AK25))),($J26*$G26-LN(1+Jumpoverwrite7*AM$2))/$G26,_xll.qlInterpolationInterpolate(,AK$3,$F26,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM26" s="38" t="str">
         <f>IF(AND(NOT(AK26),AND(AK$4:AK25)),MIN(EXP((AL26-$J26)*$G26),1),"")</f>
@@ -12294,9 +12294,9 @@
         <f>IF(AND(NOT(AK26),AND(AK$4:AK25)),TRUE,AK26)</f>
         <v>0</v>
       </c>
-      <c r="AP26" s="38">
+      <c r="AP26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO26),AND(AO$4:AO25))),($J26*$G26-LN(1+Jumpoverwrite8*AQ$2))/$G26,_xll.qlInterpolationInterpolate(,AO$3,$F26,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ26" s="38" t="str">
         <f>IF(AND(NOT(AO26),AND(AO$4:AO25)),MIN(EXP((AP26-$J26)*$G26),1),"")</f>
@@ -12306,9 +12306,9 @@
         <f>IF(AND(NOT(AO26),AND(AO$4:AO25)),TRUE,AO26)</f>
         <v>0</v>
       </c>
-      <c r="AT26" s="38">
+      <c r="AT26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS26),AND(AS$4:AS25))),($J26*$G26-LN(1+Jumpoverwrite9*AU$2))/$G26,_xll.qlInterpolationInterpolate(,AS$3,$F26,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU26" s="38" t="str">
         <f>IF(AND(NOT(AS26),AND(AS$4:AS25)),MIN(EXP((AT26-$J26)*$G26),1),"")</f>
@@ -12318,9 +12318,9 @@
         <f>IF(AND(NOT(AS26),AND(AS$4:AS25)),TRUE,AS26)</f>
         <v>0</v>
       </c>
-      <c r="AX26" s="38">
+      <c r="AX26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW26),AND(AW$4:AW25))),($J26*$G26-LN(1+Jumpoverwrite10*AY$2))/$G26,_xll.qlInterpolationInterpolate(,AW$3,$F26,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY26" s="38" t="str">
         <f>IF(AND(NOT(AW26),AND(AW$4:AW25)),MIN(EXP((AX26-$J26)*$G26),1),"")</f>
@@ -12330,9 +12330,9 @@
         <f>IF(AND(NOT(AW26),AND(AW$4:AW25)),TRUE,AW26)</f>
         <v>0</v>
       </c>
-      <c r="BB26" s="38">
+      <c r="BB26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA26),AND(BA$4:BA25))),($J26*$G26-LN(1+Jumpoverwrite11*BC$2))/$G26,_xll.qlInterpolationInterpolate(,BA$3,$F26,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC26" s="38" t="str">
         <f>IF(AND(NOT(BA26),AND(BA$4:BA25)),MIN(EXP((BB26-$J26)*$G26),1),"")</f>
@@ -12342,9 +12342,9 @@
         <f>IF(AND(NOT(BA26),AND(BA$4:BA25)),TRUE,BA26)</f>
         <v>0</v>
       </c>
-      <c r="BF26" s="38">
+      <c r="BF26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE26),AND(BE$4:BE25))),($J26*$G26-LN(1+Jumpoverwrite12*BG$2))/$G26,_xll.qlInterpolationInterpolate(,BE$3,$F26,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG26" s="38" t="str">
         <f>IF(AND(NOT(BE26),AND(BE$4:BE25)),MIN(EXP((BF26-$J26)*$G26),1),"")</f>
@@ -12354,9 +12354,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ26" s="38">
+      <c r="BJ26" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI26),AND(BI$4:BI25))),($J26*$G26-LN(1+jumpoverwrite13*BK$2))/$G26,_xll.qlInterpolationInterpolate(,BI$3,$F26,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK26" s="38" t="str">
         <f>IF(AND(NOT(BI26),AND(BI$4:BI25)),MIN(EXP((BJ26-$J26)*$G26),1),"")</f>
@@ -12367,9 +12367,9 @@
       <c r="A27" s="37" t="str">
         <v>WEUREON15M</v>
       </c>
-      <c r="B27" s="17">
+      <c r="B27" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A27)</f>
-        <v>-1.1200000000000001E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C27" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A27)</f>
@@ -12391,8 +12391,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J27" s="41">
-        <v>-0.27721410037522365</v>
+      <c r="J27" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K27" s="113">
         <f t="shared" si="3"/>
@@ -12403,9 +12403,9 @@
         <f>IF(AND(NOT(I27),AND(I$4:I26)),TRUE,I27)</f>
         <v>1</v>
       </c>
-      <c r="N27" s="38">
+      <c r="N27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M27),AND(M$4:M26))),($J27*$G27-LN(1+Jumpoverwrite1*O$2))/$G27,_xll.qlInterpolationInterpolate(,M$3,$F27,TRUE))</f>
-        <v>-0.27721410037522365</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O27" s="38" t="str">
         <f>IF(AND(NOT(M27),AND(M$4:M26)),MIN(EXP((N27-$J27)*$G27),1),"")</f>
@@ -12416,9 +12416,9 @@
         <f>IF(AND(NOT(M27),AND(M$4:M26)),TRUE,M27)</f>
         <v>1</v>
       </c>
-      <c r="R27" s="38">
+      <c r="R27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q27),AND(Q$4:Q26))),($J27*$G27-LN(1+Jumpoverwrite2*S$2))/$G27,_xll.qlInterpolationInterpolate(,Q$3,$F27,TRUE))</f>
-        <v>-0.27721410037522365</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S27" s="38" t="str">
         <f>IF(AND(NOT(Q27),AND(Q$4:Q26)),MIN(EXP((R27-$J27)*$G27),1),"")</f>
@@ -12441,9 +12441,9 @@
         <f>IF(AND(NOT(U27),AND(U$4:U26)),TRUE,U27)</f>
         <v>1</v>
       </c>
-      <c r="Z27" s="38">
+      <c r="Z27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y27),AND(Y$4:Y26))),($J27*$G27-LN(1+Jumpoverwrite4*AA$2))/$G27,_xll.qlInterpolationInterpolate(,Y$3,$F27,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA27" s="38" t="str">
         <f>IF(AND(NOT(Y27),AND(Y$4:Y26)),MIN(EXP((Z27-$J27)*$G27),1),"")</f>
@@ -12454,9 +12454,9 @@
         <f>IF(AND(NOT(Y27),AND(Y$4:Y26)),TRUE,Y27)</f>
         <v>1</v>
       </c>
-      <c r="AD27" s="38">
+      <c r="AD27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC27),AND(AC$4:AC26))),($J27*$G27-LN(1+Jumpoverwrite5*AE$2))/$G27,_xll.qlInterpolationInterpolate(,AC$3,$F27,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE27" s="38" t="str">
         <f>IF(AND(NOT(AC27),AND(AC$4:AC26)),MIN(EXP((AD27-$J27)*$G27),1),"")</f>
@@ -12467,9 +12467,9 @@
         <f>IF(AND(NOT(AC27),AND(AC$4:AC26)),TRUE,AC27)</f>
         <v>1</v>
       </c>
-      <c r="AH27" s="38">
+      <c r="AH27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG27),AND(AG$4:AG26))),($J27*$G27-LN(1+Jumpoverwrite6*AI$2))/$G27,_xll.qlInterpolationInterpolate(,AG$3,$F27,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI27" s="38" t="str">
         <f>IF(AND(NOT(AG27),AND(AG$4:AG26)),MIN(EXP((AH27-$J27)*$G27),1),"")</f>
@@ -12480,9 +12480,9 @@
         <f>IF(AND(NOT(AG27),AND(AG$4:AG26)),TRUE,AG27)</f>
         <v>1</v>
       </c>
-      <c r="AL27" s="38">
+      <c r="AL27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK27),AND(AK$4:AK26))),($J27*$G27-LN(1+Jumpoverwrite7*AM$2))/$G27,_xll.qlInterpolationInterpolate(,AK$3,$F27,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM27" s="38" t="str">
         <f>IF(AND(NOT(AK27),AND(AK$4:AK26)),MIN(EXP((AL27-$J27)*$G27),1),"")</f>
@@ -12492,9 +12492,9 @@
         <f>IF(AND(NOT(AK27),AND(AK$4:AK26)),TRUE,AK27)</f>
         <v>1</v>
       </c>
-      <c r="AP27" s="38">
+      <c r="AP27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO27),AND(AO$4:AO26))),($J27*$G27-LN(1+Jumpoverwrite8*AQ$2))/$G27,_xll.qlInterpolationInterpolate(,AO$3,$F27,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ27" s="38" t="str">
         <f>IF(AND(NOT(AO27),AND(AO$4:AO26)),MIN(EXP((AP27-$J27)*$G27),1),"")</f>
@@ -12504,9 +12504,9 @@
         <f>IF(AND(NOT(AO27),AND(AO$4:AO26)),TRUE,AO27)</f>
         <v>1</v>
       </c>
-      <c r="AT27" s="38">
+      <c r="AT27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS27),AND(AS$4:AS26))),($J27*$G27-LN(1+Jumpoverwrite9*AU$2))/$G27,_xll.qlInterpolationInterpolate(,AS$3,$F27,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU27" s="38" t="str">
         <f>IF(AND(NOT(AS27),AND(AS$4:AS26)),MIN(EXP((AT27-$J27)*$G27),1),"")</f>
@@ -12516,9 +12516,9 @@
         <f>IF(AND(NOT(AS27),AND(AS$4:AS26)),TRUE,AS27)</f>
         <v>1</v>
       </c>
-      <c r="AX27" s="38">
+      <c r="AX27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW27),AND(AW$4:AW26))),($J27*$G27-LN(1+Jumpoverwrite10*AY$2))/$G27,_xll.qlInterpolationInterpolate(,AW$3,$F27,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY27" s="38" t="str">
         <f>IF(AND(NOT(AW27),AND(AW$4:AW26)),MIN(EXP((AX27-$J27)*$G27),1),"")</f>
@@ -12528,9 +12528,9 @@
         <f>IF(AND(NOT(AW27),AND(AW$4:AW26)),TRUE,AW27)</f>
         <v>1</v>
       </c>
-      <c r="BB27" s="38">
+      <c r="BB27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA27),AND(BA$4:BA26))),($J27*$G27-LN(1+Jumpoverwrite11*BC$2))/$G27,_xll.qlInterpolationInterpolate(,BA$3,$F27,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC27" s="38" t="str">
         <f>IF(AND(NOT(BA27),AND(BA$4:BA26)),MIN(EXP((BB27-$J27)*$G27),1),"")</f>
@@ -12540,9 +12540,9 @@
         <f>IF(AND(NOT(BA27),AND(BA$4:BA26)),TRUE,BA27)</f>
         <v>1</v>
       </c>
-      <c r="BF27" s="38">
+      <c r="BF27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE27),AND(BE$4:BE26))),($J27*$G27-LN(1+Jumpoverwrite12*BG$2))/$G27,_xll.qlInterpolationInterpolate(,BE$3,$F27,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG27" s="38" t="str">
         <f>IF(AND(NOT(BE27),AND(BE$4:BE26)),MIN(EXP((BF27-$J27)*$G27),1),"")</f>
@@ -12552,9 +12552,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ27" s="38">
+      <c r="BJ27" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI27),AND(BI$4:BI26))),($J27*$G27-LN(1+jumpoverwrite13*BK$2))/$G27,_xll.qlInterpolationInterpolate(,BI$3,$F27,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK27" s="38" t="str">
         <f>IF(AND(NOT(BI27),AND(BI$4:BI26)),MIN(EXP((BJ27-$J27)*$G27),1),"")</f>
@@ -12565,9 +12565,9 @@
       <c r="A28" s="37" t="str">
         <v>WEUREON18M</v>
       </c>
-      <c r="B28" s="17">
+      <c r="B28" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A28)</f>
-        <v>-1.07E-3</v>
+        <v>#NUM!</v>
       </c>
       <c r="C28" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A28)</f>
@@ -12589,8 +12589,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J28" s="41">
-        <v>0.22278589962311857</v>
+      <c r="J28" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K28" s="113">
         <f t="shared" si="3"/>
@@ -12601,9 +12601,9 @@
         <f>IF(AND(NOT(I28),AND(I$4:I27)),TRUE,I28)</f>
         <v>1</v>
       </c>
-      <c r="N28" s="38">
+      <c r="N28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M28),AND(M$4:M27))),($J28*$G28-LN(1+Jumpoverwrite1*O$2))/$G28,_xll.qlInterpolationInterpolate(,M$3,$F28,TRUE))</f>
-        <v>0.22278589962311857</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O28" s="38" t="str">
         <f>IF(AND(NOT(M28),AND(M$4:M27)),MIN(EXP((N28-$J28)*$G28),1),"")</f>
@@ -12614,9 +12614,9 @@
         <f>IF(AND(NOT(M28),AND(M$4:M27)),TRUE,M28)</f>
         <v>1</v>
       </c>
-      <c r="R28" s="38">
+      <c r="R28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q28),AND(Q$4:Q27))),($J28*$G28-LN(1+Jumpoverwrite2*S$2))/$G28,_xll.qlInterpolationInterpolate(,Q$3,$F28,TRUE))</f>
-        <v>0.22278589962311857</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S28" s="38" t="str">
         <f>IF(AND(NOT(Q28),AND(Q$4:Q27)),MIN(EXP((R28-$J28)*$G28),1),"")</f>
@@ -12639,9 +12639,9 @@
         <f>IF(AND(NOT(U28),AND(U$4:U27)),TRUE,U28)</f>
         <v>1</v>
       </c>
-      <c r="Z28" s="38">
+      <c r="Z28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y28),AND(Y$4:Y27))),($J28*$G28-LN(1+Jumpoverwrite4*AA$2))/$G28,_xll.qlInterpolationInterpolate(,Y$3,$F28,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA28" s="38" t="str">
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),MIN(EXP((Z28-$J28)*$G28),1),"")</f>
@@ -12652,9 +12652,9 @@
         <f>IF(AND(NOT(Y28),AND(Y$4:Y27)),TRUE,Y28)</f>
         <v>1</v>
       </c>
-      <c r="AD28" s="38">
+      <c r="AD28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC28),AND(AC$4:AC27))),($J28*$G28-LN(1+Jumpoverwrite5*AE$2))/$G28,_xll.qlInterpolationInterpolate(,AC$3,$F28,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE28" s="38" t="str">
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),MIN(EXP((AD28-$J28)*$G28),1),"")</f>
@@ -12665,9 +12665,9 @@
         <f>IF(AND(NOT(AC28),AND(AC$4:AC27)),TRUE,AC28)</f>
         <v>1</v>
       </c>
-      <c r="AH28" s="38">
+      <c r="AH28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG28),AND(AG$4:AG27))),($J28*$G28-LN(1+Jumpoverwrite6*AI$2))/$G28,_xll.qlInterpolationInterpolate(,AG$3,$F28,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI28" s="38" t="str">
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),MIN(EXP((AH28-$J28)*$G28),1),"")</f>
@@ -12678,9 +12678,9 @@
         <f>IF(AND(NOT(AG28),AND(AG$4:AG27)),TRUE,AG28)</f>
         <v>1</v>
       </c>
-      <c r="AL28" s="38">
+      <c r="AL28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK28),AND(AK$4:AK27))),($J28*$G28-LN(1+Jumpoverwrite7*AM$2))/$G28,_xll.qlInterpolationInterpolate(,AK$3,$F28,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM28" s="38" t="str">
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),MIN(EXP((AL28-$J28)*$G28),1),"")</f>
@@ -12690,9 +12690,9 @@
         <f>IF(AND(NOT(AK28),AND(AK$4:AK27)),TRUE,AK28)</f>
         <v>1</v>
       </c>
-      <c r="AP28" s="38">
+      <c r="AP28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO28),AND(AO$4:AO27))),($J28*$G28-LN(1+Jumpoverwrite8*AQ$2))/$G28,_xll.qlInterpolationInterpolate(,AO$3,$F28,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ28" s="38" t="str">
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),MIN(EXP((AP28-$J28)*$G28),1),"")</f>
@@ -12702,9 +12702,9 @@
         <f>IF(AND(NOT(AO28),AND(AO$4:AO27)),TRUE,AO28)</f>
         <v>1</v>
       </c>
-      <c r="AT28" s="38">
+      <c r="AT28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS28),AND(AS$4:AS27))),($J28*$G28-LN(1+Jumpoverwrite9*AU$2))/$G28,_xll.qlInterpolationInterpolate(,AS$3,$F28,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU28" s="38" t="str">
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),MIN(EXP((AT28-$J28)*$G28),1),"")</f>
@@ -12714,9 +12714,9 @@
         <f>IF(AND(NOT(AS28),AND(AS$4:AS27)),TRUE,AS28)</f>
         <v>1</v>
       </c>
-      <c r="AX28" s="38">
+      <c r="AX28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW28),AND(AW$4:AW27))),($J28*$G28-LN(1+Jumpoverwrite10*AY$2))/$G28,_xll.qlInterpolationInterpolate(,AW$3,$F28,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY28" s="38" t="str">
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),MIN(EXP((AX28-$J28)*$G28),1),"")</f>
@@ -12726,9 +12726,9 @@
         <f>IF(AND(NOT(AW28),AND(AW$4:AW27)),TRUE,AW28)</f>
         <v>1</v>
       </c>
-      <c r="BB28" s="38">
+      <c r="BB28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA28),AND(BA$4:BA27))),($J28*$G28-LN(1+Jumpoverwrite11*BC$2))/$G28,_xll.qlInterpolationInterpolate(,BA$3,$F28,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC28" s="38" t="str">
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),MIN(EXP((BB28-$J28)*$G28),1),"")</f>
@@ -12738,9 +12738,9 @@
         <f>IF(AND(NOT(BA28),AND(BA$4:BA27)),TRUE,BA28)</f>
         <v>1</v>
       </c>
-      <c r="BF28" s="38">
+      <c r="BF28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE28),AND(BE$4:BE27))),($J28*$G28-LN(1+Jumpoverwrite12*BG$2))/$G28,_xll.qlInterpolationInterpolate(,BE$3,$F28,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG28" s="38" t="str">
         <f>IF(AND(NOT(BE28),AND(BE$4:BE27)),MIN(EXP((BF28-$J28)*$G28),1),"")</f>
@@ -12750,9 +12750,9 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BJ28" s="38">
+      <c r="BJ28" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI28),AND(BI$4:BI27))),($J28*$G28-LN(1+jumpoverwrite13*BK$2))/$G28,_xll.qlInterpolationInterpolate(,BI$3,$F28,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK28" s="38" t="str">
         <f>IF(AND(NOT(BI28),AND(BI$4:BI27)),MIN(EXP((BJ28-$J28)*$G28),1),"")</f>
@@ -12763,9 +12763,9 @@
       <c r="A29" s="37" t="str">
         <v>WEUREON21M</v>
       </c>
-      <c r="B29" s="17">
+      <c r="B29" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A29)</f>
-        <v>-9.7999999999999997E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="C29" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A29)</f>
@@ -12787,8 +12787,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J29" s="41">
-        <v>-0.27721410037744404</v>
+      <c r="J29" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K29" s="113">
         <f t="shared" si="3"/>
@@ -12799,9 +12799,9 @@
         <f>IF(AND(NOT(I29),AND(I$4:I28)),TRUE,I29)</f>
         <v>0</v>
       </c>
-      <c r="N29" s="38">
+      <c r="N29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M29),AND(M$4:M28))),($J29*$G29-LN(1+Jumpoverwrite1*O$2))/$G29,_xll.qlInterpolationInterpolate(,M$3,$F29,TRUE))</f>
-        <v>0.30481354396383525</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O29" s="38" t="str">
         <f>IF(AND(NOT(M29),AND(M$4:M28)),MIN(EXP((N29-$J29)*$G29),1),"")</f>
@@ -12812,9 +12812,9 @@
         <f>IF(AND(NOT(M29),AND(M$4:M28)),TRUE,M29)</f>
         <v>0</v>
       </c>
-      <c r="R29" s="38">
+      <c r="R29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q29),AND(Q$4:Q28))),($J29*$G29-LN(1+Jumpoverwrite2*S$2))/$G29,_xll.qlInterpolationInterpolate(,Q$3,$F29,TRUE))</f>
-        <v>0.30481354396383525</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S29" s="38" t="str">
         <f>IF(AND(NOT(Q29),AND(Q$4:Q28)),MIN(EXP((R29-$J29)*$G29),1),"")</f>
@@ -12837,9 +12837,9 @@
         <f>IF(AND(NOT(U29),AND(U$4:U28)),TRUE,U29)</f>
         <v>0</v>
       </c>
-      <c r="Z29" s="38">
+      <c r="Z29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y29),AND(Y$4:Y28))),($J29*$G29-LN(1+Jumpoverwrite4*AA$2))/$G29,_xll.qlInterpolationInterpolate(,Y$3,$F29,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA29" s="38" t="str">
         <f>IF(AND(NOT(Y29),AND(Y$4:Y28)),MIN(EXP((Z29-$J29)*$G29),1),"")</f>
@@ -12850,9 +12850,9 @@
         <f>IF(AND(NOT(Y29),AND(Y$4:Y28)),TRUE,Y29)</f>
         <v>0</v>
       </c>
-      <c r="AD29" s="38">
+      <c r="AD29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC29),AND(AC$4:AC28))),($J29*$G29-LN(1+Jumpoverwrite5*AE$2))/$G29,_xll.qlInterpolationInterpolate(,AC$3,$F29,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE29" s="38" t="str">
         <f>IF(AND(NOT(AC29),AND(AC$4:AC28)),MIN(EXP((AD29-$J29)*$G29),1),"")</f>
@@ -12863,9 +12863,9 @@
         <f>IF(AND(NOT(AC29),AND(AC$4:AC28)),TRUE,AC29)</f>
         <v>0</v>
       </c>
-      <c r="AH29" s="38">
+      <c r="AH29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG29),AND(AG$4:AG28))),($J29*$G29-LN(1+Jumpoverwrite6*AI$2))/$G29,_xll.qlInterpolationInterpolate(,AG$3,$F29,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI29" s="38" t="str">
         <f>IF(AND(NOT(AG29),AND(AG$4:AG28)),MIN(EXP((AH29-$J29)*$G29),1),"")</f>
@@ -12876,9 +12876,9 @@
         <f>IF(AND(NOT(AG29),AND(AG$4:AG28)),TRUE,AG29)</f>
         <v>0</v>
       </c>
-      <c r="AL29" s="38">
+      <c r="AL29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK29),AND(AK$4:AK28))),($J29*$G29-LN(1+Jumpoverwrite7*AM$2))/$G29,_xll.qlInterpolationInterpolate(,AK$3,$F29,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM29" s="38" t="str">
         <f>IF(AND(NOT(AK29),AND(AK$4:AK28)),MIN(EXP((AL29-$J29)*$G29),1),"")</f>
@@ -12888,9 +12888,9 @@
         <f>IF(AND(NOT(AK29),AND(AK$4:AK28)),TRUE,AK29)</f>
         <v>0</v>
       </c>
-      <c r="AP29" s="38">
+      <c r="AP29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO29),AND(AO$4:AO28))),($J29*$G29-LN(1+Jumpoverwrite8*AQ$2))/$G29,_xll.qlInterpolationInterpolate(,AO$3,$F29,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ29" s="38" t="str">
         <f>IF(AND(NOT(AO29),AND(AO$4:AO28)),MIN(EXP((AP29-$J29)*$G29),1),"")</f>
@@ -12900,9 +12900,9 @@
         <f>IF(AND(NOT(AO29),AND(AO$4:AO28)),TRUE,AO29)</f>
         <v>0</v>
       </c>
-      <c r="AT29" s="38">
+      <c r="AT29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS29),AND(AS$4:AS28))),($J29*$G29-LN(1+Jumpoverwrite9*AU$2))/$G29,_xll.qlInterpolationInterpolate(,AS$3,$F29,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU29" s="38" t="str">
         <f>IF(AND(NOT(AS29),AND(AS$4:AS28)),MIN(EXP((AT29-$J29)*$G29),1),"")</f>
@@ -12912,9 +12912,9 @@
         <f>IF(AND(NOT(AS29),AND(AS$4:AS28)),TRUE,AS29)</f>
         <v>0</v>
       </c>
-      <c r="AX29" s="38">
+      <c r="AX29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW29),AND(AW$4:AW28))),($J29*$G29-LN(1+Jumpoverwrite10*AY$2))/$G29,_xll.qlInterpolationInterpolate(,AW$3,$F29,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY29" s="38" t="str">
         <f>IF(AND(NOT(AW29),AND(AW$4:AW28)),MIN(EXP((AX29-$J29)*$G29),1),"")</f>
@@ -12924,9 +12924,9 @@
         <f>IF(AND(NOT(AW29),AND(AW$4:AW28)),TRUE,AW29)</f>
         <v>0</v>
       </c>
-      <c r="BB29" s="38">
+      <c r="BB29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA29),AND(BA$4:BA28))),($J29*$G29-LN(1+Jumpoverwrite11*BC$2))/$G29,_xll.qlInterpolationInterpolate(,BA$3,$F29,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC29" s="38" t="str">
         <f>IF(AND(NOT(BA29),AND(BA$4:BA28)),MIN(EXP((BB29-$J29)*$G29),1),"")</f>
@@ -12936,9 +12936,9 @@
         <f>IF(AND(NOT(BA29),AND(BA$4:BA28)),TRUE,BA29)</f>
         <v>0</v>
       </c>
-      <c r="BF29" s="38">
+      <c r="BF29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE29),AND(BE$4:BE28))),($J29*$G29-LN(1+Jumpoverwrite12*BG$2))/$G29,_xll.qlInterpolationInterpolate(,BE$3,$F29,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG29" s="38" t="str">
         <f>IF(AND(NOT(BE29),AND(BE$4:BE28)),MIN(EXP((BF29-$J29)*$G29),1),"")</f>
@@ -12948,22 +12948,22 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ29" s="38">
+      <c r="BJ29" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI29),AND(BI$4:BI28))),($J29*$G29-LN(1+jumpoverwrite13*BK$2))/$G29,_xll.qlInterpolationInterpolate(,BI$3,$F29,TRUE))</f>
-        <v>0.05</v>
-      </c>
-      <c r="BK29" s="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="BK29" s="38" t="e">
         <f>IF(AND(NOT(BI29),AND(BI$4:BI28)),MIN(EXP((BJ29-$J29)*$G29),1),"")</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.2">
       <c r="A30" s="37" t="str">
         <v>WEUREON2Y</v>
       </c>
-      <c r="B30" s="17">
+      <c r="B30" s="17" t="e">
         <f>_xll.qlRateHelperRate(InterestRatesTrigger,$A30)</f>
-        <v>-8.699999999999999E-4</v>
+        <v>#NUM!</v>
       </c>
       <c r="C30" s="18">
         <f>_xll.qlRateHelperEarliestDate(Trigger,$A30)</f>
@@ -12985,8 +12985,8 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J30" s="41">
-        <v>0.38639294981088679</v>
+      <c r="J30" s="41" t="e">
+        <v>#NUM!</v>
       </c>
       <c r="K30" s="113">
         <f t="shared" si="3"/>
@@ -12997,9 +12997,9 @@
         <f>IF(AND(NOT(I30),AND(I$4:I29)),TRUE,I30)</f>
         <v>1</v>
       </c>
-      <c r="N30" s="38">
+      <c r="N30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite1)),AND(NOT(M30),AND(M$4:M29))),($J30*$G30-LN(1+Jumpoverwrite1*O$2))/$G30,_xll.qlInterpolationInterpolate(,M$3,$F30,TRUE))</f>
-        <v>0.38639294981088679</v>
+        <v>#VALUE!</v>
       </c>
       <c r="O30" s="38" t="str">
         <f>IF(AND(NOT(M30),AND(M$4:M29)),MIN(EXP((N30-$J30)*$G30),1),"")</f>
@@ -13010,9 +13010,9 @@
         <f>IF(AND(NOT(M30),AND(M$4:M29)),TRUE,M30)</f>
         <v>1</v>
       </c>
-      <c r="R30" s="38">
+      <c r="R30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite2)),AND(NOT(Q30),AND(Q$4:Q29))),($J30*$G30-LN(1+Jumpoverwrite2*S$2))/$G30,_xll.qlInterpolationInterpolate(,Q$3,$F30,TRUE))</f>
-        <v>0.38639294981088679</v>
+        <v>#VALUE!</v>
       </c>
       <c r="S30" s="38" t="str">
         <f>IF(AND(NOT(Q30),AND(Q$4:Q29)),MIN(EXP((R30-$J30)*$G30),1),"")</f>
@@ -13035,9 +13035,9 @@
         <f>IF(AND(NOT(U30),AND(U$4:U29)),TRUE,U30)</f>
         <v>1</v>
       </c>
-      <c r="Z30" s="38">
+      <c r="Z30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite4)),AND(NOT(Y30),AND(Y$4:Y29))),($J30*$G30-LN(1+Jumpoverwrite4*AA$2))/$G30,_xll.qlInterpolationInterpolate(,Y$3,$F30,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA30" s="38" t="str">
         <f>IF(AND(NOT(Y30),AND(Y$4:Y29)),MIN(EXP((Z30-$J30)*$G30),1),"")</f>
@@ -13048,9 +13048,9 @@
         <f>IF(AND(NOT(Y30),AND(Y$4:Y29)),TRUE,Y30)</f>
         <v>1</v>
       </c>
-      <c r="AD30" s="38">
+      <c r="AD30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite5)),AND(NOT(AC30),AND(AC$4:AC29))),($J30*$G30-LN(1+Jumpoverwrite5*AE$2))/$G30,_xll.qlInterpolationInterpolate(,AC$3,$F30,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AE30" s="38" t="str">
         <f>IF(AND(NOT(AC30),AND(AC$4:AC29)),MIN(EXP((AD30-$J30)*$G30),1),"")</f>
@@ -13061,9 +13061,9 @@
         <f>IF(AND(NOT(AC30),AND(AC$4:AC29)),TRUE,AC30)</f>
         <v>1</v>
       </c>
-      <c r="AH30" s="38">
+      <c r="AH30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite6)),AND(NOT(AG30),AND(AG$4:AG29))),($J30*$G30-LN(1+Jumpoverwrite6*AI$2))/$G30,_xll.qlInterpolationInterpolate(,AG$3,$F30,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AI30" s="38" t="str">
         <f>IF(AND(NOT(AG30),AND(AG$4:AG29)),MIN(EXP((AH30-$J30)*$G30),1),"")</f>
@@ -13074,9 +13074,9 @@
         <f>IF(AND(NOT(AG30),AND(AG$4:AG29)),TRUE,AG30)</f>
         <v>1</v>
       </c>
-      <c r="AL30" s="38">
+      <c r="AL30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite7)),AND(NOT(AK30),AND(AK$4:AK29))),($J30*$G30-LN(1+Jumpoverwrite7*AM$2))/$G30,_xll.qlInterpolationInterpolate(,AK$3,$F30,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AM30" s="38" t="str">
         <f>IF(AND(NOT(AK30),AND(AK$4:AK29)),MIN(EXP((AL30-$J30)*$G30),1),"")</f>
@@ -13086,9 +13086,9 @@
         <f>IF(AND(NOT(AK30),AND(AK$4:AK29)),TRUE,AK30)</f>
         <v>1</v>
       </c>
-      <c r="AP30" s="38">
+      <c r="AP30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite8)),AND(NOT(AO30),AND(AO$4:AO29))),($J30*$G30-LN(1+Jumpoverwrite8*AQ$2))/$G30,_xll.qlInterpolationInterpolate(,AO$3,$F30,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AQ30" s="38" t="str">
         <f>IF(AND(NOT(AO30),AND(AO$4:AO29)),MIN(EXP((AP30-$J30)*$G30),1),"")</f>
@@ -13098,9 +13098,9 @@
         <f>IF(AND(NOT(AO30),AND(AO$4:AO29)),TRUE,AO30)</f>
         <v>1</v>
       </c>
-      <c r="AT30" s="38">
+      <c r="AT30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite9)),AND(NOT(AS30),AND(AS$4:AS29))),($J30*$G30-LN(1+Jumpoverwrite9*AU$2))/$G30,_xll.qlInterpolationInterpolate(,AS$3,$F30,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AU30" s="38" t="str">
         <f>IF(AND(NOT(AS30),AND(AS$4:AS29)),MIN(EXP((AT30-$J30)*$G30),1),"")</f>
@@ -13110,9 +13110,9 @@
         <f>IF(AND(NOT(AS30),AND(AS$4:AS29)),TRUE,AS30)</f>
         <v>1</v>
       </c>
-      <c r="AX30" s="38">
+      <c r="AX30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite10)),AND(NOT(AW30),AND(AW$4:AW29))),($J30*$G30-LN(1+Jumpoverwrite10*AY$2))/$G30,_xll.qlInterpolationInterpolate(,AW$3,$F30,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AY30" s="38" t="str">
         <f>IF(AND(NOT(AW30),AND(AW$4:AW29)),MIN(EXP((AX30-$J30)*$G30),1),"")</f>
@@ -13122,9 +13122,9 @@
         <f>IF(AND(NOT(AW30),AND(AW$4:AW29)),TRUE,AW30)</f>
         <v>1</v>
       </c>
-      <c r="BB30" s="38">
+      <c r="BB30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite11)),AND(NOT(BA30),AND(BA$4:BA29))),($J30*$G30-LN(1+Jumpoverwrite11*BC$2))/$G30,_xll.qlInterpolationInterpolate(,BA$3,$F30,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BC30" s="38" t="str">
         <f>IF(AND(NOT(BA30),AND(BA$4:BA29)),MIN(EXP((BB30-$J30)*$G30),1),"")</f>
@@ -13134,9 +13134,9 @@
         <f>IF(AND(NOT(BA30),AND(BA$4:BA29)),TRUE,BA30)</f>
         <v>1</v>
       </c>
-      <c r="BF30" s="38">
+      <c r="BF30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(Jumpoverwrite12)),AND(NOT(BE30),AND(BE$4:BE29))),($J30*$G30-LN(1+Jumpoverwrite12*BG$2))/$G30,_xll.qlInterpolationInterpolate(,BE$3,$F30,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BG30" s="38" t="str">
         <f>IF(AND(NOT(BE30),AND(BE$4:BE29)),MIN(EXP((BF30-$J30)*$G30),1),"")</f>
@@ -13146,9 +13146,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BJ30" s="38">
+      <c r="BJ30" s="38" t="e">
         <f>IF(AND(NOT(ISBLANK(jumpoverwrite13)),AND(NOT(BI30),AND(BI$4:BI29))),($J30*$G30-LN(1+jumpoverwrite13*BK$2))/$G30,_xll.qlInterpolationInterpolate(,BI$3,$F30,TRUE))</f>
-        <v>0.05</v>
+        <v>#VALUE!</v>
       </c>
       <c r="BK30" s="38" t="str">
         <f>IF(AND(NOT(BI30),AND(BI$4:BI29)),MIN(EXP((BJ30-$J30)*$G30),1),"")</f>
@@ -13184,7 +13184,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K31" s="113" t="e">
         <f t="shared" si="3"/>
@@ -13382,7 +13382,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K32" s="113" t="e">
         <f t="shared" si="3"/>
@@ -13580,7 +13580,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K33" s="113" t="e">
         <f t="shared" si="3"/>
@@ -13778,7 +13778,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K34" s="113" t="e">
         <f t="shared" si="3"/>
@@ -13976,7 +13976,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K35" s="113" t="e">
         <f t="shared" si="3"/>
@@ -14174,7 +14174,7 @@
         <v>0</v>
       </c>
       <c r="J36" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K36" s="113" t="e">
         <f t="shared" si="3"/>
@@ -14372,7 +14372,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K37" s="113" t="e">
         <f t="shared" si="3"/>
@@ -14570,7 +14570,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K38" s="113" t="e">
         <f t="shared" si="3"/>
@@ -14768,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K39" s="113" t="e">
         <f t="shared" si="3"/>
@@ -14966,7 +14966,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K40" s="113" t="e">
         <f t="shared" si="3"/>
@@ -15164,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K41" s="113" t="e">
         <f t="shared" si="3"/>
@@ -15362,7 +15362,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K42" s="113" t="e">
         <f t="shared" si="3"/>
@@ -15560,7 +15560,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K43" s="113" t="e">
         <f t="shared" si="3"/>
@@ -15758,7 +15758,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K44" s="113" t="e">
         <f t="shared" si="3"/>
@@ -15956,7 +15956,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K45" s="113" t="e">
         <f t="shared" si="3"/>
@@ -16154,7 +16154,7 @@
         <v>0</v>
       </c>
       <c r="J46" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K46" s="113" t="e">
         <f t="shared" si="3"/>
@@ -16352,7 +16352,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K47" s="113" t="e">
         <f t="shared" si="3"/>
@@ -16550,7 +16550,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K48" s="113" t="e">
         <f t="shared" si="3"/>
@@ -16748,7 +16748,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K49" s="113" t="e">
         <f t="shared" si="3"/>
@@ -16946,7 +16946,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K50" s="113" t="e">
         <f t="shared" si="3"/>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K51" s="113" t="e">
         <f t="shared" si="3"/>
@@ -17342,7 +17342,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K52" s="113" t="e">
         <f t="shared" si="3"/>
@@ -17540,7 +17540,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K53" s="113" t="e">
         <f t="shared" si="3"/>
@@ -17738,7 +17738,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K54" s="113" t="e">
         <f t="shared" si="3"/>
@@ -17936,7 +17936,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K55" s="113" t="e">
         <f t="shared" si="3"/>
@@ -18134,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="J56" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K56" s="113" t="e">
         <f t="shared" si="3"/>
@@ -18332,7 +18332,7 @@
         <v>0</v>
       </c>
       <c r="J57" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K57" s="113" t="e">
         <f t="shared" si="3"/>
@@ -18530,7 +18530,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K58" s="113" t="e">
         <f t="shared" si="3"/>
@@ -18728,7 +18728,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K59" s="113" t="e">
         <f t="shared" si="3"/>
@@ -18926,7 +18926,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K60" s="113" t="e">
         <f t="shared" si="3"/>
@@ -19124,7 +19124,7 @@
         <v>0</v>
       </c>
       <c r="J61" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K61" s="113" t="e">
         <f t="shared" si="3"/>
@@ -19322,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K62" s="113" t="e">
         <f t="shared" si="3"/>
@@ -19520,7 +19520,7 @@
         <v>0</v>
       </c>
       <c r="J63" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K63" s="113" t="e">
         <f t="shared" si="3"/>
@@ -19718,7 +19718,7 @@
         <v>0</v>
       </c>
       <c r="J64" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K64" s="113" t="e">
         <f t="shared" si="3"/>
@@ -19916,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K65" s="113" t="e">
         <f t="shared" si="3"/>
@@ -20114,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K66" s="113" t="e">
         <f t="shared" si="3"/>
@@ -20312,7 +20312,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K67" s="113" t="e">
         <f t="shared" si="3"/>
@@ -20510,7 +20510,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K68" s="113" t="e">
         <f t="shared" si="3"/>
@@ -20708,7 +20708,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K69" s="113" t="e">
         <f t="shared" si="3"/>
@@ -20906,7 +20906,7 @@
         <v>0</v>
       </c>
       <c r="J70" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K70" s="113" t="e">
         <f t="shared" ref="K70:K129" si="8">D70</f>
@@ -21104,7 +21104,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K71" s="113" t="e">
         <f t="shared" si="8"/>
@@ -21302,7 +21302,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K72" s="113" t="e">
         <f t="shared" si="8"/>
@@ -21500,7 +21500,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K73" s="113" t="e">
         <f t="shared" si="8"/>
@@ -21698,7 +21698,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K74" s="113" t="e">
         <f t="shared" si="8"/>
@@ -21896,7 +21896,7 @@
         <v>0</v>
       </c>
       <c r="J75" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K75" s="113" t="e">
         <f t="shared" si="8"/>
@@ -22094,7 +22094,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K76" s="113" t="e">
         <f t="shared" si="8"/>
@@ -22292,7 +22292,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K77" s="113" t="e">
         <f t="shared" si="8"/>
@@ -22490,7 +22490,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K78" s="113" t="e">
         <f t="shared" si="8"/>
@@ -22688,7 +22688,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K79" s="113" t="e">
         <f t="shared" si="8"/>
@@ -22886,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="J80" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K80" s="113" t="e">
         <f t="shared" si="8"/>
@@ -23084,7 +23084,7 @@
         <v>0</v>
       </c>
       <c r="J81" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K81" s="113" t="e">
         <f t="shared" si="8"/>
@@ -23282,7 +23282,7 @@
         <v>0</v>
       </c>
       <c r="J82" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K82" s="113" t="e">
         <f t="shared" si="8"/>
@@ -23480,7 +23480,7 @@
         <v>0</v>
       </c>
       <c r="J83" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K83" s="113" t="e">
         <f t="shared" si="8"/>
@@ -23678,7 +23678,7 @@
         <v>0</v>
       </c>
       <c r="J84" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K84" s="113" t="e">
         <f t="shared" si="8"/>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K85" s="113" t="e">
         <f t="shared" si="8"/>
@@ -24074,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K86" s="113" t="e">
         <f t="shared" si="8"/>
@@ -24272,7 +24272,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K87" s="113" t="e">
         <f t="shared" si="8"/>
@@ -24470,7 +24470,7 @@
         <v>0</v>
       </c>
       <c r="J88" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K88" s="113" t="e">
         <f t="shared" si="8"/>
@@ -24668,7 +24668,7 @@
         <v>0</v>
       </c>
       <c r="J89" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K89" s="113" t="e">
         <f t="shared" si="8"/>
@@ -24866,7 +24866,7 @@
         <v>0</v>
       </c>
       <c r="J90" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K90" s="113" t="e">
         <f t="shared" si="8"/>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K91" s="113" t="e">
         <f t="shared" si="8"/>
@@ -25262,7 +25262,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K92" s="113" t="e">
         <f t="shared" si="8"/>
@@ -25460,7 +25460,7 @@
         <v>0</v>
       </c>
       <c r="J93" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K93" s="113" t="e">
         <f t="shared" si="8"/>
@@ -25658,7 +25658,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K94" s="113" t="e">
         <f t="shared" si="8"/>
@@ -25856,7 +25856,7 @@
         <v>0</v>
       </c>
       <c r="J95" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K95" s="113" t="e">
         <f t="shared" si="8"/>
@@ -26054,7 +26054,7 @@
         <v>0</v>
       </c>
       <c r="J96" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K96" s="113" t="e">
         <f t="shared" si="8"/>
@@ -26252,7 +26252,7 @@
         <v>0</v>
       </c>
       <c r="J97" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K97" s="113" t="e">
         <f t="shared" si="8"/>
@@ -26450,7 +26450,7 @@
         <v>0</v>
       </c>
       <c r="J98" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K98" s="113" t="e">
         <f t="shared" si="8"/>
@@ -26648,7 +26648,7 @@
         <v>0</v>
       </c>
       <c r="J99" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K99" s="113" t="e">
         <f t="shared" si="8"/>
@@ -26846,7 +26846,7 @@
         <v>0</v>
       </c>
       <c r="J100" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K100" s="113" t="e">
         <f t="shared" si="8"/>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="J101" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K101" s="113" t="e">
         <f t="shared" si="8"/>
@@ -27242,7 +27242,7 @@
         <v>0</v>
       </c>
       <c r="J102" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K102" s="113" t="e">
         <f t="shared" si="8"/>
@@ -27440,7 +27440,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K103" s="113" t="e">
         <f t="shared" si="8"/>
@@ -27638,7 +27638,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K104" s="113" t="e">
         <f t="shared" si="8"/>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K105" s="113" t="e">
         <f t="shared" si="8"/>
@@ -28034,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="J106" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K106" s="113" t="e">
         <f t="shared" si="8"/>
@@ -28232,7 +28232,7 @@
         <v>0</v>
       </c>
       <c r="J107" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K107" s="113" t="e">
         <f t="shared" si="8"/>
@@ -28430,7 +28430,7 @@
         <v>0</v>
       </c>
       <c r="J108" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K108" s="113" t="e">
         <f t="shared" si="8"/>
@@ -28628,7 +28628,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K109" s="113" t="e">
         <f t="shared" si="8"/>
@@ -28826,7 +28826,7 @@
         <v>0</v>
       </c>
       <c r="J110" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K110" s="113" t="e">
         <f t="shared" si="8"/>
@@ -29024,7 +29024,7 @@
         <v>0</v>
       </c>
       <c r="J111" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K111" s="113" t="e">
         <f t="shared" si="8"/>
@@ -29222,7 +29222,7 @@
         <v>0</v>
       </c>
       <c r="J112" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K112" s="113" t="e">
         <f t="shared" si="8"/>
@@ -29420,7 +29420,7 @@
         <v>0</v>
       </c>
       <c r="J113" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K113" s="113" t="e">
         <f t="shared" si="8"/>
@@ -29618,7 +29618,7 @@
         <v>0</v>
       </c>
       <c r="J114" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K114" s="113" t="e">
         <f t="shared" si="8"/>
@@ -29816,7 +29816,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K115" s="113" t="e">
         <f t="shared" si="8"/>
@@ -30014,7 +30014,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K116" s="113" t="e">
         <f t="shared" si="8"/>
@@ -30212,7 +30212,7 @@
         <v>0</v>
       </c>
       <c r="J117" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K117" s="113" t="e">
         <f t="shared" si="8"/>
@@ -30410,7 +30410,7 @@
         <v>0</v>
       </c>
       <c r="J118" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K118" s="113" t="e">
         <f t="shared" si="8"/>
@@ -30608,7 +30608,7 @@
         <v>0</v>
       </c>
       <c r="J119" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K119" s="113" t="e">
         <f t="shared" si="8"/>
@@ -30806,7 +30806,7 @@
         <v>0</v>
       </c>
       <c r="J120" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K120" s="113" t="e">
         <f t="shared" si="8"/>
@@ -31004,7 +31004,7 @@
         <v>0</v>
       </c>
       <c r="J121" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K121" s="113" t="e">
         <f t="shared" si="8"/>
@@ -31202,7 +31202,7 @@
         <v>0</v>
       </c>
       <c r="J122" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K122" s="113" t="e">
         <f t="shared" si="8"/>
@@ -31400,7 +31400,7 @@
         <v>0</v>
       </c>
       <c r="J123" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K123" s="113" t="e">
         <f t="shared" si="8"/>
@@ -31598,7 +31598,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K124" s="113" t="e">
         <f t="shared" si="8"/>
@@ -31796,7 +31796,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K125" s="113" t="e">
         <f t="shared" si="8"/>
@@ -31994,7 +31994,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K126" s="113" t="e">
         <f t="shared" si="8"/>
@@ -32192,7 +32192,7 @@
         <v>0</v>
       </c>
       <c r="J127" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K127" s="113" t="e">
         <f t="shared" si="8"/>
@@ -32390,7 +32390,7 @@
         <v>0</v>
       </c>
       <c r="J128" s="41" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K128" s="113" t="e">
         <f t="shared" si="8"/>
@@ -32588,7 +32588,7 @@
         <v>0</v>
       </c>
       <c r="J129" s="115" t="e">
-        <v>#N/A</v>
+        <v>#NUM!</v>
       </c>
       <c r="K129" s="116" t="e">
         <f t="shared" si="8"/>
@@ -32820,7 +32820,7 @@
       <c r="L1" s="22"/>
       <c r="M1" s="23">
         <f>_xll.ohTrigger(M3:M4)</f>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N1" s="144"/>
     </row>
@@ -32874,13 +32874,13 @@
         <f>JumpDate1</f>
         <v>42153</v>
       </c>
-      <c r="D3" s="158">
+      <c r="D3" s="158" t="e">
         <f>JumpValue1</f>
-        <v>1</v>
-      </c>
-      <c r="E3" s="155">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E3" s="155" t="e">
         <f>JumpSize1</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F3" s="136"/>
       <c r="G3" s="143"/>
@@ -32896,13 +32896,13 @@
         <f>_xll.qlSimpleQuote(Trigger,J3,,TRUE)</f>
         <v>EURJump1_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L3" s="40">
+      <c r="L3" s="40" t="e">
         <f t="array" ref="L3:L15">QuoteLive</f>
-        <v>1</v>
-      </c>
-      <c r="M3" s="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M3" s="40" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K3,ROUND($L3,7))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N3" s="144"/>
       <c r="P3" s="166" t="s">
@@ -32926,13 +32926,13 @@
         <f>JumpDate2</f>
         <v>42185</v>
       </c>
-      <c r="D4" s="153">
+      <c r="D4" s="153" t="e">
         <f>JumpValue2</f>
-        <v>0.97929385719536355</v>
-      </c>
-      <c r="E4" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E4" s="156" t="e">
         <f>JumpSize2</f>
-        <v>7.5324675324675461</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F4" s="139"/>
       <c r="G4" s="143"/>
@@ -32948,12 +32948,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J4,,TRUE)</f>
         <v>EURJump2_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L4" s="141">
-        <v>0.97929385719536355</v>
-      </c>
-      <c r="M4" s="141">
+      <c r="L4" s="141" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M4" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K4,ROUND($L4,7))</f>
-        <v>-2.070609999999995E-2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N4" s="144"/>
       <c r="P4" s="166" t="s">
@@ -32977,13 +32977,13 @@
         <f>JumpDate3</f>
         <v>42216</v>
       </c>
-      <c r="D5" s="153">
+      <c r="D5" s="153" t="e">
         <f>JumpValue3</f>
-        <v>1</v>
-      </c>
-      <c r="E5" s="156">
+        <v>#NUM!</v>
+      </c>
+      <c r="E5" s="156" t="e">
         <f>JumpSize3</f>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="F5" s="139"/>
       <c r="G5" s="143"/>
@@ -32999,12 +32999,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J5,,TRUE)</f>
         <v>EURJump3_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L5" s="141">
-        <v>1</v>
-      </c>
-      <c r="M5" s="141">
+      <c r="L5" s="141" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="M5" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K5,ROUND($L5,7))</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N5" s="144"/>
       <c r="P5" s="166" t="s">
@@ -33028,13 +33028,13 @@
         <f>JumpDate4</f>
         <v>42247</v>
       </c>
-      <c r="D6" s="153">
+      <c r="D6" s="153" t="e">
         <f>JumpValue4</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E6" s="156" t="e">
         <f>JumpSize4</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F6" s="139"/>
       <c r="G6" s="143"/>
@@ -33050,12 +33050,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J6,,TRUE)</f>
         <v>EURJump4_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L6" s="141">
-        <v>1</v>
-      </c>
-      <c r="M6" s="141">
+      <c r="L6" s="141" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M6" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K6,ROUND($L6,7))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N6" s="144"/>
       <c r="P6" s="166" t="s">
@@ -33079,13 +33079,13 @@
         <f>JumpDate5</f>
         <v>42277</v>
       </c>
-      <c r="D7" s="153">
+      <c r="D7" s="153" t="e">
         <f>JumpValue5</f>
-        <v>1</v>
-      </c>
-      <c r="E7" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E7" s="156" t="e">
         <f>JumpSize5</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F7" s="139"/>
       <c r="G7" s="143"/>
@@ -33101,12 +33101,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J7,,TRUE)</f>
         <v>EURJump5_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L7" s="141">
-        <v>1</v>
-      </c>
-      <c r="M7" s="141">
+      <c r="L7" s="141" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M7" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K7,ROUND($L7,7))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N7" s="144"/>
       <c r="P7" s="166" t="s">
@@ -33130,13 +33130,13 @@
         <f>JumpDate6</f>
         <v>42307</v>
       </c>
-      <c r="D8" s="153">
+      <c r="D8" s="153" t="e">
         <f>JumpValue6</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E8" s="156" t="e">
         <f>JumpSize6</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F8" s="139"/>
       <c r="G8" s="143"/>
@@ -33152,12 +33152,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J8,,TRUE)</f>
         <v>EURJump6_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L8" s="141">
-        <v>1</v>
-      </c>
-      <c r="M8" s="141">
+      <c r="L8" s="141" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M8" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K8,ROUND($L8,7))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N8" s="144"/>
       <c r="P8" s="166" t="s">
@@ -33181,13 +33181,13 @@
         <f>JumpDate7</f>
         <v>42338</v>
       </c>
-      <c r="D9" s="153">
+      <c r="D9" s="153" t="e">
         <f>JumpValue7</f>
-        <v>1</v>
-      </c>
-      <c r="E9" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E9" s="156" t="e">
         <f>JumpSize7</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F9" s="139"/>
       <c r="G9" s="143"/>
@@ -33203,12 +33203,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J9,,TRUE)</f>
         <v>EURJump7_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L9" s="141">
-        <v>1</v>
-      </c>
-      <c r="M9" s="141">
+      <c r="L9" s="141" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M9" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K9,ROUND($L9,7))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N9" s="144"/>
       <c r="P9" s="166" t="s">
@@ -33232,13 +33232,13 @@
         <f>JumpDate8</f>
         <v>42369</v>
       </c>
-      <c r="D10" s="153">
+      <c r="D10" s="153" t="e">
         <f>JumpValue8</f>
-        <v>1</v>
-      </c>
-      <c r="E10" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E10" s="156" t="e">
         <f>JumpSize8</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F10" s="139"/>
       <c r="G10" s="143"/>
@@ -33254,12 +33254,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J10,,TRUE)</f>
         <v>EURJump8_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L10" s="141">
-        <v>1</v>
-      </c>
-      <c r="M10" s="141">
+      <c r="L10" s="141" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M10" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K10,ROUND($L10,7))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N10" s="144"/>
       <c r="P10" s="166" t="s">
@@ -33283,13 +33283,13 @@
         <f>JumpDate9</f>
         <v>42398</v>
       </c>
-      <c r="D11" s="153">
+      <c r="D11" s="153" t="e">
         <f>JumpValue9</f>
-        <v>1</v>
-      </c>
-      <c r="E11" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E11" s="156" t="e">
         <f>JumpSize9</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F11" s="139"/>
       <c r="G11" s="143"/>
@@ -33305,12 +33305,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J11,,TRUE)</f>
         <v>EURJump9_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L11" s="141">
-        <v>1</v>
-      </c>
-      <c r="M11" s="141">
+      <c r="L11" s="141" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M11" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K11,ROUND($L11,7))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N11" s="144"/>
       <c r="P11" s="166" t="s">
@@ -33334,13 +33334,13 @@
         <f>JumpDate10</f>
         <v>42429</v>
       </c>
-      <c r="D12" s="153">
+      <c r="D12" s="153" t="e">
         <f>JumpValue10</f>
-        <v>0.98563001002356998</v>
-      </c>
-      <c r="E12" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E12" s="156" t="e">
         <f>JumpSize10</f>
-        <v>5.2107257464994792</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F12" s="139"/>
       <c r="G12" s="143"/>
@@ -33356,12 +33356,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J12,,TRUE)</f>
         <v>EURJump10_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L12" s="141">
-        <v>0.98563001002356998</v>
-      </c>
-      <c r="M12" s="141">
+      <c r="L12" s="141" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M12" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K12,ROUND($L12,7))</f>
-        <v>0.98563000000000001</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N12" s="144"/>
       <c r="P12" s="166" t="s">
@@ -33385,13 +33385,13 @@
         <f>JumpDate11</f>
         <v>42460</v>
       </c>
-      <c r="D13" s="153">
+      <c r="D13" s="153" t="e">
         <f>JumpValue11</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="156">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E13" s="156" t="e">
         <f>JumpSize11</f>
-        <v>0</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F13" s="139"/>
       <c r="G13" s="143"/>
@@ -33407,12 +33407,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J13,,TRUE)</f>
         <v>EURJump11_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L13" s="141">
-        <v>1</v>
-      </c>
-      <c r="M13" s="141">
+      <c r="L13" s="141" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M13" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K13,ROUND($L13,7))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N13" s="144"/>
       <c r="P13" s="166" t="s">
@@ -33436,13 +33436,13 @@
         <f>JumpDate12</f>
         <v>42489</v>
       </c>
-      <c r="D14" s="153">
+      <c r="D14" s="153" t="e">
         <f>JumpValue12</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E14" s="156" t="e">
         <f>JumpSize12</f>
-        <v>#NUM!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F14" s="139"/>
       <c r="G14" s="143"/>
@@ -33458,12 +33458,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J14,,TRUE)</f>
         <v>EURJump12_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L14" s="141">
-        <v>1</v>
-      </c>
-      <c r="M14" s="141">
+      <c r="L14" s="141" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M14" s="141" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K14,ROUND($L14,7))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N14" s="144"/>
       <c r="P14" s="166" t="s">
@@ -33483,17 +33483,17 @@
       <c r="B15" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="C15" s="39" t="e">
-        <f ca="1">JumpDate13</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D15" s="154">
+      <c r="C15" s="39">
+        <f>JumpDate13</f>
+        <v>42734</v>
+      </c>
+      <c r="D15" s="154" t="e">
         <f>JumpValue13</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E15" s="157" t="e">
-        <f ca="1">JumpSize13</f>
-        <v>#NUM!</v>
+        <f>JumpSize13</f>
+        <v>#VALUE!</v>
       </c>
       <c r="F15" s="42"/>
       <c r="G15" s="143"/>
@@ -33509,12 +33509,12 @@
         <f>_xll.qlSimpleQuote(Trigger,J15,,TRUE)</f>
         <v>EURJump13_SYNTHON_Quote#0000</v>
       </c>
-      <c r="L15" s="142">
-        <v>1</v>
-      </c>
-      <c r="M15" s="142">
+      <c r="L15" s="142" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="M15" s="142" t="e">
         <f>_xll.qlSimpleQuoteSetValue(EvaluationDate,$K15,ROUND($L15,7))</f>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="N15" s="144"/>
       <c r="P15" s="166" t="s">
